--- a/filters.xlsx
+++ b/filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1130" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A8F3714D-7399-45E4-AADC-AA7D88607BB7}"/>
+  <xr:revisionPtr revIDLastSave="1428" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{01118DC3-D769-40FA-97CD-C57E73771127}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="726">
   <si>
     <t>Filter</t>
   </si>
@@ -1075,9 +1075,6 @@
     <t>^rotator^$domain=pless-intermedia.pl</t>
   </si>
   <si>
-    <t>check for more</t>
-  </si>
-  <si>
     <t>||baner.$domain=24piaseczno.pl|24slupsk.pl|bedzinski24.pl|belchatowski24.pl|bielskonews.pl|chrzanowski24.pl|ciechanowski24.pl|cieszynonline.pl|czestochowanews.pl|dabrowski24.pl|e-starachowice.pl|echobialystok.pl|echolegnica.pl|echowarszawy.pl|elblagonline.pl|elckie.pl|faktybytom.pl|faktykrakowa.pl|faktyopole.pl|faktypoznan.pl|faktyrzeszow.pl|faktywroclaw.pl|gizycko360.pl|gliwiceonline.pl|glogowski24.pl|glosgdanska.pl|grodziski24.pl|halokonin.pl|halotorun.pl|infochelm.pl|infojaworzno.pl|infolomza.pl|infopabianice.pl|infopiotrkow.pl|informacjekoszalin.pl|informacjelodzkie.pl|inforuda.pl|inowroclawskie.pl|irybnik.pl|jastrzebienews.pl|katowicelove.pl|kielceinfo.pl|kochamsiedlce.pl|krzeszowiceinfo.pl|leszczynski24.pl|lubinski24.pl|lubliniec360.pl|mieleceu.pl|minski24.pl|mojgorzow.pl|mojwloclawek.pl|mojzgierz.pl|myslowicki24.pl|naszkedzierzyn.pl|newsynowodworskie.pl|nowosadecki24.pl|olkuszonline.pl|ostrolecki24.pl|oswieciminfo.pl|otososnowiec.pl|owlkp.pl|piekaryonline.pl|portalkalisz.pl|portalwalbrzych.pl|portalzielonagora.pl|portalzory.pl|przemyslonline.pl|pulsbydgoszczy.pl|raciborski24.pl|siemianowicki24.pl|stalowanews.pl|stargardlokalnie.pl|suwalkinews.pl|swidnicanews.pl|swietochlowiceonline.pl|szczecin4u.pl|tarnowskie24.pl|terazgniezno.pl|tomaszowonline.pl|tuzamosc.pl|twojagdynia.pl|twojelegionowo.pl|wejherowski24.pl|wiadomoscilublin.pl|wiadomosciolsztyn.pl|wiadomosciplock.pl|wiadomosciwadowice.pl|wostrowcu.pl|wpruszkowie.pl|wrotachorzowa.pl|wrotagrudziadza.pl|wrotatarnowa.pl|wrotazabrza.pl|zawiercieonline.pl|zywieconline.pl</t>
   </si>
   <si>
@@ -1925,6 +1922,294 @@
   </si>
   <si>
     <t>hp</t>
+  </si>
+  <si>
+    <t>http://portaltatrzanski.pl/</t>
+  </si>
+  <si>
+    <t>https://businessinsider.com.pl/finanse/handel/przyszlosc-hipermarketow-tesco-carrefour-auchan-kaufland/y2j7447</t>
+  </si>
+  <si>
+    <t>https://www.polsatnews.pl/</t>
+  </si>
+  <si>
+    <t>https://www.polsatsport.pl/</t>
+  </si>
+  <si>
+    <t>http://www.arka.tv/</t>
+  </si>
+  <si>
+    <t>https://www.automatyka.pl/</t>
+  </si>
+  <si>
+    <t>businessinsider.com.pl##.adSlotWidget</t>
+  </si>
+  <si>
+    <t>portaltatrzanski.pl##.promoadv</t>
+  </si>
+  <si>
+    <t>uzz.thrash.pl/file^$image,domain=arka.tv</t>
+  </si>
+  <si>
+    <t>https://dziennikpolski24.pl/w-wielickiej-strefie-aktywnosci-gospodarczej-kokotow-brzegi-ulokuje-sie-znana-marka-modowa-answearcom-zatrudnia-1300-osob/ar/c3-14278359</t>
+  </si>
+  <si>
+    <t>||stat24.com^*/ado.js|$script,domain=polsatsport.pl|polsatnews.pl</t>
+  </si>
+  <si>
+    <t>dziennikpolski24.pl##[id^="dfp-"]:not([id])</t>
+  </si>
+  <si>
+    <t>||dziennikpolski24.pl^*/ads?$script,xmlhttprequest,domain=dziennikpolski24.pl</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>https://www.automotivesuppliers.pl/pl/europa/ruszyla-produkcja-opla-grandlanda-x-w-eisenach</t>
+  </si>
+  <si>
+    <t>||automotivesuppliers.pl^*^djmediatools^*-lewa-kolumna-</t>
+  </si>
+  <si>
+    <t>||automotivesuppliers.pl^*^30_stare_banery_prawa_kolumna^</t>
+  </si>
+  <si>
+    <t>automotivesuppliers.pl##img[width="370"][height="140"]</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>||betonline.net.pl^*^sts29.</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>https://oddslivesport.com/pl</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>automatyka.pl##.advertHd + div</t>
+  </si>
+  <si>
+    <t>https://www.laboratoria.xtech.pl/</t>
+  </si>
+  <si>
+    <t>||automatyka.pl/as^$image</t>
+  </si>
+  <si>
+    <t>||laboratoria.xtech.pl/as^$image</t>
+  </si>
+  <si>
+    <t>laboratoria.xtech.pl##.advertHd + div</t>
+  </si>
+  <si>
+    <t>https://www.4lomza.pl/</t>
+  </si>
+  <si>
+    <t>4lomza.pl###banner-slider</t>
+  </si>
+  <si>
+    <t>http://tkn24.pl/</t>
+  </si>
+  <si>
+    <t>tkn24.pl##.textwidget &gt; center &gt; a[target="_blank"]:not([href^="http://tkn24.pl/"])</t>
+  </si>
+  <si>
+    <t>tkn24.pl#?#center:-abp-has(font:-abp-contains(REKLAMA))</t>
+  </si>
+  <si>
+    <t>||tkn24.pl^*^a_szejna_internet_</t>
+  </si>
+  <si>
+    <t>||tkn24.pl^*^CichockiDajczer-</t>
+  </si>
+  <si>
+    <t>https://meczelive.tv/</t>
+  </si>
+  <si>
+    <t>https://epilka.pl/</t>
+  </si>
+  <si>
+    <t>||epilka.pl^*^player_canal.</t>
+  </si>
+  <si>
+    <t>https://meczelive.tv</t>
+  </si>
+  <si>
+    <t>https://www.mecze.com/</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>https://estadios.pl/</t>
+  </si>
+  <si>
+    <t>||mecze.com^*^player-f1-</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>https://www.gwiazdybasketu.pl/</t>
+  </si>
+  <si>
+    <t>https://typersi.pl/</t>
+  </si>
+  <si>
+    <t>https://www.tabletowo.pl/</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>||tabletowo.pl^*-banery_1200x300-</t>
+  </si>
+  <si>
+    <t>https://worldofbookmakers.com/live</t>
+  </si>
+  <si>
+    <t>https://www.mecze24.pl/</t>
+  </si>
+  <si>
+    <t>^300^$domain=kuszotv.pl|oddslivesport.com|meczelive.tv|epilka.pl|mecze.com|worldofbookmakers.com|mecze24.pl</t>
+  </si>
+  <si>
+    <t>^728^$domain=kuszotv.pl|oddslivesport.com|meczelive.tv|epilka.pl|mecze.com|worldofbookmakers.com|mecze24.pl</t>
+  </si>
+  <si>
+    <t>^468^$image,domain=kuszotv.pl|meczenazywo.pl</t>
+  </si>
+  <si>
+    <t>https://www.meczenazywo.pl/</t>
+  </si>
+  <si>
+    <t>||worldofbookmakers.com^*^sts300.</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>with /new/</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>with /imghttps/</t>
+  </si>
+  <si>
+    <t>https://www.sokolka.tv/</t>
+  </si>
+  <si>
+    <t>http://www.nasza-kobieca-strefa.iq24.pl/</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>http://www.cnnb.iq24.pl/</t>
+  </si>
+  <si>
+    <t>http://www.sp7pki.iq24.pl</t>
+  </si>
+  <si>
+    <t>http://www.grecja.iq24.pl/</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>http://www.forumnajlepszekredyty.iq24.pl/</t>
+  </si>
+  <si>
+    <t>||doaffiliate.net^$image,domain=iq24.pl</t>
+  </si>
+  <si>
+    <t>||afiliant.com^$subdocument,domain=iq24.pl</t>
+  </si>
+  <si>
+    <t>||mojelisty.com^*^gielda002.</t>
+  </si>
+  <si>
+    <t>||adfreestyle.pl^$script,domain=iq24.pl</t>
+  </si>
+  <si>
+    <t>||financecdn.com^$image,domain=iq24.pl</t>
+  </si>
+  <si>
+    <t>https://seksopowiadania.blogi.pl/</t>
+  </si>
+  <si>
+    <t>||programpartnerski.intymnosc.pl^$image,domain=blogi.pl</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>https://mavelo.pl/</t>
+  </si>
+  <si>
+    <t>||ec.bankier.pl^$domain=mavelo.pl</t>
+  </si>
+  <si>
+    <t>||gwiazdybasketu.pl^*^kicksmaniacgwba0419-</t>
+  </si>
+  <si>
+    <t>||gwiazdybasketu.pl^*^basketzonepl-</t>
+  </si>
+  <si>
+    <t>||gwiazdybasketu.pl^*^greatone1218-</t>
+  </si>
+  <si>
+    <t>||gwiazdybasketu.pl^*^21promog1-</t>
+  </si>
+  <si>
+    <t>152</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2045,12 +2330,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2264,148 +2694,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2425,23 +2713,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:L646" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L646" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:L650" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:L650" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Filter" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{BBBFDBF0-1399-4DE4-B5F0-6E30770F3CC4}" name="Type" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Push" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fix" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{F46A69CC-7704-4110-83F9-1118153E7962}" name="Filter-fix" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Filter" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{BBBFDBF0-1399-4DE4-B5F0-6E30770F3CC4}" name="Type" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Push" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fix" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{F46A69CC-7704-4110-83F9-1118153E7962}" name="Filter-fix" dataDxfId="13">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{33D43F69-BB91-4A60-B234-2EF06EC445E3}" name="Type-fix" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{D97C0A98-B6D4-4D1B-84DD-D433C9B55CFC}" name="Marked" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{33D43F69-BB91-4A60-B234-2EF06EC445E3}" name="Type-fix" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{D97C0A98-B6D4-4D1B-84DD-D433C9B55CFC}" name="Marked" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2744,11 +3032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC646"/>
+  <dimension ref="A1:XFC650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B189" sqref="B189"/>
+      <selection pane="topRight" activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2770,7 +3058,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2800,7 +3088,7 @@
         <v>338</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>337</v>
@@ -2869,7 +3157,7 @@
         <v>334</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2995,7 +3283,7 @@
         <v>333</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3513,7 +3801,7 @@
         <v>7</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>334</v>
@@ -3759,7 +4047,7 @@
         <v>7</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>333</v>
@@ -3789,7 +4077,7 @@
         <v>7</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>334</v>
@@ -3823,7 +4111,7 @@
         <v>7</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>334</v>
@@ -3853,13 +4141,13 @@
         <v>7</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>333</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:16383" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3889,7 +4177,7 @@
         <v>7</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>333</v>
@@ -20293,7 +20581,7 @@
         <v>7</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>333</v>
@@ -36801,7 +37089,7 @@
         <v>7</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>333</v>
@@ -38859,10 +39147,10 @@
         <v>7</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>2</v>
+        <v>627</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>2</v>
@@ -38891,10 +39179,10 @@
         <v>7</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>2</v>
+        <v>626</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>2</v>
@@ -38923,8 +39211,8 @@
         <v>7</v>
       </c>
       <c r="F116" s="3"/>
-      <c r="G116" s="3" t="s">
-        <v>2</v>
+      <c r="G116" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>2</v>
@@ -38951,7 +39239,7 @@
       <c r="F117" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H117" s="3" t="s">
@@ -38981,8 +39269,8 @@
         <v>7</v>
       </c>
       <c r="F118" s="3"/>
-      <c r="G118" s="3" t="s">
-        <v>2</v>
+      <c r="G118" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>2</v>
@@ -39011,8 +39299,8 @@
         <v>7</v>
       </c>
       <c r="F119" s="3"/>
-      <c r="G119" s="3" t="s">
-        <v>2</v>
+      <c r="G119" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>2</v>
@@ -39037,8 +39325,8 @@
         <v>7</v>
       </c>
       <c r="F120" s="3"/>
-      <c r="G120" s="3" t="s">
-        <v>2</v>
+      <c r="G120" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>2</v>
@@ -39063,8 +39351,8 @@
         <v>7</v>
       </c>
       <c r="F121" s="3"/>
-      <c r="G121" s="3" t="s">
-        <v>2</v>
+      <c r="G121" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>2</v>
@@ -39093,8 +39381,8 @@
         <v>7</v>
       </c>
       <c r="F122" s="3"/>
-      <c r="G122" s="3" t="s">
-        <v>2</v>
+      <c r="G122" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>2</v>
@@ -39119,8 +39407,8 @@
         <v>7</v>
       </c>
       <c r="F123" s="3"/>
-      <c r="G123" s="3" t="s">
-        <v>2</v>
+      <c r="G123" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>2</v>
@@ -39149,8 +39437,8 @@
         <v>7</v>
       </c>
       <c r="F124" s="3"/>
-      <c r="G124" s="3" t="s">
-        <v>2</v>
+      <c r="G124" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>2</v>
@@ -39175,8 +39463,8 @@
         <v>7</v>
       </c>
       <c r="F125" s="3"/>
-      <c r="G125" s="3" t="s">
-        <v>2</v>
+      <c r="G125" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>2</v>
@@ -39201,8 +39489,8 @@
         <v>7</v>
       </c>
       <c r="F126" s="3"/>
-      <c r="G126" s="3" t="s">
-        <v>2</v>
+      <c r="G126" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>2</v>
@@ -39227,8 +39515,8 @@
         <v>7</v>
       </c>
       <c r="F127" s="3"/>
-      <c r="G127" s="3" t="s">
-        <v>2</v>
+      <c r="G127" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>2</v>
@@ -39257,8 +39545,8 @@
         <v>7</v>
       </c>
       <c r="F128" s="3"/>
-      <c r="G128" s="3" t="s">
-        <v>2</v>
+      <c r="G128" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>2</v>
@@ -39287,8 +39575,8 @@
         <v>7</v>
       </c>
       <c r="F129" s="3"/>
-      <c r="G129" s="3" t="s">
-        <v>2</v>
+      <c r="G129" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>2</v>
@@ -39317,8 +39605,8 @@
         <v>7</v>
       </c>
       <c r="F130" s="3"/>
-      <c r="G130" s="3" t="s">
-        <v>2</v>
+      <c r="G130" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>2</v>
@@ -39343,8 +39631,8 @@
         <v>7</v>
       </c>
       <c r="F131" s="3"/>
-      <c r="G131" s="3" t="s">
-        <v>2</v>
+      <c r="G131" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>2</v>
@@ -39369,8 +39657,8 @@
         <v>7</v>
       </c>
       <c r="F132" s="3"/>
-      <c r="G132" s="3" t="s">
-        <v>2</v>
+      <c r="G132" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>2</v>
@@ -39399,8 +39687,8 @@
         <v>7</v>
       </c>
       <c r="F133" s="3"/>
-      <c r="G133" s="3" t="s">
-        <v>2</v>
+      <c r="G133" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>2</v>
@@ -39431,8 +39719,8 @@
       <c r="F134" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G134" s="3" t="s">
-        <v>2</v>
+      <c r="G134" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>2</v>
@@ -39463,8 +39751,8 @@
       <c r="F135" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G135" s="3" t="s">
-        <v>2</v>
+      <c r="G135" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>2</v>
@@ -39495,8 +39783,8 @@
       <c r="F136" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G136" s="3" t="s">
-        <v>2</v>
+      <c r="G136" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>2</v>
@@ -39521,8 +39809,8 @@
         <v>7</v>
       </c>
       <c r="F137" s="3"/>
-      <c r="G137" s="3" t="s">
-        <v>2</v>
+      <c r="G137" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>2</v>
@@ -39551,8 +39839,8 @@
         <v>7</v>
       </c>
       <c r="F138" s="3"/>
-      <c r="G138" s="3" t="s">
-        <v>2</v>
+      <c r="G138" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>2</v>
@@ -39577,8 +39865,8 @@
         <v>7</v>
       </c>
       <c r="F139" s="3"/>
-      <c r="G139" s="3" t="s">
-        <v>2</v>
+      <c r="G139" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>2</v>
@@ -39607,8 +39895,8 @@
         <v>7</v>
       </c>
       <c r="F140" s="3"/>
-      <c r="G140" s="3" t="s">
-        <v>2</v>
+      <c r="G140" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>2</v>
@@ -39637,8 +39925,8 @@
         <v>7</v>
       </c>
       <c r="F141" s="3"/>
-      <c r="G141" s="3" t="s">
-        <v>2</v>
+      <c r="G141" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>2</v>
@@ -39667,8 +39955,8 @@
         <v>7</v>
       </c>
       <c r="F142" s="3"/>
-      <c r="G142" s="3" t="s">
-        <v>2</v>
+      <c r="G142" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>2</v>
@@ -39691,8 +39979,8 @@
         <v>7</v>
       </c>
       <c r="F143" s="3"/>
-      <c r="G143" s="3" t="s">
-        <v>2</v>
+      <c r="G143" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>2</v>
@@ -39721,8 +40009,8 @@
         <v>7</v>
       </c>
       <c r="F144" s="3"/>
-      <c r="G144" s="3" t="s">
-        <v>2</v>
+      <c r="G144" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>2</v>
@@ -39747,8 +40035,8 @@
         <v>7</v>
       </c>
       <c r="F145" s="3"/>
-      <c r="G145" s="3" t="s">
-        <v>2</v>
+      <c r="G145" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>2</v>
@@ -39773,8 +40061,8 @@
         <v>7</v>
       </c>
       <c r="F146" s="3"/>
-      <c r="G146" s="3" t="s">
-        <v>2</v>
+      <c r="G146" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>2</v>
@@ -39799,8 +40087,8 @@
         <v>7</v>
       </c>
       <c r="F147" s="3"/>
-      <c r="G147" s="3" t="s">
-        <v>2</v>
+      <c r="G147" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>2</v>
@@ -39825,8 +40113,8 @@
         <v>7</v>
       </c>
       <c r="F148" s="3"/>
-      <c r="G148" s="3" t="s">
-        <v>2</v>
+      <c r="G148" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>2</v>
@@ -39855,8 +40143,8 @@
         <v>7</v>
       </c>
       <c r="F149" s="3"/>
-      <c r="G149" s="3" t="s">
-        <v>2</v>
+      <c r="G149" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>2</v>
@@ -39879,8 +40167,8 @@
         <v>7</v>
       </c>
       <c r="F150" s="3"/>
-      <c r="G150" s="3" t="s">
-        <v>2</v>
+      <c r="G150" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>2</v>
@@ -39903,8 +40191,8 @@
         <v>7</v>
       </c>
       <c r="F151" s="3"/>
-      <c r="G151" s="3" t="s">
-        <v>2</v>
+      <c r="G151" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>2</v>
@@ -39933,8 +40221,8 @@
         <v>7</v>
       </c>
       <c r="F152" s="3"/>
-      <c r="G152" s="3" t="s">
-        <v>2</v>
+      <c r="G152" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>2</v>
@@ -39959,8 +40247,8 @@
         <v>7</v>
       </c>
       <c r="F153" s="3"/>
-      <c r="G153" s="3" t="s">
-        <v>2</v>
+      <c r="G153" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>2</v>
@@ -39985,8 +40273,8 @@
         <v>7</v>
       </c>
       <c r="F154" s="3"/>
-      <c r="G154" s="3" t="s">
-        <v>2</v>
+      <c r="G154" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>2</v>
@@ -40017,7 +40305,7 @@
       <c r="F155" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G155" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H155" s="3" t="s">
@@ -40047,8 +40335,8 @@
         <v>7</v>
       </c>
       <c r="F156" s="3"/>
-      <c r="G156" s="3" t="s">
-        <v>2</v>
+      <c r="G156" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>2</v>
@@ -40077,8 +40365,8 @@
         <v>7</v>
       </c>
       <c r="F157" s="3"/>
-      <c r="G157" s="3" t="s">
-        <v>2</v>
+      <c r="G157" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>2</v>
@@ -40107,8 +40395,8 @@
         <v>7</v>
       </c>
       <c r="F158" s="3"/>
-      <c r="G158" s="3" t="s">
-        <v>2</v>
+      <c r="G158" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>2</v>
@@ -40131,8 +40419,8 @@
         <v>7</v>
       </c>
       <c r="F159" s="3"/>
-      <c r="G159" s="3" t="s">
-        <v>2</v>
+      <c r="G159" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>2</v>
@@ -40155,8 +40443,8 @@
         <v>7</v>
       </c>
       <c r="F160" s="3"/>
-      <c r="G160" s="3" t="s">
-        <v>2</v>
+      <c r="G160" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>2</v>
@@ -40179,8 +40467,8 @@
         <v>7</v>
       </c>
       <c r="F161" s="3"/>
-      <c r="G161" s="3" t="s">
-        <v>2</v>
+      <c r="G161" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>2</v>
@@ -40203,8 +40491,8 @@
         <v>7</v>
       </c>
       <c r="F162" s="3"/>
-      <c r="G162" s="3" t="s">
-        <v>2</v>
+      <c r="G162" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>2</v>
@@ -40233,8 +40521,8 @@
         <v>7</v>
       </c>
       <c r="F163" s="3"/>
-      <c r="G163" s="3" t="s">
-        <v>2</v>
+      <c r="G163" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>2</v>
@@ -40257,8 +40545,8 @@
         <v>7</v>
       </c>
       <c r="F164" s="3"/>
-      <c r="G164" s="3" t="s">
-        <v>2</v>
+      <c r="G164" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>2</v>
@@ -40281,8 +40569,8 @@
         <v>7</v>
       </c>
       <c r="F165" s="3"/>
-      <c r="G165" s="3" t="s">
-        <v>2</v>
+      <c r="G165" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>2</v>
@@ -40305,8 +40593,8 @@
         <v>7</v>
       </c>
       <c r="F166" s="3"/>
-      <c r="G166" s="3" t="s">
-        <v>2</v>
+      <c r="G166" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>2</v>
@@ -40329,8 +40617,8 @@
         <v>7</v>
       </c>
       <c r="F167" s="3"/>
-      <c r="G167" s="3" t="s">
-        <v>2</v>
+      <c r="G167" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>2</v>
@@ -40353,8 +40641,8 @@
         <v>7</v>
       </c>
       <c r="F168" s="3"/>
-      <c r="G168" s="3" t="s">
-        <v>2</v>
+      <c r="G168" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>2</v>
@@ -40385,7 +40673,7 @@
       <c r="F169" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G169" s="3" t="s">
+      <c r="G169" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H169" s="3" t="s">
@@ -40415,8 +40703,8 @@
         <v>7</v>
       </c>
       <c r="F170" s="3"/>
-      <c r="G170" s="3" t="s">
-        <v>2</v>
+      <c r="G170" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>2</v>
@@ -40445,8 +40733,8 @@
         <v>7</v>
       </c>
       <c r="F171" s="3"/>
-      <c r="G171" s="3" t="s">
-        <v>2</v>
+      <c r="G171" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>2</v>
@@ -40471,8 +40759,8 @@
         <v>7</v>
       </c>
       <c r="F172" s="4"/>
-      <c r="G172" s="3" t="s">
-        <v>2</v>
+      <c r="G172" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>2</v>
@@ -40497,8 +40785,8 @@
         <v>7</v>
       </c>
       <c r="F173" s="4"/>
-      <c r="G173" s="3" t="s">
-        <v>2</v>
+      <c r="G173" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>2</v>
@@ -40527,8 +40815,8 @@
         <v>7</v>
       </c>
       <c r="F174" s="3"/>
-      <c r="G174" s="3" t="s">
-        <v>2</v>
+      <c r="G174" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>2</v>
@@ -40557,8 +40845,8 @@
         <v>7</v>
       </c>
       <c r="F175" s="3"/>
-      <c r="G175" s="3" t="s">
-        <v>2</v>
+      <c r="G175" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H175" s="3" t="s">
         <v>2</v>
@@ -40587,8 +40875,8 @@
         <v>7</v>
       </c>
       <c r="F176" s="3"/>
-      <c r="G176" s="3" t="s">
-        <v>2</v>
+      <c r="G176" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>2</v>
@@ -40617,8 +40905,8 @@
         <v>7</v>
       </c>
       <c r="F177" s="3"/>
-      <c r="G177" s="3" t="s">
-        <v>2</v>
+      <c r="G177" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H177" s="3" t="s">
         <v>2</v>
@@ -40649,8 +40937,8 @@
       <c r="F178" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G178" s="3" t="s">
-        <v>2</v>
+      <c r="G178" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>2</v>
@@ -40673,8 +40961,8 @@
         <v>7</v>
       </c>
       <c r="F179" s="3"/>
-      <c r="G179" s="3" t="s">
-        <v>2</v>
+      <c r="G179" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>2</v>
@@ -40703,8 +40991,8 @@
         <v>7</v>
       </c>
       <c r="F180" s="3"/>
-      <c r="G180" s="3" t="s">
-        <v>2</v>
+      <c r="G180" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>2</v>
@@ -40733,8 +41021,8 @@
         <v>7</v>
       </c>
       <c r="F181" s="3"/>
-      <c r="G181" s="3" t="s">
-        <v>2</v>
+      <c r="G181" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>2</v>
@@ -40763,8 +41051,8 @@
         <v>7</v>
       </c>
       <c r="F182" s="3"/>
-      <c r="G182" s="3" t="s">
-        <v>2</v>
+      <c r="G182" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>2</v>
@@ -40793,8 +41081,8 @@
         <v>7</v>
       </c>
       <c r="F183" s="3"/>
-      <c r="G183" s="3" t="s">
-        <v>2</v>
+      <c r="G183" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>2</v>
@@ -40823,10 +41111,10 @@
         <v>7</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>2</v>
+        <v>628</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>2</v>
@@ -40855,8 +41143,8 @@
         <v>7</v>
       </c>
       <c r="F185" s="3"/>
-      <c r="G185" s="3" t="s">
-        <v>2</v>
+      <c r="G185" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>2</v>
@@ -40885,8 +41173,8 @@
         <v>7</v>
       </c>
       <c r="F186" s="3"/>
-      <c r="G186" s="3" t="s">
-        <v>2</v>
+      <c r="G186" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>2</v>
@@ -40909,8 +41197,8 @@
         <v>7</v>
       </c>
       <c r="F187" s="3"/>
-      <c r="G187" s="3" t="s">
-        <v>2</v>
+      <c r="G187" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>2</v>
@@ -40939,8 +41227,8 @@
         <v>7</v>
       </c>
       <c r="F188" s="3"/>
-      <c r="G188" s="3" t="s">
-        <v>2</v>
+      <c r="G188" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>2</v>
@@ -40963,8 +41251,8 @@
         <v>7</v>
       </c>
       <c r="F189" s="3"/>
-      <c r="G189" s="3" t="s">
-        <v>2</v>
+      <c r="G189" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>2</v>
@@ -40993,8 +41281,8 @@
         <v>7</v>
       </c>
       <c r="F190" s="3"/>
-      <c r="G190" s="3" t="s">
-        <v>2</v>
+      <c r="G190" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>2</v>
@@ -41023,8 +41311,8 @@
         <v>7</v>
       </c>
       <c r="F191" s="3"/>
-      <c r="G191" s="3" t="s">
-        <v>2</v>
+      <c r="G191" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>2</v>
@@ -41049,8 +41337,8 @@
         <v>7</v>
       </c>
       <c r="F192" s="3"/>
-      <c r="G192" s="3" t="s">
-        <v>2</v>
+      <c r="G192" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>2</v>
@@ -41075,8 +41363,8 @@
         <v>7</v>
       </c>
       <c r="F193" s="3"/>
-      <c r="G193" s="3" t="s">
-        <v>2</v>
+      <c r="G193" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>2</v>
@@ -41105,8 +41393,8 @@
         <v>7</v>
       </c>
       <c r="F194" s="3"/>
-      <c r="G194" s="3" t="s">
-        <v>2</v>
+      <c r="G194" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>2</v>
@@ -41135,8 +41423,8 @@
         <v>7</v>
       </c>
       <c r="F195" s="3"/>
-      <c r="G195" s="3" t="s">
-        <v>2</v>
+      <c r="G195" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>2</v>
@@ -41167,7 +41455,7 @@
       <c r="F196" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="G196" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H196" s="3" t="s">
@@ -41197,8 +41485,8 @@
         <v>7</v>
       </c>
       <c r="F197" s="3"/>
-      <c r="G197" s="3" t="s">
-        <v>2</v>
+      <c r="G197" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>2</v>
@@ -41227,8 +41515,8 @@
         <v>7</v>
       </c>
       <c r="F198" s="3"/>
-      <c r="G198" s="3" t="s">
-        <v>2</v>
+      <c r="G198" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>2</v>
@@ -41257,10 +41545,10 @@
         <v>7</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>2</v>
+        <v>629</v>
+      </c>
+      <c r="G199" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>2</v>
@@ -41285,8 +41573,8 @@
         <v>7</v>
       </c>
       <c r="F200" s="3"/>
-      <c r="G200" s="3" t="s">
-        <v>2</v>
+      <c r="G200" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>2</v>
@@ -41317,8 +41605,8 @@
       <c r="F201" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G201" s="3" t="s">
-        <v>2</v>
+      <c r="G201" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>2</v>
@@ -41343,8 +41631,8 @@
         <v>7</v>
       </c>
       <c r="F202" s="3"/>
-      <c r="G202" s="3" t="s">
-        <v>2</v>
+      <c r="G202" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>2</v>
@@ -41369,8 +41657,8 @@
         <v>7</v>
       </c>
       <c r="F203" s="3"/>
-      <c r="G203" s="3" t="s">
-        <v>2</v>
+      <c r="G203" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>2</v>
@@ -41399,8 +41687,8 @@
         <v>7</v>
       </c>
       <c r="F204" s="3"/>
-      <c r="G204" s="3" t="s">
-        <v>2</v>
+      <c r="G204" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>2</v>
@@ -41425,8 +41713,8 @@
         <v>7</v>
       </c>
       <c r="F205" s="3"/>
-      <c r="G205" s="3" t="s">
-        <v>2</v>
+      <c r="G205" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>2</v>
@@ -41452,7 +41740,7 @@
       </c>
       <c r="F206" s="12"/>
       <c r="G206" s="12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H206" s="12" t="s">
         <v>2</v>
@@ -41468,10 +41756,12 @@
       <c r="A207" s="8">
         <v>127</v>
       </c>
-      <c r="B207" s="3"/>
+      <c r="B207" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="C207" s="3"/>
       <c r="D207" s="1" t="s">
-        <v>324</v>
+        <v>630</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>2</v>
@@ -41491,8 +41781,12 @@
       <c r="L207" s="3"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A208" s="8"/>
-      <c r="B208" s="3"/>
+      <c r="A208" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>658</v>
+      </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
         <v>31</v>
@@ -41515,17 +41809,21 @@
       <c r="L208" s="3"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A209" s="8"/>
-      <c r="B209" s="3"/>
+      <c r="A209" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>636</v>
+      </c>
       <c r="C209" s="3"/>
-      <c r="D209" s="3" t="s">
-        <v>33</v>
+      <c r="D209" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>347</v>
+        <v>256</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>2</v>
@@ -41541,10 +41839,16 @@
       <c r="L209" s="3"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A210" s="8"/>
-      <c r="B210" s="3"/>
+      <c r="A210" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>640</v>
+      </c>
       <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
+      <c r="D210" s="18" t="s">
+        <v>632</v>
+      </c>
       <c r="E210" s="3" t="s">
         <v>2</v>
       </c>
@@ -41566,7 +41870,9 @@
       <c r="A211" s="8"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
+      <c r="D211" s="18" t="s">
+        <v>633</v>
+      </c>
       <c r="E211" s="3" t="s">
         <v>2</v>
       </c>
@@ -41585,10 +41891,16 @@
       <c r="L211" s="3"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A212" s="8"/>
-      <c r="B212" s="3"/>
+      <c r="A212" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>638</v>
+      </c>
       <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
+      <c r="D212" s="1" t="s">
+        <v>634</v>
+      </c>
       <c r="E212" s="3" t="s">
         <v>2</v>
       </c>
@@ -41607,10 +41919,16 @@
       <c r="L212" s="3"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A213" s="8"/>
-      <c r="B213" s="3"/>
+      <c r="A213" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>664</v>
+      </c>
       <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
+      <c r="D213" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="E213" s="3" t="s">
         <v>2</v>
       </c>
@@ -41630,13 +41948,15 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="8"/>
-      <c r="B214" s="3"/>
+      <c r="B214" s="3" t="s">
+        <v>662</v>
+      </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F214" s="3"/>
+      <c r="F214" s="4"/>
       <c r="G214" s="3" t="s">
         <v>2</v>
       </c>
@@ -41651,10 +41971,16 @@
       <c r="L214" s="3"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A215" s="8"/>
-      <c r="B215" s="3"/>
+      <c r="A215" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>665</v>
+      </c>
       <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
+      <c r="D215" s="1" t="s">
+        <v>663</v>
+      </c>
       <c r="E215" s="3" t="s">
         <v>2</v>
       </c>
@@ -41674,7 +42000,9 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
-      <c r="B216" s="3"/>
+      <c r="B216" s="3" t="s">
+        <v>666</v>
+      </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
@@ -41695,10 +42023,16 @@
       <c r="L216" s="3"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A217" s="8"/>
-      <c r="B217" s="3"/>
+      <c r="A217" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>642</v>
+      </c>
       <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
+      <c r="D217" s="1" t="s">
+        <v>639</v>
+      </c>
       <c r="E217" s="3" t="s">
         <v>2</v>
       </c>
@@ -41718,13 +42052,17 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
-      <c r="B218" s="3"/>
+      <c r="B218" s="3" t="s">
+        <v>641</v>
+      </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F218" s="3"/>
+        <v>199</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="G218" s="3" t="s">
         <v>2</v>
       </c>
@@ -41739,14 +42077,20 @@
       <c r="L218" s="3"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A219" s="8"/>
-      <c r="B219" s="3"/>
+      <c r="A219" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>654</v>
+      </c>
       <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
+      <c r="D219" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="E219" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F219" s="3"/>
+      <c r="F219" s="4"/>
       <c r="G219" s="3" t="s">
         <v>2</v>
       </c>
@@ -41762,13 +42106,17 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
-      <c r="B220" s="3"/>
+      <c r="B220" s="3" t="s">
+        <v>655</v>
+      </c>
       <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
+      <c r="D220" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E220" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F220" s="3"/>
+      <c r="F220" s="4"/>
       <c r="G220" s="3" t="s">
         <v>2</v>
       </c>
@@ -41784,7 +42132,9 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
-      <c r="B221" s="3"/>
+      <c r="B221" s="3" t="s">
+        <v>656</v>
+      </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3" t="s">
@@ -41805,10 +42155,16 @@
       <c r="L221" s="3"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A222" s="8"/>
-      <c r="B222" s="3"/>
+      <c r="A222" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>670</v>
+      </c>
       <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
+      <c r="D222" s="1" t="s">
+        <v>669</v>
+      </c>
       <c r="E222" s="3" t="s">
         <v>2</v>
       </c>
@@ -41828,13 +42184,17 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="8"/>
-      <c r="B223" s="3"/>
+      <c r="B223" s="3" t="s">
+        <v>671</v>
+      </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F223" s="3"/>
+      <c r="F223" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="G223" s="3" t="s">
         <v>2</v>
       </c>
@@ -41850,7 +42210,9 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
-      <c r="B224" s="3"/>
+      <c r="B224" s="3" t="s">
+        <v>672</v>
+      </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3" t="s">
@@ -41872,7 +42234,9 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
-      <c r="B225" s="3"/>
+      <c r="B225" s="3" t="s">
+        <v>673</v>
+      </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
@@ -41893,10 +42257,16 @@
       <c r="L225" s="3"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A226" s="8"/>
-      <c r="B226" s="3"/>
+      <c r="A226" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>668</v>
+      </c>
       <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
+      <c r="D226" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="E226" s="3" t="s">
         <v>2</v>
       </c>
@@ -41915,14 +42285,22 @@
       <c r="L226" s="3"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A227" s="8"/>
-      <c r="B227" s="3"/>
+      <c r="A227" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>690</v>
+      </c>
       <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
+      <c r="D227" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="E227" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F227" s="3"/>
+      <c r="F227" s="3" t="s">
+        <v>696</v>
+      </c>
       <c r="G227" s="3" t="s">
         <v>2</v>
       </c>
@@ -41940,11 +42318,15 @@
       <c r="A228" s="8"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
+      <c r="D228" s="1" t="s">
+        <v>660</v>
+      </c>
       <c r="E228" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F228" s="3"/>
+      <c r="F228" s="3" t="s">
+        <v>697</v>
+      </c>
       <c r="G228" s="3" t="s">
         <v>2</v>
       </c>
@@ -41962,11 +42344,15 @@
       <c r="A229" s="8"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
+      <c r="D229" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="E229" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F229" s="3"/>
+      <c r="F229" s="3" t="s">
+        <v>698</v>
+      </c>
       <c r="G229" s="3" t="s">
         <v>2</v>
       </c>
@@ -41984,7 +42370,9 @@
       <c r="A230" s="8"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
+      <c r="D230" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="E230" s="3" t="s">
         <v>2</v>
       </c>
@@ -42006,7 +42394,9 @@
       <c r="A231" s="8"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
+      <c r="D231" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="E231" s="3" t="s">
         <v>2</v>
       </c>
@@ -42028,7 +42418,9 @@
       <c r="A232" s="8"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
+      <c r="D232" s="1" t="s">
+        <v>689</v>
+      </c>
       <c r="E232" s="3" t="s">
         <v>2</v>
       </c>
@@ -42050,7 +42442,9 @@
       <c r="A233" s="8"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
+      <c r="D233" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="E233" s="3" t="s">
         <v>2</v>
       </c>
@@ -42072,7 +42466,9 @@
       <c r="A234" s="8"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
+      <c r="D234" s="5" t="s">
+        <v>680</v>
+      </c>
       <c r="E234" s="3" t="s">
         <v>2</v>
       </c>
@@ -42091,10 +42487,16 @@
       <c r="L234" s="3"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A235" s="8"/>
-      <c r="B235" s="3"/>
+      <c r="A235" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>691</v>
+      </c>
       <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
+      <c r="D235" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="E235" s="3" t="s">
         <v>2</v>
       </c>
@@ -42116,7 +42518,9 @@
       <c r="A236" s="8"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
+      <c r="D236" s="1" t="s">
+        <v>660</v>
+      </c>
       <c r="E236" s="3" t="s">
         <v>2</v>
       </c>
@@ -42138,7 +42542,9 @@
       <c r="A237" s="8"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
+      <c r="D237" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="E237" s="3" t="s">
         <v>2</v>
       </c>
@@ -42160,7 +42566,9 @@
       <c r="A238" s="8"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
+      <c r="D238" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="E238" s="3" t="s">
         <v>2</v>
       </c>
@@ -42182,7 +42590,9 @@
       <c r="A239" s="8"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
+      <c r="D239" s="5" t="s">
+        <v>675</v>
+      </c>
       <c r="E239" s="3" t="s">
         <v>2</v>
       </c>
@@ -42204,7 +42614,9 @@
       <c r="A240" s="8"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
+      <c r="D240" s="1" t="s">
+        <v>689</v>
+      </c>
       <c r="E240" s="3" t="s">
         <v>2</v>
       </c>
@@ -42226,7 +42638,9 @@
       <c r="A241" s="8"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
+      <c r="D241" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="E241" s="3" t="s">
         <v>2</v>
       </c>
@@ -42248,7 +42662,9 @@
       <c r="A242" s="8"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
+      <c r="D242" s="5" t="s">
+        <v>680</v>
+      </c>
       <c r="E242" s="3" t="s">
         <v>2</v>
       </c>
@@ -42267,10 +42683,16 @@
       <c r="L242" s="3"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A243" s="8"/>
-      <c r="B243" s="3"/>
+      <c r="A243" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
+      <c r="D243" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="E243" s="3" t="s">
         <v>2</v>
       </c>
@@ -42289,10 +42711,16 @@
       <c r="L243" s="3"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A244" s="8"/>
-      <c r="B244" s="3"/>
+      <c r="A244" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>676</v>
+      </c>
       <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
+      <c r="D244" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="E244" s="3" t="s">
         <v>2</v>
       </c>
@@ -42311,10 +42739,16 @@
       <c r="L244" s="3"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A245" s="8"/>
-      <c r="B245" s="3"/>
+      <c r="A245" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>692</v>
+      </c>
       <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
+      <c r="D245" s="5" t="s">
+        <v>680</v>
+      </c>
       <c r="E245" s="3" t="s">
         <v>2</v>
       </c>
@@ -42336,7 +42770,9 @@
       <c r="A246" s="8"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
+      <c r="D246" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="E246" s="3" t="s">
         <v>2</v>
       </c>
@@ -42355,10 +42791,16 @@
       <c r="L246" s="3"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A247" s="8"/>
-      <c r="B247" s="3"/>
+      <c r="A247" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>694</v>
+      </c>
       <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
+      <c r="D247" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="E247" s="3" t="s">
         <v>2</v>
       </c>
@@ -42377,10 +42819,16 @@
       <c r="L247" s="3"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A248" s="8"/>
-      <c r="B248" s="3"/>
+      <c r="A248" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>687</v>
+      </c>
       <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
+      <c r="D248" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="E248" s="3" t="s">
         <v>2</v>
       </c>
@@ -42399,10 +42847,16 @@
       <c r="L248" s="3"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A249" s="8"/>
-      <c r="B249" s="3"/>
+      <c r="A249" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>710</v>
+      </c>
       <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
+      <c r="D249" s="1" t="s">
+        <v>709</v>
+      </c>
       <c r="E249" s="3" t="s">
         <v>2</v>
       </c>
@@ -42421,10 +42875,16 @@
       <c r="L249" s="3"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A250" s="8"/>
-      <c r="B250" s="3"/>
+      <c r="A250" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>713</v>
+      </c>
       <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
+      <c r="D250" s="1" t="s">
+        <v>704</v>
+      </c>
       <c r="E250" s="3" t="s">
         <v>2</v>
       </c>
@@ -42443,10 +42903,16 @@
       <c r="L250" s="3"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A251" s="8"/>
-      <c r="B251" s="3"/>
+      <c r="A251" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>711</v>
+      </c>
       <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
+      <c r="D251" s="1" t="s">
+        <v>706</v>
+      </c>
       <c r="E251" s="3" t="s">
         <v>2</v>
       </c>
@@ -42465,10 +42931,16 @@
       <c r="L251" s="3"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A252" s="8"/>
-      <c r="B252" s="3"/>
+      <c r="A252" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
+      <c r="D252" s="1" t="s">
+        <v>705</v>
+      </c>
       <c r="E252" s="3" t="s">
         <v>2</v>
       </c>
@@ -42487,10 +42959,16 @@
       <c r="L252" s="3"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A253" s="8"/>
-      <c r="B253" s="3"/>
+      <c r="A253" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>714</v>
+      </c>
       <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
+      <c r="D253" s="5" t="s">
+        <v>700</v>
+      </c>
       <c r="E253" s="3" t="s">
         <v>2</v>
       </c>
@@ -42509,10 +42987,16 @@
       <c r="L253" s="3"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A254" s="8"/>
-      <c r="B254" s="3"/>
+      <c r="A254" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>716</v>
+      </c>
       <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
+      <c r="D254" s="1" t="s">
+        <v>715</v>
+      </c>
       <c r="E254" s="3" t="s">
         <v>2</v>
       </c>
@@ -42531,10 +43015,16 @@
       <c r="L254" s="3"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A255" s="8"/>
-      <c r="B255" s="3"/>
+      <c r="A255" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>720</v>
+      </c>
       <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
+      <c r="D255" s="1" t="s">
+        <v>719</v>
+      </c>
       <c r="E255" s="3" t="s">
         <v>2</v>
       </c>
@@ -42553,10 +43043,16 @@
       <c r="L255" s="3"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A256" s="8"/>
-      <c r="B256" s="3"/>
+      <c r="A256" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
+      <c r="D256" s="1" t="s">
+        <v>683</v>
+      </c>
       <c r="E256" s="3" t="s">
         <v>2</v>
       </c>
@@ -42576,7 +43072,9 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="8"/>
-      <c r="B257" s="3"/>
+      <c r="B257" s="3" t="s">
+        <v>722</v>
+      </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3" t="s">
@@ -42598,9 +43096,11 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="8"/>
-      <c r="B258" s="3"/>
+      <c r="B258" s="3" t="s">
+        <v>723</v>
+      </c>
       <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
+      <c r="D258" s="1"/>
       <c r="E258" s="3" t="s">
         <v>2</v>
       </c>
@@ -42620,7 +43120,9 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
-      <c r="B259" s="3"/>
+      <c r="B259" s="3" t="s">
+        <v>724</v>
+      </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3" t="s">
@@ -42644,7 +43146,9 @@
       <c r="A260" s="8"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
+      <c r="D260" s="5" t="s">
+        <v>684</v>
+      </c>
       <c r="E260" s="3" t="s">
         <v>2</v>
       </c>
@@ -42666,7 +43170,9 @@
       <c r="A261" s="8"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
+      <c r="D261" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="E261" s="3" t="s">
         <v>2</v>
       </c>
@@ -51154,59 +51660,147 @@
       <c r="K646" s="3"/>
       <c r="L646" s="3"/>
     </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A647" s="8"/>
+      <c r="B647" s="3"/>
+      <c r="C647" s="3"/>
+      <c r="D647" s="3"/>
+      <c r="E647" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F647" s="3"/>
+      <c r="G647" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H647" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I647" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J647" s="8"/>
+      <c r="K647" s="3"/>
+      <c r="L647" s="3"/>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A648" s="8"/>
+      <c r="B648" s="3"/>
+      <c r="C648" s="3"/>
+      <c r="D648" s="3"/>
+      <c r="E648" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F648" s="3"/>
+      <c r="G648" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H648" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I648" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J648" s="8"/>
+      <c r="K648" s="3"/>
+      <c r="L648" s="3"/>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A649" s="8"/>
+      <c r="B649" s="3"/>
+      <c r="C649" s="3"/>
+      <c r="D649" s="3"/>
+      <c r="E649" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F649" s="3"/>
+      <c r="G649" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H649" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I649" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J649" s="8"/>
+      <c r="K649" s="3"/>
+      <c r="L649" s="3"/>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A650" s="8"/>
+      <c r="B650" s="3"/>
+      <c r="C650" s="3"/>
+      <c r="D650" s="3"/>
+      <c r="E650" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F650" s="3"/>
+      <c r="G650" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H650" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I650" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J650" s="8"/>
+      <c r="K650" s="3"/>
+      <c r="L650" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="E1:F23 E24:E26 E27:F1048576 H647:J1048576 G1:I646">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F1048576">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsBlanks" dxfId="23" priority="24">
+    <cfRule type="containsBlanks" dxfId="9" priority="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="28">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 E27:F1048576 H647:J1048576 G1:I646">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="no">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F1048576">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 E27:F1048576 H647:J1048576 G1:I646">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F1048576">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+  <conditionalFormatting sqref="C1:C214 C217:C218 C222 C225:C244 K2:K650 C255:C1048576 C248:C253">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K646">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+  <conditionalFormatting sqref="M651:M1048576 L1:L650">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219:C221">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M647:M1048576 L1:L646">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C646 K2:K646" xr:uid="{C86B4AFF-5E8A-434F-8C71-AF2F0D18C27F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C214 C217:C222 C225:C244 K2:K650 C248:C253 C255:C650" xr:uid="{C86B4AFF-5E8A-434F-8C71-AF2F0D18C27F}">
       <formula1>"BLOCK, HIDE, POPUP, 3RD, 3RDPOPUP, AD, ADPOPUP, WHITE, WHITEDIM, WHITEPOPUP"</formula1>
     </dataValidation>
   </dataValidations>
@@ -51220,12 +51814,54 @@
     <hyperlink ref="D160" r:id="rId7" xr:uid="{9AB357C6-F30A-419D-9DE1-08F1C20180ED}"/>
     <hyperlink ref="D163" r:id="rId8" xr:uid="{31941BC7-66A9-4151-9DC7-82517A194881}"/>
     <hyperlink ref="D181" r:id="rId9" xr:uid="{7FF278A0-E1D6-494F-B6F8-35892A160562}"/>
-    <hyperlink ref="D207" r:id="rId10" xr:uid="{D53C64D2-437F-4FB0-AD7B-9E0CA7DAD4DB}"/>
+    <hyperlink ref="D207" r:id="rId10" xr:uid="{FE680AC1-8700-49C6-A94D-27AB13C99274}"/>
+    <hyperlink ref="D209" r:id="rId11" xr:uid="{C4F3B1C0-CD3D-4350-85E6-27A2BECEA67D}"/>
+    <hyperlink ref="D210" r:id="rId12" xr:uid="{A3033B64-A259-46B5-95BB-B8CFC86A1125}"/>
+    <hyperlink ref="D211" r:id="rId13" xr:uid="{5DA0E42B-2429-476F-949A-0509365CBC14}"/>
+    <hyperlink ref="D212" r:id="rId14" xr:uid="{8943E023-4D84-408D-87FF-835017B14FFD}"/>
+    <hyperlink ref="D213" r:id="rId15" xr:uid="{800CE3CB-399B-4B3C-9956-DC4F09965A72}"/>
+    <hyperlink ref="D217" r:id="rId16" xr:uid="{ACF4991E-D21C-4AA0-9F3F-8449B471576D}"/>
+    <hyperlink ref="D215" r:id="rId17" xr:uid="{E97A738F-0926-44BB-9EF3-2BE4AB65BBC8}"/>
+    <hyperlink ref="D219" r:id="rId18" xr:uid="{D7820AA3-BECF-473A-BF9F-4E6ED55001AC}"/>
+    <hyperlink ref="D226" r:id="rId19" xr:uid="{F977BF46-FDA3-483B-B6DF-CACDA90ABA6C}"/>
+    <hyperlink ref="D222" r:id="rId20" xr:uid="{3293BF4A-2C7E-4FCF-BBCE-E5E6A175084A}"/>
+    <hyperlink ref="D229" r:id="rId21" xr:uid="{F7D5344E-1798-4994-B38C-CFE29FA64BBF}"/>
+    <hyperlink ref="D228" r:id="rId22" xr:uid="{5A2C985A-076D-45E7-9691-F16D21D970DD}"/>
+    <hyperlink ref="D227" r:id="rId23" xr:uid="{29E4FF2A-3B5C-48DC-93CA-4524E5274D50}"/>
+    <hyperlink ref="D237" r:id="rId24" xr:uid="{95CD9A3E-2726-4709-87FB-238A1B249327}"/>
+    <hyperlink ref="D236" r:id="rId25" xr:uid="{6C3C2EED-15DD-40D5-8237-6DFB02471756}"/>
+    <hyperlink ref="D235" r:id="rId26" xr:uid="{9F838855-E283-4776-95E4-BC9271DA1B75}"/>
+    <hyperlink ref="D244" r:id="rId27" display="https://meczelive.tv/" xr:uid="{A7463CD2-5D30-4CBC-963C-3E26029CB4A5}"/>
+    <hyperlink ref="D230" r:id="rId28" xr:uid="{59FE2EDD-31C1-4C96-A7AE-97F060366BAC}"/>
+    <hyperlink ref="D238" r:id="rId29" xr:uid="{3B422747-10F9-465F-A94D-4917E9A5D735}"/>
+    <hyperlink ref="D239" r:id="rId30" xr:uid="{3D4AF3E2-51FA-47F1-A690-88CEAD2F9332}"/>
+    <hyperlink ref="D234" r:id="rId31" xr:uid="{5FF848C0-09DA-4EB8-AE91-B0B79361CAF7}"/>
+    <hyperlink ref="D242" r:id="rId32" xr:uid="{94CE70FF-3504-42CF-8852-6FAE30755ADE}"/>
+    <hyperlink ref="D231" r:id="rId33" xr:uid="{13D0F5D3-14EE-474D-84ED-B052E38CA782}"/>
+    <hyperlink ref="D243" r:id="rId34" xr:uid="{08DBB572-460A-4D88-B90D-B192E5C467D6}"/>
+    <hyperlink ref="D245" r:id="rId35" xr:uid="{731AEF75-D38E-4C66-8B84-736027B4402E}"/>
+    <hyperlink ref="D260" r:id="rId36" xr:uid="{1C0D34B7-A7FD-4606-A879-4CBD4671C570}"/>
+    <hyperlink ref="D248" r:id="rId37" xr:uid="{B86A5766-83F9-423B-8FF9-4429E04FE32F}"/>
+    <hyperlink ref="D233" r:id="rId38" xr:uid="{AEAA61EE-5885-42D7-BA10-18DFE8957136}"/>
+    <hyperlink ref="D241" r:id="rId39" xr:uid="{68DF1788-2642-4247-BFF1-4B46548FDFE0}"/>
+    <hyperlink ref="D240" r:id="rId40" xr:uid="{CB1BEB0E-28AA-4352-82F4-D83264B9F0EC}"/>
+    <hyperlink ref="D232" r:id="rId41" xr:uid="{70DCF6BE-10D6-459D-901A-07543A6D6F1B}"/>
+    <hyperlink ref="D246" r:id="rId42" xr:uid="{EAB79AAD-8B07-4CFA-BF3E-D7467EA24CED}"/>
+    <hyperlink ref="D247" r:id="rId43" xr:uid="{1D3A7584-253C-4E45-8D1C-28A4A42B9B1F}"/>
+    <hyperlink ref="D261" r:id="rId44" xr:uid="{0A376D96-A188-401A-9704-332A66D16904}"/>
+    <hyperlink ref="D253" r:id="rId45" xr:uid="{BB903550-F3E1-4A2A-8A34-DB336AAE251B}"/>
+    <hyperlink ref="D250" r:id="rId46" xr:uid="{8AA4A836-7F58-4A70-988D-8472B7BB8475}"/>
+    <hyperlink ref="D252" r:id="rId47" display="http://www.sp7pki.iq24.pl/" xr:uid="{41EDBFBF-B272-4F7C-8C84-A984795682F1}"/>
+    <hyperlink ref="D251" r:id="rId48" xr:uid="{E093C059-F6B9-4735-A353-7114FE0FE11D}"/>
+    <hyperlink ref="D249" r:id="rId49" xr:uid="{D1B26E56-AC90-4826-BBD5-6FE26A36F2A9}"/>
+    <hyperlink ref="D254" r:id="rId50" xr:uid="{41C72447-34DC-47AE-8611-81616FFEA412}"/>
+    <hyperlink ref="D255" r:id="rId51" xr:uid="{60C4F3B9-029B-4689-A649-95C33693DD3A}"/>
+    <hyperlink ref="D256" r:id="rId52" xr:uid="{566AA149-59B6-419E-A41A-1D5843447327}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId53"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId54"/>
   </tableParts>
 </worksheet>
 </file>
@@ -51242,1357 +51878,1357 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/filters.xlsx
+++ b/filters.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1428" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{01118DC3-D769-40FA-97CD-C57E73771127}"/>
+  <xr:revisionPtr revIDLastSave="1773" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{335B43BF-C5C8-4D76-84B4-BE35C6E838C0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filters" sheetId="1" r:id="rId1"/>
     <sheet name="domains" sheetId="2" r:id="rId2"/>
+    <sheet name="new_sites" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="888">
   <si>
     <t>Filter</t>
   </si>
@@ -1123,9 +1124,6 @@
     <t>.com</t>
   </si>
   <si>
-    <t>.coop</t>
-  </si>
-  <si>
     <t>.edu</t>
   </si>
   <si>
@@ -1138,9 +1136,6 @@
     <t>.jobs</t>
   </si>
   <si>
-    <t>.mil</t>
-  </si>
-  <si>
     <t>.mobi</t>
   </si>
   <si>
@@ -1948,9 +1943,6 @@
     <t>portaltatrzanski.pl##.promoadv</t>
   </si>
   <si>
-    <t>uzz.thrash.pl/file^$image,domain=arka.tv</t>
-  </si>
-  <si>
     <t>https://dziennikpolski24.pl/w-wielickiej-strefie-aktywnosci-gospodarczej-kokotow-brzegi-ulokuje-sie-znana-marka-modowa-answearcom-zatrudnia-1300-osob/ar/c3-14278359</t>
   </si>
   <si>
@@ -1960,9 +1952,6 @@
     <t>dziennikpolski24.pl##[id^="dfp-"]:not([id])</t>
   </si>
   <si>
-    <t>||dziennikpolski24.pl^*/ads?$script,xmlhttprequest,domain=dziennikpolski24.pl</t>
-  </si>
-  <si>
     <t>128</t>
   </si>
   <si>
@@ -2210,13 +2199,511 @@
   </si>
   <si>
     <t>152</t>
+  </si>
+  <si>
+    <t>||typersi.pl^*^unibet/unib</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>||typersi.pl^*^fortuna/fortuna</t>
+  </si>
+  <si>
+    <t>||typersi.pl^*^milenium/baner_</t>
+  </si>
+  <si>
+    <t>https://typersi.pl/typer,45522,Clement.html</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>||sokolka.tv^*^EURO_RABATYDO.</t>
+  </si>
+  <si>
+    <t>||sokolka.tv^*^kaweta_baner_</t>
+  </si>
+  <si>
+    <t>||sokolka.tv^*^margut_baner_</t>
+  </si>
+  <si>
+    <t>||sokolka.tv^*^sokole-oko-</t>
+  </si>
+  <si>
+    <t>||sokolka.tv^*^bricogifwrzosy.</t>
+  </si>
+  <si>
+    <t>||sokolka.tv^*^alior.</t>
+  </si>
+  <si>
+    <t>||sokolka.tv^*_250x250_</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>||uzz.thrash.pl/file^$image,domain=arka.tv</t>
+  </si>
+  <si>
+    <t>||dziennikpolski24.pl^*^ads?$script,xmlhttprequest,domain=dziennikpolski24.pl</t>
+  </si>
+  <si>
+    <t>http://przyjacielprzypracy.pl/</t>
+  </si>
+  <si>
+    <t>biznesalert.pl##.banner-img</t>
+  </si>
+  <si>
+    <t>biznesalert.pl##.main-banner</t>
+  </si>
+  <si>
+    <t>https://biznesalert.pl/</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>cire.pl#?#.ramka_szara_kont:-abp-has(.ramka_szara_nag:-abp-contains(REKLAMA))</t>
+  </si>
+  <si>
+    <t>https://www.cire.pl/</t>
+  </si>
+  <si>
+    <t>https://swiatoze.pl/</t>
+  </si>
+  <si>
+    <t>https://www.gramwzielone.pl/</t>
+  </si>
+  <si>
+    <t>||swiatoze.pl^*_336x280.</t>
+  </si>
+  <si>
+    <t>||swiatoze.pl^*^Nowa-oferta_OZE_gif.</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>gramwzielone.pl##.banner</t>
+  </si>
+  <si>
+    <t>xlomza.pl</t>
+  </si>
+  <si>
+    <t>extraswiecie.pl</t>
+  </si>
+  <si>
+    <t>zakliczyninfo.pl</t>
+  </si>
+  <si>
+    <t>http://zawiercianskie.pl/gazeta-zawiercianskie-pl/</t>
+  </si>
+  <si>
+    <t>zawiercie112.pl</t>
+  </si>
+  <si>
+    <t>zd24.pl</t>
+  </si>
+  <si>
+    <t>zdrowieiuroda.gwarek.com.p</t>
+  </si>
+  <si>
+    <t>https://zkrainynba.com/antetokounmpo-nienawidzilem-middletona/</t>
+  </si>
+  <si>
+    <t>zpazurem.pl</t>
+  </si>
+  <si>
+    <t>https://nowawrzesnia.pl/index.php/aktualnosci/item/6470-nowe-karetki-dla-wrzesinskiego-szpitala</t>
+  </si>
+  <si>
+    <t>http://goleniow.online</t>
+  </si>
+  <si>
+    <t>http://nowogard.online</t>
+  </si>
+  <si>
+    <t>http://ostrowiecnews.pl</t>
+  </si>
+  <si>
+    <t>https://zzapolowy.com/wejscie-smoka-w-cracovii-a-mial-byc-placz-i-lament/</t>
+  </si>
+  <si>
+    <t>http://plonsk24.pl</t>
+  </si>
+  <si>
+    <t>https://pokertexas.net</t>
+  </si>
+  <si>
+    <t>http://pokonajlysienie.com/forum/</t>
+  </si>
+  <si>
+    <t>https://polacywusa.com</t>
+  </si>
+  <si>
+    <t>https://polonia.nl</t>
+  </si>
+  <si>
+    <t>http://leszczynskisport.pl</t>
+  </si>
+  <si>
+    <t>https://www.portalmorski.pl</t>
+  </si>
+  <si>
+    <t>https://www.ppr.pl</t>
+  </si>
+  <si>
+    <t>http://progressforpoland.org</t>
+  </si>
+  <si>
+    <t>http://proskarzysko.pl</t>
+  </si>
+  <si>
+    <t>https://www.protipster.com/betting-news/champions-league-group-stage-accumulator-tips-4826</t>
+  </si>
+  <si>
+    <t>http://prudnik24.pl</t>
+  </si>
+  <si>
+    <t>https://www.purepc.pl</t>
+  </si>
+  <si>
+    <t>https://www.purepc.pl/artykuly/chlodzenie</t>
+  </si>
+  <si>
+    <t>http://taternik.org</t>
+  </si>
+  <si>
+    <t>http://www.tychy.info</t>
+  </si>
+  <si>
+    <t>https://radiowrzesnia.pl</t>
+  </si>
+  <si>
+    <t>https://radio5.com.pl</t>
+  </si>
+  <si>
+    <t>https://www.radiobiper.info</t>
+  </si>
+  <si>
+    <t>http://radomnews.pl/index.php</t>
+  </si>
+  <si>
+    <t>https://faktykonopne.pl/blog/</t>
+  </si>
+  <si>
+    <t>https://roosevelta81.pl</t>
+  </si>
+  <si>
+    <t>http://ryms.pl/index.php</t>
+  </si>
+  <si>
+    <t>https://www.rzesport.pl/reklama/</t>
+  </si>
+  <si>
+    <t>https://sci24.pl</t>
+  </si>
+  <si>
+    <t>https://sharevideo.pl</t>
+  </si>
+  <si>
+    <t>http://www.slupca.pl</t>
+  </si>
+  <si>
+    <t>https://sochaczew24.info/wynajem-mieszkania-sochaczewsku/201782891/</t>
+  </si>
+  <si>
+    <t>http://sportsiedlce.pl</t>
+  </si>
+  <si>
+    <t>https://www.sportslaski.pl</t>
+  </si>
+  <si>
+    <t>https://staresiolkowice.pl/mlyn-wodny-ze-starych-siolkowic/</t>
+  </si>
+  <si>
+    <t>http://starysacz.info</t>
+  </si>
+  <si>
+    <t>http://www.dom.suwalki.info/index.php</t>
+  </si>
+  <si>
+    <t>http://www.suwalki.info/index.php</t>
+  </si>
+  <si>
+    <t>https://swiatkarinki.pl</t>
+  </si>
+  <si>
+    <t>swiatkoni.pl</t>
+  </si>
+  <si>
+    <t>http://swietokrzyskie24.eu</t>
+  </si>
+  <si>
+    <t>https://szczecinek.com</t>
+  </si>
+  <si>
+    <t>http://www.szubin24.pl</t>
+  </si>
+  <si>
+    <t>tarnobrzeskie.eu</t>
+  </si>
+  <si>
+    <t>http://tarnowiak.pl</t>
+  </si>
+  <si>
+    <t>https://telewizjattm.pl</t>
+  </si>
+  <si>
+    <t>http://terazgabin.pl</t>
+  </si>
+  <si>
+    <t>http://www.tygodnik-rolniczy.pl</t>
+  </si>
+  <si>
+    <t>http://tradersarea.pl</t>
+  </si>
+  <si>
+    <t>https://trawka.org</t>
+  </si>
+  <si>
+    <t>http://trybunaczestochowska.pl</t>
+  </si>
+  <si>
+    <t>http://trzemeszno24.info</t>
+  </si>
+  <si>
+    <t>https://www.turek.net.pl/ogloszenia/motoryzacja</t>
+  </si>
+  <si>
+    <t>http://tvgorzow.pl</t>
+  </si>
+  <si>
+    <t>http://www.tvmalbork.pl/aktualnosci/156/strefa-obywatelska</t>
+  </si>
+  <si>
+    <t>http://tygodnikponidzia.pl</t>
+  </si>
+  <si>
+    <t>https://tygodniksanocki.pl</t>
+  </si>
+  <si>
+    <t>http://uavo.com.pl/gdzie-zdawac-egzamin/</t>
+  </si>
+  <si>
+    <t>https://wadowice24.pl/brzeznica.html</t>
+  </si>
+  <si>
+    <t>http://wczestochowie.pl/artykul/33546,95-letnia-wloszka-dotarla-na-jasna-gore.-pokonala-pieszo-tysiac-kilometrow-</t>
+  </si>
+  <si>
+    <t>https://www.wladek.pl/restauracje.html?page=2</t>
+  </si>
+  <si>
+    <t>http://wlkp24.info</t>
+  </si>
+  <si>
+    <t>https://wmeritum.pl/bieg-polskiej-sztafety/295952</t>
+  </si>
+  <si>
+    <t>https://wronieckibazar.pl</t>
+  </si>
+  <si>
+    <t>https://www.miastokobiet.pl</t>
+  </si>
+  <si>
+    <t>http://wysokomazowiecki24.pl</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>wlkp24.info##.g-single</t>
+  </si>
+  <si>
+    <t>wlkp24.info##.g-dyn</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>||wysokomazowiecki24.pl^*^banery2019^</t>
+  </si>
+  <si>
+    <t>wysokomazowiecki24.pl##.sp-reklamatop</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>miastokobiet.pl##img[alt="banner"]</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>wronieckibazar.pl###custom_html-3</t>
+  </si>
+  <si>
+    <t>wronieckibazar.pl###custom_html-2</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>wmeritum.pl##.wmeri-post-content-desktop</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>wladek.pl##img[alt$="eklama"]</t>
+  </si>
+  <si>
+    <t>https://wirtualnekosmetyki.pl</t>
+  </si>
+  <si>
+    <t>wirtualnekosmetyki.pl##img[alt="baner szeroki"]</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>||wczestochowie.pl^*^klienci^</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>wadowice24.pl##a[href^="https://reklamawadowice24.pl/"]</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>wadowice24.pl##center &gt; script + div &gt; img[src^="https://reklamawadowice24.pl/"]</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>||uavo.com.pl^*^airborn-ins.</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>||tygodniksanocki.pl^*^bd13.</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>tygodnikponidzia.pl##.a-widget</t>
+  </si>
+  <si>
+    <t>||tvmalbork.pl^*^ap3bo6^</t>
+  </si>
+  <si>
+    <t>||tvgorzow.pl^*^xplansza</t>
+  </si>
+  <si>
+    <t>tvgorzow.pl##.n2-section-smartslider</t>
+  </si>
+  <si>
+    <t>turek.net.pl##.BanerO</t>
+  </si>
+  <si>
+    <t>turek.net.pl##.BanerMA</t>
+  </si>
+  <si>
+    <t>trzemeszno24.info##.td_single_image_bg</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>http://gazetalubliniecka.pl</t>
+  </si>
+  <si>
+    <t>http://gazetaklobucka.pl</t>
+  </si>
+  <si>
+    <t>trybunaczestochowska.pl##div[class^="trybu-sidebar"]</t>
+  </si>
+  <si>
+    <t>^KONCERT-W-TVS.$domain=gazetalubliniecka.pl|gazetalubliniecka.pl|trybunaczestochowska.pl</t>
+  </si>
+  <si>
+    <t>trybunaczestochowska.pl,gazetaklobucka.pl,gazetalubliniecka.pl##img[width="1000"][height="200"]</t>
+  </si>
+  <si>
+    <t>trybunaczestochowska.pl,gazetalubliniecka.pl##div[id^="popmake"]</t>
+  </si>
+  <si>
+    <t>gazetalubliniecka.pl##div[id^="gazet-"]</t>
+  </si>
+  <si>
+    <t>gazetalubliniecka.pl</t>
+  </si>
+  <si>
+    <t>fix filters for these sites</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,8 +2753,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF505050"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2283,6 +2776,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2309,7 +2814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2333,6 +2838,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -3034,9 +3546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B260" sqref="B260"/>
+      <selection pane="topRight" activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3058,7 +3570,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -39147,7 +39659,7 @@
         <v>7</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>7</v>
@@ -39179,7 +39691,7 @@
         <v>7</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>7</v>
@@ -41111,7 +41623,7 @@
         <v>7</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G184" s="12" t="s">
         <v>7</v>
@@ -41545,7 +42057,7 @@
         <v>7</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G199" s="12" t="s">
         <v>7</v>
@@ -41757,11 +42269,13 @@
         <v>127</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C207" s="3"/>
+        <v>635</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="D207" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>2</v>
@@ -41782,12 +42296,14 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="C208" s="3"/>
+        <v>654</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D208" s="3" t="s">
         <v>31</v>
       </c>
@@ -41810,14 +42326,16 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C209" s="3"/>
+        <v>634</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="D209" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>199</v>
@@ -41840,14 +42358,16 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="C210" s="3"/>
+        <v>637</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D210" s="18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>2</v>
@@ -41871,7 +42391,7 @@
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>2</v>
@@ -41892,14 +42412,16 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C212" s="3"/>
+        <v>737</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D212" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>2</v>
@@ -41920,14 +42442,16 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C213" s="3"/>
+        <v>660</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D213" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>2</v>
@@ -41949,9 +42473,11 @@
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="8"/>
       <c r="B214" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C214" s="3"/>
+        <v>658</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
         <v>2</v>
@@ -41972,14 +42498,16 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C215" s="3"/>
+        <v>661</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D215" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>2</v>
@@ -42001,9 +42529,11 @@
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
       <c r="B216" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C216" s="3"/>
+        <v>662</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
         <v>2</v>
@@ -42024,14 +42554,16 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="C217" s="3"/>
+        <v>738</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D217" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>2</v>
@@ -42053,9 +42585,11 @@
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
       <c r="B218" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C218" s="3"/>
+        <v>638</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
         <v>199</v>
@@ -42078,14 +42612,16 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="C219" s="3"/>
+      <c r="C219" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D219" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>2</v>
@@ -42107,9 +42643,11 @@
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="C220" s="3"/>
+        <v>651</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D220" s="3" t="s">
         <v>33</v>
       </c>
@@ -42133,9 +42671,11 @@
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
       <c r="B221" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C221" s="3"/>
+        <v>652</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3" t="s">
         <v>2</v>
@@ -42156,14 +42696,16 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C222" s="3"/>
+        <v>666</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="D222" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>2</v>
@@ -42185,9 +42727,11 @@
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="8"/>
       <c r="B223" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C223" s="3"/>
+        <v>667</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3" t="s">
         <v>2</v>
@@ -42211,9 +42755,11 @@
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
       <c r="B224" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C224" s="3"/>
+        <v>668</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3" t="s">
         <v>2</v>
@@ -42235,9 +42781,11 @@
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
       <c r="B225" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="C225" s="3"/>
+        <v>669</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
         <v>2</v>
@@ -42258,14 +42806,16 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C226" s="3"/>
+        <v>664</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="D226" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>2</v>
@@ -42286,12 +42836,14 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="C227" s="3"/>
+        <v>686</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D227" s="1" t="s">
         <v>324</v>
       </c>
@@ -42299,7 +42851,7 @@
         <v>2</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>2</v>
@@ -42319,13 +42871,13 @@
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>2</v>
@@ -42345,13 +42897,13 @@
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>2</v>
@@ -42371,7 +42923,7 @@
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>2</v>
@@ -42395,7 +42947,7 @@
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>2</v>
@@ -42419,7 +42971,7 @@
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>2</v>
@@ -42443,7 +42995,7 @@
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>2</v>
@@ -42467,7 +43019,7 @@
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>2</v>
@@ -42488,12 +43040,14 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C235" s="3"/>
+        <v>687</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D235" s="1" t="s">
         <v>324</v>
       </c>
@@ -42519,7 +43073,7 @@
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>2</v>
@@ -42543,7 +43097,7 @@
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>2</v>
@@ -42567,7 +43121,7 @@
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>2</v>
@@ -42591,7 +43145,7 @@
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>2</v>
@@ -42615,7 +43169,7 @@
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>2</v>
@@ -42639,7 +43193,7 @@
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>2</v>
@@ -42663,7 +43217,7 @@
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>2</v>
@@ -42684,14 +43238,16 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C243" s="3"/>
+        <v>677</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D243" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>2</v>
@@ -42712,14 +43268,16 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C244" s="3"/>
+        <v>672</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D244" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>2</v>
@@ -42740,14 +43298,16 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C245" s="3"/>
+        <v>688</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D245" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>2</v>
@@ -42771,7 +43331,7 @@
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>2</v>
@@ -42792,14 +43352,16 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C247" s="3"/>
+        <v>690</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D247" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>2</v>
@@ -42820,14 +43382,16 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="C248" s="3"/>
+        <v>683</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D248" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>2</v>
@@ -42848,14 +43412,16 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C249" s="3"/>
+        <v>706</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D249" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>2</v>
@@ -42876,14 +43442,16 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="C250" s="3"/>
+        <v>709</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D250" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>2</v>
@@ -42904,14 +43472,16 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C251" s="3"/>
+        <v>707</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D251" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>2</v>
@@ -42932,14 +43502,16 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="C252" s="3"/>
+        <v>708</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D252" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>2</v>
@@ -42960,14 +43532,16 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C253" s="3"/>
+        <v>710</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D253" s="5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>2</v>
@@ -42988,14 +43562,16 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C254" s="3"/>
+        <v>712</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D254" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>2</v>
@@ -43016,14 +43592,16 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C255" s="3"/>
+        <v>716</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D255" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>2</v>
@@ -43044,14 +43622,16 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="C256" s="3"/>
+        <v>717</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D256" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>2</v>
@@ -43073,9 +43653,11 @@
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="8"/>
       <c r="B257" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="C257" s="3"/>
+        <v>718</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3" t="s">
         <v>2</v>
@@ -43097,9 +43679,11 @@
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="8"/>
       <c r="B258" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="C258" s="3"/>
+        <v>719</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D258" s="1"/>
       <c r="E258" s="3" t="s">
         <v>2</v>
@@ -43121,9 +43705,11 @@
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
       <c r="B259" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C259" s="3"/>
+        <v>720</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D259" s="3"/>
       <c r="E259" s="3" t="s">
         <v>2</v>
@@ -43143,11 +43729,17 @@
       <c r="L259" s="3"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A260" s="8"/>
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
+      <c r="A260" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D260" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>2</v>
@@ -43168,11 +43760,13 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="1" t="s">
-        <v>699</v>
-      </c>
+      <c r="B261" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D261" s="3"/>
       <c r="E261" s="3" t="s">
         <v>2</v>
       </c>
@@ -43191,10 +43785,18 @@
       <c r="L261" s="3"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A262" s="8"/>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
+      <c r="A262" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>726</v>
+      </c>
       <c r="E262" s="3" t="s">
         <v>2</v>
       </c>
@@ -43213,14 +43815,24 @@
       <c r="L262" s="3"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A263" s="8"/>
-      <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
+      <c r="A263" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>695</v>
+      </c>
       <c r="E263" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F263" s="3"/>
+      <c r="F263" s="3" t="s">
+        <v>736</v>
+      </c>
       <c r="G263" s="3" t="s">
         <v>2</v>
       </c>
@@ -43236,8 +43848,12 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="8"/>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
+      <c r="B264" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D264" s="3"/>
       <c r="E264" s="3" t="s">
         <v>2</v>
@@ -43258,8 +43874,12 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
+      <c r="B265" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D265" s="3"/>
       <c r="E265" s="3" t="s">
         <v>2</v>
@@ -43280,8 +43900,12 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="8"/>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
+      <c r="B266" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D266" s="3"/>
       <c r="E266" s="3" t="s">
         <v>2</v>
@@ -43302,8 +43926,12 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="8"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
+      <c r="B267" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D267" s="3"/>
       <c r="E267" s="3" t="s">
         <v>2</v>
@@ -43324,8 +43952,12 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
+      <c r="B268" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D268" s="3"/>
       <c r="E268" s="3" t="s">
         <v>2</v>
@@ -43346,8 +43978,12 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="8"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
+      <c r="B269" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="D269" s="3"/>
       <c r="E269" s="3" t="s">
         <v>2</v>
@@ -43367,10 +44003,16 @@
       <c r="L269" s="3"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A270" s="8"/>
-      <c r="B270" s="3"/>
+      <c r="A270" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>740</v>
+      </c>
       <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
+      <c r="D270" s="1" t="s">
+        <v>742</v>
+      </c>
       <c r="E270" s="3" t="s">
         <v>2</v>
       </c>
@@ -43390,7 +44032,9 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="8"/>
-      <c r="B271" s="3"/>
+      <c r="B271" s="3" t="s">
+        <v>741</v>
+      </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3" t="s">
@@ -43411,14 +44055,22 @@
       <c r="L271" s="3"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A272" s="8"/>
-      <c r="B272" s="3"/>
+      <c r="A272" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>745</v>
+      </c>
       <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
+      <c r="D272" s="1" t="s">
+        <v>746</v>
+      </c>
       <c r="E272" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F272" s="3"/>
+        <v>752</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>753</v>
+      </c>
       <c r="G272" s="3" t="s">
         <v>2</v>
       </c>
@@ -43433,10 +44085,16 @@
       <c r="L272" s="3"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A273" s="8"/>
-      <c r="B273" s="3"/>
+      <c r="A273" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>749</v>
+      </c>
       <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
+      <c r="D273" s="1" t="s">
+        <v>747</v>
+      </c>
       <c r="E273" s="3" t="s">
         <v>2</v>
       </c>
@@ -43456,13 +44114,17 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="8"/>
-      <c r="B274" s="3"/>
+      <c r="B274" s="3" t="s">
+        <v>750</v>
+      </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F274" s="3"/>
+      <c r="F274" s="3" t="s">
+        <v>744</v>
+      </c>
       <c r="G274" s="3" t="s">
         <v>2</v>
       </c>
@@ -43477,10 +44139,16 @@
       <c r="L274" s="3"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A275" s="8"/>
-      <c r="B275" s="3"/>
+      <c r="A275" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>756</v>
+      </c>
       <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
+      <c r="D275" s="5" t="s">
+        <v>748</v>
+      </c>
       <c r="E275" s="3" t="s">
         <v>2</v>
       </c>
@@ -43499,14 +44167,22 @@
       <c r="L275" s="3"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A276" s="8"/>
-      <c r="B276" s="3"/>
+      <c r="A276" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>835</v>
+      </c>
       <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
+      <c r="D276" t="s">
+        <v>828</v>
+      </c>
       <c r="E276" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F276" s="3"/>
+      <c r="F276" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G276" s="3" t="s">
         <v>2</v>
       </c>
@@ -43522,9 +44198,10 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
-      <c r="B277" s="3"/>
+      <c r="B277" s="3" t="s">
+        <v>836</v>
+      </c>
       <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
       <c r="E277" s="3" t="s">
         <v>2</v>
       </c>
@@ -43543,14 +44220,22 @@
       <c r="L277" s="3"/>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A278" s="8"/>
-      <c r="B278" s="3"/>
+      <c r="A278" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="B278" s="25" t="s">
+        <v>839</v>
+      </c>
       <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
+      <c r="D278" t="s">
+        <v>832</v>
+      </c>
       <c r="E278" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F278" s="3"/>
+      <c r="F278" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G278" s="3" t="s">
         <v>2</v>
       </c>
@@ -43565,14 +44250,22 @@
       <c r="L278" s="3"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A279" s="8"/>
-      <c r="B279" s="3"/>
+      <c r="A279" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B279" s="16" t="s">
+        <v>840</v>
+      </c>
       <c r="C279" s="3"/>
-      <c r="D279" s="3"/>
+      <c r="D279" t="s">
+        <v>832</v>
+      </c>
       <c r="E279" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F279" s="3"/>
+      <c r="F279" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G279" s="3" t="s">
         <v>2</v>
       </c>
@@ -43587,14 +44280,22 @@
       <c r="L279" s="3"/>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A280" s="8"/>
-      <c r="B280" s="3"/>
+      <c r="A280" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="B280" s="25" t="s">
+        <v>842</v>
+      </c>
       <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
+      <c r="D280" s="16" t="s">
+        <v>831</v>
+      </c>
       <c r="E280" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F280" s="3"/>
+      <c r="F280" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G280" s="3" t="s">
         <v>2</v>
       </c>
@@ -43609,14 +44310,22 @@
       <c r="L280" s="3"/>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A281" s="8"/>
-      <c r="B281" s="3"/>
+      <c r="A281" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
+      <c r="D281" t="s">
+        <v>830</v>
+      </c>
       <c r="E281" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F281" s="3"/>
+      <c r="F281" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G281" s="3" t="s">
         <v>2</v>
       </c>
@@ -43632,9 +44341,10 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
-      <c r="B282" s="3"/>
+      <c r="B282" s="3" t="s">
+        <v>845</v>
+      </c>
       <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
       <c r="E282" s="3" t="s">
         <v>2</v>
       </c>
@@ -43653,14 +44363,22 @@
       <c r="L282" s="3"/>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A283" s="8"/>
-      <c r="B283" s="3"/>
+      <c r="A283" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>848</v>
+      </c>
       <c r="C283" s="3"/>
-      <c r="D283" s="3"/>
+      <c r="D283" s="16" t="s">
+        <v>829</v>
+      </c>
       <c r="E283" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F283" s="3"/>
+      <c r="F283" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G283" s="3" t="s">
         <v>2</v>
       </c>
@@ -43675,14 +44393,22 @@
       <c r="L283" s="3"/>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A284" s="8"/>
-      <c r="B284" s="3"/>
+      <c r="A284" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>850</v>
+      </c>
       <c r="C284" s="3"/>
-      <c r="D284" s="3"/>
+      <c r="D284" s="16" t="s">
+        <v>827</v>
+      </c>
       <c r="E284" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F284" s="3"/>
+      <c r="F284" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G284" s="3" t="s">
         <v>2</v>
       </c>
@@ -43697,14 +44423,22 @@
       <c r="L284" s="3"/>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A285" s="8"/>
-      <c r="B285" s="3"/>
+      <c r="A285" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="B285" s="25" t="s">
+        <v>852</v>
+      </c>
       <c r="C285" s="3"/>
-      <c r="D285" s="3"/>
+      <c r="D285" t="s">
+        <v>851</v>
+      </c>
       <c r="E285" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F285" s="3"/>
+      <c r="F285" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G285" s="3" t="s">
         <v>2</v>
       </c>
@@ -43719,14 +44453,22 @@
       <c r="L285" s="3"/>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A286" s="8"/>
-      <c r="B286" s="3"/>
+      <c r="A286" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>854</v>
+      </c>
       <c r="C286" s="3"/>
-      <c r="D286" s="3"/>
+      <c r="D286" t="s">
+        <v>826</v>
+      </c>
       <c r="E286" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F286" s="3"/>
+      <c r="F286" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G286" s="3" t="s">
         <v>2</v>
       </c>
@@ -43741,14 +44483,22 @@
       <c r="L286" s="3"/>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A287" s="8"/>
-      <c r="B287" s="3"/>
+      <c r="A287" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="B287" s="25" t="s">
+        <v>856</v>
+      </c>
       <c r="C287" s="3"/>
-      <c r="D287" s="3"/>
+      <c r="D287" s="17" t="s">
+        <v>825</v>
+      </c>
       <c r="E287" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F287" s="3"/>
+      <c r="F287" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G287" s="3" t="s">
         <v>2</v>
       </c>
@@ -43763,14 +44513,22 @@
       <c r="L287" s="3"/>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A288" s="8"/>
-      <c r="B288" s="3"/>
+      <c r="A288" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="B288" s="25" t="s">
+        <v>858</v>
+      </c>
       <c r="C288" s="3"/>
-      <c r="D288" s="3"/>
+      <c r="D288" s="21" t="s">
+        <v>825</v>
+      </c>
       <c r="E288" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F288" s="3"/>
+        <v>859</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>753</v>
+      </c>
       <c r="G288" s="3" t="s">
         <v>2</v>
       </c>
@@ -43785,14 +44543,22 @@
       <c r="L288" s="3"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A289" s="8"/>
-      <c r="B289" s="3"/>
+      <c r="A289" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="B289" s="25" t="s">
+        <v>860</v>
+      </c>
       <c r="C289" s="3"/>
-      <c r="D289" s="3"/>
+      <c r="D289" s="16" t="s">
+        <v>824</v>
+      </c>
       <c r="E289" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F289" s="3"/>
+      <c r="F289" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G289" s="3" t="s">
         <v>2</v>
       </c>
@@ -43807,14 +44573,22 @@
       <c r="L289" s="3"/>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A290" s="8"/>
-      <c r="B290" s="3"/>
+      <c r="A290" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="B290" s="25" t="s">
+        <v>863</v>
+      </c>
       <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
+      <c r="D290" s="16" t="s">
+        <v>823</v>
+      </c>
       <c r="E290" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F290" s="3"/>
+      <c r="F290" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G290" s="3" t="s">
         <v>2</v>
       </c>
@@ -43829,14 +44603,22 @@
       <c r="L290" s="3"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A291" s="8"/>
-      <c r="B291" s="3"/>
+      <c r="A291" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="B291" s="25" t="s">
+        <v>871</v>
+      </c>
       <c r="C291" s="3"/>
-      <c r="D291" s="3"/>
+      <c r="D291" s="17" t="s">
+        <v>822</v>
+      </c>
       <c r="E291" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F291" s="3"/>
+      <c r="F291" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G291" s="3" t="s">
         <v>2</v>
       </c>
@@ -43851,14 +44633,22 @@
       <c r="L291" s="3"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A292" s="8"/>
-      <c r="B292" s="3"/>
+      <c r="A292" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="B292" s="25" t="s">
+        <v>872</v>
+      </c>
       <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
+      <c r="D292" s="16" t="s">
+        <v>821</v>
+      </c>
       <c r="E292" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F292" s="3"/>
+      <c r="F292" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G292" s="3" t="s">
         <v>2</v>
       </c>
@@ -43873,14 +44663,22 @@
       <c r="L292" s="3"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A293" s="8"/>
-      <c r="B293" s="3"/>
+      <c r="A293" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="B293" s="25" t="s">
+        <v>873</v>
+      </c>
       <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
+      <c r="D293" s="17" t="s">
+        <v>820</v>
+      </c>
       <c r="E293" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F293" s="3"/>
+      <c r="F293" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G293" s="3" t="s">
         <v>2</v>
       </c>
@@ -43896,13 +44694,17 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="8"/>
-      <c r="B294" s="3"/>
+      <c r="B294" s="25" t="s">
+        <v>874</v>
+      </c>
       <c r="C294" s="3"/>
-      <c r="D294" s="3"/>
+      <c r="D294" s="21"/>
       <c r="E294" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F294" s="3"/>
+      <c r="F294" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G294" s="3" t="s">
         <v>2</v>
       </c>
@@ -43917,14 +44719,22 @@
       <c r="L294" s="3"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A295" s="8"/>
-      <c r="B295" s="3"/>
+      <c r="A295" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="B295" s="25" t="s">
+        <v>875</v>
+      </c>
       <c r="C295" s="3"/>
-      <c r="D295" s="3"/>
+      <c r="D295" s="16" t="s">
+        <v>819</v>
+      </c>
       <c r="E295" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F295" s="3"/>
+      <c r="F295" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G295" s="3" t="s">
         <v>2</v>
       </c>
@@ -43940,13 +44750,16 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="8"/>
-      <c r="B296" s="3"/>
+      <c r="B296" s="25" t="s">
+        <v>876</v>
+      </c>
       <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
       <c r="E296" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F296" s="3"/>
+      <c r="F296" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G296" s="3" t="s">
         <v>2</v>
       </c>
@@ -43961,14 +44774,22 @@
       <c r="L296" s="3"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A297" s="8"/>
-      <c r="B297" s="3"/>
+      <c r="A297" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="B297" s="25" t="s">
+        <v>877</v>
+      </c>
       <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
+      <c r="D297" s="17" t="s">
+        <v>818</v>
+      </c>
       <c r="E297" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F297" s="3"/>
+      <c r="F297" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="G297" s="3" t="s">
         <v>2</v>
       </c>
@@ -43983,14 +44804,22 @@
       <c r="L297" s="3"/>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A298" s="8"/>
-      <c r="B298" s="3"/>
+      <c r="A298" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>883</v>
+      </c>
       <c r="C298" s="3"/>
-      <c r="D298" s="3"/>
+      <c r="D298" t="s">
+        <v>817</v>
+      </c>
       <c r="E298" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F298" s="3"/>
+        <v>752</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>887</v>
+      </c>
       <c r="G298" s="3" t="s">
         <v>2</v>
       </c>
@@ -44006,11 +44835,15 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="8"/>
-      <c r="B299" s="3"/>
+      <c r="B299" s="25" t="s">
+        <v>884</v>
+      </c>
       <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
+      <c r="D299" t="s">
+        <v>880</v>
+      </c>
       <c r="E299" s="3" t="s">
-        <v>2</v>
+        <v>752</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="3" t="s">
@@ -44028,11 +44861,15 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="8"/>
-      <c r="B300" s="3"/>
+      <c r="B300" s="3" t="s">
+        <v>881</v>
+      </c>
       <c r="C300" s="3"/>
-      <c r="D300" s="3"/>
+      <c r="D300" t="s">
+        <v>886</v>
+      </c>
       <c r="E300" s="3" t="s">
-        <v>2</v>
+        <v>752</v>
       </c>
       <c r="F300" s="3"/>
       <c r="G300" s="3" t="s">
@@ -44050,11 +44887,12 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="8"/>
-      <c r="B301" s="3"/>
+      <c r="B301" s="3" t="s">
+        <v>882</v>
+      </c>
       <c r="C301" s="3"/>
-      <c r="D301" s="3"/>
       <c r="E301" s="3" t="s">
-        <v>2</v>
+        <v>752</v>
       </c>
       <c r="F301" s="3"/>
       <c r="G301" s="3" t="s">
@@ -44072,11 +44910,12 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="8"/>
-      <c r="B302" s="3"/>
+      <c r="B302" s="25" t="s">
+        <v>885</v>
+      </c>
       <c r="C302" s="3"/>
-      <c r="D302" s="3"/>
       <c r="E302" s="3" t="s">
-        <v>2</v>
+        <v>752</v>
       </c>
       <c r="F302" s="3"/>
       <c r="G302" s="3" t="s">
@@ -44093,10 +44932,11 @@
       <c r="L302" s="3"/>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A303" s="8"/>
-      <c r="B303" s="3"/>
+      <c r="A303" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="B303" s="25"/>
       <c r="C303" s="3"/>
-      <c r="D303" s="3"/>
       <c r="E303" s="3" t="s">
         <v>2</v>
       </c>
@@ -44116,9 +44956,8 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="8"/>
-      <c r="B304" s="3"/>
+      <c r="B304" s="25"/>
       <c r="C304" s="3"/>
-      <c r="D304" s="3"/>
       <c r="E304" s="3" t="s">
         <v>2</v>
       </c>
@@ -44138,9 +44977,8 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="8"/>
-      <c r="B305" s="3"/>
+      <c r="B305" s="25"/>
       <c r="C305" s="3"/>
-      <c r="D305" s="3"/>
       <c r="E305" s="3" t="s">
         <v>2</v>
       </c>
@@ -44160,9 +44998,8 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="8"/>
-      <c r="B306" s="3"/>
+      <c r="B306" s="25"/>
       <c r="C306" s="3"/>
-      <c r="D306" s="3"/>
       <c r="E306" s="3" t="s">
         <v>2</v>
       </c>
@@ -44182,9 +45019,8 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="8"/>
-      <c r="B307" s="3"/>
+      <c r="B307" s="25"/>
       <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
       <c r="E307" s="3" t="s">
         <v>2</v>
       </c>
@@ -44204,9 +45040,8 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
-      <c r="B308" s="3"/>
+      <c r="B308" s="25"/>
       <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
       <c r="E308" s="3" t="s">
         <v>2</v>
       </c>
@@ -44228,7 +45063,6 @@
       <c r="A309" s="8"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
       <c r="E309" s="3" t="s">
         <v>2</v>
       </c>
@@ -44250,7 +45084,6 @@
       <c r="A310" s="8"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
       <c r="E310" s="3" t="s">
         <v>2</v>
       </c>
@@ -44272,7 +45105,6 @@
       <c r="A311" s="8"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
-      <c r="D311" s="3"/>
       <c r="E311" s="3" t="s">
         <v>2</v>
       </c>
@@ -44294,7 +45126,6 @@
       <c r="A312" s="8"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
       <c r="E312" s="3" t="s">
         <v>2</v>
       </c>
@@ -44316,7 +45147,6 @@
       <c r="A313" s="8"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
       <c r="E313" s="3" t="s">
         <v>2</v>
       </c>
@@ -44338,7 +45168,6 @@
       <c r="A314" s="8"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
       <c r="E314" s="3" t="s">
         <v>2</v>
       </c>
@@ -44360,7 +45189,6 @@
       <c r="A315" s="8"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
-      <c r="D315" s="3"/>
       <c r="E315" s="3" t="s">
         <v>2</v>
       </c>
@@ -44382,7 +45210,6 @@
       <c r="A316" s="8"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
       <c r="E316" s="3" t="s">
         <v>2</v>
       </c>
@@ -44404,7 +45231,6 @@
       <c r="A317" s="8"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
-      <c r="D317" s="3"/>
       <c r="E317" s="3" t="s">
         <v>2</v>
       </c>
@@ -44426,7 +45252,6 @@
       <c r="A318" s="8"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
       <c r="E318" s="3" t="s">
         <v>2</v>
       </c>
@@ -44448,7 +45273,6 @@
       <c r="A319" s="8"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
-      <c r="D319" s="3"/>
       <c r="E319" s="3" t="s">
         <v>2</v>
       </c>
@@ -44470,7 +45294,6 @@
       <c r="A320" s="8"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
-      <c r="D320" s="3"/>
       <c r="E320" s="3" t="s">
         <v>2</v>
       </c>
@@ -44492,7 +45315,6 @@
       <c r="A321" s="8"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
       <c r="E321" s="3" t="s">
         <v>2</v>
       </c>
@@ -44514,7 +45336,6 @@
       <c r="A322" s="8"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
-      <c r="D322" s="3"/>
       <c r="E322" s="3" t="s">
         <v>2</v>
       </c>
@@ -44536,7 +45357,6 @@
       <c r="A323" s="8"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
-      <c r="D323" s="3"/>
       <c r="E323" s="3" t="s">
         <v>2</v>
       </c>
@@ -44558,7 +45378,6 @@
       <c r="A324" s="8"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
-      <c r="D324" s="3"/>
       <c r="E324" s="3" t="s">
         <v>2</v>
       </c>
@@ -44580,7 +45399,6 @@
       <c r="A325" s="8"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
-      <c r="D325" s="3"/>
       <c r="E325" s="3" t="s">
         <v>2</v>
       </c>
@@ -44602,7 +45420,6 @@
       <c r="A326" s="8"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
-      <c r="D326" s="3"/>
       <c r="E326" s="3" t="s">
         <v>2</v>
       </c>
@@ -44624,7 +45441,6 @@
       <c r="A327" s="8"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
-      <c r="D327" s="3"/>
       <c r="E327" s="3" t="s">
         <v>2</v>
       </c>
@@ -44646,7 +45462,6 @@
       <c r="A328" s="8"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
-      <c r="D328" s="3"/>
       <c r="E328" s="3" t="s">
         <v>2</v>
       </c>
@@ -44668,7 +45483,6 @@
       <c r="A329" s="8"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
-      <c r="D329" s="3"/>
       <c r="E329" s="3" t="s">
         <v>2</v>
       </c>
@@ -44690,7 +45504,6 @@
       <c r="A330" s="8"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
-      <c r="D330" s="3"/>
       <c r="E330" s="3" t="s">
         <v>2</v>
       </c>
@@ -44712,7 +45525,6 @@
       <c r="A331" s="8"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
       <c r="E331" s="3" t="s">
         <v>2</v>
       </c>
@@ -44734,7 +45546,6 @@
       <c r="A332" s="8"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
-      <c r="D332" s="3"/>
       <c r="E332" s="3" t="s">
         <v>2</v>
       </c>
@@ -44756,7 +45567,6 @@
       <c r="A333" s="8"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
-      <c r="D333" s="3"/>
       <c r="E333" s="3" t="s">
         <v>2</v>
       </c>
@@ -44778,7 +45588,6 @@
       <c r="A334" s="8"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
-      <c r="D334" s="3"/>
       <c r="E334" s="3" t="s">
         <v>2</v>
       </c>
@@ -44800,7 +45609,6 @@
       <c r="A335" s="8"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
-      <c r="D335" s="3"/>
       <c r="E335" s="3" t="s">
         <v>2</v>
       </c>
@@ -44822,7 +45630,6 @@
       <c r="A336" s="8"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
-      <c r="D336" s="3"/>
       <c r="E336" s="3" t="s">
         <v>2</v>
       </c>
@@ -44844,7 +45651,6 @@
       <c r="A337" s="8"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
-      <c r="D337" s="3"/>
       <c r="E337" s="3" t="s">
         <v>2</v>
       </c>
@@ -44866,7 +45672,6 @@
       <c r="A338" s="8"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
-      <c r="D338" s="3"/>
       <c r="E338" s="3" t="s">
         <v>2</v>
       </c>
@@ -44888,7 +45693,6 @@
       <c r="A339" s="8"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
-      <c r="D339" s="3"/>
       <c r="E339" s="3" t="s">
         <v>2</v>
       </c>
@@ -44910,7 +45714,6 @@
       <c r="A340" s="8"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
-      <c r="D340" s="3"/>
       <c r="E340" s="3" t="s">
         <v>2</v>
       </c>
@@ -44932,7 +45735,6 @@
       <c r="A341" s="8"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
       <c r="E341" s="3" t="s">
         <v>2</v>
       </c>
@@ -44954,7 +45756,6 @@
       <c r="A342" s="8"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
       <c r="E342" s="3" t="s">
         <v>2</v>
       </c>
@@ -44976,7 +45777,6 @@
       <c r="A343" s="8"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
-      <c r="D343" s="3"/>
       <c r="E343" s="3" t="s">
         <v>2</v>
       </c>
@@ -44998,7 +45798,6 @@
       <c r="A344" s="8"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
-      <c r="D344" s="3"/>
       <c r="E344" s="3" t="s">
         <v>2</v>
       </c>
@@ -45020,7 +45819,6 @@
       <c r="A345" s="8"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
-      <c r="D345" s="3"/>
       <c r="E345" s="3" t="s">
         <v>2</v>
       </c>
@@ -45042,7 +45840,6 @@
       <c r="A346" s="8"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
-      <c r="D346" s="3"/>
       <c r="E346" s="3" t="s">
         <v>2</v>
       </c>
@@ -45064,7 +45861,6 @@
       <c r="A347" s="8"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
       <c r="E347" s="3" t="s">
         <v>2</v>
       </c>
@@ -45086,7 +45882,6 @@
       <c r="A348" s="8"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
-      <c r="D348" s="3"/>
       <c r="E348" s="3" t="s">
         <v>2</v>
       </c>
@@ -45108,7 +45903,6 @@
       <c r="A349" s="8"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
-      <c r="D349" s="3"/>
       <c r="E349" s="3" t="s">
         <v>2</v>
       </c>
@@ -45130,7 +45924,6 @@
       <c r="A350" s="8"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
-      <c r="D350" s="3"/>
       <c r="E350" s="3" t="s">
         <v>2</v>
       </c>
@@ -45152,7 +45945,6 @@
       <c r="A351" s="8"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
-      <c r="D351" s="3"/>
       <c r="E351" s="3" t="s">
         <v>2</v>
       </c>
@@ -45174,7 +45966,6 @@
       <c r="A352" s="8"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
-      <c r="D352" s="3"/>
       <c r="E352" s="3" t="s">
         <v>2</v>
       </c>
@@ -45196,7 +45987,6 @@
       <c r="A353" s="8"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
-      <c r="D353" s="3"/>
       <c r="E353" s="3" t="s">
         <v>2</v>
       </c>
@@ -45218,7 +46008,6 @@
       <c r="A354" s="8"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
-      <c r="D354" s="3"/>
       <c r="E354" s="3" t="s">
         <v>2</v>
       </c>
@@ -45240,7 +46029,6 @@
       <c r="A355" s="8"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
-      <c r="D355" s="3"/>
       <c r="E355" s="3" t="s">
         <v>2</v>
       </c>
@@ -45262,7 +46050,6 @@
       <c r="A356" s="8"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
-      <c r="D356" s="3"/>
       <c r="E356" s="3" t="s">
         <v>2</v>
       </c>
@@ -51848,7 +52635,7 @@
     <hyperlink ref="D232" r:id="rId41" xr:uid="{70DCF6BE-10D6-459D-901A-07543A6D6F1B}"/>
     <hyperlink ref="D246" r:id="rId42" xr:uid="{EAB79AAD-8B07-4CFA-BF3E-D7467EA24CED}"/>
     <hyperlink ref="D247" r:id="rId43" xr:uid="{1D3A7584-253C-4E45-8D1C-28A4A42B9B1F}"/>
-    <hyperlink ref="D261" r:id="rId44" xr:uid="{0A376D96-A188-401A-9704-332A66D16904}"/>
+    <hyperlink ref="D263" r:id="rId44" xr:uid="{0A376D96-A188-401A-9704-332A66D16904}"/>
     <hyperlink ref="D253" r:id="rId45" xr:uid="{BB903550-F3E1-4A2A-8A34-DB336AAE251B}"/>
     <hyperlink ref="D250" r:id="rId46" xr:uid="{8AA4A836-7F58-4A70-988D-8472B7BB8475}"/>
     <hyperlink ref="D252" r:id="rId47" display="http://www.sp7pki.iq24.pl/" xr:uid="{41EDBFBF-B272-4F7C-8C84-A984795682F1}"/>
@@ -51857,11 +52644,16 @@
     <hyperlink ref="D254" r:id="rId50" xr:uid="{41C72447-34DC-47AE-8611-81616FFEA412}"/>
     <hyperlink ref="D255" r:id="rId51" xr:uid="{60C4F3B9-029B-4689-A649-95C33693DD3A}"/>
     <hyperlink ref="D256" r:id="rId52" xr:uid="{566AA149-59B6-419E-A41A-1D5843447327}"/>
+    <hyperlink ref="D262" r:id="rId53" xr:uid="{E3F8E3A1-A626-478A-83FF-1E3D64C01E07}"/>
+    <hyperlink ref="D270" r:id="rId54" xr:uid="{E3404472-2D57-4D9D-BDF0-9214875FD644}"/>
+    <hyperlink ref="D272" r:id="rId55" xr:uid="{D918BF1C-9797-489F-A282-1FF63C427953}"/>
+    <hyperlink ref="D273" r:id="rId56" xr:uid="{DC0F4DE3-B2A5-45E9-860E-32EB8906848F}"/>
+    <hyperlink ref="D275" r:id="rId57" xr:uid="{42CCDD81-65A1-4E0F-A417-DFE045223556}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId53"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId58"/>
   <tableParts count="1">
-    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId59"/>
   </tableParts>
 </worksheet>
 </file>
@@ -51870,8 +52662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D24979F-647B-4DB6-B7CB-82427DAFC6D9}">
   <dimension ref="A1:A271"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="D238" sqref="D238"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51893,972 +52685,972 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
@@ -52868,357 +53660,357 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
@@ -53234,4 +54026,394 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF708186-B126-4883-AC9D-969FF2216082}">
+  <dimension ref="B1:B82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="21" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="21" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="16" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="21" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="16" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="21" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="16" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="21" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="16" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="21" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="21" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="16" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="21" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="16" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="21" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="16" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="21" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="16" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="21" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="16" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="21" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="16" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="21" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="16" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="21" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="16"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="21"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="21" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="16"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="21"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="16"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="21"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="16"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="21"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="16"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="21"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="16"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="21"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="16"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="21"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="16"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="24"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D8D160FD-E47E-4D93-89F8-F3C962C87544}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{47BE0D51-5B38-429E-AB2F-819C965740FE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/filters.xlsx
+++ b/filters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1773" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{335B43BF-C5C8-4D76-84B4-BE35C6E838C0}"/>
+  <xr:revisionPtr revIDLastSave="2128" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BCE9CF5-BE1E-415A-B76C-FC319F9B0D63}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filters" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="1081">
   <si>
     <t>Filter</t>
   </si>
@@ -2252,9 +2252,6 @@
     <t>||dziennikpolski24.pl^*^ads?$script,xmlhttprequest,domain=dziennikpolski24.pl</t>
   </si>
   <si>
-    <t>http://przyjacielprzypracy.pl/</t>
-  </si>
-  <si>
     <t>biznesalert.pl##.banner-img</t>
   </si>
   <si>
@@ -2306,33 +2303,6 @@
     <t>gramwzielone.pl##.banner</t>
   </si>
   <si>
-    <t>xlomza.pl</t>
-  </si>
-  <si>
-    <t>extraswiecie.pl</t>
-  </si>
-  <si>
-    <t>zakliczyninfo.pl</t>
-  </si>
-  <si>
-    <t>http://zawiercianskie.pl/gazeta-zawiercianskie-pl/</t>
-  </si>
-  <si>
-    <t>zawiercie112.pl</t>
-  </si>
-  <si>
-    <t>zd24.pl</t>
-  </si>
-  <si>
-    <t>zdrowieiuroda.gwarek.com.p</t>
-  </si>
-  <si>
-    <t>https://zkrainynba.com/antetokounmpo-nienawidzilem-middletona/</t>
-  </si>
-  <si>
-    <t>zpazurem.pl</t>
-  </si>
-  <si>
     <t>https://nowawrzesnia.pl/index.php/aktualnosci/item/6470-nowe-karetki-dla-wrzesinskiego-szpitala</t>
   </si>
   <si>
@@ -2345,15 +2315,9 @@
     <t>http://ostrowiecnews.pl</t>
   </si>
   <si>
-    <t>https://zzapolowy.com/wejscie-smoka-w-cracovii-a-mial-byc-placz-i-lament/</t>
-  </si>
-  <si>
     <t>http://plonsk24.pl</t>
   </si>
   <si>
-    <t>https://pokertexas.net</t>
-  </si>
-  <si>
     <t>http://pokonajlysienie.com/forum/</t>
   </si>
   <si>
@@ -2375,21 +2339,12 @@
     <t>http://progressforpoland.org</t>
   </si>
   <si>
-    <t>http://proskarzysko.pl</t>
-  </si>
-  <si>
     <t>https://www.protipster.com/betting-news/champions-league-group-stage-accumulator-tips-4826</t>
   </si>
   <si>
     <t>http://prudnik24.pl</t>
   </si>
   <si>
-    <t>https://www.purepc.pl</t>
-  </si>
-  <si>
-    <t>https://www.purepc.pl/artykuly/chlodzenie</t>
-  </si>
-  <si>
     <t>http://taternik.org</t>
   </si>
   <si>
@@ -2408,18 +2363,9 @@
     <t>http://radomnews.pl/index.php</t>
   </si>
   <si>
-    <t>https://faktykonopne.pl/blog/</t>
-  </si>
-  <si>
     <t>https://roosevelta81.pl</t>
   </si>
   <si>
-    <t>http://ryms.pl/index.php</t>
-  </si>
-  <si>
-    <t>https://www.rzesport.pl/reklama/</t>
-  </si>
-  <si>
     <t>https://sci24.pl</t>
   </si>
   <si>
@@ -2429,9 +2375,6 @@
     <t>http://www.slupca.pl</t>
   </si>
   <si>
-    <t>https://sochaczew24.info/wynajem-mieszkania-sochaczewsku/201782891/</t>
-  </si>
-  <si>
     <t>http://sportsiedlce.pl</t>
   </si>
   <si>
@@ -2444,18 +2387,12 @@
     <t>http://starysacz.info</t>
   </si>
   <si>
-    <t>http://www.dom.suwalki.info/index.php</t>
-  </si>
-  <si>
     <t>http://www.suwalki.info/index.php</t>
   </si>
   <si>
     <t>https://swiatkarinki.pl</t>
   </si>
   <si>
-    <t>swiatkoni.pl</t>
-  </si>
-  <si>
     <t>http://swietokrzyskie24.eu</t>
   </si>
   <si>
@@ -2465,15 +2402,6 @@
     <t>http://www.szubin24.pl</t>
   </si>
   <si>
-    <t>tarnobrzeskie.eu</t>
-  </si>
-  <si>
-    <t>http://tarnowiak.pl</t>
-  </si>
-  <si>
-    <t>https://telewizjattm.pl</t>
-  </si>
-  <si>
     <t>http://terazgabin.pl</t>
   </si>
   <si>
@@ -2697,6 +2625,657 @@
   </si>
   <si>
     <t>fix filters for these sites</t>
+  </si>
+  <si>
+    <t>||trawka.org^*^dutchpassion2.</t>
+  </si>
+  <si>
+    <t>||trawka.org^*^300-x-150-</t>
+  </si>
+  <si>
+    <t>||seedbay.pl^*^thc-nasiona-</t>
+  </si>
+  <si>
+    <t>||trawka.org^*^vapuj-pl-</t>
+  </si>
+  <si>
+    <t>||trawka.org^*^growbox2.</t>
+  </si>
+  <si>
+    <t>||trawka.org^*^grasspower.</t>
+  </si>
+  <si>
+    <t>||trawka.org^*300X150</t>
+  </si>
+  <si>
+    <t>trawka.org##div[data-role="sidebarAd"]</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>tradersarea.pl##img[alt="ads"]</t>
+  </si>
+  <si>
+    <t>tradersarea.pl##.td-a-rec</t>
+  </si>
+  <si>
+    <t>http://tradersarea.pl/litecoin-ltc-coin/</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>||zniwiarz.topagrar.pl^$image,subdocument,domain=tygodnik-rolniczy.pl|elita-magazyn.pl|topagrar.pl|profitechnika.pl|warzywaiowoce.pl|sadnowoczesny.pl</t>
+  </si>
+  <si>
+    <t>https://elita-magazyn.pl</t>
+  </si>
+  <si>
+    <t>https://www.topagrar.pl</t>
+  </si>
+  <si>
+    <t>https://profitechnika.pl</t>
+  </si>
+  <si>
+    <t>http://www.warzywaiowoce.pl</t>
+  </si>
+  <si>
+    <t>http://sadnowoczesny.pl</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>http://www.podoslonami.pl</t>
+  </si>
+  <si>
+    <t>terazgabin.pl##div[aria-live="polite"]</t>
+  </si>
+  <si>
+    <t>||terazgabin.pl^*^370x370.</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>https://www.nadmorski24.pl</t>
+  </si>
+  <si>
+    <t>http://tarnowiak.pl/ogloszenie/904882/szukam-pracy-dj-lub-akustyk-jako-muzyka-trance-techno-dance-house-pop-rock-etc/</t>
+  </si>
+  <si>
+    <t>||tarnowiak.pl^*^banner.</t>
+  </si>
+  <si>
+    <t>||tarnowiak.pl^*^grafika/MM_</t>
+  </si>
+  <si>
+    <t>||tarnowiak.pl^*^super_reklama^</t>
+  </si>
+  <si>
+    <t>||tarnowiak.pl^*_Wizytowka^</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>tarnobrzeskie.eu###text-22</t>
+  </si>
+  <si>
+    <t>tarnobrzeskie.eu###text-20</t>
+  </si>
+  <si>
+    <t>tarnobrzeskie.eu###text-19</t>
+  </si>
+  <si>
+    <t>||tarnobrzeskie.eu^*^tani-druk-</t>
+  </si>
+  <si>
+    <t>||tarnobrzeskie.eu^*^grupawoda.</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>||tarnobrzeskie.eu^*^balony-z-helem-</t>
+  </si>
+  <si>
+    <t>||tarnobrzeskie.eu^*^BANER-</t>
+  </si>
+  <si>
+    <t>http://tarnobrzeskie.eu/rozrywka/</t>
+  </si>
+  <si>
+    <t>http://tarnobrzeskie.eu</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>szubin24.pl##.ban</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>https://szczecinek.com/artykul/na-trampoliny--do-galerii/733809</t>
+  </si>
+  <si>
+    <t>||cdn.gallery^*^files^$image,domain=szczecinek.com</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>szczecinek.com##.l-box--100 &gt; div[align="center"]</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>||swietokrzyskie24.eu^*^oklejaniebanerek.</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>swiatkoni.pl###advwide</t>
+  </si>
+  <si>
+    <t>swiatkoni.pl###advmain</t>
+  </si>
+  <si>
+    <t>swiatkoni.pl##.advset</t>
+  </si>
+  <si>
+    <t>https://swiatkoni.pl</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>swiatkarinki.pl##.baner-container</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>http://www.suwalszczyzna.net</t>
+  </si>
+  <si>
+    <t>||suwalki.info^*^banery/447-1.</t>
+  </si>
+  <si>
+    <t>||suwalki.info^*^banery/441-1.</t>
+  </si>
+  <si>
+    <t>^flash^$domain=suwalki.info</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>starysacz.info##[id^="addon-rotator-"]</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>||staresiolkowice.pl^*^02/Reha-Vital.</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>||sportslaski.pl^*^1/2383.</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>wp-content</t>
+  </si>
+  <si>
+    <t>||sportsiedlce.pl^*baner</t>
+  </si>
+  <si>
+    <t>sportsiedlce.pl###sport-slider-379</t>
+  </si>
+  <si>
+    <t>sochaczew24.info##.td-a-rec</t>
+  </si>
+  <si>
+    <t>https://sochaczew24.info</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>slupca.pl##.g-2</t>
+  </si>
+  <si>
+    <t>slupca.pl##.g-3</t>
+  </si>
+  <si>
+    <t>slupca.pl##.g-35</t>
+  </si>
+  <si>
+    <t>slupca.pl###text-7</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>sharevideo.pl##a[href*="https://leadnet.pl"]</t>
+  </si>
+  <si>
+    <t>sharevideo.pl##a[href*="https://fireads.online"]</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>sci24.pl##.g-dyn</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>||roosevelta81.pl^*^domb3.</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>https://faktykonopne.pl</t>
+  </si>
+  <si>
+    <t>faktykonopne.pl##.code-block</t>
+  </si>
+  <si>
+    <t>||radomnews.pl^*^nzn_315.</t>
+  </si>
+  <si>
+    <t>||radomnews.pl^*^kwiatkowski_pr.</t>
+  </si>
+  <si>
+    <t>||radomnews.pl^*^czas_na_kawe.</t>
+  </si>
+  <si>
+    <t>||radomnews.pl^*^jadar_logo.</t>
+  </si>
+  <si>
+    <t>||radomnews.pl^*^logo_bfresh.</t>
+  </si>
+  <si>
+    <t>||radomnews.pl^*^radpec_2019.</t>
+  </si>
+  <si>
+    <t>||radomnews.pl^*^administrator_magnolia17.</t>
+  </si>
+  <si>
+    <t>||radomnews.pl^*^toyota_detaling19.</t>
+  </si>
+  <si>
+    <t>radiobiper.info##.elementor-widget-wp-widget-advads_ad_widget</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>radio5.com.pl##div[class^="g-col b-"]</t>
+  </si>
+  <si>
+    <t>radio5.com.pl##div[class^="g-dyn a-"]</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>radiowrzesnia.pl##.td-all-devices</t>
+  </si>
+  <si>
+    <t>tychy.info##.blok-baner</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>taternik.org##.bantitle + a</t>
+  </si>
+  <si>
+    <t>prudnik24.pl##.widget-3</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>protipster.com##.display--skin</t>
+  </si>
+  <si>
+    <t>protipster.com##.desktop-top-banner</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>http://proskarzysko.pl/pozegnanie-lata-2019/</t>
+  </si>
+  <si>
+    <t>||proskarzysko.pl^*^marzena-okla-drewnowicz-</t>
+  </si>
+  <si>
+    <t>||proskarzysko.pl^*^wtorpol-praca-</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>||progressforpoland.org^*^oilpassion-</t>
+  </si>
+  <si>
+    <t>^baner^$domain=progressforpoland.org</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>ppr.pl##.reklamaTop</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>portalmorski.pl##.standard_adv_link</t>
+  </si>
+  <si>
+    <t>||portalmorski.pl^*_baner_430x230px_</t>
+  </si>
+  <si>
+    <t>||portalmorski.pl^*_exito_brokers_</t>
+  </si>
+  <si>
+    <t>||portalmorski.pl^*_880x200</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>||leszczynskisport.pl^*^robinsons.</t>
+  </si>
+  <si>
+    <t>||leszczynskisport.pl^*^tempus.</t>
+  </si>
+  <si>
+    <t>||leszczynskisport.pl^*^prawucki2019.</t>
+  </si>
+  <si>
+    <t>leszczynskisport.pl##.td-a-rec</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>polonia.nl##.banner</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>polacywusa.com###slideOutContainerSmallPersistent</t>
+  </si>
+  <si>
+    <t>||pokonajlysienie.com^Forum-Banner-1.</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>plonsk24.pl##.pole-banerowe &gt; a:not([href^="/"])</t>
+  </si>
+  <si>
+    <t>plonsk24.pl##.pole-banerowe &gt; a:not([target="_self"]):not([href^="/"])</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>zzapolowy.com##.floatBox</t>
+  </si>
+  <si>
+    <t>zzapolowy.com##.ranking</t>
+  </si>
+  <si>
+    <t>||banery.betfan.pl^$subdocument,domain=zzapolowy.com</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>https://zzapolowy.com</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>valid block?</t>
+  </si>
+  <si>
+    <t>ostrowiecnews.pl#?##main &gt; p:-abp-contains(Reklama) + center &gt; a</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>goleniow.online,nowogard.online##.lSSlideOuter</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>^banery^$domain=zpazurem.pl</t>
+  </si>
+  <si>
+    <t>https://www.zpazurem.pl</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>^img10-465x386.$domain=goleniow.online|nowogard.online</t>
+  </si>
+  <si>
+    <t>^Ziemniak2.$domain=goleniow.online|nowogard.online</t>
+  </si>
+  <si>
+    <t>^R52-baner-$domain=goleniow.online|nowogard.online</t>
+  </si>
+  <si>
+    <t>^GN_400x800-$domain=goleniow.online|nowogard.online</t>
+  </si>
+  <si>
+    <t>||goleniow.online^*^TTS-REKLAMA.</t>
+  </si>
+  <si>
+    <t>||goleniow.online^*^Obraz-27.05.</t>
+  </si>
+  <si>
+    <t>||goleniow.online^*^0001-300x210.</t>
+  </si>
+  <si>
+    <t>||goleniow.online^*^38928959_</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>https://nowawrzesnia.pl/index.php/samorzad/item/5774-pierwsza-sesja-nowej-rady-miejskiej-we-wrzesni-zdjecia</t>
+  </si>
+  <si>
+    <t>https://nowawrzesnia.pl/index.php/kultura/item/6500-przed-nami-juz-17-odslona-dyktanda-wrzesinskiego</t>
+  </si>
+  <si>
+    <t>||nowawrzesnia.pl/images/gif_*.201*wrz</t>
+  </si>
+  <si>
+    <t>||nowawrzesnia.pl^*^nepanowy2019.</t>
+  </si>
+  <si>
+    <t>||nowawrzesnia.pl^*^proj_Stalpol_v1.</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>https://zkrainynba.com/chiny-odwoluja-wydarzenia-nba-mecze-preseason-sie-nie-odbeda/</t>
+  </si>
+  <si>
+    <t>||zrainynba.com^*^04/thumbnail.</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>zdrowieiuroda.gwarek.com.pl##.axxx</t>
+  </si>
+  <si>
+    <t>https://zdrowieiuroda.gwarek.com.pl</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>^ban_domy_$domain=przyjaznawarszawa.pl|zd24.pl</t>
+  </si>
+  <si>
+    <t>http://zd24.pl</t>
+  </si>
+  <si>
+    <t>http://przyjaznawarszawa.pl/index.php</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>https://zawiercie112.pl</t>
+  </si>
+  <si>
+    <t>zawiercie112.pl###wp-custom-header</t>
+  </si>
+  <si>
+    <t>zawiercie112.pl###media_image-13</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>http://zakliczyninfo.pl/index.php</t>
+  </si>
+  <si>
+    <t>||zakliczyninfo.pl^*^ls1.</t>
+  </si>
+  <si>
+    <t>||zakliczyninfo.pl^*^panorama_v2.</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>http://extraswiecie.pl/wiadomosc/pobil-czlowieka-na-stacji-paliw-w-drzycimiu-teraz-szuka-go-policja</t>
+  </si>
+  <si>
+    <t>http://extraswiecie.pl/wiadomosc/takiego-wysypu-grzybow-juz-dawno-u-nas-nie-bylo</t>
+  </si>
+  <si>
+    <t>http://extraswiecie.pl/wiadomosc/grozne-niewybuchy-w-lesnictwie-grabowiec</t>
+  </si>
+  <si>
+    <t>http://extraswiecie.pl/wiadomosc/kandydaci-do-tytulu-extra-para-zgloscie-sie-i-wy-pobyt-w-eleganckim-hotelu-z-atrakcjami</t>
+  </si>
+  <si>
+    <t>||extraswiecie.pl^*^7.roplast.</t>
+  </si>
+  <si>
+    <t>||extraswiecie.pl^*^67077666_</t>
+  </si>
+  <si>
+    <t>||extraswiecie.pl^*^67211580_</t>
+  </si>
+  <si>
+    <t>||extraswiecie.pl^*^t_pogoda_</t>
+  </si>
+  <si>
+    <t>||extraswiecie.pl^*^6.meranti.</t>
+  </si>
+  <si>
+    <t>||extraswiecie.pl^*^extra_swiecie.jpg?89</t>
+  </si>
+  <si>
+    <t>||extraswiecie.pl^*^14.anamej.</t>
+  </si>
+  <si>
+    <t>||extraswiecie.pl^*^sery.</t>
+  </si>
+  <si>
+    <t>||xlomza.pl^*^msplay1.</t>
+  </si>
+  <si>
+    <t>||xlomza.pl^*^mpt_taxi_ostatnia.</t>
+  </si>
+  <si>
+    <t>||xlomza.pl^*^bez3.</t>
+  </si>
+  <si>
+    <t>||xlomza.pl^*^inline_1_1903.</t>
+  </si>
+  <si>
+    <t>||xlomza.pl^*^14pazdziernik.</t>
+  </si>
+  <si>
+    <t>||xlomza.pl^*_baner.</t>
+  </si>
+  <si>
+    <t>https://xlomza.pl</t>
   </si>
 </sst>
 </file>
@@ -2814,7 +3393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2845,12 +3424,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -2884,16 +3464,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2930,68 +3500,38 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </top>
         <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3206,6 +3746,148 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3225,23 +3907,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:L650" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:L650" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:L650" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Filter" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{BBBFDBF0-1399-4DE4-B5F0-6E30770F3CC4}" name="Type" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Push" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fix" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{F46A69CC-7704-4110-83F9-1118153E7962}" name="Filter-fix" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Filter" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{BBBFDBF0-1399-4DE4-B5F0-6E30770F3CC4}" name="Type" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Push" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fix" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{F46A69CC-7704-4110-83F9-1118153E7962}" name="Filter-fix" dataDxfId="8">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{33D43F69-BB91-4A60-B234-2EF06EC445E3}" name="Type-fix" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{D97C0A98-B6D4-4D1B-84DD-D433C9B55CFC}" name="Marked" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{33D43F69-BB91-4A60-B234-2EF06EC445E3}" name="Type-fix" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{D97C0A98-B6D4-4D1B-84DD-D433C9B55CFC}" name="Marked" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3546,9 +4228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+    <sheetView topLeftCell="A413" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A304" sqref="A304"/>
+      <selection pane="topRight" activeCell="B432" sqref="B432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43976,42 +44658,42 @@
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A269" s="8"/>
-      <c r="B269" s="3" t="s">
+    <row r="269" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="14"/>
+      <c r="B269" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H269" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I269" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J269" s="8"/>
-      <c r="K269" s="3"/>
-      <c r="L269" s="3"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F269" s="12"/>
+      <c r="G269" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H269" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I269" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J269" s="14"/>
+      <c r="K269" s="12"/>
+      <c r="L269" s="12"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>2</v>
@@ -44033,7 +44715,7 @@
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="8"/>
       <c r="B271" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -44056,20 +44738,20 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E272" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F272" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>753</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>2</v>
@@ -44086,14 +44768,14 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>2</v>
@@ -44115,7 +44797,7 @@
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="8"/>
       <c r="B274" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -44123,7 +44805,7 @@
         <v>2</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G274" s="3" t="s">
         <v>2</v>
@@ -44138,50 +44820,50 @@
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A275" s="8" t="s">
+    <row r="275" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="B275" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="C275" s="3"/>
-      <c r="D275" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H275" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I275" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J275" s="8"/>
-      <c r="K275" s="3"/>
-      <c r="L275" s="3"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F275" s="12"/>
+      <c r="G275" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H275" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I275" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J275" s="14"/>
+      <c r="K275" s="12"/>
+      <c r="L275" s="12"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
-        <v>834</v>
+        <v>810</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" t="s">
-        <v>828</v>
+        <v>804</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>2</v>
@@ -44199,7 +44881,7 @@
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
       <c r="B277" s="3" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C277" s="3"/>
       <c r="E277" s="3" t="s">
@@ -44221,20 +44903,20 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="B278" s="25" t="s">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" t="s">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>2</v>
@@ -44251,20 +44933,20 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="8" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
       <c r="B279" s="16" t="s">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" t="s">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>2</v>
@@ -44281,20 +44963,20 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="8" t="s">
-        <v>843</v>
+        <v>819</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="16" t="s">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>2</v>
@@ -44311,20 +44993,20 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="8" t="s">
-        <v>846</v>
+        <v>822</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>844</v>
+        <v>820</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" t="s">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>2</v>
@@ -44342,7 +45024,7 @@
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
       <c r="B282" s="3" t="s">
-        <v>845</v>
+        <v>821</v>
       </c>
       <c r="C282" s="3"/>
       <c r="E282" s="3" t="s">
@@ -44364,20 +45046,20 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="8" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="16" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>2</v>
@@ -44394,20 +45076,20 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="16" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>2</v>
@@ -44424,20 +45106,20 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="8" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>2</v>
@@ -44454,20 +45136,20 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="8" t="s">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>2</v>
@@ -44484,20 +45166,20 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
-        <v>857</v>
+        <v>833</v>
       </c>
       <c r="B287" s="25" t="s">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="17" t="s">
-        <v>825</v>
+        <v>801</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>2</v>
@@ -44514,20 +45196,20 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="B288" s="25" t="s">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="21" t="s">
-        <v>825</v>
+        <v>801</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>2</v>
@@ -44544,20 +45226,20 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="16" t="s">
-        <v>824</v>
+        <v>800</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G289" s="3" t="s">
         <v>2</v>
@@ -44574,20 +45256,20 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="B290" s="25" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="16" t="s">
-        <v>823</v>
+        <v>799</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>2</v>
@@ -44604,20 +45286,20 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="B291" s="25" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="17" t="s">
-        <v>822</v>
+        <v>798</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G291" s="3" t="s">
         <v>2</v>
@@ -44634,20 +45316,20 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="16" t="s">
-        <v>821</v>
+        <v>797</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>2</v>
@@ -44664,20 +45346,20 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>873</v>
+        <v>849</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="17" t="s">
-        <v>820</v>
+        <v>796</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>2</v>
@@ -44695,16 +45377,14 @@
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="8"/>
       <c r="B294" s="25" t="s">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="21"/>
       <c r="E294" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F294" s="3" t="s">
-        <v>837</v>
-      </c>
+      <c r="F294" s="3"/>
       <c r="G294" s="3" t="s">
         <v>2</v>
       </c>
@@ -44720,20 +45400,20 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="8" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="B295" s="25" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="16" t="s">
-        <v>819</v>
+        <v>795</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>2</v>
@@ -44751,15 +45431,13 @@
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="8"/>
       <c r="B296" s="25" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="C296" s="3"/>
       <c r="E296" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F296" s="3" t="s">
-        <v>837</v>
-      </c>
+      <c r="F296" s="3"/>
       <c r="G296" s="3" t="s">
         <v>2</v>
       </c>
@@ -44775,20 +45453,20 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="B297" s="25" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="17" t="s">
-        <v>818</v>
+        <v>794</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>2</v>
@@ -44805,20 +45483,20 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="B298" s="25" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>2</v>
@@ -44836,14 +45514,14 @@
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="8"/>
       <c r="B299" s="25" t="s">
-        <v>884</v>
+        <v>860</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="3" t="s">
@@ -44862,14 +45540,14 @@
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="8"/>
       <c r="B300" s="3" t="s">
-        <v>881</v>
+        <v>857</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" t="s">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F300" s="3"/>
       <c r="G300" s="3" t="s">
@@ -44888,11 +45566,11 @@
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="8"/>
       <c r="B301" s="3" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
       <c r="C301" s="3"/>
       <c r="E301" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F301" s="3"/>
       <c r="G301" s="3" t="s">
@@ -44911,11 +45589,11 @@
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="8"/>
       <c r="B302" s="25" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="C302" s="3"/>
       <c r="E302" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F302" s="3"/>
       <c r="G302" s="3" t="s">
@@ -44933,14 +45611,21 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="B303" s="25"/>
+        <v>854</v>
+      </c>
+      <c r="B303" s="25" t="s">
+        <v>864</v>
+      </c>
       <c r="C303" s="3"/>
+      <c r="D303" t="s">
+        <v>792</v>
+      </c>
       <c r="E303" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F303" s="3"/>
+      <c r="F303" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G303" s="3" t="s">
         <v>2</v>
       </c>
@@ -44956,7 +45641,9 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="8"/>
-      <c r="B304" s="25"/>
+      <c r="B304" s="25" t="s">
+        <v>865</v>
+      </c>
       <c r="C304" s="3"/>
       <c r="E304" s="3" t="s">
         <v>2</v>
@@ -44977,7 +45664,9 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="8"/>
-      <c r="B305" s="25"/>
+      <c r="B305" s="25" t="s">
+        <v>866</v>
+      </c>
       <c r="C305" s="3"/>
       <c r="E305" s="3" t="s">
         <v>2</v>
@@ -44998,7 +45687,9 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="8"/>
-      <c r="B306" s="25"/>
+      <c r="B306" s="25" t="s">
+        <v>867</v>
+      </c>
       <c r="C306" s="3"/>
       <c r="E306" s="3" t="s">
         <v>2</v>
@@ -45019,7 +45710,9 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="8"/>
-      <c r="B307" s="25"/>
+      <c r="B307" s="25" t="s">
+        <v>868</v>
+      </c>
       <c r="C307" s="3"/>
       <c r="E307" s="3" t="s">
         <v>2</v>
@@ -45040,7 +45733,9 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
-      <c r="B308" s="25"/>
+      <c r="B308" s="25" t="s">
+        <v>869</v>
+      </c>
       <c r="C308" s="3"/>
       <c r="E308" s="3" t="s">
         <v>2</v>
@@ -45061,7 +45756,9 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="8"/>
-      <c r="B309" s="3"/>
+      <c r="B309" s="3" t="s">
+        <v>870</v>
+      </c>
       <c r="C309" s="3"/>
       <c r="E309" s="3" t="s">
         <v>2</v>
@@ -45081,13 +45778,22 @@
       <c r="L309" s="3"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A310" s="8"/>
-      <c r="B310" s="3"/>
+      <c r="A310" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>871</v>
+      </c>
       <c r="C310" s="3"/>
+      <c r="D310" t="s">
+        <v>792</v>
+      </c>
       <c r="E310" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F310" s="3"/>
+      <c r="F310" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G310" s="3" t="s">
         <v>2</v>
       </c>
@@ -45102,13 +45808,22 @@
       <c r="L310" s="3"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A311" s="8"/>
-      <c r="B311" s="3"/>
+      <c r="A311" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>874</v>
+      </c>
       <c r="C311" s="3"/>
+      <c r="D311" t="s">
+        <v>791</v>
+      </c>
       <c r="E311" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F311" s="3"/>
+      <c r="F311" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G311" s="3" t="s">
         <v>2</v>
       </c>
@@ -45124,8 +45839,13 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="8"/>
-      <c r="B312" s="3"/>
+      <c r="B312" s="3" t="s">
+        <v>875</v>
+      </c>
       <c r="C312" s="3"/>
+      <c r="D312" t="s">
+        <v>876</v>
+      </c>
       <c r="E312" s="3" t="s">
         <v>2</v>
       </c>
@@ -45144,13 +45864,22 @@
       <c r="L312" s="3"/>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A313" s="8"/>
-      <c r="B313" s="3"/>
+      <c r="A313" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="B313" s="25" t="s">
+        <v>878</v>
+      </c>
       <c r="C313" s="3"/>
+      <c r="D313" t="s">
+        <v>790</v>
+      </c>
       <c r="E313" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F313" s="3"/>
+      <c r="F313" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G313" s="3" t="s">
         <v>2</v>
       </c>
@@ -45168,6 +45897,9 @@
       <c r="A314" s="8"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
+      <c r="D314" t="s">
+        <v>879</v>
+      </c>
       <c r="E314" s="3" t="s">
         <v>2</v>
       </c>
@@ -45189,6 +45921,9 @@
       <c r="A315" s="8"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
+      <c r="D315" t="s">
+        <v>880</v>
+      </c>
       <c r="E315" s="3" t="s">
         <v>2</v>
       </c>
@@ -45210,6 +45945,9 @@
       <c r="A316" s="8"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
+      <c r="D316" t="s">
+        <v>881</v>
+      </c>
       <c r="E316" s="3" t="s">
         <v>2</v>
       </c>
@@ -45231,6 +45969,9 @@
       <c r="A317" s="8"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
+      <c r="D317" t="s">
+        <v>882</v>
+      </c>
       <c r="E317" s="3" t="s">
         <v>2</v>
       </c>
@@ -45252,6 +45993,9 @@
       <c r="A318" s="8"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
+      <c r="D318" t="s">
+        <v>883</v>
+      </c>
       <c r="E318" s="3" t="s">
         <v>2</v>
       </c>
@@ -45270,13 +46014,22 @@
       <c r="L318" s="3"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A319" s="8"/>
-      <c r="B319" s="3"/>
+      <c r="A319" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B319" s="25" t="s">
+        <v>886</v>
+      </c>
       <c r="C319" s="3"/>
+      <c r="D319" s="16" t="s">
+        <v>789</v>
+      </c>
       <c r="E319" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F319" s="3"/>
+      <c r="F319" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G319" s="3" t="s">
         <v>2</v>
       </c>
@@ -45292,7 +46045,9 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" s="8"/>
-      <c r="B320" s="3"/>
+      <c r="B320" s="25" t="s">
+        <v>887</v>
+      </c>
       <c r="C320" s="3"/>
       <c r="E320" s="3" t="s">
         <v>2</v>
@@ -45312,13 +46067,19 @@
       <c r="L320" s="3"/>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A321" s="8"/>
-      <c r="B321" s="3"/>
+      <c r="A321" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>892</v>
+      </c>
       <c r="C321" s="3"/>
       <c r="E321" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F321" s="3"/>
+      <c r="F321" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G321" s="3" t="s">
         <v>2</v>
       </c>
@@ -45334,7 +46095,9 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" s="8"/>
-      <c r="B322" s="3"/>
+      <c r="B322" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="C322" s="3"/>
       <c r="E322" s="3" t="s">
         <v>2</v>
@@ -45355,7 +46118,9 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
-      <c r="B323" s="3"/>
+      <c r="B323" s="3" t="s">
+        <v>894</v>
+      </c>
       <c r="C323" s="3"/>
       <c r="E323" s="3" t="s">
         <v>2</v>
@@ -45375,9 +46140,16 @@
       <c r="L323" s="3"/>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A324" s="8"/>
-      <c r="B324" s="3"/>
+      <c r="A324" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="B324" s="25" t="s">
+        <v>891</v>
+      </c>
       <c r="C324" s="3"/>
+      <c r="D324" t="s">
+        <v>890</v>
+      </c>
       <c r="E324" s="3" t="s">
         <v>2</v>
       </c>
@@ -45396,13 +46168,22 @@
       <c r="L324" s="3"/>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A325" s="8"/>
-      <c r="B325" s="3"/>
+      <c r="A325" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="C325" s="3"/>
+      <c r="D325" t="s">
+        <v>906</v>
+      </c>
       <c r="E325" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F325" s="3"/>
+      <c r="F325" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G325" s="3" t="s">
         <v>2</v>
       </c>
@@ -45418,7 +46199,9 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" s="8"/>
-      <c r="B326" s="3"/>
+      <c r="B326" s="3" t="s">
+        <v>898</v>
+      </c>
       <c r="C326" s="3"/>
       <c r="E326" s="3" t="s">
         <v>2</v>
@@ -45439,7 +46222,9 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" s="8"/>
-      <c r="B327" s="3"/>
+      <c r="B327" s="3" t="s">
+        <v>899</v>
+      </c>
       <c r="C327" s="3"/>
       <c r="E327" s="3" t="s">
         <v>2</v>
@@ -45459,13 +46244,22 @@
       <c r="L327" s="3"/>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A328" s="8"/>
-      <c r="B328" s="3"/>
+      <c r="A328" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>900</v>
+      </c>
       <c r="C328" s="3"/>
+      <c r="D328" t="s">
+        <v>905</v>
+      </c>
       <c r="E328" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F328" s="3"/>
+      <c r="F328" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G328" s="3" t="s">
         <v>2</v>
       </c>
@@ -45481,7 +46275,9 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329" s="8"/>
-      <c r="B329" s="3"/>
+      <c r="B329" s="3" t="s">
+        <v>901</v>
+      </c>
       <c r="C329" s="3"/>
       <c r="E329" s="3" t="s">
         <v>2</v>
@@ -45502,7 +46298,9 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" s="8"/>
-      <c r="B330" s="3"/>
+      <c r="B330" s="3" t="s">
+        <v>903</v>
+      </c>
       <c r="C330" s="3"/>
       <c r="E330" s="3" t="s">
         <v>2</v>
@@ -45523,7 +46321,9 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" s="8"/>
-      <c r="B331" s="3"/>
+      <c r="B331" s="3" t="s">
+        <v>904</v>
+      </c>
       <c r="C331" s="3"/>
       <c r="E331" s="3" t="s">
         <v>2</v>
@@ -45543,13 +46343,22 @@
       <c r="L331" s="3"/>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A332" s="8"/>
-      <c r="B332" s="3"/>
+      <c r="A332" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B332" s="25" t="s">
+        <v>908</v>
+      </c>
       <c r="C332" s="3"/>
+      <c r="D332" t="s">
+        <v>788</v>
+      </c>
       <c r="E332" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F332" s="3"/>
+      <c r="F332" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G332" s="3" t="s">
         <v>2</v>
       </c>
@@ -45564,13 +46373,22 @@
       <c r="L332" s="3"/>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A333" s="8"/>
-      <c r="B333" s="3"/>
+      <c r="A333" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="B333" s="25" t="s">
+        <v>911</v>
+      </c>
       <c r="C333" s="3"/>
+      <c r="D333" t="s">
+        <v>910</v>
+      </c>
       <c r="E333" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F333" s="3"/>
+      <c r="F333" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G333" s="3" t="s">
         <v>2</v>
       </c>
@@ -45585,13 +46403,22 @@
       <c r="L333" s="3"/>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A334" s="8"/>
-      <c r="B334" s="3"/>
+      <c r="A334" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="B334" s="25" t="s">
+        <v>913</v>
+      </c>
       <c r="C334" s="3"/>
+      <c r="D334" t="s">
+        <v>787</v>
+      </c>
       <c r="E334" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F334" s="3"/>
+      <c r="F334" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G334" s="3" t="s">
         <v>2</v>
       </c>
@@ -45606,13 +46433,22 @@
       <c r="L334" s="3"/>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A335" s="8"/>
-      <c r="B335" s="3"/>
+      <c r="A335" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="B335" s="25" t="s">
+        <v>915</v>
+      </c>
       <c r="C335" s="3"/>
+      <c r="D335" t="s">
+        <v>786</v>
+      </c>
       <c r="E335" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F335" s="3"/>
+      <c r="F335" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G335" s="3" t="s">
         <v>2</v>
       </c>
@@ -45627,13 +46463,22 @@
       <c r="L335" s="3"/>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A336" s="8"/>
-      <c r="B336" s="3"/>
+      <c r="A336" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>917</v>
+      </c>
       <c r="C336" s="3"/>
+      <c r="D336" t="s">
+        <v>920</v>
+      </c>
       <c r="E336" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F336" s="3"/>
+      <c r="F336" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G336" s="3" t="s">
         <v>2</v>
       </c>
@@ -45649,7 +46494,9 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" s="8"/>
-      <c r="B337" s="3"/>
+      <c r="B337" s="3" t="s">
+        <v>918</v>
+      </c>
       <c r="C337" s="3"/>
       <c r="E337" s="3" t="s">
         <v>2</v>
@@ -45670,7 +46517,9 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" s="8"/>
-      <c r="B338" s="3"/>
+      <c r="B338" s="3" t="s">
+        <v>919</v>
+      </c>
       <c r="C338" s="3"/>
       <c r="E338" s="3" t="s">
         <v>2</v>
@@ -45690,13 +46539,22 @@
       <c r="L338" s="3"/>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A339" s="8"/>
-      <c r="B339" s="3"/>
+      <c r="A339" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="B339" s="25" t="s">
+        <v>922</v>
+      </c>
       <c r="C339" s="3"/>
+      <c r="D339" t="s">
+        <v>785</v>
+      </c>
       <c r="E339" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F339" s="3"/>
+      <c r="F339" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G339" s="3" t="s">
         <v>2</v>
       </c>
@@ -45711,13 +46569,22 @@
       <c r="L339" s="3"/>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A340" s="8"/>
-      <c r="B340" s="3"/>
+      <c r="A340" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="C340" s="3"/>
+      <c r="D340" t="s">
+        <v>784</v>
+      </c>
       <c r="E340" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F340" s="3"/>
+      <c r="F340" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G340" s="3" t="s">
         <v>2</v>
       </c>
@@ -45733,7 +46600,9 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" s="8"/>
-      <c r="B341" s="3"/>
+      <c r="B341" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="C341" s="3"/>
       <c r="E341" s="3" t="s">
         <v>2</v>
@@ -45754,7 +46623,9 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342" s="8"/>
-      <c r="B342" s="3"/>
+      <c r="B342" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="C342" s="3"/>
       <c r="E342" s="3" t="s">
         <v>2</v>
@@ -45774,13 +46645,22 @@
       <c r="L342" s="3"/>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A343" s="8"/>
-      <c r="B343" s="3"/>
+      <c r="A343" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="B343" s="25" t="s">
+        <v>929</v>
+      </c>
       <c r="C343" s="3"/>
+      <c r="D343" t="s">
+        <v>783</v>
+      </c>
       <c r="E343" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F343" s="3"/>
+      <c r="F343" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G343" s="3" t="s">
         <v>2</v>
       </c>
@@ -45795,13 +46675,22 @@
       <c r="L343" s="3"/>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A344" s="8"/>
-      <c r="B344" s="3"/>
+      <c r="A344" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="B344" s="25" t="s">
+        <v>931</v>
+      </c>
       <c r="C344" s="3"/>
+      <c r="D344" t="s">
+        <v>782</v>
+      </c>
       <c r="E344" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F344" s="3"/>
+      <c r="F344" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G344" s="3" t="s">
         <v>2</v>
       </c>
@@ -45816,13 +46705,22 @@
       <c r="L344" s="3"/>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A345" s="8"/>
-      <c r="B345" s="3"/>
+      <c r="A345" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B345" s="25" t="s">
+        <v>933</v>
+      </c>
       <c r="C345" s="3"/>
+      <c r="D345" t="s">
+        <v>781</v>
+      </c>
       <c r="E345" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F345" s="3"/>
+      <c r="F345" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G345" s="3" t="s">
         <v>2</v>
       </c>
@@ -45837,13 +46735,22 @@
       <c r="L345" s="3"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A346" s="8"/>
-      <c r="B346" s="3"/>
+      <c r="A346" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>938</v>
+      </c>
       <c r="C346" s="3"/>
+      <c r="D346" t="s">
+        <v>780</v>
+      </c>
       <c r="E346" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F346" s="3"/>
+      <c r="F346" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G346" s="3" t="s">
         <v>2</v>
       </c>
@@ -45858,13 +46765,22 @@
       <c r="L346" s="3"/>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A347" s="8"/>
-      <c r="B347" s="3"/>
+      <c r="A347" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>939</v>
+      </c>
       <c r="C347" s="3"/>
+      <c r="D347" t="s">
+        <v>780</v>
+      </c>
       <c r="E347" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F347" s="3"/>
+      <c r="F347" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G347" s="3" t="s">
         <v>2</v>
       </c>
@@ -45879,13 +46795,22 @@
       <c r="L347" s="3"/>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A348" s="8"/>
-      <c r="B348" s="3"/>
+      <c r="A348" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>940</v>
+      </c>
       <c r="C348" s="3"/>
+      <c r="D348" t="s">
+        <v>941</v>
+      </c>
       <c r="E348" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F348" s="3"/>
+      <c r="F348" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G348" s="3" t="s">
         <v>2</v>
       </c>
@@ -45900,13 +46825,22 @@
       <c r="L348" s="3"/>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A349" s="8"/>
-      <c r="B349" s="3"/>
+      <c r="A349" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>943</v>
+      </c>
       <c r="C349" s="3"/>
+      <c r="D349" t="s">
+        <v>779</v>
+      </c>
       <c r="E349" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F349" s="3"/>
+      <c r="F349" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G349" s="3" t="s">
         <v>2</v>
       </c>
@@ -45922,7 +46856,9 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350" s="8"/>
-      <c r="B350" s="3"/>
+      <c r="B350" s="3" t="s">
+        <v>944</v>
+      </c>
       <c r="C350" s="3"/>
       <c r="E350" s="3" t="s">
         <v>2</v>
@@ -45943,7 +46879,9 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351" s="8"/>
-      <c r="B351" s="3"/>
+      <c r="B351" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="C351" s="3"/>
       <c r="E351" s="3" t="s">
         <v>2</v>
@@ -45964,7 +46902,9 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352" s="8"/>
-      <c r="B352" s="3"/>
+      <c r="B352" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="C352" s="3"/>
       <c r="E352" s="3" t="s">
         <v>2</v>
@@ -45984,13 +46924,22 @@
       <c r="L352" s="3"/>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A353" s="8"/>
-      <c r="B353" s="3"/>
+      <c r="A353" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>948</v>
+      </c>
       <c r="C353" s="3"/>
+      <c r="D353" s="17" t="s">
+        <v>778</v>
+      </c>
       <c r="E353" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F353" s="3"/>
+      <c r="F353" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G353" s="3" t="s">
         <v>2</v>
       </c>
@@ -46006,7 +46955,9 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" s="8"/>
-      <c r="B354" s="3"/>
+      <c r="B354" s="3" t="s">
+        <v>949</v>
+      </c>
       <c r="C354" s="3"/>
       <c r="E354" s="3" t="s">
         <v>2</v>
@@ -46026,13 +46977,22 @@
       <c r="L354" s="3"/>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A355" s="8"/>
-      <c r="B355" s="3"/>
+      <c r="A355" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="B355" s="25" t="s">
+        <v>951</v>
+      </c>
       <c r="C355" s="3"/>
+      <c r="D355" t="s">
+        <v>777</v>
+      </c>
       <c r="E355" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F355" s="3"/>
+      <c r="F355" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G355" s="3" t="s">
         <v>2</v>
       </c>
@@ -46047,13 +47007,22 @@
       <c r="L355" s="3"/>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A356" s="8"/>
-      <c r="B356" s="3"/>
+      <c r="A356" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="B356" s="25" t="s">
+        <v>953</v>
+      </c>
       <c r="C356" s="3"/>
+      <c r="D356" t="s">
+        <v>776</v>
+      </c>
       <c r="E356" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F356" s="3"/>
+      <c r="F356" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G356" s="3" t="s">
         <v>2</v>
       </c>
@@ -46068,10 +47037,16 @@
       <c r="L356" s="3"/>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A357" s="8"/>
-      <c r="B357" s="3"/>
+      <c r="A357" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="B357" s="25" t="s">
+        <v>958</v>
+      </c>
       <c r="C357" s="3"/>
-      <c r="D357" s="3"/>
+      <c r="D357" s="3" t="s">
+        <v>957</v>
+      </c>
       <c r="E357" s="3" t="s">
         <v>2</v>
       </c>
@@ -46090,14 +47065,22 @@
       <c r="L357" s="3"/>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A358" s="8"/>
-      <c r="B358" s="3"/>
+      <c r="A358" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>959</v>
+      </c>
       <c r="C358" s="3"/>
-      <c r="D358" s="3"/>
+      <c r="D358" s="3" t="s">
+        <v>775</v>
+      </c>
       <c r="E358" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F358" s="3"/>
+      <c r="F358" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G358" s="3" t="s">
         <v>2</v>
       </c>
@@ -46113,7 +47096,9 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" s="8"/>
-      <c r="B359" s="3"/>
+      <c r="B359" s="3" t="s">
+        <v>960</v>
+      </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3" t="s">
@@ -46135,7 +47120,9 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" s="8"/>
-      <c r="B360" s="3"/>
+      <c r="B360" s="3" t="s">
+        <v>961</v>
+      </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3" t="s">
@@ -46157,7 +47144,9 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" s="8"/>
-      <c r="B361" s="3"/>
+      <c r="B361" s="3" t="s">
+        <v>962</v>
+      </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3" t="s">
@@ -46179,7 +47168,9 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" s="8"/>
-      <c r="B362" s="3"/>
+      <c r="B362" s="3" t="s">
+        <v>963</v>
+      </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3" t="s">
@@ -46201,7 +47192,9 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" s="8"/>
-      <c r="B363" s="3"/>
+      <c r="B363" s="3" t="s">
+        <v>964</v>
+      </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3" t="s">
@@ -46223,7 +47216,9 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" s="8"/>
-      <c r="B364" s="3"/>
+      <c r="B364" s="3" t="s">
+        <v>965</v>
+      </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3" t="s">
@@ -46245,7 +47240,9 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" s="8"/>
-      <c r="B365" s="3"/>
+      <c r="B365" s="3" t="s">
+        <v>966</v>
+      </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3" t="s">
@@ -46266,14 +47263,22 @@
       <c r="L365" s="3"/>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A366" s="8"/>
-      <c r="B366" s="3"/>
+      <c r="A366" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B366" s="25" t="s">
+        <v>967</v>
+      </c>
       <c r="C366" s="3"/>
-      <c r="D366" s="3"/>
+      <c r="D366" s="3" t="s">
+        <v>774</v>
+      </c>
       <c r="E366" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F366" s="3"/>
+      <c r="F366" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G366" s="3" t="s">
         <v>2</v>
       </c>
@@ -46288,14 +47293,22 @@
       <c r="L366" s="3"/>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A367" s="8"/>
-      <c r="B367" s="3"/>
+      <c r="A367" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>969</v>
+      </c>
       <c r="C367" s="3"/>
-      <c r="D367" s="3"/>
+      <c r="D367" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="E367" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F367" s="3"/>
+      <c r="F367" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G367" s="3" t="s">
         <v>2</v>
       </c>
@@ -46311,7 +47324,9 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368" s="8"/>
-      <c r="B368" s="3"/>
+      <c r="B368" s="3" t="s">
+        <v>970</v>
+      </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3" t="s">
@@ -46332,14 +47347,22 @@
       <c r="L368" s="3"/>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A369" s="8"/>
-      <c r="B369" s="3"/>
+      <c r="A369" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="B369" s="25" t="s">
+        <v>973</v>
+      </c>
       <c r="C369" s="3"/>
-      <c r="D369" s="3"/>
+      <c r="D369" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="E369" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F369" s="3"/>
+      <c r="F369" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G369" s="3" t="s">
         <v>2</v>
       </c>
@@ -46354,14 +47377,22 @@
       <c r="L369" s="3"/>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A370" s="8"/>
-      <c r="B370" s="3"/>
+      <c r="A370" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="B370" s="25" t="s">
+        <v>975</v>
+      </c>
       <c r="C370" s="3"/>
-      <c r="D370" s="3"/>
+      <c r="D370" s="3" t="s">
+        <v>770</v>
+      </c>
       <c r="E370" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F370" s="3"/>
+      <c r="F370" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G370" s="3" t="s">
         <v>2</v>
       </c>
@@ -46376,14 +47407,22 @@
       <c r="L370" s="3"/>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A371" s="8"/>
-      <c r="B371" s="3"/>
+      <c r="A371" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="B371" s="25" t="s">
+        <v>976</v>
+      </c>
       <c r="C371" s="3"/>
-      <c r="D371" s="3"/>
+      <c r="D371" s="21" t="s">
+        <v>769</v>
+      </c>
       <c r="E371" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F371" s="3"/>
+      <c r="F371" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G371" s="3" t="s">
         <v>2</v>
       </c>
@@ -46398,14 +47437,22 @@
       <c r="L371" s="3"/>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A372" s="8"/>
-      <c r="B372" s="3"/>
+      <c r="A372" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>978</v>
+      </c>
       <c r="C372" s="3"/>
-      <c r="D372" s="3"/>
+      <c r="D372" s="3" t="s">
+        <v>768</v>
+      </c>
       <c r="E372" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F372" s="3"/>
+      <c r="F372" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G372" s="3" t="s">
         <v>2</v>
       </c>
@@ -46421,7 +47468,9 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" s="8"/>
-      <c r="B373" s="3"/>
+      <c r="B373" s="3" t="s">
+        <v>979</v>
+      </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3" t="s">
@@ -46442,14 +47491,22 @@
       <c r="L373" s="3"/>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A374" s="8"/>
-      <c r="B374" s="3"/>
+      <c r="A374" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>983</v>
+      </c>
       <c r="C374" s="3"/>
-      <c r="D374" s="3"/>
+      <c r="D374" s="3" t="s">
+        <v>982</v>
+      </c>
       <c r="E374" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F374" s="3"/>
+      <c r="F374" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G374" s="3" t="s">
         <v>2</v>
       </c>
@@ -46465,7 +47522,9 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" s="8"/>
-      <c r="B375" s="3"/>
+      <c r="B375" s="3" t="s">
+        <v>984</v>
+      </c>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3" t="s">
@@ -46486,14 +47545,22 @@
       <c r="L375" s="3"/>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A376" s="8"/>
-      <c r="B376" s="3"/>
+      <c r="A376" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>986</v>
+      </c>
       <c r="C376" s="3"/>
-      <c r="D376" s="3"/>
+      <c r="D376" s="3" t="s">
+        <v>767</v>
+      </c>
       <c r="E376" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F376" s="3"/>
+      <c r="F376" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G376" s="3" t="s">
         <v>2</v>
       </c>
@@ -46509,7 +47576,9 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" s="8"/>
-      <c r="B377" s="3"/>
+      <c r="B377" s="3" t="s">
+        <v>987</v>
+      </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3" t="s">
@@ -46530,14 +47599,22 @@
       <c r="L377" s="3"/>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A378" s="8"/>
-      <c r="B378" s="3"/>
+      <c r="A378" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="B378" s="25" t="s">
+        <v>989</v>
+      </c>
       <c r="C378" s="3"/>
-      <c r="D378" s="3"/>
+      <c r="D378" s="21" t="s">
+        <v>766</v>
+      </c>
       <c r="E378" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F378" s="3"/>
+      <c r="F378" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G378" s="3" t="s">
         <v>2</v>
       </c>
@@ -46552,14 +47629,22 @@
       <c r="L378" s="3"/>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A379" s="8"/>
-      <c r="B379" s="3"/>
+      <c r="A379" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>992</v>
+      </c>
       <c r="C379" s="3"/>
-      <c r="D379" s="3"/>
+      <c r="D379" s="3" t="s">
+        <v>765</v>
+      </c>
       <c r="E379" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F379" s="3"/>
+      <c r="F379" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G379" s="3" t="s">
         <v>2</v>
       </c>
@@ -46575,7 +47660,9 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380" s="8"/>
-      <c r="B380" s="3"/>
+      <c r="B380" s="3" t="s">
+        <v>993</v>
+      </c>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3" t="s">
@@ -46597,7 +47684,9 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381" s="8"/>
-      <c r="B381" s="3"/>
+      <c r="B381" s="3" t="s">
+        <v>994</v>
+      </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3" t="s">
@@ -46618,14 +47707,22 @@
       <c r="L381" s="3"/>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A382" s="8"/>
-      <c r="B382" s="3"/>
+      <c r="A382" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>991</v>
+      </c>
       <c r="C382" s="3"/>
-      <c r="D382" s="3"/>
+      <c r="D382" s="3" t="s">
+        <v>765</v>
+      </c>
       <c r="E382" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F382" s="3"/>
+      <c r="F382" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G382" s="3" t="s">
         <v>2</v>
       </c>
@@ -46640,14 +47737,22 @@
       <c r="L382" s="3"/>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A383" s="8"/>
-      <c r="B383" s="3"/>
+      <c r="A383" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>997</v>
+      </c>
       <c r="C383" s="3"/>
-      <c r="D383" s="3"/>
+      <c r="D383" s="3" t="s">
+        <v>764</v>
+      </c>
       <c r="E383" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F383" s="3"/>
+      <c r="F383" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G383" s="3" t="s">
         <v>2</v>
       </c>
@@ -46663,7 +47768,9 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" s="8"/>
-      <c r="B384" s="3"/>
+      <c r="B384" s="3" t="s">
+        <v>998</v>
+      </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3" t="s">
@@ -46685,7 +47792,9 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385" s="8"/>
-      <c r="B385" s="3"/>
+      <c r="B385" s="3" t="s">
+        <v>999</v>
+      </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3" t="s">
@@ -46706,14 +47815,22 @@
       <c r="L385" s="3"/>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A386" s="8"/>
-      <c r="B386" s="3"/>
+      <c r="A386" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>1000</v>
+      </c>
       <c r="C386" s="3"/>
-      <c r="D386" s="3"/>
+      <c r="D386" s="3" t="s">
+        <v>764</v>
+      </c>
       <c r="E386" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F386" s="3"/>
+      <c r="F386" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G386" s="3" t="s">
         <v>2</v>
       </c>
@@ -46728,14 +47845,22 @@
       <c r="L386" s="3"/>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A387" s="8"/>
-      <c r="B387" s="3"/>
+      <c r="A387" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B387" s="25" t="s">
+        <v>1003</v>
+      </c>
       <c r="C387" s="3"/>
-      <c r="D387" s="3"/>
+      <c r="D387" s="3" t="s">
+        <v>763</v>
+      </c>
       <c r="E387" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F387" s="3"/>
+      <c r="F387" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G387" s="3" t="s">
         <v>2</v>
       </c>
@@ -46750,14 +47875,22 @@
       <c r="L387" s="3"/>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A388" s="8"/>
-      <c r="B388" s="3"/>
+      <c r="A388" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B388" s="25" t="s">
+        <v>1005</v>
+      </c>
       <c r="C388" s="3"/>
-      <c r="D388" s="3"/>
+      <c r="D388" s="3" t="s">
+        <v>762</v>
+      </c>
       <c r="E388" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F388" s="3"/>
+      <c r="F388" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G388" s="3" t="s">
         <v>2</v>
       </c>
@@ -46772,14 +47905,22 @@
       <c r="L388" s="3"/>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A389" s="8"/>
-      <c r="B389" s="3"/>
+      <c r="A389" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B389" s="25" t="s">
+        <v>1006</v>
+      </c>
       <c r="C389" s="3"/>
-      <c r="D389" s="3"/>
+      <c r="D389" s="3" t="s">
+        <v>761</v>
+      </c>
       <c r="E389" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F389" s="3"/>
+      <c r="F389" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G389" s="3" t="s">
         <v>2</v>
       </c>
@@ -46794,14 +47935,22 @@
       <c r="L389" s="3"/>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A390" s="8"/>
-      <c r="B390" s="3"/>
+      <c r="A390" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B390" s="25" t="s">
+        <v>1009</v>
+      </c>
       <c r="C390" s="3"/>
-      <c r="D390" s="3"/>
+      <c r="D390" s="3" t="s">
+        <v>760</v>
+      </c>
       <c r="E390" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F390" s="3"/>
+      <c r="F390" s="25" t="s">
+        <v>1010</v>
+      </c>
       <c r="G390" s="3" t="s">
         <v>2</v>
       </c>
@@ -46816,14 +47965,22 @@
       <c r="L390" s="3"/>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A391" s="8"/>
-      <c r="B391" s="3"/>
+      <c r="A391" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B391" s="25" t="s">
+        <v>1012</v>
+      </c>
       <c r="C391" s="3"/>
-      <c r="D391" s="3"/>
+      <c r="D391" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="E391" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F391" s="3"/>
+      <c r="F391" s="3" t="s">
+        <v>1018</v>
+      </c>
       <c r="G391" s="3" t="s">
         <v>2</v>
       </c>
@@ -46839,7 +47996,9 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" s="8"/>
-      <c r="B392" s="3"/>
+      <c r="B392" s="25" t="s">
+        <v>1013</v>
+      </c>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3" t="s">
@@ -46860,14 +48019,22 @@
       <c r="L392" s="3"/>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A393" s="8"/>
-      <c r="B393" s="3"/>
+      <c r="A393" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B393" s="25" t="s">
+        <v>1014</v>
+      </c>
       <c r="C393" s="3"/>
-      <c r="D393" s="3"/>
+      <c r="D393" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="E393" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F393" s="3"/>
+      <c r="F393" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G393" s="3" t="s">
         <v>2</v>
       </c>
@@ -46882,14 +48049,22 @@
       <c r="L393" s="3"/>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A394" s="8"/>
-      <c r="B394" s="3"/>
+      <c r="A394" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B394" s="25" t="s">
+        <v>1019</v>
+      </c>
       <c r="C394" s="3"/>
-      <c r="D394" s="3"/>
+      <c r="D394" s="3" t="s">
+        <v>759</v>
+      </c>
       <c r="E394" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F394" s="3"/>
+      <c r="F394" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G394" s="3" t="s">
         <v>2</v>
       </c>
@@ -46904,14 +48079,22 @@
       <c r="L394" s="3"/>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A395" s="8"/>
-      <c r="B395" s="3"/>
+      <c r="A395" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B395" s="25" t="s">
+        <v>1021</v>
+      </c>
       <c r="C395" s="3"/>
-      <c r="D395" s="3"/>
+      <c r="D395" s="3" t="s">
+        <v>758</v>
+      </c>
       <c r="E395" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F395" s="3"/>
+      <c r="F395" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G395" s="3" t="s">
         <v>2</v>
       </c>
@@ -46929,7 +48112,9 @@
       <c r="A396" s="8"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
-      <c r="D396" s="3"/>
+      <c r="D396" s="3" t="s">
+        <v>757</v>
+      </c>
       <c r="E396" s="3" t="s">
         <v>2</v>
       </c>
@@ -46948,14 +48133,22 @@
       <c r="L396" s="3"/>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A397" s="8"/>
-      <c r="B397" s="3"/>
+      <c r="A397" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>1027</v>
+      </c>
       <c r="C397" s="3"/>
-      <c r="D397" s="3"/>
+      <c r="D397" s="3" t="s">
+        <v>758</v>
+      </c>
       <c r="E397" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F397" s="3"/>
+      <c r="F397" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G397" s="3" t="s">
         <v>2</v>
       </c>
@@ -46971,9 +48164,13 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398" s="8"/>
-      <c r="B398" s="3"/>
+      <c r="B398" s="3" t="s">
+        <v>1028</v>
+      </c>
       <c r="C398" s="3"/>
-      <c r="D398" s="3"/>
+      <c r="D398" s="3" t="s">
+        <v>757</v>
+      </c>
       <c r="E398" s="3" t="s">
         <v>2</v>
       </c>
@@ -46993,7 +48190,9 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399" s="8"/>
-      <c r="B399" s="3"/>
+      <c r="B399" s="3" t="s">
+        <v>1029</v>
+      </c>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3" t="s">
@@ -47015,7 +48214,9 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400" s="8"/>
-      <c r="B400" s="3"/>
+      <c r="B400" s="3" t="s">
+        <v>1030</v>
+      </c>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3" t="s">
@@ -47036,14 +48237,22 @@
       <c r="L400" s="3"/>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A401" s="8"/>
-      <c r="B401" s="3"/>
+      <c r="A401" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B401" s="25" t="s">
+        <v>1031</v>
+      </c>
       <c r="C401" s="3"/>
-      <c r="D401" s="3"/>
+      <c r="D401" s="3" t="s">
+        <v>757</v>
+      </c>
       <c r="E401" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F401" s="3"/>
+      <c r="F401" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G401" s="3" t="s">
         <v>2</v>
       </c>
@@ -47059,7 +48268,9 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" s="8"/>
-      <c r="B402" s="3"/>
+      <c r="B402" s="25" t="s">
+        <v>1032</v>
+      </c>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3" t="s">
@@ -47081,7 +48292,9 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403" s="8"/>
-      <c r="B403" s="3"/>
+      <c r="B403" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3" t="s">
@@ -47103,7 +48316,9 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" s="8"/>
-      <c r="B404" s="3"/>
+      <c r="B404" s="25" t="s">
+        <v>1034</v>
+      </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3" t="s">
@@ -47124,14 +48339,22 @@
       <c r="L404" s="3"/>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A405" s="8"/>
-      <c r="B405" s="3"/>
+      <c r="A405" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B405" s="25" t="s">
+        <v>1024</v>
+      </c>
       <c r="C405" s="3"/>
-      <c r="D405" s="3"/>
+      <c r="D405" s="3" t="s">
+        <v>1025</v>
+      </c>
       <c r="E405" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F405" s="3"/>
+      <c r="F405" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G405" s="3" t="s">
         <v>2</v>
       </c>
@@ -47146,10 +48369,16 @@
       <c r="L405" s="3"/>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A406" s="8"/>
-      <c r="B406" s="3"/>
+      <c r="A406" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>1038</v>
+      </c>
       <c r="C406" s="3"/>
-      <c r="D406" s="3"/>
+      <c r="D406" s="3" t="s">
+        <v>1036</v>
+      </c>
       <c r="E406" s="3" t="s">
         <v>2</v>
       </c>
@@ -47171,7 +48400,9 @@
       <c r="A407" s="8"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
-      <c r="D407" s="3"/>
+      <c r="D407" s="3" t="s">
+        <v>1037</v>
+      </c>
       <c r="E407" s="3" t="s">
         <v>2</v>
       </c>
@@ -47190,14 +48421,22 @@
       <c r="L407" s="3"/>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A408" s="8"/>
-      <c r="B408" s="3"/>
+      <c r="A408" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>1039</v>
+      </c>
       <c r="C408" s="3"/>
-      <c r="D408" s="3"/>
+      <c r="D408" s="21" t="s">
+        <v>756</v>
+      </c>
       <c r="E408" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F408" s="3"/>
+      <c r="F408" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G408" s="3" t="s">
         <v>2</v>
       </c>
@@ -47213,7 +48452,9 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409" s="8"/>
-      <c r="B409" s="3"/>
+      <c r="B409" s="3" t="s">
+        <v>1040</v>
+      </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3" t="s">
@@ -47234,14 +48475,22 @@
       <c r="L409" s="3"/>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A410" s="8"/>
-      <c r="B410" s="3"/>
+      <c r="A410" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B410" s="25" t="s">
+        <v>1043</v>
+      </c>
       <c r="C410" s="3"/>
-      <c r="D410" s="3"/>
+      <c r="D410" s="3" t="s">
+        <v>1042</v>
+      </c>
       <c r="E410" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F410" s="3"/>
+      <c r="F410" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G410" s="3" t="s">
         <v>2</v>
       </c>
@@ -47256,14 +48505,22 @@
       <c r="L410" s="3"/>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A411" s="8"/>
-      <c r="B411" s="3"/>
+      <c r="A411" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B411" s="25" t="s">
+        <v>1046</v>
+      </c>
       <c r="C411" s="3"/>
-      <c r="D411" s="3"/>
+      <c r="D411" s="3" t="s">
+        <v>1047</v>
+      </c>
       <c r="E411" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F411" s="3"/>
+      <c r="F411" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G411" s="3" t="s">
         <v>2</v>
       </c>
@@ -47278,14 +48535,22 @@
       <c r="L411" s="3"/>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A412" s="8"/>
-      <c r="B412" s="3"/>
+      <c r="A412" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B412" s="25" t="s">
+        <v>1049</v>
+      </c>
       <c r="C412" s="3"/>
-      <c r="D412" s="3"/>
+      <c r="D412" s="3" t="s">
+        <v>1050</v>
+      </c>
       <c r="E412" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F412" s="3"/>
+      <c r="F412" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G412" s="3" t="s">
         <v>2</v>
       </c>
@@ -47303,7 +48568,9 @@
       <c r="A413" s="8"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
-      <c r="D413" s="3"/>
+      <c r="D413" s="3" t="s">
+        <v>1051</v>
+      </c>
       <c r="E413" s="3" t="s">
         <v>2</v>
       </c>
@@ -47322,14 +48589,22 @@
       <c r="L413" s="3"/>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A414" s="8"/>
-      <c r="B414" s="3"/>
+      <c r="A414" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>1054</v>
+      </c>
       <c r="C414" s="3"/>
-      <c r="D414" s="3"/>
+      <c r="D414" s="3" t="s">
+        <v>1053</v>
+      </c>
       <c r="E414" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F414" s="3"/>
+      <c r="F414" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G414" s="3" t="s">
         <v>2</v>
       </c>
@@ -47345,7 +48620,9 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415" s="8"/>
-      <c r="B415" s="3"/>
+      <c r="B415" s="3" t="s">
+        <v>1055</v>
+      </c>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3" t="s">
@@ -47366,14 +48643,22 @@
       <c r="L415" s="3"/>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A416" s="8"/>
-      <c r="B416" s="3"/>
+      <c r="A416" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>1058</v>
+      </c>
       <c r="C416" s="3"/>
-      <c r="D416" s="3"/>
+      <c r="D416" s="3" t="s">
+        <v>1057</v>
+      </c>
       <c r="E416" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F416" s="3"/>
+      <c r="F416" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G416" s="3" t="s">
         <v>2</v>
       </c>
@@ -47389,7 +48674,9 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417" s="8"/>
-      <c r="B417" s="3"/>
+      <c r="B417" s="3" t="s">
+        <v>1059</v>
+      </c>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3" t="s">
@@ -47410,14 +48697,22 @@
       <c r="L417" s="3"/>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A418" s="8"/>
-      <c r="B418" s="3"/>
+      <c r="A418" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>1066</v>
+      </c>
       <c r="C418" s="3"/>
-      <c r="D418" s="3"/>
+      <c r="D418" s="3" t="s">
+        <v>1062</v>
+      </c>
       <c r="E418" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F418" s="3"/>
+      <c r="F418" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G418" s="3" t="s">
         <v>2</v>
       </c>
@@ -47433,9 +48728,13 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419" s="8"/>
-      <c r="B419" s="3"/>
+      <c r="B419" s="3" t="s">
+        <v>1067</v>
+      </c>
       <c r="C419" s="3"/>
-      <c r="D419" s="3"/>
+      <c r="D419" s="3" t="s">
+        <v>1063</v>
+      </c>
       <c r="E419" s="3" t="s">
         <v>2</v>
       </c>
@@ -47455,9 +48754,13 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420" s="8"/>
-      <c r="B420" s="3"/>
+      <c r="B420" s="3" t="s">
+        <v>1068</v>
+      </c>
       <c r="C420" s="3"/>
-      <c r="D420" s="3"/>
+      <c r="D420" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="E420" s="3" t="s">
         <v>2</v>
       </c>
@@ -47477,9 +48780,13 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421" s="8"/>
-      <c r="B421" s="3"/>
+      <c r="B421" s="3" t="s">
+        <v>1069</v>
+      </c>
       <c r="C421" s="3"/>
-      <c r="D421" s="3"/>
+      <c r="D421" s="3" t="s">
+        <v>1065</v>
+      </c>
       <c r="E421" s="3" t="s">
         <v>2</v>
       </c>
@@ -47499,7 +48806,9 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422" s="8"/>
-      <c r="B422" s="3"/>
+      <c r="B422" s="3" t="s">
+        <v>1070</v>
+      </c>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3" t="s">
@@ -47521,7 +48830,9 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423" s="8"/>
-      <c r="B423" s="3"/>
+      <c r="B423" s="3" t="s">
+        <v>1071</v>
+      </c>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3" t="s">
@@ -47543,7 +48854,9 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424" s="8"/>
-      <c r="B424" s="3"/>
+      <c r="B424" s="3" t="s">
+        <v>1072</v>
+      </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3" t="s">
@@ -47565,7 +48878,9 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425" s="8"/>
-      <c r="B425" s="3"/>
+      <c r="B425" s="3" t="s">
+        <v>1073</v>
+      </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3" t="s">
@@ -47586,14 +48901,22 @@
       <c r="L425" s="3"/>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A426" s="8"/>
-      <c r="B426" s="3"/>
+      <c r="A426" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1074</v>
+      </c>
       <c r="C426" s="3"/>
-      <c r="D426" s="3"/>
+      <c r="D426" s="3" t="s">
+        <v>1080</v>
+      </c>
       <c r="E426" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F426" s="3"/>
+      <c r="F426" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="G426" s="3" t="s">
         <v>2</v>
       </c>
@@ -47609,7 +48932,9 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427" s="8"/>
-      <c r="B427" s="3"/>
+      <c r="B427" s="3" t="s">
+        <v>1075</v>
+      </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3" t="s">
@@ -47631,7 +48956,9 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428" s="8"/>
-      <c r="B428" s="3"/>
+      <c r="B428" s="3" t="s">
+        <v>1076</v>
+      </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3" t="s">
@@ -47653,7 +48980,9 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429" s="8"/>
-      <c r="B429" s="3"/>
+      <c r="B429" s="3" t="s">
+        <v>1077</v>
+      </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3" t="s">
@@ -47675,7 +49004,9 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430" s="8"/>
-      <c r="B430" s="3"/>
+      <c r="B430" s="3" t="s">
+        <v>1078</v>
+      </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3" t="s">
@@ -47697,7 +49028,9 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431" s="8"/>
-      <c r="B431" s="3"/>
+      <c r="B431" s="3" t="s">
+        <v>1079</v>
+      </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3" t="s">
@@ -52537,48 +53870,72 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F389 E391:F1048576 E390">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsBlanks" dxfId="9" priority="26">
+    <cfRule type="containsBlanks" dxfId="29" priority="32">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="8" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="34">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F1048576">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="no">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F389 E391:F1048576 E390">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F1048576">
-    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F389 E391:F1048576 E390">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C214 C217:C218 C222 C225:C244 K2:K650 C255:C1048576 C248:C253">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+  <conditionalFormatting sqref="C1:C214 C217:C218 C222 C225:C244 K2:K650 C255:C401 C248:C253 C403 C406:C1048576">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M651:M1048576 L1:L650">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:C221">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C402">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C404">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C405">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -54030,10 +55387,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF708186-B126-4883-AC9D-969FF2216082}">
-  <dimension ref="B1:B82"/>
+  <dimension ref="B1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54043,313 +55400,196 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
-        <v>833</v>
+        <v>809</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
-        <v>739</v>
-      </c>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
-        <v>757</v>
-      </c>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
-        <v>758</v>
-      </c>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
-        <v>759</v>
-      </c>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
-        <v>760</v>
-      </c>
+      <c r="B6" s="22"/>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>761</v>
-      </c>
+      <c r="B7" s="16"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
-        <v>762</v>
-      </c>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>763</v>
-      </c>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>764</v>
-      </c>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>765</v>
-      </c>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
-        <v>766</v>
-      </c>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>767</v>
-      </c>
+      <c r="B13" s="16"/>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
-        <v>768</v>
-      </c>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>769</v>
-      </c>
+      <c r="B15" s="16"/>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>770</v>
-      </c>
+      <c r="B16" s="21"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>771</v>
-      </c>
+      <c r="B17" s="16"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="21" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="16" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="21" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="21" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="16" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="21" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="19" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="21" t="s">
-        <v>802</v>
-      </c>
+      <c r="C33" t="s">
+        <v>835</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="21"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="21"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="21"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="16" t="s">
-        <v>803</v>
-      </c>
+      <c r="B49" s="16"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="21" t="s">
-        <v>804</v>
-      </c>
+      <c r="B50" s="21"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
-        <v>805</v>
-      </c>
+      <c r="B51" s="16"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="21" t="s">
-        <v>806</v>
-      </c>
+      <c r="B52" s="21"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="16" t="s">
-        <v>807</v>
-      </c>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="21" t="s">
-        <v>808</v>
-      </c>
+      <c r="B54" s="21"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="16" t="s">
-        <v>809</v>
-      </c>
+      <c r="B55" s="16"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="21" t="s">
-        <v>810</v>
-      </c>
+      <c r="B56" s="21"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="16" t="s">
-        <v>811</v>
-      </c>
+      <c r="B57" s="16"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="21" t="s">
-        <v>812</v>
-      </c>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="16" t="s">
-        <v>813</v>
-      </c>
+      <c r="B59" s="16"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="21" t="s">
-        <v>814</v>
-      </c>
+      <c r="B60" s="21"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="16" t="s">
-        <v>815</v>
-      </c>
+      <c r="B61" s="16"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="21" t="s">
-        <v>816</v>
-      </c>
+      <c r="B62" s="24"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="16"/>
@@ -54357,63 +55597,75 @@
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="21"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="21" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="16"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="21"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="16"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="21"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="16"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="21"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="21" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="16" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="C70" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="16" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="C72" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="16"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="21"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="16"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="21"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="16"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="21"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="16"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="24"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D8D160FD-E47E-4D93-89F8-F3C962C87544}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{47BE0D51-5B38-429E-AB2F-819C965740FE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/filters.xlsx
+++ b/filters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2214" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1FDD0A3-9D80-4D7C-AA78-240E9DE4BB09}"/>
+  <xr:revisionPtr revIDLastSave="2608" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF638410-5DD8-48C5-BF46-239F2913F85A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filters" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="1130">
   <si>
     <t>Filter</t>
   </si>
@@ -1901,9 +1901,6 @@
     <t>https://businessinsider.com.pl/finanse/handel/przyszlosc-hipermarketow-tesco-carrefour-auchan-kaufland/y2j7447</t>
   </si>
   <si>
-    <t>https://www.polsatnews.pl/</t>
-  </si>
-  <si>
     <t>https://www.polsatsport.pl/</t>
   </si>
   <si>
@@ -1922,12 +1919,6 @@
     <t>https://dziennikpolski24.pl/w-wielickiej-strefie-aktywnosci-gospodarczej-kokotow-brzegi-ulokuje-sie-znana-marka-modowa-answearcom-zatrudnia-1300-osob/ar/c3-14278359</t>
   </si>
   <si>
-    <t>||stat24.com^*/ado.js|$script,domain=polsatsport.pl|polsatnews.pl</t>
-  </si>
-  <si>
-    <t>dziennikpolski24.pl##[id^="dfp-"]:not([id])</t>
-  </si>
-  <si>
     <t>128</t>
   </si>
   <si>
@@ -1958,24 +1949,12 @@
     <t>137</t>
   </si>
   <si>
-    <t>https://www.automotivesuppliers.pl/pl/europa/ruszyla-produkcja-opla-grandlanda-x-w-eisenach</t>
-  </si>
-  <si>
     <t>||automotivesuppliers.pl^*^djmediatools^*-lewa-kolumna-</t>
   </si>
   <si>
-    <t>||automotivesuppliers.pl^*^30_stare_banery_prawa_kolumna^</t>
-  </si>
-  <si>
-    <t>automotivesuppliers.pl##img[width="370"][height="140"]</t>
-  </si>
-  <si>
     <t>138</t>
   </si>
   <si>
-    <t>||betonline.net.pl^*^sts29.</t>
-  </si>
-  <si>
     <t>139</t>
   </si>
   <si>
@@ -1985,21 +1964,9 @@
     <t>140</t>
   </si>
   <si>
-    <t>automatyka.pl##.advertHd + div</t>
-  </si>
-  <si>
     <t>https://www.laboratoria.xtech.pl/</t>
   </si>
   <si>
-    <t>||automatyka.pl/as^$image</t>
-  </si>
-  <si>
-    <t>||laboratoria.xtech.pl/as^$image</t>
-  </si>
-  <si>
-    <t>laboratoria.xtech.pl##.advertHd + div</t>
-  </si>
-  <si>
     <t>https://www.4lomza.pl/</t>
   </si>
   <si>
@@ -2009,30 +1976,12 @@
     <t>http://tkn24.pl/</t>
   </si>
   <si>
-    <t>tkn24.pl##.textwidget &gt; center &gt; a[target="_blank"]:not([href^="http://tkn24.pl/"])</t>
-  </si>
-  <si>
-    <t>tkn24.pl#?#center:-abp-has(font:-abp-contains(REKLAMA))</t>
-  </si>
-  <si>
-    <t>||tkn24.pl^*^a_szejna_internet_</t>
-  </si>
-  <si>
-    <t>||tkn24.pl^*^CichockiDajczer-</t>
-  </si>
-  <si>
     <t>https://meczelive.tv/</t>
   </si>
   <si>
     <t>https://epilka.pl/</t>
   </si>
   <si>
-    <t>||epilka.pl^*^player_canal.</t>
-  </si>
-  <si>
-    <t>https://meczelive.tv</t>
-  </si>
-  <si>
     <t>https://www.mecze.com/</t>
   </si>
   <si>
@@ -2069,18 +2018,6 @@
     <t>https://www.mecze24.pl/</t>
   </si>
   <si>
-    <t>^300^$domain=kuszotv.pl|oddslivesport.com|meczelive.tv|epilka.pl|mecze.com|worldofbookmakers.com|mecze24.pl</t>
-  </si>
-  <si>
-    <t>^728^$domain=kuszotv.pl|oddslivesport.com|meczelive.tv|epilka.pl|mecze.com|worldofbookmakers.com|mecze24.pl</t>
-  </si>
-  <si>
-    <t>^468^$image,domain=kuszotv.pl|meczenazywo.pl</t>
-  </si>
-  <si>
-    <t>https://www.meczenazywo.pl/</t>
-  </si>
-  <si>
     <t>||worldofbookmakers.com^*^sts300.</t>
   </si>
   <si>
@@ -2189,9 +2126,6 @@
     <t>||typersi.pl^*^milenium/baner_</t>
   </si>
   <si>
-    <t>https://typersi.pl/typer,45522,Clement.html</t>
-  </si>
-  <si>
     <t>154</t>
   </si>
   <si>
@@ -2210,12 +2144,6 @@
     <t>||sokolka.tv^*^sokole-oko-</t>
   </si>
   <si>
-    <t>||sokolka.tv^*^bricogifwrzosy.</t>
-  </si>
-  <si>
-    <t>||sokolka.tv^*^alior.</t>
-  </si>
-  <si>
     <t>||sokolka.tv^*_250x250_</t>
   </si>
   <si>
@@ -2225,9 +2153,6 @@
     <t>||uzz.thrash.pl/file^$image,domain=arka.tv</t>
   </si>
   <si>
-    <t>||dziennikpolski24.pl^*^ads?$script,xmlhttprequest,domain=dziennikpolski24.pl</t>
-  </si>
-  <si>
     <t>biznesalert.pl##.banner-img</t>
   </si>
   <si>
@@ -2258,27 +2183,18 @@
     <t>||swiatoze.pl^*_336x280.</t>
   </si>
   <si>
-    <t>||swiatoze.pl^*^Nowa-oferta_OZE_gif.</t>
-  </si>
-  <si>
     <t>157</t>
   </si>
   <si>
     <t>todo</t>
   </si>
   <si>
-    <t>correct</t>
-  </si>
-  <si>
     <t>158</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
-    <t>gramwzielone.pl##.banner</t>
-  </si>
-  <si>
     <t>https://nowawrzesnia.pl/index.php/aktualnosci/item/6470-nowe-karetki-dla-wrzesinskiego-szpitala</t>
   </si>
   <si>
@@ -2384,9 +2300,6 @@
     <t>http://www.tygodnik-rolniczy.pl</t>
   </si>
   <si>
-    <t>http://tradersarea.pl</t>
-  </si>
-  <si>
     <t>https://trawka.org</t>
   </si>
   <si>
@@ -2414,9 +2327,6 @@
     <t>http://uavo.com.pl/gdzie-zdawac-egzamin/</t>
   </si>
   <si>
-    <t>https://wadowice24.pl/brzeznica.html</t>
-  </si>
-  <si>
     <t>http://wczestochowie.pl/artykul/33546,95-letnia-wloszka-dotarla-na-jasna-gore.-pokonala-pieszo-tysiac-kilometrow-</t>
   </si>
   <si>
@@ -2444,39 +2354,21 @@
     <t>160</t>
   </si>
   <si>
-    <t>wlkp24.info##.g-single</t>
-  </si>
-  <si>
-    <t>wlkp24.info##.g-dyn</t>
-  </si>
-  <si>
     <t>obsolete</t>
   </si>
   <si>
     <t>161</t>
   </si>
   <si>
-    <t>||wysokomazowiecki24.pl^*^banery2019^</t>
-  </si>
-  <si>
-    <t>wysokomazowiecki24.pl##.sp-reklamatop</t>
-  </si>
-  <si>
     <t>162</t>
   </si>
   <si>
-    <t>miastokobiet.pl##img[alt="banner"]</t>
-  </si>
-  <si>
     <t>163</t>
   </si>
   <si>
     <t>wronieckibazar.pl###custom_html-3</t>
   </si>
   <si>
-    <t>wronieckibazar.pl###custom_html-2</t>
-  </si>
-  <si>
     <t>164</t>
   </si>
   <si>
@@ -2513,9 +2405,6 @@
     <t>169</t>
   </si>
   <si>
-    <t>wadowice24.pl##center &gt; script + div &gt; img[src^="https://reklamawadowice24.pl/"]</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -2633,9 +2522,6 @@
     <t>181</t>
   </si>
   <si>
-    <t>tradersarea.pl##img[alt="ads"]</t>
-  </si>
-  <si>
     <t>tradersarea.pl##.td-a-rec</t>
   </si>
   <si>
@@ -3281,39 +3167,12 @@
     <t>||bezale.pl^*^httpsstopwindykacji.</t>
   </si>
   <si>
-    <t>||automotivesuppliers.pl^*-ita_770x130.</t>
-  </si>
-  <si>
     <t>||automotivesuppliers.pl^*-knauf_2019_</t>
   </si>
   <si>
-    <t>||automotivesuppliers.pl^*^georg_utz_</t>
-  </si>
-  <si>
-    <t>||automotivesuppliers.pl^*-tuv_sud_baner_</t>
-  </si>
-  <si>
-    <t>||automotivesuppliers.pl^*^msc_2019_09.</t>
-  </si>
-  <si>
-    <t>||automotivesuppliers.pl^*_banery_ads_</t>
-  </si>
-  <si>
-    <t>||automotivesuppliers.pl^*^370x140-2.</t>
-  </si>
-  <si>
     <t>||automotivesuppliers.pl^*^tente_baner_</t>
   </si>
   <si>
-    <t>||automotivesuppliers.pl^*^Bodycote_370x140_</t>
-  </si>
-  <si>
-    <t>||automotivesuppliers.pl^*^via-baner2_</t>
-  </si>
-  <si>
-    <t>||automotivesuppliers.pl^*^mtm_770x130.</t>
-  </si>
-  <si>
     <t>Kolumna1</t>
   </si>
   <si>
@@ -3329,20 +3188,248 @@
     <t>http://pless-intermedia.pl</t>
   </si>
   <si>
-    <t>stopka</t>
-  </si>
-  <si>
     <t>czechowice.tv##.baner-row</t>
   </si>
   <si>
     <t>czechowice.tv##.linki-sponsorowane-col</t>
+  </si>
+  <si>
+    <t>https://www.cda.pl/video/512489f7</t>
+  </si>
+  <si>
+    <t>||r.dcs.redcdn.pl/http/o2/cda/vstatic/vast^</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>https://cloudvideo.tv/78gihlm1izjx</t>
+  </si>
+  <si>
+    <t>https://www.9anime.one</t>
+  </si>
+  <si>
+    <t>DELETED</t>
+  </si>
+  <si>
+    <t>CDA</t>
+  </si>
+  <si>
+    <t>||kryptoportal.pl^*^FA-1.</t>
+  </si>
+  <si>
+    <t>||pepe-tv.eu^*^nowy-styl.</t>
+  </si>
+  <si>
+    <t>||pepe-tv.eu^*^180x140-1.</t>
+  </si>
+  <si>
+    <t>||pepe-tv.eu^*^star-03.</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>||rankomat.pl/tracking^$domain=~rankomat.pl</t>
+  </si>
+  <si>
+    <t>||goal.pl/images/m300.</t>
+  </si>
+  <si>
+    <t>||goal.pl/images/st_3.</t>
+  </si>
+  <si>
+    <t>||goal.pl/ban^*^tapeta_</t>
+  </si>
+  <si>
+    <t>||ceneo.pl^*^banners^$domain=tromil.pl</t>
+  </si>
+  <si>
+    <t>fixed in 138-142</t>
+  </si>
+  <si>
+    <t>fixed in 138-143</t>
+  </si>
+  <si>
+    <t>||mgsm.pl/plus/plus_</t>
+  </si>
+  <si>
+    <t>||ec.bankier.pl^$domain=miedziak.info.pl|tutajpolkowice.pl|tutajlegnica.pl|tutajglogow.pl</t>
+  </si>
+  <si>
+    <t>||wp.com/okraglemiasto.pl^*^geberitelektryk1.</t>
+  </si>
+  <si>
+    <t>^banners^$domain=zegarkiipasja.pl</t>
+  </si>
+  <si>
+    <t>^banery_prawa^$domain=zegarkiipasja.pl</t>
+  </si>
+  <si>
+    <t>||centrumdruku3d.pl^*^FORM3.</t>
+  </si>
+  <si>
+    <t>elektroda.pl##a[onclick*="eventSend('Navibox',"]</t>
+  </si>
+  <si>
+    <t>elektroda.pl##.NkzuQ6Z2</t>
+  </si>
+  <si>
+    <t>||betonline.net.pl^*^betfan-kod-promocyjny.</t>
+  </si>
+  <si>
+    <t>||betonline.net.pl^*^bukmacher_betclic2.</t>
+  </si>
+  <si>
+    <t>||stat24.com^*^tapeta_zdrapka.$domain=polsatsport.pl</t>
+  </si>
+  <si>
+    <t>^as^$image,domain=laboratoria.xtech.pl|automatyka.pl</t>
+  </si>
+  <si>
+    <t>https://www.obrabiarki.xtech.pl</t>
+  </si>
+  <si>
+    <t>dziennikpolski24.pl##.krh-m-g</t>
+  </si>
+  <si>
+    <t>xmlhttprequest</t>
+  </si>
+  <si>
+    <t>||dziennikpolski24.pl^*^ads?$xmlhttprequest,domain=dziennikpolski24.pl</t>
+  </si>
+  <si>
+    <t>automotivesuppliers.pl###img[width="370"][height="140"]</t>
+  </si>
+  <si>
+    <t>automotivesuppliers.pl##.dj-loader</t>
+  </si>
+  <si>
+    <t>cleaning</t>
+  </si>
+  <si>
+    <t>||tkn24.pl^*^upcomp-gif.</t>
+  </si>
+  <si>
+    <t>||tkn24.pl^*^Circle-K-</t>
+  </si>
+  <si>
+    <t>||tkn24.pl^*^Ceramic.</t>
+  </si>
+  <si>
+    <t>||tkn24.pl^*^MJM-1.</t>
+  </si>
+  <si>
+    <t>^300^$domain=kuszotv.pl|oddslivesport.com|meczelive.tv|epilka.pl|mecze.com|worldofbookmakers.com|mecze24.pl|estadios.pl</t>
+  </si>
+  <si>
+    <t>||kuszotv.pl^*^468^</t>
+  </si>
+  <si>
+    <t>https://www.mecze24.pl/pilka-nozna-58/guangzhou-urawa</t>
+  </si>
+  <si>
+    <t>https://estadios.pl/news226,wtorkowe-hity-w-lidze-mistrzow-napoli-liverpool-i-genk-w-akcji</t>
+  </si>
+  <si>
+    <t>https://www.mecze.com/gdzie-na-zywo-w-internecie-ogladac-hit-ekstraklasy-jagiellonia-legia</t>
+  </si>
+  <si>
+    <t>||mecze24.pl^*^468^</t>
+  </si>
+  <si>
+    <t>block banner</t>
+  </si>
+  <si>
+    <t>https://extragoals.com</t>
+  </si>
+  <si>
+    <t>^728^$domain=kuszotv.pl|oddslivesport.com|meczelive.tv|epilka.pl|mecze.com|worldofbookmakers.com|mecze24.pl|extragoals.com</t>
+  </si>
+  <si>
+    <t>||extragoals.com^*^468^</t>
+  </si>
+  <si>
+    <t>https://meczelive.tv/filmiki/bramka-lewego-z-olympiakosem/46951</t>
+  </si>
+  <si>
+    <t>||extragoals.com/media^*_fortuna1.</t>
+  </si>
+  <si>
+    <t>https://meczelive.tv/filmiki/bramka-lewego-w-meczu-z-tottenhamem/46445</t>
+  </si>
+  <si>
+    <t>autopromotion</t>
+  </si>
+  <si>
+    <t>no response</t>
+  </si>
+  <si>
+    <t>https://typersi.pl/art,163,Jak-grac-w-zakladach.html</t>
+  </si>
+  <si>
+    <t>||sokolka.tv^*^baner.</t>
+  </si>
+  <si>
+    <t>||sokolka.tv^*^1brico-</t>
+  </si>
+  <si>
+    <t>||swiatoze.pl^*^OFERTA_315_GIF.</t>
+  </si>
+  <si>
+    <t>^banners^$domain=gramwzielone.pl</t>
+  </si>
+  <si>
+    <t>wlkp24.info##div[class^="g-single a-"]</t>
+  </si>
+  <si>
+    <t>wlkp24.info##div[class^="g-dyn a-"]</t>
+  </si>
+  <si>
+    <t>^banery2019^$domain=wysokomazowiecki24.pl</t>
+  </si>
+  <si>
+    <t>||wysokomazowiecki24.pl^*^wys-maz-1100x150.</t>
+  </si>
+  <si>
+    <t>||wysokomazowiecki24.pl^*^pieer1.</t>
+  </si>
+  <si>
+    <t>||miastokobiet.pl^*^Miasto-Kobiet-banner-</t>
+  </si>
+  <si>
+    <t>||wronieckibazar.pl^*^starymlynb.</t>
+  </si>
+  <si>
+    <t>https://www.wadowice24.pl/andrychow.html</t>
+  </si>
+  <si>
+    <t>https://wadowice24.pl/index.php</t>
+  </si>
+  <si>
+    <t>https://tygodniksanocki.pl/2019/10/23/elzbieta-jaworowicz-w-galerii-nad-berehami/</t>
+  </si>
+  <si>
+    <t>||tygodniksanocki.pl^*^10/lawenda.</t>
+  </si>
+  <si>
+    <t>no site</t>
+  </si>
+  <si>
+    <t>tradersarea.pl##div[class^="g-single a-"]</t>
+  </si>
+  <si>
+    <t>https://www.webmd.com/allergies/features/nasal-spray-are-you-overdoing-it#1</t>
+  </si>
+  <si>
+    <t>https://rarbgp2p.org/torrents.php?r=*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3395,6 +3482,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF505050"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
@@ -3453,7 +3553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3478,245 +3578,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3961,6 +3843,232 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3980,24 +4088,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:M650" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M650" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:M659" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:M659" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Filter" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{BBBFDBF0-1399-4DE4-B5F0-6E30770F3CC4}" name="Type" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Push" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fix" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{F46A69CC-7704-4110-83F9-1118153E7962}" name="Filter-fix" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Filter" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{BBBFDBF0-1399-4DE4-B5F0-6E30770F3CC4}" name="Type" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Push" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fix" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{F46A69CC-7704-4110-83F9-1118153E7962}" name="Filter-fix" dataDxfId="20">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{33D43F69-BB91-4A60-B234-2EF06EC445E3}" name="Type-fix" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{D97C0A98-B6D4-4D1B-84DD-D433C9B55CFC}" name="Marked" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D957016C-C634-44FC-8204-A695FABA001A}" name="Kolumna1" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{33D43F69-BB91-4A60-B234-2EF06EC445E3}" name="Type-fix" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{D97C0A98-B6D4-4D1B-84DD-D433C9B55CFC}" name="Marked" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{D957016C-C634-44FC-8204-A695FABA001A}" name="Kolumna1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4300,11 +4408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC650"/>
+  <dimension ref="A1:XFC659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A430" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J13" sqref="J13"/>
+      <selection pane="topRight" activeCell="D442" sqref="D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4312,10 +4420,10 @@
     <col min="1" max="1" width="5.88671875" style="9" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
     <col min="3" max="3" width="8.21875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="10" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="6.77734375" customWidth="1"/>
     <col min="10" max="10" width="40.77734375" customWidth="1"/>
@@ -4362,7 +4470,7 @@
         <v>332</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>1093</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -4811,13 +4919,13 @@
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>1081</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
-        <v>1081</v>
+        <v>1043</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>329</v>
@@ -4840,7 +4948,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>1094</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -4873,7 +4981,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>1095</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -4909,9 +5017,6 @@
         <v>329</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>1082</v>
-      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -4939,16 +5044,13 @@
       <c r="I20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>1096</v>
+      <c r="J20" s="23" t="s">
+        <v>1049</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>329</v>
       </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
-        <v>1083</v>
-      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
@@ -4981,9 +5083,6 @@
         <v>329</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
-        <v>1084</v>
-      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
@@ -5012,9 +5111,6 @@
         <v>329</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
-        <v>1085</v>
-      </c>
     </row>
     <row r="23" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
@@ -5041,9 +5137,6 @@
       <c r="J23" s="14"/>
       <c r="K23" s="3"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="12" t="s">
-        <v>1086</v>
-      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
@@ -5076,9 +5169,6 @@
       <c r="J24" s="8"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>1087</v>
-      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
@@ -5115,9 +5205,6 @@
         <v>329</v>
       </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="3" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
@@ -5150,9 +5237,6 @@
       <c r="J26" s="8"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
-        <v>1089</v>
-      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
@@ -5183,9 +5267,6 @@
       <c r="J27" s="8"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
-        <v>1090</v>
-      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
@@ -5216,9 +5297,6 @@
       <c r="J28" s="8"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
-        <v>1091</v>
-      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
@@ -5249,9 +5327,6 @@
       <c r="J29" s="8"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
-        <v>1092</v>
-      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
@@ -38589,7 +38664,7 @@
         <v>33</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1077</v>
+        <v>1039</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>329</v>
@@ -38618,7 +38693,7 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="3" t="s">
-        <v>1078</v>
+        <v>1040</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>329</v>
@@ -38645,7 +38720,7 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="3" t="s">
-        <v>1079</v>
+        <v>1041</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>329</v>
@@ -39230,7 +39305,7 @@
         <v>7</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1073</v>
+        <v>1035</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -39822,7 +39897,7 @@
         <v>7</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>1074</v>
+        <v>1036</v>
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -40015,7 +40090,7 @@
         <v>62</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1080</v>
+        <v>1042</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>329</v>
@@ -40103,7 +40178,7 @@
         <v>7</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>1075</v>
+        <v>1037</v>
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -40138,7 +40213,7 @@
         <v>7</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1076</v>
+        <v>1038</v>
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -40545,7 +40620,7 @@
       <c r="A114" s="8">
         <v>75</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="25" t="s">
         <v>187</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -40611,7 +40686,7 @@
       <c r="A116" s="8">
         <v>77</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="25" t="s">
         <v>191</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -40640,7 +40715,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="26" t="s">
         <v>193</v>
       </c>
       <c r="C117" s="3" t="s">
@@ -40702,7 +40777,7 @@
       <c r="A119" s="8">
         <v>79</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="25" t="s">
         <v>198</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -40731,7 +40806,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="25" t="s">
         <v>200</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -40758,7 +40833,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="25" t="s">
         <v>201</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -40816,7 +40891,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="25" t="s">
         <v>204</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -40928,7 +41003,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="25" t="s">
         <v>209</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -40948,7 +41023,9 @@
       <c r="I127" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J127" s="8"/>
+      <c r="J127" s="8" t="s">
+        <v>1058</v>
+      </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -40979,7 +41056,7 @@
       <c r="I128" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J128" s="8"/>
+      <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -41135,7 +41212,7 @@
       <c r="A134" s="8">
         <v>86</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="25" t="s">
         <v>220</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -41148,7 +41225,7 @@
         <v>7</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>143</v>
+        <v>1064</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>7</v>
@@ -41159,7 +41236,9 @@
       <c r="I134" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J134" s="8"/>
+      <c r="J134" s="23" t="s">
+        <v>1060</v>
+      </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
@@ -41201,7 +41280,7 @@
       <c r="A136" s="8">
         <v>88</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="25" t="s">
         <v>224</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -41232,7 +41311,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="25" t="s">
         <v>226</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -41290,7 +41369,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="25" t="s">
         <v>229</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -41319,7 +41398,7 @@
       <c r="A140" s="8">
         <v>90</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="25" t="s">
         <v>230</v>
       </c>
       <c r="C140" s="3" t="s">
@@ -41331,7 +41410,9 @@
       <c r="E140" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F140" s="3"/>
+      <c r="F140" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G140" s="12" t="s">
         <v>7</v>
       </c>
@@ -41341,9 +41422,15 @@
       <c r="I140" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J140" s="8"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
+      <c r="J140" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -41381,7 +41468,7 @@
       <c r="A142" s="8">
         <v>92</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="25" t="s">
         <v>234</v>
       </c>
       <c r="C142" s="3" t="s">
@@ -41393,7 +41480,9 @@
       <c r="E142" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F142" s="3"/>
+      <c r="F142" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G142" s="12" t="s">
         <v>7</v>
       </c>
@@ -41403,7 +41492,9 @@
       <c r="I142" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J142" s="8"/>
+      <c r="J142" s="23" t="s">
+        <v>1065</v>
+      </c>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
@@ -41437,7 +41528,7 @@
       <c r="A144" s="8">
         <v>93</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="25" t="s">
         <v>237</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -41657,7 +41748,7 @@
       <c r="A152" s="8">
         <v>95</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="25" t="s">
         <v>245</v>
       </c>
       <c r="C152" s="3" t="s">
@@ -41713,7 +41804,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="25" t="s">
         <v>248</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -41775,7 +41866,7 @@
       <c r="A156" s="8">
         <v>97</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="25" t="s">
         <v>252</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -41837,7 +41928,7 @@
       <c r="A158" s="8">
         <v>99</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="25" t="s">
         <v>256</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -41849,7 +41940,9 @@
       <c r="E158" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F158" s="3"/>
+      <c r="F158" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G158" s="12" t="s">
         <v>7</v>
       </c>
@@ -41859,7 +41952,9 @@
       <c r="I158" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J158" s="8"/>
+      <c r="J158" s="23" t="s">
+        <v>264</v>
+      </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
@@ -41874,7 +41969,9 @@
       <c r="E159" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F159" s="3"/>
+      <c r="F159" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G159" s="12" t="s">
         <v>7</v>
       </c>
@@ -41884,7 +41981,9 @@
       <c r="I159" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J159" s="8"/>
+      <c r="J159" s="8" t="s">
+        <v>1066</v>
+      </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
@@ -41909,7 +42008,9 @@
       <c r="I160" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J160" s="8"/>
+      <c r="J160" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
@@ -41934,7 +42035,9 @@
       <c r="I161" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J161" s="8"/>
+      <c r="J161" s="8" t="s">
+        <v>1068</v>
+      </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
@@ -42124,7 +42227,7 @@
       <c r="A169" s="8">
         <v>101</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="11" t="s">
         <v>264</v>
       </c>
       <c r="C169" s="3" t="s">
@@ -42157,7 +42260,7 @@
       <c r="A170" s="8">
         <v>102</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="25" t="s">
         <v>323</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -42366,7 +42469,7 @@
       <c r="A177" s="8">
         <v>107</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="25" t="s">
         <v>317</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -42378,7 +42481,9 @@
       <c r="E177" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F177" s="3"/>
+      <c r="F177" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G177" s="12" t="s">
         <v>7</v>
       </c>
@@ -42388,7 +42493,9 @@
       <c r="I177" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J177" s="8"/>
+      <c r="J177" s="8" t="s">
+        <v>1065</v>
+      </c>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
@@ -42428,7 +42535,9 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
-      <c r="B179" s="3"/>
+      <c r="B179" s="3" t="s">
+        <v>1069</v>
+      </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3" t="s">
         <v>277</v>
@@ -42486,7 +42595,7 @@
       <c r="A181" s="8">
         <v>110</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="25" t="s">
         <v>281</v>
       </c>
       <c r="C181" s="3" t="s">
@@ -42498,7 +42607,9 @@
       <c r="E181" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F181" s="3"/>
+      <c r="F181" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G181" s="12" t="s">
         <v>7</v>
       </c>
@@ -42508,7 +42619,9 @@
       <c r="I181" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J181" s="8"/>
+      <c r="J181" s="8" t="s">
+        <v>1070</v>
+      </c>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
@@ -42517,7 +42630,7 @@
       <c r="A182" s="8">
         <v>111</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="25" t="s">
         <v>282</v>
       </c>
       <c r="C182" s="3" t="s">
@@ -42529,7 +42642,9 @@
       <c r="E182" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F182" s="3"/>
+      <c r="F182" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G182" s="12" t="s">
         <v>7</v>
       </c>
@@ -42539,7 +42654,9 @@
       <c r="I182" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J182" s="8"/>
+      <c r="J182" s="8" t="s">
+        <v>1071</v>
+      </c>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
@@ -42548,7 +42665,7 @@
       <c r="A183" s="8">
         <v>112</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="25" t="s">
         <v>284</v>
       </c>
       <c r="C183" s="3" t="s">
@@ -42560,7 +42677,9 @@
       <c r="E183" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F183" s="3"/>
+      <c r="F183" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G183" s="12" t="s">
         <v>7</v>
       </c>
@@ -42570,7 +42689,9 @@
       <c r="I183" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J183" s="8"/>
+      <c r="J183" s="23" t="s">
+        <v>1072</v>
+      </c>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
@@ -42579,7 +42700,7 @@
       <c r="A184" s="8">
         <v>113</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="25" t="s">
         <v>287</v>
       </c>
       <c r="C184" s="3" t="s">
@@ -42612,7 +42733,7 @@
       <c r="A185" s="8">
         <v>114</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="25" t="s">
         <v>288</v>
       </c>
       <c r="C185" s="3" t="s">
@@ -42624,7 +42745,9 @@
       <c r="E185" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="3"/>
+      <c r="F185" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="G185" s="12" t="s">
         <v>7</v>
       </c>
@@ -42634,7 +42757,9 @@
       <c r="I185" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J185" s="8"/>
+      <c r="J185" s="23" t="s">
+        <v>1073</v>
+      </c>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
@@ -42786,7 +42911,7 @@
       <c r="A191" s="8">
         <v>118</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="25" t="s">
         <v>320</v>
       </c>
       <c r="C191" s="3" t="s">
@@ -42808,7 +42933,9 @@
       <c r="I191" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J191" s="8"/>
+      <c r="J191" s="23" t="s">
+        <v>1074</v>
+      </c>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
@@ -42842,7 +42969,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="8"/>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="25" t="s">
         <v>297</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -42902,7 +43029,7 @@
       <c r="A195" s="8">
         <v>120</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="25" t="s">
         <v>298</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -42997,7 +43124,7 @@
       <c r="A198" s="8">
         <v>123</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="25" t="s">
         <v>304</v>
       </c>
       <c r="C198" s="3" t="s">
@@ -43019,8 +43146,12 @@
       <c r="I198" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J198" s="8"/>
-      <c r="K198" s="3"/>
+      <c r="J198" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K198" s="8" t="s">
+        <v>1076</v>
+      </c>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
     </row>
@@ -43028,7 +43159,7 @@
       <c r="A199" s="8">
         <v>124</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="25" t="s">
         <v>306</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -43052,7 +43183,9 @@
       <c r="I199" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J199" s="8"/>
+      <c r="J199" s="23" t="s">
+        <v>1077</v>
+      </c>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
@@ -43088,7 +43221,7 @@
       <c r="A201" s="8">
         <v>125</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="25" t="s">
         <v>309</v>
       </c>
       <c r="C201" s="3" t="s">
@@ -43175,7 +43308,7 @@
       <c r="A204" s="8">
         <v>126</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="25" t="s">
         <v>313</v>
       </c>
       <c r="C204" s="3" t="s">
@@ -43197,14 +43330,16 @@
       <c r="I204" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J204" s="8"/>
+      <c r="J204" s="23" t="s">
+        <v>1079</v>
+      </c>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="8"/>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="25" t="s">
         <v>325</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -43224,7 +43359,9 @@
       <c r="I205" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J205" s="8"/>
+      <c r="J205" s="23" t="s">
+        <v>1078</v>
+      </c>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
@@ -43261,7 +43398,7 @@
         <v>127</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>328</v>
@@ -43270,7 +43407,7 @@
         <v>620</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3" t="s">
@@ -43289,10 +43426,10 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>646</v>
+        <v>1081</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>329</v>
@@ -43301,7 +43438,7 @@
         <v>30</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3" t="s">
@@ -43319,24 +43456,16 @@
       <c r="M208" s="3"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A209" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="A209" s="8"/>
       <c r="B209" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>621</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>251</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F209" s="3"/>
       <c r="G209" s="3" t="s">
         <v>2</v>
       </c>
@@ -43353,21 +43482,23 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D210" s="18" t="s">
-        <v>622</v>
+        <v>328</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F210" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="G210" s="3" t="s">
         <v>2</v>
       </c>
@@ -43383,14 +43514,20 @@
       <c r="M210" s="3"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A211" s="8"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
+      <c r="A211" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="D211" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3" t="s">
@@ -43409,19 +43546,19 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3" t="s">
@@ -43440,19 +43577,19 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>652</v>
+        <v>1083</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3" t="s">
@@ -43471,15 +43608,15 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="8"/>
-      <c r="B214" s="3" t="s">
-        <v>650</v>
-      </c>
+      <c r="B214" s="16"/>
       <c r="C214" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D214" s="3"/>
+      <c r="D214" s="1" t="s">
+        <v>643</v>
+      </c>
       <c r="E214" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="3" t="s">
@@ -43497,20 +43634,16 @@
       <c r="M214" s="3"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A215" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>653</v>
-      </c>
+      <c r="A215" s="8"/>
+      <c r="B215" s="3"/>
       <c r="C215" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>651</v>
+        <v>1084</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3" t="s">
@@ -43528,18 +43661,24 @@
       <c r="M215" s="3"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A216" s="8"/>
+      <c r="A216" s="8" t="s">
+        <v>633</v>
+      </c>
       <c r="B216" s="3" t="s">
-        <v>654</v>
+        <v>1087</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D216" s="3"/>
+        <v>329</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>627</v>
+      </c>
       <c r="E216" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F216" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>1086</v>
+      </c>
       <c r="G216" s="3" t="s">
         <v>2</v>
       </c>
@@ -43555,22 +43694,20 @@
       <c r="M216" s="3"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A217" s="8" t="s">
-        <v>637</v>
-      </c>
+      <c r="A217" s="8"/>
       <c r="B217" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>329</v>
-      </c>
+        <v>1085</v>
+      </c>
+      <c r="C217" s="3"/>
       <c r="D217" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F217" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="G217" s="3" t="s">
         <v>2</v>
       </c>
@@ -43586,20 +43723,22 @@
       <c r="M217" s="3"/>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A218" s="8"/>
+      <c r="A218" s="8" t="s">
+        <v>634</v>
+      </c>
       <c r="B218" s="3" t="s">
-        <v>630</v>
+        <v>1044</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D218" s="3"/>
+        <v>329</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E218" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>251</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F218" s="4"/>
       <c r="G218" s="3" t="s">
         <v>2</v>
       </c>
@@ -43615,20 +43754,16 @@
       <c r="M218" s="3"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A219" s="8" t="s">
-        <v>638</v>
-      </c>
+      <c r="A219" s="8"/>
       <c r="B219" s="3" t="s">
-        <v>642</v>
+        <v>1045</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>641</v>
-      </c>
+      <c r="D219" s="3"/>
       <c r="E219" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="3" t="s">
@@ -43648,16 +43783,12 @@
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
       <c r="E220" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F220" s="4"/>
       <c r="G220" s="3" t="s">
@@ -43677,16 +43808,14 @@
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
       <c r="B221" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>328</v>
-      </c>
+        <v>1088</v>
+      </c>
+      <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F221" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F221" s="4"/>
       <c r="G221" s="3" t="s">
         <v>2</v>
       </c>
@@ -43703,21 +43832,23 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>658</v>
+        <v>635</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>1089</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>657</v>
+      <c r="D222" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F222" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>1090</v>
+      </c>
       <c r="G222" s="3" t="s">
         <v>2</v>
       </c>
@@ -43733,20 +43864,22 @@
       <c r="M222" s="3"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A223" s="8"/>
+      <c r="A223" s="8" t="s">
+        <v>636</v>
+      </c>
       <c r="B223" s="3" t="s">
-        <v>659</v>
+        <v>1091</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D223" s="3"/>
+      <c r="D223" s="1" t="s">
+        <v>646</v>
+      </c>
       <c r="E223" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>266</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F223" s="3"/>
       <c r="G223" s="3" t="s">
         <v>2</v>
       </c>
@@ -43764,14 +43897,14 @@
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
       <c r="B224" s="3" t="s">
-        <v>660</v>
+        <v>1092</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3" t="s">
@@ -43791,14 +43924,14 @@
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
       <c r="B225" s="3" t="s">
-        <v>661</v>
+        <v>1093</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="3" t="s">
@@ -43816,20 +43949,16 @@
       <c r="M225" s="3"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A226" s="8" t="s">
-        <v>640</v>
-      </c>
+      <c r="A226" s="8"/>
       <c r="B226" s="3" t="s">
-        <v>656</v>
+        <v>1094</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>655</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D226" s="3"/>
       <c r="E226" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3" t="s">
@@ -43848,23 +43977,21 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>678</v>
-      </c>
       <c r="C227" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>319</v>
+        <v>644</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>684</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F227" s="3"/>
       <c r="G227" s="3" t="s">
         <v>2</v>
       </c>
@@ -43880,17 +44007,23 @@
       <c r="M227" s="3"/>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A228" s="8"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
+      <c r="A228" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="D228" s="1" t="s">
-        <v>648</v>
+        <v>319</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>2</v>
@@ -43911,13 +44044,13 @@
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="1" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>2</v>
@@ -43938,12 +44071,14 @@
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="1" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F230" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>665</v>
+      </c>
       <c r="G230" s="3" t="s">
         <v>2</v>
       </c>
@@ -43963,10 +44098,10 @@
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="1" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="3" t="s">
@@ -43988,10 +44123,10 @@
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="1" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="3" t="s">
@@ -44013,10 +44148,10 @@
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="1" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="3" t="s">
@@ -44037,11 +44172,11 @@
       <c r="A234" s="8"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
-      <c r="D234" s="5" t="s">
-        <v>668</v>
+      <c r="D234" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="3" t="s">
@@ -44059,20 +44194,14 @@
       <c r="M234" s="3"/>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A235" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>319</v>
+      <c r="A235" s="8"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="5" t="s">
+        <v>651</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="3" t="s">
@@ -44090,14 +44219,20 @@
       <c r="M235" s="3"/>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A236" s="8"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
+      <c r="A236" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="D236" s="1" t="s">
-        <v>648</v>
+        <v>319</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F236" s="3"/>
       <c r="G236" s="3" t="s">
@@ -44119,10 +44254,10 @@
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="1" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F237" s="3"/>
       <c r="G237" s="3" t="s">
@@ -44144,10 +44279,10 @@
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="1" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F238" s="3"/>
       <c r="G238" s="3" t="s">
@@ -44168,11 +44303,11 @@
       <c r="A239" s="8"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
-      <c r="D239" s="5" t="s">
-        <v>663</v>
+      <c r="D239" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F239" s="3"/>
       <c r="G239" s="3" t="s">
@@ -44193,11 +44328,11 @@
       <c r="A240" s="8"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
-      <c r="D240" s="1" t="s">
-        <v>677</v>
+      <c r="D240" s="5" t="s">
+        <v>648</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F240" s="3"/>
       <c r="G240" s="3" t="s">
@@ -44219,10 +44354,10 @@
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="1" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="3" t="s">
@@ -44243,11 +44378,11 @@
       <c r="A242" s="8"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
-      <c r="D242" s="5" t="s">
-        <v>668</v>
+      <c r="D242" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="3" t="s">
@@ -44265,20 +44400,14 @@
       <c r="M242" s="3"/>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A243" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>666</v>
+      <c r="A243" s="8"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="5" t="s">
+        <v>1102</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="3" t="s">
@@ -44296,20 +44425,14 @@
       <c r="M243" s="3"/>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A244" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>665</v>
+      <c r="A244" s="8"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="5" t="s">
+        <v>651</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F244" s="3"/>
       <c r="G244" s="3" t="s">
@@ -44328,21 +44451,23 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D245" s="5" t="s">
-        <v>668</v>
+      <c r="D245" s="1" t="s">
+        <v>1099</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F245" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>1101</v>
+      </c>
       <c r="G245" s="3" t="s">
         <v>2</v>
       </c>
@@ -44358,14 +44483,20 @@
       <c r="M245" s="3"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A246" s="8"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
+      <c r="A246" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="D246" s="1" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F246" s="3"/>
       <c r="G246" s="3" t="s">
@@ -44383,20 +44514,14 @@
       <c r="M246" s="3"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A247" s="8" t="s">
-        <v>674</v>
-      </c>
+      <c r="A247" s="8"/>
       <c r="B247" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>676</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="1"/>
       <c r="E247" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F247" s="3"/>
       <c r="G247" s="3" t="s">
@@ -44415,21 +44540,23 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>675</v>
+        <v>1096</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>673</v>
+      <c r="D248" s="5" t="s">
+        <v>1098</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F248" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F248" s="27">
+        <v>468</v>
+      </c>
       <c r="G248" s="3" t="s">
         <v>2</v>
       </c>
@@ -44445,20 +44572,14 @@
       <c r="M248" s="3"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A249" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>329</v>
-      </c>
+      <c r="A249" s="8"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
       <c r="D249" s="1" t="s">
-        <v>697</v>
+        <v>1097</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F249" s="3"/>
       <c r="G249" s="3" t="s">
@@ -44477,21 +44598,23 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>701</v>
+        <v>1104</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>692</v>
+        <v>1105</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F250" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F250" s="27">
+        <v>468</v>
+      </c>
       <c r="G250" s="3" t="s">
         <v>2</v>
       </c>
@@ -44507,22 +44630,20 @@
       <c r="M250" s="3"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A251" s="8" t="s">
-        <v>691</v>
-      </c>
+      <c r="A251" s="8"/>
       <c r="B251" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>329</v>
-      </c>
+        <v>1106</v>
+      </c>
+      <c r="C251" s="3"/>
       <c r="D251" s="1" t="s">
-        <v>694</v>
+        <v>1107</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F251" s="3"/>
+        <v>790</v>
+      </c>
+      <c r="F251" s="27" t="s">
+        <v>266</v>
+      </c>
       <c r="G251" s="3" t="s">
         <v>2</v>
       </c>
@@ -44539,21 +44660,23 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>700</v>
+        <v>662</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>658</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>693</v>
+        <v>656</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F252" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="G252" s="3" t="s">
         <v>2</v>
       </c>
@@ -44570,19 +44693,19 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D253" s="5" t="s">
-        <v>688</v>
+      <c r="D253" s="1" t="s">
+        <v>676</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3" t="s">
@@ -44601,21 +44724,23 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>704</v>
+        <v>669</v>
+      </c>
+      <c r="B254" s="25" t="s">
+        <v>680</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F254" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="G254" s="3" t="s">
         <v>2</v>
       </c>
@@ -44632,19 +44757,19 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="3" t="s">
@@ -44663,21 +44788,23 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>709</v>
+        <v>674</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F256" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>1108</v>
+      </c>
       <c r="G256" s="3" t="s">
         <v>2</v>
       </c>
@@ -44693,16 +44820,20 @@
       <c r="M256" s="3"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A257" s="8"/>
+      <c r="A257" s="8" t="s">
+        <v>675</v>
+      </c>
       <c r="B257" s="3" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D257" s="3"/>
+      <c r="D257" s="5" t="s">
+        <v>667</v>
+      </c>
       <c r="E257" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F257" s="3"/>
       <c r="G257" s="3" t="s">
@@ -44720,16 +44851,20 @@
       <c r="M257" s="3"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A258" s="8"/>
+      <c r="A258" s="8" t="s">
+        <v>684</v>
+      </c>
       <c r="B258" s="3" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D258" s="1"/>
+      <c r="D258" s="1" t="s">
+        <v>682</v>
+      </c>
       <c r="E258" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F258" s="3"/>
       <c r="G258" s="3" t="s">
@@ -44747,16 +44882,20 @@
       <c r="M258" s="3"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A259" s="8"/>
+      <c r="A259" s="8" t="s">
+        <v>685</v>
+      </c>
       <c r="B259" s="3" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D259" s="3"/>
+      <c r="D259" s="1" t="s">
+        <v>686</v>
+      </c>
       <c r="E259" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="3" t="s">
@@ -44775,21 +44914,23 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>717</v>
+        <v>688</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D260" s="5" t="s">
-        <v>672</v>
+      <c r="D260" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F260" s="3"/>
+      <c r="F260" s="3" t="s">
+        <v>1109</v>
+      </c>
       <c r="G260" s="3" t="s">
         <v>2</v>
       </c>
@@ -44807,7 +44948,7 @@
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
       <c r="B261" s="3" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>329</v>
@@ -44832,18 +44973,14 @@
       <c r="M261" s="3"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A262" s="8" t="s">
-        <v>719</v>
-      </c>
+      <c r="A262" s="8"/>
       <c r="B262" s="3" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>718</v>
-      </c>
+      <c r="D262" s="1"/>
       <c r="E262" s="3" t="s">
         <v>2</v>
       </c>
@@ -44863,24 +45000,18 @@
       <c r="M262" s="3"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A263" s="8" t="s">
-        <v>720</v>
-      </c>
+      <c r="A263" s="8"/>
       <c r="B263" s="3" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>687</v>
-      </c>
+      <c r="D263" s="3"/>
       <c r="E263" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F263" s="3" t="s">
-        <v>728</v>
-      </c>
+      <c r="F263" s="3"/>
       <c r="G263" s="3" t="s">
         <v>2</v>
       </c>
@@ -44896,16 +45027,20 @@
       <c r="M263" s="3"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A264" s="8"/>
+      <c r="A264" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="B264" s="3" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D264" s="3"/>
+      <c r="D264" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="E264" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="3" t="s">
@@ -44925,14 +45060,16 @@
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
       <c r="B265" s="3" t="s">
-        <v>723</v>
+        <v>693</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D265" s="3"/>
+      <c r="D265" s="1" t="s">
+        <v>1110</v>
+      </c>
       <c r="E265" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="3" t="s">
@@ -44952,14 +45089,14 @@
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="8"/>
       <c r="B266" s="3" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="3" t="s">
@@ -44977,18 +45114,24 @@
       <c r="M266" s="3"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A267" s="8"/>
+      <c r="A267" s="8" t="s">
+        <v>697</v>
+      </c>
       <c r="B267" s="3" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D267" s="3"/>
+      <c r="D267" s="1" t="s">
+        <v>666</v>
+      </c>
       <c r="E267" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F267" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>704</v>
+      </c>
       <c r="G267" s="3" t="s">
         <v>2</v>
       </c>
@@ -45006,14 +45149,14 @@
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
       <c r="B268" s="3" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F268" s="3"/>
       <c r="G268" s="3" t="s">
@@ -45030,46 +45173,44 @@
       <c r="L268" s="3"/>
       <c r="M268" s="3"/>
     </row>
-    <row r="269" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="14"/>
-      <c r="B269" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="C269" s="12" t="s">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269" s="8"/>
+      <c r="B269" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D269" s="12"/>
-      <c r="E269" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F269" s="12"/>
-      <c r="G269" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H269" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I269" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J269" s="14"/>
-      <c r="K269" s="12"/>
-      <c r="L269" s="12"/>
-      <c r="M269" s="12"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J269" s="8"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A270" s="8" t="s">
-        <v>734</v>
-      </c>
+      <c r="A270" s="8"/>
       <c r="B270" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="C270" s="3"/>
-      <c r="D270" s="1" t="s">
-        <v>733</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D270" s="3"/>
       <c r="E270" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F270" s="3"/>
       <c r="G270" s="3" t="s">
@@ -45089,12 +45230,14 @@
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="8"/>
       <c r="B271" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="C271" s="3"/>
+        <v>1111</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F271" s="3"/>
       <c r="G271" s="3" t="s">
@@ -45112,22 +45255,18 @@
       <c r="M271" s="3"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A272" s="8" t="s">
-        <v>742</v>
-      </c>
+      <c r="A272" s="8"/>
       <c r="B272" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C272" s="3"/>
-      <c r="D272" s="1" t="s">
-        <v>737</v>
-      </c>
+        <v>1112</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D272" s="3"/>
       <c r="E272" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>744</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F272" s="3"/>
       <c r="G272" s="3" t="s">
         <v>2</v>
       </c>
@@ -45142,48 +45281,48 @@
       <c r="L272" s="3"/>
       <c r="M272" s="3"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A273" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C273" s="3"/>
-      <c r="D273" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E273" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H273" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I273" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J273" s="8"/>
-      <c r="K273" s="3"/>
-      <c r="L273" s="3"/>
-      <c r="M273" s="3"/>
+    <row r="273" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="28"/>
+      <c r="B273" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="C273" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D273" s="29"/>
+      <c r="E273" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F273" s="29"/>
+      <c r="G273" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H273" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I273" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J273" s="28"/>
+      <c r="K273" s="29"/>
+      <c r="L273" s="29"/>
+      <c r="M273" s="29"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A274" s="8"/>
+      <c r="A274" s="8" t="s">
+        <v>698</v>
+      </c>
       <c r="B274" s="3" t="s">
-        <v>741</v>
+        <v>706</v>
       </c>
       <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
+      <c r="D274" s="1" t="s">
+        <v>708</v>
+      </c>
       <c r="E274" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>735</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F274" s="3"/>
       <c r="G274" s="3" t="s">
         <v>2</v>
       </c>
@@ -45198,51 +45337,47 @@
       <c r="L274" s="3"/>
       <c r="M274" s="3"/>
     </row>
-    <row r="275" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="14" t="s">
-        <v>746</v>
-      </c>
-      <c r="B275" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="C275" s="12"/>
-      <c r="D275" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="E275" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F275" s="12"/>
-      <c r="G275" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H275" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I275" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J275" s="14"/>
-      <c r="K275" s="12"/>
-      <c r="L275" s="12"/>
-      <c r="M275" s="12"/>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A275" s="8"/>
+      <c r="B275" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J275" s="8"/>
+      <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
+      <c r="M275" s="3"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>803</v>
+        <v>709</v>
+      </c>
+      <c r="B276" s="25" t="s">
+        <v>711</v>
       </c>
       <c r="C276" s="3"/>
-      <c r="D276" t="s">
-        <v>796</v>
+      <c r="D276" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>805</v>
+        <v>251</v>
       </c>
       <c r="G276" s="3" t="s">
         <v>2</v>
@@ -45259,13 +45394,18 @@
       <c r="M276" s="3"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A277" s="8"/>
+      <c r="A277" s="8" t="s">
+        <v>716</v>
+      </c>
       <c r="B277" s="3" t="s">
-        <v>804</v>
+        <v>715</v>
       </c>
       <c r="C277" s="3"/>
+      <c r="D277" s="1" t="s">
+        <v>713</v>
+      </c>
       <c r="E277" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F277" s="3"/>
       <c r="G277" s="3" t="s">
@@ -45283,22 +45423,16 @@
       <c r="M277" s="3"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A278" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="B278" s="25" t="s">
-        <v>807</v>
+      <c r="A278" s="8"/>
+      <c r="B278" s="3" t="s">
+        <v>1113</v>
       </c>
       <c r="C278" s="3"/>
-      <c r="D278" t="s">
-        <v>800</v>
-      </c>
+      <c r="D278" s="3"/>
       <c r="E278" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F278" s="3"/>
       <c r="G278" s="3" t="s">
         <v>2</v>
       </c>
@@ -45315,21 +45449,15 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="B279" s="16" t="s">
-        <v>808</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="B279" s="3"/>
       <c r="C279" s="3"/>
-      <c r="D279" t="s">
-        <v>800</v>
-      </c>
+      <c r="D279" s="3"/>
       <c r="E279" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F279" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F279" s="3"/>
       <c r="G279" s="3" t="s">
         <v>2</v>
       </c>
@@ -45344,54 +45472,50 @@
       <c r="L279" s="3"/>
       <c r="M279" s="3"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A280" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="B280" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="C280" s="3"/>
-      <c r="D280" s="16" t="s">
-        <v>799</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H280" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I280" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J280" s="8"/>
-      <c r="K280" s="3"/>
-      <c r="L280" s="3"/>
-      <c r="M280" s="3"/>
+    <row r="280" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="B280" s="29" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C280" s="29"/>
+      <c r="D280" s="30" t="s">
+        <v>714</v>
+      </c>
+      <c r="E280" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F280" s="29"/>
+      <c r="G280" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H280" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I280" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J280" s="28"/>
+      <c r="K280" s="29"/>
+      <c r="L280" s="29"/>
+      <c r="M280" s="29"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="8" t="s">
-        <v>814</v>
+        <v>772</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>812</v>
+        <v>1115</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F281" s="3"/>
       <c r="G281" s="3" t="s">
         <v>2</v>
       </c>
@@ -45409,11 +45533,11 @@
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
       <c r="B282" s="3" t="s">
-        <v>813</v>
+        <v>1116</v>
       </c>
       <c r="C282" s="3"/>
       <c r="E282" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F282" s="3"/>
       <c r="G282" s="3" t="s">
@@ -45432,21 +45556,19 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="B283" s="25" t="s">
-        <v>816</v>
+        <v>774</v>
+      </c>
+      <c r="B283" s="23" t="s">
+        <v>1117</v>
       </c>
       <c r="C283" s="3"/>
-      <c r="D283" s="16" t="s">
-        <v>797</v>
+      <c r="D283" t="s">
+        <v>770</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F283" s="3"/>
       <c r="G283" s="3" t="s">
         <v>2</v>
       </c>
@@ -45462,22 +45584,18 @@
       <c r="M283" s="3"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A284" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>818</v>
+      <c r="A284" s="8"/>
+      <c r="B284" s="16" t="s">
+        <v>1118</v>
       </c>
       <c r="C284" s="3"/>
-      <c r="D284" s="16" t="s">
-        <v>795</v>
+      <c r="D284" t="s">
+        <v>770</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F284" s="3"/>
       <c r="G284" s="3" t="s">
         <v>2</v>
       </c>
@@ -45493,22 +45611,15 @@
       <c r="M284" s="3"/>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A285" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="B285" s="25" t="s">
-        <v>820</v>
+      <c r="A285" s="8"/>
+      <c r="B285" s="3" t="s">
+        <v>1119</v>
       </c>
       <c r="C285" s="3"/>
-      <c r="D285" t="s">
-        <v>819</v>
-      </c>
       <c r="E285" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F285" s="3"/>
       <c r="G285" s="3" t="s">
         <v>2</v>
       </c>
@@ -45525,21 +45636,14 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="B286" s="25" t="s">
-        <v>822</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="B286" s="3"/>
       <c r="C286" s="3"/>
-      <c r="D286" t="s">
-        <v>794</v>
-      </c>
       <c r="E286" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F286" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F286" s="3"/>
       <c r="G286" s="3" t="s">
         <v>2</v>
       </c>
@@ -45556,21 +45660,19 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="B287" s="25" t="s">
-        <v>824</v>
+        <v>776</v>
+      </c>
+      <c r="B287" s="23" t="s">
+        <v>1120</v>
       </c>
       <c r="C287" s="3"/>
-      <c r="D287" s="17" t="s">
-        <v>793</v>
+      <c r="D287" s="16" t="s">
+        <v>769</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F287" s="3"/>
       <c r="G287" s="3" t="s">
         <v>2</v>
       </c>
@@ -45587,21 +45689,19 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="B288" s="25" t="s">
-        <v>826</v>
+        <v>778</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>777</v>
       </c>
       <c r="C288" s="3"/>
-      <c r="D288" s="21" t="s">
-        <v>793</v>
+      <c r="D288" t="s">
+        <v>768</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>744</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F288" s="3"/>
       <c r="G288" s="3" t="s">
         <v>2</v>
       </c>
@@ -45617,22 +45717,15 @@
       <c r="M288" s="3"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A289" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B289" s="25" t="s">
-        <v>828</v>
+      <c r="A289" s="8"/>
+      <c r="B289" s="3" t="s">
+        <v>1121</v>
       </c>
       <c r="C289" s="3"/>
-      <c r="D289" s="16" t="s">
-        <v>792</v>
-      </c>
       <c r="E289" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F289" s="3"/>
       <c r="G289" s="3" t="s">
         <v>2</v>
       </c>
@@ -45649,20 +45742,20 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="B290" s="25" t="s">
-        <v>831</v>
+        <v>779</v>
+      </c>
+      <c r="B290" s="32" t="s">
+        <v>780</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="16" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>805</v>
+        <v>251</v>
       </c>
       <c r="G290" s="3" t="s">
         <v>2</v>
@@ -45680,21 +45773,19 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="B291" s="25" t="s">
-        <v>839</v>
+        <v>781</v>
+      </c>
+      <c r="B291" s="23" t="s">
+        <v>782</v>
       </c>
       <c r="C291" s="3"/>
-      <c r="D291" s="17" t="s">
-        <v>790</v>
+      <c r="D291" s="16" t="s">
+        <v>765</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F291" s="3"/>
       <c r="G291" s="3" t="s">
         <v>2</v>
       </c>
@@ -45711,21 +45802,19 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="B292" s="25" t="s">
-        <v>840</v>
+        <v>785</v>
+      </c>
+      <c r="B292" s="23" t="s">
+        <v>784</v>
       </c>
       <c r="C292" s="3"/>
-      <c r="D292" s="16" t="s">
-        <v>789</v>
+      <c r="D292" t="s">
+        <v>783</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F292" s="3"/>
       <c r="G292" s="3" t="s">
         <v>2</v>
       </c>
@@ -45742,21 +45831,19 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="B293" s="25" t="s">
-        <v>841</v>
+        <v>787</v>
+      </c>
+      <c r="B293" s="23" t="s">
+        <v>786</v>
       </c>
       <c r="C293" s="3"/>
-      <c r="D293" s="17" t="s">
-        <v>788</v>
+      <c r="D293" t="s">
+        <v>764</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F293" s="3"/>
       <c r="G293" s="3" t="s">
         <v>2</v>
       </c>
@@ -45772,14 +45859,18 @@
       <c r="M293" s="3"/>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A294" s="8"/>
-      <c r="B294" s="25" t="s">
-        <v>842</v>
+      <c r="A294" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="B294" s="23" t="s">
+        <v>788</v>
       </c>
       <c r="C294" s="3"/>
-      <c r="D294" s="21"/>
+      <c r="D294" s="17" t="s">
+        <v>1123</v>
+      </c>
       <c r="E294" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="3" t="s">
@@ -45797,22 +45888,16 @@
       <c r="M294" s="3"/>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A295" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="B295" s="25" t="s">
-        <v>843</v>
-      </c>
+      <c r="A295" s="8"/>
+      <c r="B295" s="23"/>
       <c r="C295" s="3"/>
-      <c r="D295" s="16" t="s">
-        <v>787</v>
+      <c r="D295" s="20" t="s">
+        <v>1122</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F295" s="3"/>
       <c r="G295" s="3" t="s">
         <v>2</v>
       </c>
@@ -45828,11 +45913,12 @@
       <c r="M295" s="3"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A296" s="8"/>
-      <c r="B296" s="25" t="s">
-        <v>844</v>
-      </c>
+      <c r="A296" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B296" s="3"/>
       <c r="C296" s="3"/>
+      <c r="D296" s="20"/>
       <c r="E296" s="3" t="s">
         <v>2</v>
       </c>
@@ -45853,21 +45939,19 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="B297" s="25" t="s">
-        <v>845</v>
+        <v>792</v>
+      </c>
+      <c r="B297" s="23" t="s">
+        <v>791</v>
       </c>
       <c r="C297" s="3"/>
-      <c r="D297" s="17" t="s">
-        <v>786</v>
+      <c r="D297" s="16" t="s">
+        <v>763</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F297" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F297" s="3"/>
       <c r="G297" s="3" t="s">
         <v>2</v>
       </c>
@@ -45884,21 +45968,19 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="B298" s="25" t="s">
-        <v>851</v>
+        <v>795</v>
+      </c>
+      <c r="B298" s="23" t="s">
+        <v>794</v>
       </c>
       <c r="C298" s="3"/>
-      <c r="D298" t="s">
-        <v>785</v>
+      <c r="D298" s="16" t="s">
+        <v>762</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>855</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F298" s="3"/>
       <c r="G298" s="3" t="s">
         <v>2</v>
       </c>
@@ -45915,15 +45997,15 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="8"/>
-      <c r="B299" s="25" t="s">
-        <v>852</v>
+      <c r="B299" s="3" t="s">
+        <v>1125</v>
       </c>
       <c r="C299" s="3"/>
-      <c r="D299" t="s">
-        <v>848</v>
+      <c r="D299" s="16" t="s">
+        <v>1124</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>743</v>
+        <v>7</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="3" t="s">
@@ -45941,18 +46023,22 @@
       <c r="M299" s="3"/>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A300" s="8"/>
-      <c r="B300" s="3" t="s">
-        <v>849</v>
+      <c r="A300" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="B300" s="23" t="s">
+        <v>802</v>
       </c>
       <c r="C300" s="3"/>
-      <c r="D300" t="s">
-        <v>854</v>
+      <c r="D300" s="17" t="s">
+        <v>761</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="F300" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>1109</v>
+      </c>
       <c r="G300" s="3" t="s">
         <v>2</v>
       </c>
@@ -45968,15 +46054,22 @@
       <c r="M300" s="3"/>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A301" s="8"/>
-      <c r="B301" s="3" t="s">
-        <v>850</v>
+      <c r="A301" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="B301" s="23" t="s">
+        <v>803</v>
       </c>
       <c r="C301" s="3"/>
+      <c r="D301" s="16" t="s">
+        <v>760</v>
+      </c>
       <c r="E301" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="F301" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>1109</v>
+      </c>
       <c r="G301" s="3" t="s">
         <v>2</v>
       </c>
@@ -45992,15 +46085,22 @@
       <c r="M301" s="3"/>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A302" s="8"/>
-      <c r="B302" s="25" t="s">
-        <v>853</v>
+      <c r="A302" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="B302" s="23" t="s">
+        <v>804</v>
       </c>
       <c r="C302" s="3"/>
+      <c r="D302" s="17" t="s">
+        <v>759</v>
+      </c>
       <c r="E302" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="F302" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>1126</v>
+      </c>
       <c r="G302" s="3" t="s">
         <v>2</v>
       </c>
@@ -46016,22 +46116,16 @@
       <c r="M302" s="3"/>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A303" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="B303" s="25" t="s">
-        <v>856</v>
+      <c r="A303" s="8"/>
+      <c r="B303" s="23" t="s">
+        <v>805</v>
       </c>
       <c r="C303" s="3"/>
-      <c r="D303" t="s">
-        <v>784</v>
-      </c>
+      <c r="D303" s="20"/>
       <c r="E303" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F303" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F303" s="3"/>
       <c r="G303" s="3" t="s">
         <v>2</v>
       </c>
@@ -46047,13 +46141,18 @@
       <c r="M303" s="3"/>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A304" s="8"/>
-      <c r="B304" s="25" t="s">
-        <v>857</v>
+      <c r="A304" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B304" s="23" t="s">
+        <v>806</v>
       </c>
       <c r="C304" s="3"/>
+      <c r="D304" s="16" t="s">
+        <v>758</v>
+      </c>
       <c r="E304" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F304" s="3"/>
       <c r="G304" s="3" t="s">
@@ -46072,12 +46171,12 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" s="8"/>
-      <c r="B305" s="25" t="s">
-        <v>858</v>
+      <c r="B305" s="23" t="s">
+        <v>807</v>
       </c>
       <c r="C305" s="3"/>
       <c r="E305" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="3" t="s">
@@ -46095,13 +46194,18 @@
       <c r="M305" s="3"/>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A306" s="8"/>
-      <c r="B306" s="25" t="s">
-        <v>859</v>
+      <c r="A306" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="B306" s="23" t="s">
+        <v>808</v>
       </c>
       <c r="C306" s="3"/>
+      <c r="D306" s="17" t="s">
+        <v>757</v>
+      </c>
       <c r="E306" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="3" t="s">
@@ -46119,15 +46223,22 @@
       <c r="M306" s="3"/>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A307" s="8"/>
-      <c r="B307" s="25" t="s">
-        <v>860</v>
+      <c r="A307" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="B307" s="23" t="s">
+        <v>814</v>
       </c>
       <c r="C307" s="3"/>
+      <c r="D307" t="s">
+        <v>756</v>
+      </c>
       <c r="E307" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F307" s="3"/>
+        <v>717</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>818</v>
+      </c>
       <c r="G307" s="3" t="s">
         <v>2</v>
       </c>
@@ -46144,12 +46255,15 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
-      <c r="B308" s="25" t="s">
-        <v>861</v>
+      <c r="B308" s="23" t="s">
+        <v>815</v>
       </c>
       <c r="C308" s="3"/>
+      <c r="D308" t="s">
+        <v>811</v>
+      </c>
       <c r="E308" s="3" t="s">
-        <v>2</v>
+        <v>717</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3" t="s">
@@ -46169,11 +46283,14 @@
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="8"/>
       <c r="B309" s="3" t="s">
-        <v>862</v>
+        <v>812</v>
       </c>
       <c r="C309" s="3"/>
+      <c r="D309" t="s">
+        <v>817</v>
+      </c>
       <c r="E309" s="3" t="s">
-        <v>2</v>
+        <v>717</v>
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="3" t="s">
@@ -46191,22 +46308,15 @@
       <c r="M309" s="3"/>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A310" s="8" t="s">
-        <v>864</v>
-      </c>
+      <c r="A310" s="8"/>
       <c r="B310" s="3" t="s">
-        <v>863</v>
+        <v>813</v>
       </c>
       <c r="C310" s="3"/>
-      <c r="D310" t="s">
-        <v>784</v>
-      </c>
       <c r="E310" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F310" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="F310" s="3"/>
       <c r="G310" s="3" t="s">
         <v>2</v>
       </c>
@@ -46222,22 +46332,15 @@
       <c r="M310" s="3"/>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A311" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>866</v>
+      <c r="A311" s="8"/>
+      <c r="B311" s="23" t="s">
+        <v>816</v>
       </c>
       <c r="C311" s="3"/>
-      <c r="D311" t="s">
-        <v>783</v>
-      </c>
       <c r="E311" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F311" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="F311" s="3"/>
       <c r="G311" s="3" t="s">
         <v>2</v>
       </c>
@@ -46253,16 +46356,18 @@
       <c r="M311" s="3"/>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A312" s="8"/>
-      <c r="B312" s="3" t="s">
-        <v>867</v>
+      <c r="A312" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="B312" s="23" t="s">
+        <v>819</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" t="s">
-        <v>868</v>
+        <v>755</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F312" s="3"/>
       <c r="G312" s="3" t="s">
@@ -46280,22 +46385,15 @@
       <c r="M312" s="3"/>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A313" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="B313" s="25" t="s">
-        <v>870</v>
+      <c r="A313" s="8"/>
+      <c r="B313" s="23" t="s">
+        <v>820</v>
       </c>
       <c r="C313" s="3"/>
-      <c r="D313" t="s">
-        <v>782</v>
-      </c>
       <c r="E313" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F313" s="3"/>
       <c r="G313" s="3" t="s">
         <v>2</v>
       </c>
@@ -46312,13 +46410,12 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="8"/>
-      <c r="B314" s="3"/>
+      <c r="B314" s="23" t="s">
+        <v>821</v>
+      </c>
       <c r="C314" s="3"/>
-      <c r="D314" t="s">
-        <v>871</v>
-      </c>
       <c r="E314" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F314" s="3"/>
       <c r="G314" s="3" t="s">
@@ -46337,13 +46434,12 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="8"/>
-      <c r="B315" s="3"/>
+      <c r="B315" s="23" t="s">
+        <v>822</v>
+      </c>
       <c r="C315" s="3"/>
-      <c r="D315" t="s">
-        <v>872</v>
-      </c>
       <c r="E315" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F315" s="3"/>
       <c r="G315" s="3" t="s">
@@ -46362,11 +46458,10 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="8"/>
-      <c r="B316" s="3"/>
+      <c r="B316" s="32" t="s">
+        <v>823</v>
+      </c>
       <c r="C316" s="3"/>
-      <c r="D316" t="s">
-        <v>873</v>
-      </c>
       <c r="E316" s="3" t="s">
         <v>2</v>
       </c>
@@ -46387,13 +46482,12 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="8"/>
-      <c r="B317" s="3"/>
+      <c r="B317" s="23" t="s">
+        <v>824</v>
+      </c>
       <c r="C317" s="3"/>
-      <c r="D317" t="s">
-        <v>874</v>
-      </c>
       <c r="E317" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F317" s="3"/>
       <c r="G317" s="3" t="s">
@@ -46412,13 +46506,12 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="8"/>
-      <c r="B318" s="3"/>
+      <c r="B318" s="3" t="s">
+        <v>825</v>
+      </c>
       <c r="C318" s="3"/>
-      <c r="D318" t="s">
-        <v>875</v>
-      </c>
       <c r="E318" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3" t="s">
@@ -46437,20 +46530,20 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="B319" s="25" t="s">
-        <v>878</v>
+        <v>827</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>826</v>
       </c>
       <c r="C319" s="3"/>
-      <c r="D319" s="16" t="s">
-        <v>781</v>
+      <c r="D319" t="s">
+        <v>755</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>805</v>
+        <v>143</v>
       </c>
       <c r="G319" s="3" t="s">
         <v>2</v>
@@ -46467,13 +46560,18 @@
       <c r="M319" s="3"/>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A320" s="8"/>
-      <c r="B320" s="25" t="s">
-        <v>879</v>
+      <c r="A320" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>1127</v>
       </c>
       <c r="C320" s="3"/>
+      <c r="D320" t="s">
+        <v>830</v>
+      </c>
       <c r="E320" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F320" s="3"/>
       <c r="G320" s="3" t="s">
@@ -46490,40 +46588,41 @@
       <c r="L320" s="3"/>
       <c r="M320" s="3"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A321" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="C321" s="3"/>
-      <c r="E321" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F321" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="G321" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H321" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I321" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J321" s="8"/>
-      <c r="K321" s="3"/>
-      <c r="L321" s="3"/>
-      <c r="M321" s="3"/>
+    <row r="321" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="14"/>
+      <c r="B321" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="C321" s="12"/>
+      <c r="E321" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F321" s="12"/>
+      <c r="G321" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H321" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I321" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J321" s="14"/>
+      <c r="K321" s="12"/>
+      <c r="L321" s="12"/>
+      <c r="M321" s="12"/>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A322" s="8"/>
-      <c r="B322" s="3" t="s">
-        <v>885</v>
+      <c r="A322" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B322" s="23" t="s">
+        <v>832</v>
       </c>
       <c r="C322" s="3"/>
+      <c r="D322" t="s">
+        <v>754</v>
+      </c>
       <c r="E322" s="3" t="s">
         <v>2</v>
       </c>
@@ -46544,10 +46643,11 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
-      <c r="B323" s="3" t="s">
-        <v>886</v>
-      </c>
+      <c r="B323" s="3"/>
       <c r="C323" s="3"/>
+      <c r="D323" t="s">
+        <v>833</v>
+      </c>
       <c r="E323" s="3" t="s">
         <v>2</v>
       </c>
@@ -46567,15 +46667,11 @@
       <c r="M323" s="3"/>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A324" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="B324" s="25" t="s">
-        <v>883</v>
-      </c>
+      <c r="A324" s="8"/>
+      <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" t="s">
-        <v>882</v>
+        <v>834</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>2</v>
@@ -46596,22 +46692,16 @@
       <c r="M324" s="3"/>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A325" s="8" t="s">
-        <v>888</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>889</v>
-      </c>
+      <c r="A325" s="8"/>
+      <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" t="s">
-        <v>898</v>
+        <v>835</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F325" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F325" s="3"/>
       <c r="G325" s="3" t="s">
         <v>2</v>
       </c>
@@ -46628,10 +46718,11 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="8"/>
-      <c r="B326" s="3" t="s">
-        <v>890</v>
-      </c>
+      <c r="B326" s="3"/>
       <c r="C326" s="3"/>
+      <c r="D326" t="s">
+        <v>836</v>
+      </c>
       <c r="E326" s="3" t="s">
         <v>2</v>
       </c>
@@ -46652,10 +46743,11 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="8"/>
-      <c r="B327" s="3" t="s">
-        <v>891</v>
-      </c>
+      <c r="B327" s="3"/>
       <c r="C327" s="3"/>
+      <c r="D327" t="s">
+        <v>837</v>
+      </c>
       <c r="E327" s="3" t="s">
         <v>2</v>
       </c>
@@ -46676,21 +46768,19 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>892</v>
+        <v>838</v>
+      </c>
+      <c r="B328" s="23" t="s">
+        <v>840</v>
       </c>
       <c r="C328" s="3"/>
-      <c r="D328" t="s">
-        <v>897</v>
+      <c r="D328" s="16" t="s">
+        <v>753</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F328" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F328" s="3"/>
       <c r="G328" s="3" t="s">
         <v>2</v>
       </c>
@@ -46707,8 +46797,8 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="8"/>
-      <c r="B329" s="3" t="s">
-        <v>893</v>
+      <c r="B329" s="23" t="s">
+        <v>841</v>
       </c>
       <c r="C329" s="3"/>
       <c r="E329" s="3" t="s">
@@ -46730,9 +46820,11 @@
       <c r="M329" s="3"/>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A330" s="8"/>
+      <c r="A330" s="8" t="s">
+        <v>842</v>
+      </c>
       <c r="B330" s="3" t="s">
-        <v>895</v>
+        <v>846</v>
       </c>
       <c r="C330" s="3"/>
       <c r="E330" s="3" t="s">
@@ -46756,7 +46848,7 @@
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="8"/>
       <c r="B331" s="3" t="s">
-        <v>896</v>
+        <v>847</v>
       </c>
       <c r="C331" s="3"/>
       <c r="E331" s="3" t="s">
@@ -46778,22 +46870,15 @@
       <c r="M331" s="3"/>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A332" s="8" t="s">
-        <v>899</v>
-      </c>
-      <c r="B332" s="25" t="s">
-        <v>900</v>
+      <c r="A332" s="8"/>
+      <c r="B332" s="3" t="s">
+        <v>848</v>
       </c>
       <c r="C332" s="3"/>
-      <c r="D332" t="s">
-        <v>780</v>
-      </c>
       <c r="E332" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F332" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F332" s="3"/>
       <c r="G332" s="3" t="s">
         <v>2</v>
       </c>
@@ -46810,21 +46895,19 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="B333" s="25" t="s">
-        <v>903</v>
+        <v>849</v>
+      </c>
+      <c r="B333" s="23" t="s">
+        <v>845</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" t="s">
-        <v>902</v>
+        <v>844</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F333" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F333" s="3"/>
       <c r="G333" s="3" t="s">
         <v>2</v>
       </c>
@@ -46841,21 +46924,19 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="B334" s="25" t="s">
-        <v>905</v>
+        <v>850</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>851</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" t="s">
-        <v>779</v>
+        <v>860</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F334" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F334" s="3"/>
       <c r="G334" s="3" t="s">
         <v>2</v>
       </c>
@@ -46871,22 +46952,15 @@
       <c r="M334" s="3"/>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A335" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="B335" s="25" t="s">
-        <v>907</v>
+      <c r="A335" s="8"/>
+      <c r="B335" s="3" t="s">
+        <v>852</v>
       </c>
       <c r="C335" s="3"/>
-      <c r="D335" t="s">
-        <v>778</v>
-      </c>
       <c r="E335" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F335" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F335" s="3"/>
       <c r="G335" s="3" t="s">
         <v>2</v>
       </c>
@@ -46902,22 +46976,15 @@
       <c r="M335" s="3"/>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A336" s="8" t="s">
-        <v>908</v>
-      </c>
+      <c r="A336" s="8"/>
       <c r="B336" s="3" t="s">
-        <v>909</v>
+        <v>853</v>
       </c>
       <c r="C336" s="3"/>
-      <c r="D336" t="s">
-        <v>912</v>
-      </c>
       <c r="E336" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F336" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F336" s="3"/>
       <c r="G336" s="3" t="s">
         <v>2</v>
       </c>
@@ -46933,11 +47000,16 @@
       <c r="M336" s="3"/>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A337" s="8"/>
+      <c r="A337" s="8" t="s">
+        <v>856</v>
+      </c>
       <c r="B337" s="3" t="s">
-        <v>910</v>
+        <v>854</v>
       </c>
       <c r="C337" s="3"/>
+      <c r="D337" t="s">
+        <v>859</v>
+      </c>
       <c r="E337" s="3" t="s">
         <v>2</v>
       </c>
@@ -46959,7 +47031,7 @@
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="8"/>
       <c r="B338" s="3" t="s">
-        <v>911</v>
+        <v>855</v>
       </c>
       <c r="C338" s="3"/>
       <c r="E338" s="3" t="s">
@@ -46981,22 +47053,15 @@
       <c r="M338" s="3"/>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A339" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="B339" s="25" t="s">
-        <v>914</v>
+      <c r="A339" s="8"/>
+      <c r="B339" s="3" t="s">
+        <v>857</v>
       </c>
       <c r="C339" s="3"/>
-      <c r="D339" t="s">
-        <v>777</v>
-      </c>
       <c r="E339" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F339" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F339" s="3"/>
       <c r="G339" s="3" t="s">
         <v>2</v>
       </c>
@@ -47012,22 +47077,15 @@
       <c r="M339" s="3"/>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A340" s="8" t="s">
-        <v>915</v>
-      </c>
+      <c r="A340" s="8"/>
       <c r="B340" s="3" t="s">
-        <v>917</v>
+        <v>858</v>
       </c>
       <c r="C340" s="3"/>
-      <c r="D340" t="s">
-        <v>776</v>
-      </c>
       <c r="E340" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F340" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F340" s="3"/>
       <c r="G340" s="3" t="s">
         <v>2</v>
       </c>
@@ -47043,11 +47101,16 @@
       <c r="M340" s="3"/>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A341" s="8"/>
-      <c r="B341" s="3" t="s">
-        <v>918</v>
+      <c r="A341" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="B341" s="23" t="s">
+        <v>862</v>
       </c>
       <c r="C341" s="3"/>
+      <c r="D341" t="s">
+        <v>752</v>
+      </c>
       <c r="E341" s="3" t="s">
         <v>2</v>
       </c>
@@ -47067,11 +47130,16 @@
       <c r="M341" s="3"/>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A342" s="8"/>
-      <c r="B342" s="3" t="s">
-        <v>919</v>
+      <c r="A342" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="B342" s="23" t="s">
+        <v>865</v>
       </c>
       <c r="C342" s="3"/>
+      <c r="D342" t="s">
+        <v>864</v>
+      </c>
       <c r="E342" s="3" t="s">
         <v>2</v>
       </c>
@@ -47092,21 +47160,19 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="B343" s="25" t="s">
-        <v>921</v>
+        <v>866</v>
+      </c>
+      <c r="B343" s="23" t="s">
+        <v>867</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="E343" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F343" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F343" s="3"/>
       <c r="G343" s="3" t="s">
         <v>2</v>
       </c>
@@ -47123,21 +47189,19 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
-        <v>922</v>
-      </c>
-      <c r="B344" s="25" t="s">
-        <v>923</v>
+        <v>868</v>
+      </c>
+      <c r="B344" s="23" t="s">
+        <v>869</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F344" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F344" s="3"/>
       <c r="G344" s="3" t="s">
         <v>2</v>
       </c>
@@ -47154,21 +47218,19 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="B345" s="25" t="s">
-        <v>925</v>
+        <v>870</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>871</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" t="s">
-        <v>773</v>
+        <v>874</v>
       </c>
       <c r="E345" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F345" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F345" s="3"/>
       <c r="G345" s="3" t="s">
         <v>2</v>
       </c>
@@ -47184,22 +47246,15 @@
       <c r="M345" s="3"/>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A346" s="8" t="s">
-        <v>926</v>
-      </c>
+      <c r="A346" s="8"/>
       <c r="B346" s="3" t="s">
-        <v>930</v>
+        <v>872</v>
       </c>
       <c r="C346" s="3"/>
-      <c r="D346" t="s">
-        <v>772</v>
-      </c>
       <c r="E346" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F346" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F346" s="3"/>
       <c r="G346" s="3" t="s">
         <v>2</v>
       </c>
@@ -47215,22 +47270,15 @@
       <c r="M346" s="3"/>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A347" s="8" t="s">
-        <v>927</v>
-      </c>
+      <c r="A347" s="8"/>
       <c r="B347" s="3" t="s">
-        <v>931</v>
+        <v>873</v>
       </c>
       <c r="C347" s="3"/>
-      <c r="D347" t="s">
-        <v>772</v>
-      </c>
       <c r="E347" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F347" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F347" s="3"/>
       <c r="G347" s="3" t="s">
         <v>2</v>
       </c>
@@ -47247,20 +47295,20 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>932</v>
+        <v>875</v>
+      </c>
+      <c r="B348" s="23" t="s">
+        <v>876</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" t="s">
-        <v>933</v>
+        <v>749</v>
       </c>
       <c r="E348" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>2</v>
@@ -47278,20 +47326,20 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
-        <v>934</v>
+        <v>877</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>935</v>
+        <v>879</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="E349" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>2</v>
@@ -47310,7 +47358,7 @@
     <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="8"/>
       <c r="B350" s="3" t="s">
-        <v>936</v>
+        <v>880</v>
       </c>
       <c r="C350" s="3"/>
       <c r="E350" s="3" t="s">
@@ -47334,7 +47382,7 @@
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="8"/>
       <c r="B351" s="3" t="s">
-        <v>937</v>
+        <v>881</v>
       </c>
       <c r="C351" s="3"/>
       <c r="E351" s="3" t="s">
@@ -47356,15 +47404,22 @@
       <c r="M351" s="3"/>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A352" s="8"/>
-      <c r="B352" s="3" t="s">
-        <v>938</v>
+      <c r="A352" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="B352" s="23" t="s">
+        <v>883</v>
       </c>
       <c r="C352" s="3"/>
+      <c r="D352" t="s">
+        <v>747</v>
+      </c>
       <c r="E352" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F352" s="3"/>
+      <c r="F352" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G352" s="3" t="s">
         <v>2</v>
       </c>
@@ -47381,20 +47436,20 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
-        <v>939</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>940</v>
+        <v>884</v>
+      </c>
+      <c r="B353" s="23" t="s">
+        <v>885</v>
       </c>
       <c r="C353" s="3"/>
-      <c r="D353" s="17" t="s">
-        <v>770</v>
+      <c r="D353" t="s">
+        <v>746</v>
       </c>
       <c r="E353" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>2</v>
@@ -47411,15 +47466,22 @@
       <c r="M353" s="3"/>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A354" s="8"/>
-      <c r="B354" s="3" t="s">
-        <v>941</v>
+      <c r="A354" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="B354" s="23" t="s">
+        <v>887</v>
       </c>
       <c r="C354" s="3"/>
+      <c r="D354" t="s">
+        <v>745</v>
+      </c>
       <c r="E354" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F354" s="3"/>
+      <c r="F354" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G354" s="3" t="s">
         <v>2</v>
       </c>
@@ -47436,20 +47498,20 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="8" t="s">
-        <v>942</v>
-      </c>
-      <c r="B355" s="25" t="s">
-        <v>943</v>
+        <v>888</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>892</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="E355" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>2</v>
@@ -47467,20 +47529,20 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="B356" s="25" t="s">
-        <v>945</v>
+        <v>889</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="E356" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>2</v>
@@ -47498,19 +47560,21 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="B357" s="25" t="s">
-        <v>950</v>
+        <v>890</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>894</v>
       </c>
       <c r="C357" s="3"/>
-      <c r="D357" s="3" t="s">
-        <v>949</v>
+      <c r="D357" t="s">
+        <v>895</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F357" s="3"/>
+      <c r="F357" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G357" s="3" t="s">
         <v>2</v>
       </c>
@@ -47527,20 +47591,20 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
-        <v>947</v>
+        <v>896</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>951</v>
+        <v>897</v>
       </c>
       <c r="C358" s="3"/>
-      <c r="D358" s="3" t="s">
-        <v>767</v>
+      <c r="D358" t="s">
+        <v>743</v>
       </c>
       <c r="E358" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>2</v>
@@ -47559,10 +47623,9 @@
     <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="8"/>
       <c r="B359" s="3" t="s">
-        <v>952</v>
+        <v>898</v>
       </c>
       <c r="C359" s="3"/>
-      <c r="D359" s="3"/>
       <c r="E359" s="3" t="s">
         <v>2</v>
       </c>
@@ -47584,10 +47647,9 @@
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="8"/>
       <c r="B360" s="3" t="s">
-        <v>953</v>
+        <v>899</v>
       </c>
       <c r="C360" s="3"/>
-      <c r="D360" s="3"/>
       <c r="E360" s="3" t="s">
         <v>2</v>
       </c>
@@ -47609,10 +47671,9 @@
     <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="8"/>
       <c r="B361" s="3" t="s">
-        <v>954</v>
+        <v>900</v>
       </c>
       <c r="C361" s="3"/>
-      <c r="D361" s="3"/>
       <c r="E361" s="3" t="s">
         <v>2</v>
       </c>
@@ -47632,16 +47693,22 @@
       <c r="M361" s="3"/>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A362" s="8"/>
+      <c r="A362" s="8" t="s">
+        <v>901</v>
+      </c>
       <c r="B362" s="3" t="s">
-        <v>955</v>
+        <v>902</v>
       </c>
       <c r="C362" s="3"/>
-      <c r="D362" s="3"/>
+      <c r="D362" s="17" t="s">
+        <v>742</v>
+      </c>
       <c r="E362" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F362" s="3"/>
+      <c r="F362" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G362" s="3" t="s">
         <v>2</v>
       </c>
@@ -47659,10 +47726,9 @@
     <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="8"/>
       <c r="B363" s="3" t="s">
-        <v>956</v>
+        <v>903</v>
       </c>
       <c r="C363" s="3"/>
-      <c r="D363" s="3"/>
       <c r="E363" s="3" t="s">
         <v>2</v>
       </c>
@@ -47682,16 +47748,22 @@
       <c r="M363" s="3"/>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A364" s="8"/>
-      <c r="B364" s="3" t="s">
-        <v>957</v>
+      <c r="A364" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="B364" s="23" t="s">
+        <v>905</v>
       </c>
       <c r="C364" s="3"/>
-      <c r="D364" s="3"/>
+      <c r="D364" t="s">
+        <v>741</v>
+      </c>
       <c r="E364" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F364" s="3"/>
+      <c r="F364" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G364" s="3" t="s">
         <v>2</v>
       </c>
@@ -47707,16 +47779,22 @@
       <c r="M364" s="3"/>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A365" s="8"/>
-      <c r="B365" s="3" t="s">
-        <v>958</v>
+      <c r="A365" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="B365" s="23" t="s">
+        <v>907</v>
       </c>
       <c r="C365" s="3"/>
-      <c r="D365" s="3"/>
+      <c r="D365" t="s">
+        <v>740</v>
+      </c>
       <c r="E365" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F365" s="3"/>
+      <c r="F365" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G365" s="3" t="s">
         <v>2</v>
       </c>
@@ -47733,21 +47811,19 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="B366" s="25" t="s">
-        <v>959</v>
+        <v>908</v>
+      </c>
+      <c r="B366" s="23" t="s">
+        <v>912</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3" t="s">
-        <v>766</v>
+        <v>911</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F366" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F366" s="3"/>
       <c r="G366" s="3" t="s">
         <v>2</v>
       </c>
@@ -47764,20 +47840,20 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="8" t="s">
-        <v>960</v>
+        <v>909</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>961</v>
+        <v>913</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G367" s="3" t="s">
         <v>2</v>
@@ -47796,7 +47872,7 @@
     <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="8"/>
       <c r="B368" s="3" t="s">
-        <v>962</v>
+        <v>914</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -47819,22 +47895,16 @@
       <c r="M368" s="3"/>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A369" s="8" t="s">
-        <v>963</v>
-      </c>
-      <c r="B369" s="25" t="s">
-        <v>965</v>
+      <c r="A369" s="8"/>
+      <c r="B369" s="3" t="s">
+        <v>915</v>
       </c>
       <c r="C369" s="3"/>
-      <c r="D369" s="3" t="s">
-        <v>763</v>
-      </c>
+      <c r="D369" s="3"/>
       <c r="E369" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F369" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F369" s="3"/>
       <c r="G369" s="3" t="s">
         <v>2</v>
       </c>
@@ -47850,22 +47920,16 @@
       <c r="M369" s="3"/>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A370" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="B370" s="25" t="s">
-        <v>967</v>
+      <c r="A370" s="8"/>
+      <c r="B370" s="3" t="s">
+        <v>916</v>
       </c>
       <c r="C370" s="3"/>
-      <c r="D370" s="3" t="s">
-        <v>762</v>
-      </c>
+      <c r="D370" s="3"/>
       <c r="E370" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F370" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F370" s="3"/>
       <c r="G370" s="3" t="s">
         <v>2</v>
       </c>
@@ -47881,22 +47945,16 @@
       <c r="M370" s="3"/>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A371" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="B371" s="25" t="s">
-        <v>968</v>
+      <c r="A371" s="8"/>
+      <c r="B371" s="3" t="s">
+        <v>917</v>
       </c>
       <c r="C371" s="3"/>
-      <c r="D371" s="21" t="s">
-        <v>761</v>
-      </c>
+      <c r="D371" s="3"/>
       <c r="E371" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F371" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F371" s="3"/>
       <c r="G371" s="3" t="s">
         <v>2</v>
       </c>
@@ -47912,22 +47970,16 @@
       <c r="M371" s="3"/>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A372" s="8" t="s">
-        <v>972</v>
-      </c>
+      <c r="A372" s="8"/>
       <c r="B372" s="3" t="s">
-        <v>970</v>
+        <v>918</v>
       </c>
       <c r="C372" s="3"/>
-      <c r="D372" s="3" t="s">
-        <v>760</v>
-      </c>
+      <c r="D372" s="3"/>
       <c r="E372" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F372" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F372" s="3"/>
       <c r="G372" s="3" t="s">
         <v>2</v>
       </c>
@@ -47945,7 +47997,7 @@
     <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" s="8"/>
       <c r="B373" s="3" t="s">
-        <v>971</v>
+        <v>919</v>
       </c>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -47968,22 +48020,16 @@
       <c r="M373" s="3"/>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A374" s="8" t="s">
-        <v>973</v>
-      </c>
+      <c r="A374" s="8"/>
       <c r="B374" s="3" t="s">
-        <v>975</v>
+        <v>920</v>
       </c>
       <c r="C374" s="3"/>
-      <c r="D374" s="3" t="s">
-        <v>974</v>
-      </c>
+      <c r="D374" s="3"/>
       <c r="E374" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F374" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F374" s="3"/>
       <c r="G374" s="3" t="s">
         <v>2</v>
       </c>
@@ -47999,16 +48045,22 @@
       <c r="M374" s="3"/>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A375" s="8"/>
-      <c r="B375" s="3" t="s">
-        <v>976</v>
+      <c r="A375" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="B375" s="23" t="s">
+        <v>921</v>
       </c>
       <c r="C375" s="3"/>
-      <c r="D375" s="3"/>
+      <c r="D375" s="3" t="s">
+        <v>738</v>
+      </c>
       <c r="E375" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F375" s="3"/>
+      <c r="F375" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G375" s="3" t="s">
         <v>2</v>
       </c>
@@ -48025,20 +48077,20 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="8" t="s">
-        <v>977</v>
+        <v>922</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>978</v>
+        <v>923</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>2</v>
@@ -48057,7 +48109,7 @@
     <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="8"/>
       <c r="B377" s="3" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -48081,20 +48133,20 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="8" t="s">
-        <v>980</v>
-      </c>
-      <c r="B378" s="25" t="s">
-        <v>981</v>
+        <v>925</v>
+      </c>
+      <c r="B378" s="23" t="s">
+        <v>927</v>
       </c>
       <c r="C378" s="3"/>
-      <c r="D378" s="21" t="s">
-        <v>758</v>
+      <c r="D378" s="3" t="s">
+        <v>735</v>
       </c>
       <c r="E378" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>2</v>
@@ -48112,20 +48164,20 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>984</v>
+        <v>928</v>
+      </c>
+      <c r="B379" s="23" t="s">
+        <v>929</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G379" s="3" t="s">
         <v>2</v>
@@ -48142,16 +48194,22 @@
       <c r="M379" s="3"/>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A380" s="8"/>
-      <c r="B380" s="3" t="s">
-        <v>985</v>
+      <c r="A380" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="B380" s="23" t="s">
+        <v>930</v>
       </c>
       <c r="C380" s="3"/>
-      <c r="D380" s="3"/>
+      <c r="D380" s="20" t="s">
+        <v>733</v>
+      </c>
       <c r="E380" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F380" s="3"/>
+      <c r="F380" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G380" s="3" t="s">
         <v>2</v>
       </c>
@@ -48167,16 +48225,22 @@
       <c r="M380" s="3"/>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A381" s="8"/>
+      <c r="A381" s="8" t="s">
+        <v>934</v>
+      </c>
       <c r="B381" s="3" t="s">
-        <v>986</v>
+        <v>932</v>
       </c>
       <c r="C381" s="3"/>
-      <c r="D381" s="3"/>
+      <c r="D381" s="3" t="s">
+        <v>732</v>
+      </c>
       <c r="E381" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F381" s="3"/>
+      <c r="F381" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G381" s="3" t="s">
         <v>2</v>
       </c>
@@ -48192,22 +48256,16 @@
       <c r="M381" s="3"/>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A382" s="8" t="s">
-        <v>987</v>
-      </c>
+      <c r="A382" s="8"/>
       <c r="B382" s="3" t="s">
-        <v>983</v>
+        <v>933</v>
       </c>
       <c r="C382" s="3"/>
-      <c r="D382" s="3" t="s">
-        <v>757</v>
-      </c>
+      <c r="D382" s="3"/>
       <c r="E382" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F382" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F382" s="3"/>
       <c r="G382" s="3" t="s">
         <v>2</v>
       </c>
@@ -48224,20 +48282,20 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="8" t="s">
-        <v>988</v>
+        <v>935</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>989</v>
+        <v>937</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3" t="s">
-        <v>756</v>
+        <v>936</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>2</v>
@@ -48256,7 +48314,7 @@
     <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="8"/>
       <c r="B384" s="3" t="s">
-        <v>990</v>
+        <v>938</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -48279,16 +48337,22 @@
       <c r="M384" s="3"/>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A385" s="8"/>
+      <c r="A385" s="8" t="s">
+        <v>939</v>
+      </c>
       <c r="B385" s="3" t="s">
-        <v>991</v>
+        <v>940</v>
       </c>
       <c r="C385" s="3"/>
-      <c r="D385" s="3"/>
+      <c r="D385" s="3" t="s">
+        <v>731</v>
+      </c>
       <c r="E385" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F385" s="3"/>
+      <c r="F385" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G385" s="3" t="s">
         <v>2</v>
       </c>
@@ -48304,22 +48368,16 @@
       <c r="M385" s="3"/>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A386" s="8" t="s">
-        <v>993</v>
-      </c>
+      <c r="A386" s="8"/>
       <c r="B386" s="3" t="s">
-        <v>992</v>
+        <v>941</v>
       </c>
       <c r="C386" s="3"/>
-      <c r="D386" s="3" t="s">
-        <v>756</v>
-      </c>
+      <c r="D386" s="3"/>
       <c r="E386" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F386" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F386" s="3"/>
       <c r="G386" s="3" t="s">
         <v>2</v>
       </c>
@@ -48336,20 +48394,20 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
-        <v>994</v>
-      </c>
-      <c r="B387" s="25" t="s">
-        <v>995</v>
+        <v>942</v>
+      </c>
+      <c r="B387" s="23" t="s">
+        <v>943</v>
       </c>
       <c r="C387" s="3"/>
-      <c r="D387" s="3" t="s">
-        <v>755</v>
+      <c r="D387" s="20" t="s">
+        <v>730</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G387" s="3" t="s">
         <v>2</v>
@@ -48367,20 +48425,20 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="B388" s="25" t="s">
-        <v>997</v>
+        <v>944</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>946</v>
       </c>
       <c r="C388" s="3"/>
       <c r="D388" s="3" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>2</v>
@@ -48397,22 +48455,16 @@
       <c r="M388" s="3"/>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A389" s="8" t="s">
-        <v>999</v>
-      </c>
-      <c r="B389" s="25" t="s">
-        <v>998</v>
+      <c r="A389" s="8"/>
+      <c r="B389" s="3" t="s">
+        <v>947</v>
       </c>
       <c r="C389" s="3"/>
-      <c r="D389" s="3" t="s">
-        <v>753</v>
-      </c>
+      <c r="D389" s="3"/>
       <c r="E389" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F389" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F389" s="3"/>
       <c r="G389" s="3" t="s">
         <v>2</v>
       </c>
@@ -48428,22 +48480,16 @@
       <c r="M389" s="3"/>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A390" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B390" s="25" t="s">
-        <v>1001</v>
+      <c r="A390" s="8"/>
+      <c r="B390" s="3" t="s">
+        <v>948</v>
       </c>
       <c r="C390" s="3"/>
-      <c r="D390" s="3" t="s">
-        <v>752</v>
-      </c>
+      <c r="D390" s="3"/>
       <c r="E390" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F390" s="25" t="s">
-        <v>1002</v>
-      </c>
+      <c r="F390" s="3"/>
       <c r="G390" s="3" t="s">
         <v>2</v>
       </c>
@@ -48460,20 +48506,20 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B391" s="25" t="s">
-        <v>1004</v>
+        <v>949</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>945</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3" t="s">
-        <v>1008</v>
+        <v>729</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>1010</v>
+        <v>773</v>
       </c>
       <c r="G391" s="3" t="s">
         <v>2</v>
@@ -48490,16 +48536,22 @@
       <c r="M391" s="3"/>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A392" s="8"/>
-      <c r="B392" s="25" t="s">
-        <v>1005</v>
+      <c r="A392" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>951</v>
       </c>
       <c r="C392" s="3"/>
-      <c r="D392" s="3"/>
+      <c r="D392" s="3" t="s">
+        <v>728</v>
+      </c>
       <c r="E392" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F392" s="3"/>
+      <c r="F392" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G392" s="3" t="s">
         <v>2</v>
       </c>
@@ -48515,22 +48567,16 @@
       <c r="M392" s="3"/>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A393" s="8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B393" s="25" t="s">
-        <v>1006</v>
+      <c r="A393" s="8"/>
+      <c r="B393" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="C393" s="3"/>
-      <c r="D393" s="3" t="s">
-        <v>1008</v>
-      </c>
+      <c r="D393" s="3"/>
       <c r="E393" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F393" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F393" s="3"/>
       <c r="G393" s="3" t="s">
         <v>2</v>
       </c>
@@ -48546,22 +48592,16 @@
       <c r="M393" s="3"/>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A394" s="8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B394" s="25" t="s">
-        <v>1011</v>
+      <c r="A394" s="8"/>
+      <c r="B394" s="3" t="s">
+        <v>953</v>
       </c>
       <c r="C394" s="3"/>
-      <c r="D394" s="3" t="s">
-        <v>751</v>
-      </c>
+      <c r="D394" s="3"/>
       <c r="E394" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F394" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F394" s="3"/>
       <c r="G394" s="3" t="s">
         <v>2</v>
       </c>
@@ -48578,20 +48618,20 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B395" s="25" t="s">
-        <v>1013</v>
+        <v>955</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>954</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G395" s="3" t="s">
         <v>2</v>
@@ -48608,16 +48648,22 @@
       <c r="M395" s="3"/>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A396" s="8"/>
-      <c r="B396" s="3"/>
+      <c r="A396" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B396" s="23" t="s">
+        <v>957</v>
+      </c>
       <c r="C396" s="3"/>
       <c r="D396" s="3" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F396" s="3"/>
+      <c r="F396" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G396" s="3" t="s">
         <v>2</v>
       </c>
@@ -48634,20 +48680,20 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>1019</v>
+        <v>958</v>
+      </c>
+      <c r="B397" s="23" t="s">
+        <v>959</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G397" s="3" t="s">
         <v>2</v>
@@ -48664,18 +48710,22 @@
       <c r="M397" s="3"/>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A398" s="8"/>
-      <c r="B398" s="3" t="s">
-        <v>1020</v>
+      <c r="A398" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="B398" s="23" t="s">
+        <v>960</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F398" s="3"/>
+      <c r="F398" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G398" s="3" t="s">
         <v>2</v>
       </c>
@@ -48691,16 +48741,22 @@
       <c r="M398" s="3"/>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A399" s="8"/>
-      <c r="B399" s="3" t="s">
-        <v>1021</v>
+      <c r="A399" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="B399" s="23" t="s">
+        <v>963</v>
       </c>
       <c r="C399" s="3"/>
-      <c r="D399" s="3"/>
+      <c r="D399" s="3" t="s">
+        <v>724</v>
+      </c>
       <c r="E399" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F399" s="3"/>
+      <c r="F399" s="23" t="s">
+        <v>964</v>
+      </c>
       <c r="G399" s="3" t="s">
         <v>2</v>
       </c>
@@ -48716,16 +48772,22 @@
       <c r="M399" s="3"/>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A400" s="8"/>
-      <c r="B400" s="3" t="s">
-        <v>1022</v>
+      <c r="A400" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="B400" s="23" t="s">
+        <v>966</v>
       </c>
       <c r="C400" s="3"/>
-      <c r="D400" s="3"/>
+      <c r="D400" s="3" t="s">
+        <v>970</v>
+      </c>
       <c r="E400" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F400" s="3"/>
+      <c r="F400" s="3" t="s">
+        <v>972</v>
+      </c>
       <c r="G400" s="3" t="s">
         <v>2</v>
       </c>
@@ -48741,22 +48803,16 @@
       <c r="M400" s="3"/>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A401" s="8" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B401" s="25" t="s">
-        <v>1023</v>
+      <c r="A401" s="8"/>
+      <c r="B401" s="23" t="s">
+        <v>967</v>
       </c>
       <c r="C401" s="3"/>
-      <c r="D401" s="3" t="s">
-        <v>749</v>
-      </c>
+      <c r="D401" s="3"/>
       <c r="E401" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F401" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F401" s="3"/>
       <c r="G401" s="3" t="s">
         <v>2</v>
       </c>
@@ -48772,16 +48828,22 @@
       <c r="M401" s="3"/>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A402" s="8"/>
-      <c r="B402" s="25" t="s">
-        <v>1024</v>
+      <c r="A402" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="B402" s="23" t="s">
+        <v>968</v>
       </c>
       <c r="C402" s="3"/>
-      <c r="D402" s="3"/>
+      <c r="D402" s="3" t="s">
+        <v>970</v>
+      </c>
       <c r="E402" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F402" s="3"/>
+      <c r="F402" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G402" s="3" t="s">
         <v>2</v>
       </c>
@@ -48797,16 +48859,22 @@
       <c r="M402" s="3"/>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A403" s="8"/>
-      <c r="B403" s="3" t="s">
-        <v>1025</v>
+      <c r="A403" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="B403" s="23" t="s">
+        <v>973</v>
       </c>
       <c r="C403" s="3"/>
-      <c r="D403" s="3"/>
+      <c r="D403" s="3" t="s">
+        <v>723</v>
+      </c>
       <c r="E403" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F403" s="3"/>
+      <c r="F403" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G403" s="3" t="s">
         <v>2</v>
       </c>
@@ -48822,16 +48890,22 @@
       <c r="M403" s="3"/>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A404" s="8"/>
-      <c r="B404" s="25" t="s">
-        <v>1026</v>
+      <c r="A404" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="B404" s="23" t="s">
+        <v>975</v>
       </c>
       <c r="C404" s="3"/>
-      <c r="D404" s="3"/>
+      <c r="D404" s="3" t="s">
+        <v>722</v>
+      </c>
       <c r="E404" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F404" s="3"/>
+      <c r="F404" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G404" s="3" t="s">
         <v>2</v>
       </c>
@@ -48847,22 +48921,16 @@
       <c r="M404" s="3"/>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A405" s="8" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B405" s="25" t="s">
-        <v>1016</v>
-      </c>
+      <c r="A405" s="8"/>
+      <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3" t="s">
-        <v>1017</v>
+        <v>721</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F405" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F405" s="3"/>
       <c r="G405" s="3" t="s">
         <v>2</v>
       </c>
@@ -48879,19 +48947,21 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
-        <v>1027</v>
+        <v>976</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1030</v>
+        <v>981</v>
       </c>
       <c r="C406" s="3"/>
       <c r="D406" s="3" t="s">
-        <v>1028</v>
+        <v>722</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F406" s="3"/>
+      <c r="F406" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G406" s="3" t="s">
         <v>2</v>
       </c>
@@ -48908,10 +48978,12 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="8"/>
-      <c r="B407" s="3"/>
+      <c r="B407" s="3" t="s">
+        <v>982</v>
+      </c>
       <c r="C407" s="3"/>
       <c r="D407" s="3" t="s">
-        <v>1029</v>
+        <v>721</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>2</v>
@@ -48932,22 +49004,16 @@
       <c r="M407" s="3"/>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A408" s="8" t="s">
-        <v>1033</v>
-      </c>
+      <c r="A408" s="8"/>
       <c r="B408" s="3" t="s">
-        <v>1031</v>
+        <v>983</v>
       </c>
       <c r="C408" s="3"/>
-      <c r="D408" s="21" t="s">
-        <v>748</v>
-      </c>
+      <c r="D408" s="3"/>
       <c r="E408" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F408" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F408" s="3"/>
       <c r="G408" s="3" t="s">
         <v>2</v>
       </c>
@@ -48965,7 +49031,7 @@
     <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" s="8"/>
       <c r="B409" s="3" t="s">
-        <v>1032</v>
+        <v>984</v>
       </c>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -48989,20 +49055,20 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" s="8" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B410" s="25" t="s">
-        <v>1035</v>
+        <v>977</v>
+      </c>
+      <c r="B410" s="23" t="s">
+        <v>985</v>
       </c>
       <c r="C410" s="3"/>
       <c r="D410" s="3" t="s">
-        <v>1034</v>
+        <v>721</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>2</v>
@@ -49019,22 +49085,16 @@
       <c r="M410" s="3"/>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A411" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B411" s="25" t="s">
-        <v>1038</v>
+      <c r="A411" s="8"/>
+      <c r="B411" s="23" t="s">
+        <v>986</v>
       </c>
       <c r="C411" s="3"/>
-      <c r="D411" s="3" t="s">
-        <v>1039</v>
-      </c>
+      <c r="D411" s="3"/>
       <c r="E411" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F411" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F411" s="3"/>
       <c r="G411" s="3" t="s">
         <v>2</v>
       </c>
@@ -49050,22 +49110,16 @@
       <c r="M411" s="3"/>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A412" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B412" s="25" t="s">
-        <v>1041</v>
+      <c r="A412" s="8"/>
+      <c r="B412" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="C412" s="3"/>
-      <c r="D412" s="3" t="s">
-        <v>1042</v>
-      </c>
+      <c r="D412" s="3"/>
       <c r="E412" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F412" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F412" s="3"/>
       <c r="G412" s="3" t="s">
         <v>2</v>
       </c>
@@ -49082,11 +49136,11 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" s="8"/>
-      <c r="B413" s="3"/>
+      <c r="B413" s="23" t="s">
+        <v>988</v>
+      </c>
       <c r="C413" s="3"/>
-      <c r="D413" s="3" t="s">
-        <v>1043</v>
-      </c>
+      <c r="D413" s="3"/>
       <c r="E413" s="3" t="s">
         <v>2</v>
       </c>
@@ -49107,20 +49161,20 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>1046</v>
+        <v>980</v>
+      </c>
+      <c r="B414" s="23" t="s">
+        <v>978</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3" t="s">
-        <v>1045</v>
+        <v>979</v>
       </c>
       <c r="E414" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>2</v>
@@ -49137,12 +49191,16 @@
       <c r="M414" s="3"/>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A415" s="8"/>
+      <c r="A415" s="8" t="s">
+        <v>989</v>
+      </c>
       <c r="B415" s="3" t="s">
-        <v>1047</v>
+        <v>992</v>
       </c>
       <c r="C415" s="3"/>
-      <c r="D415" s="3"/>
+      <c r="D415" s="3" t="s">
+        <v>990</v>
+      </c>
       <c r="E415" s="3" t="s">
         <v>2</v>
       </c>
@@ -49162,22 +49220,16 @@
       <c r="M415" s="3"/>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A416" s="8" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>1050</v>
-      </c>
+      <c r="A416" s="8"/>
+      <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3" t="s">
-        <v>1049</v>
+        <v>991</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F416" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F416" s="3"/>
       <c r="G416" s="3" t="s">
         <v>2</v>
       </c>
@@ -49193,16 +49245,22 @@
       <c r="M416" s="3"/>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A417" s="8"/>
+      <c r="A417" s="8" t="s">
+        <v>995</v>
+      </c>
       <c r="B417" s="3" t="s">
-        <v>1051</v>
+        <v>993</v>
       </c>
       <c r="C417" s="3"/>
-      <c r="D417" s="3"/>
+      <c r="D417" s="20" t="s">
+        <v>720</v>
+      </c>
       <c r="E417" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F417" s="3"/>
+      <c r="F417" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G417" s="3" t="s">
         <v>2</v>
       </c>
@@ -49218,22 +49276,16 @@
       <c r="M417" s="3"/>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A418" s="8" t="s">
-        <v>1052</v>
-      </c>
+      <c r="A418" s="8"/>
       <c r="B418" s="3" t="s">
-        <v>1058</v>
+        <v>994</v>
       </c>
       <c r="C418" s="3"/>
-      <c r="D418" s="3" t="s">
-        <v>1054</v>
-      </c>
+      <c r="D418" s="3"/>
       <c r="E418" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F418" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F418" s="3"/>
       <c r="G418" s="3" t="s">
         <v>2</v>
       </c>
@@ -49249,18 +49301,22 @@
       <c r="M418" s="3"/>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A419" s="8"/>
-      <c r="B419" s="3" t="s">
-        <v>1059</v>
+      <c r="A419" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="B419" s="23" t="s">
+        <v>997</v>
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3" t="s">
-        <v>1055</v>
+        <v>996</v>
       </c>
       <c r="E419" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F419" s="3"/>
+      <c r="F419" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G419" s="3" t="s">
         <v>2</v>
       </c>
@@ -49276,18 +49332,22 @@
       <c r="M419" s="3"/>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A420" s="8"/>
-      <c r="B420" s="3" t="s">
-        <v>1060</v>
+      <c r="A420" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="B420" s="23" t="s">
+        <v>1000</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3" t="s">
-        <v>1056</v>
+        <v>1001</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F420" s="3"/>
+      <c r="F420" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G420" s="3" t="s">
         <v>2</v>
       </c>
@@ -49303,18 +49363,22 @@
       <c r="M420" s="3"/>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A421" s="8"/>
-      <c r="B421" s="3" t="s">
-        <v>1061</v>
+      <c r="A421" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B421" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="3" t="s">
-        <v>1057</v>
+        <v>1004</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F421" s="3"/>
+      <c r="F421" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G421" s="3" t="s">
         <v>2</v>
       </c>
@@ -49331,11 +49395,11 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" s="8"/>
-      <c r="B422" s="3" t="s">
-        <v>1062</v>
-      </c>
+      <c r="B422" s="3"/>
       <c r="C422" s="3"/>
-      <c r="D422" s="3"/>
+      <c r="D422" s="3" t="s">
+        <v>1005</v>
+      </c>
       <c r="E422" s="3" t="s">
         <v>2</v>
       </c>
@@ -49355,16 +49419,22 @@
       <c r="M422" s="3"/>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A423" s="8"/>
+      <c r="A423" s="8" t="s">
+        <v>1006</v>
+      </c>
       <c r="B423" s="3" t="s">
-        <v>1063</v>
+        <v>1008</v>
       </c>
       <c r="C423" s="3"/>
-      <c r="D423" s="3"/>
+      <c r="D423" s="3" t="s">
+        <v>1007</v>
+      </c>
       <c r="E423" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F423" s="3"/>
+      <c r="F423" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G423" s="3" t="s">
         <v>2</v>
       </c>
@@ -49382,7 +49452,7 @@
     <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" s="8"/>
       <c r="B424" s="3" t="s">
-        <v>1064</v>
+        <v>1009</v>
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -49405,16 +49475,22 @@
       <c r="M424" s="3"/>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A425" s="8"/>
+      <c r="A425" s="8" t="s">
+        <v>1010</v>
+      </c>
       <c r="B425" s="3" t="s">
-        <v>1065</v>
+        <v>1012</v>
       </c>
       <c r="C425" s="3"/>
-      <c r="D425" s="3"/>
+      <c r="D425" s="3" t="s">
+        <v>1011</v>
+      </c>
       <c r="E425" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F425" s="3"/>
+      <c r="F425" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G425" s="3" t="s">
         <v>2</v>
       </c>
@@ -49430,22 +49506,16 @@
       <c r="M425" s="3"/>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A426" s="8" t="s">
-        <v>1053</v>
-      </c>
+      <c r="A426" s="8"/>
       <c r="B426" s="3" t="s">
-        <v>1066</v>
+        <v>1013</v>
       </c>
       <c r="C426" s="3"/>
-      <c r="D426" s="3" t="s">
-        <v>1072</v>
-      </c>
+      <c r="D426" s="3"/>
       <c r="E426" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F426" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="F426" s="3"/>
       <c r="G426" s="3" t="s">
         <v>2</v>
       </c>
@@ -49461,16 +49531,22 @@
       <c r="M426" s="3"/>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A427" s="8"/>
+      <c r="A427" s="8" t="s">
+        <v>1014</v>
+      </c>
       <c r="B427" s="3" t="s">
-        <v>1067</v>
+        <v>1020</v>
       </c>
       <c r="C427" s="3"/>
-      <c r="D427" s="3"/>
+      <c r="D427" s="3" t="s">
+        <v>1016</v>
+      </c>
       <c r="E427" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F427" s="3"/>
+      <c r="F427" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G427" s="3" t="s">
         <v>2</v>
       </c>
@@ -49488,10 +49564,12 @@
     <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" s="8"/>
       <c r="B428" s="3" t="s">
-        <v>1068</v>
+        <v>1021</v>
       </c>
       <c r="C428" s="3"/>
-      <c r="D428" s="3"/>
+      <c r="D428" s="3" t="s">
+        <v>1017</v>
+      </c>
       <c r="E428" s="3" t="s">
         <v>2</v>
       </c>
@@ -49513,10 +49591,12 @@
     <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" s="8"/>
       <c r="B429" s="3" t="s">
-        <v>1069</v>
+        <v>1022</v>
       </c>
       <c r="C429" s="3"/>
-      <c r="D429" s="3"/>
+      <c r="D429" s="3" t="s">
+        <v>1018</v>
+      </c>
       <c r="E429" s="3" t="s">
         <v>2</v>
       </c>
@@ -49538,10 +49618,12 @@
     <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" s="8"/>
       <c r="B430" s="3" t="s">
-        <v>1070</v>
+        <v>1023</v>
       </c>
       <c r="C430" s="3"/>
-      <c r="D430" s="3"/>
+      <c r="D430" s="3" t="s">
+        <v>1019</v>
+      </c>
       <c r="E430" s="3" t="s">
         <v>2</v>
       </c>
@@ -49563,7 +49645,7 @@
     <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" s="8"/>
       <c r="B431" s="3" t="s">
-        <v>1071</v>
+        <v>1024</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -49587,7 +49669,9 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432" s="8"/>
-      <c r="B432" s="3"/>
+      <c r="B432" s="3" t="s">
+        <v>1025</v>
+      </c>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3" t="s">
@@ -49611,16 +49695,14 @@
     <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" s="8"/>
       <c r="B433" s="3" t="s">
-        <v>1097</v>
+        <v>1026</v>
       </c>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F433" s="3" t="s">
-        <v>1098</v>
-      </c>
+      <c r="F433" s="3"/>
       <c r="G433" s="3" t="s">
         <v>2</v>
       </c>
@@ -49638,7 +49720,7 @@
     <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" s="8"/>
       <c r="B434" s="3" t="s">
-        <v>1099</v>
+        <v>1027</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -49661,16 +49743,22 @@
       <c r="M434" s="3"/>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A435" s="8"/>
+      <c r="A435" s="8" t="s">
+        <v>1015</v>
+      </c>
       <c r="B435" s="3" t="s">
-        <v>1100</v>
+        <v>1028</v>
       </c>
       <c r="C435" s="3"/>
-      <c r="D435" s="3"/>
+      <c r="D435" s="3" t="s">
+        <v>1034</v>
+      </c>
       <c r="E435" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F435" s="3"/>
+      <c r="F435" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="G435" s="3" t="s">
         <v>2</v>
       </c>
@@ -49687,7 +49775,9 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" s="8"/>
-      <c r="B436" s="3"/>
+      <c r="B436" s="3" t="s">
+        <v>1029</v>
+      </c>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3" t="s">
@@ -49710,7 +49800,9 @@
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" s="8"/>
-      <c r="B437" s="3"/>
+      <c r="B437" s="3" t="s">
+        <v>1030</v>
+      </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3" t="s">
@@ -49733,7 +49825,9 @@
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" s="8"/>
-      <c r="B438" s="3"/>
+      <c r="B438" s="3" t="s">
+        <v>1031</v>
+      </c>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3" t="s">
@@ -49756,7 +49850,9 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" s="8"/>
-      <c r="B439" s="3"/>
+      <c r="B439" s="3" t="s">
+        <v>1032</v>
+      </c>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3" t="s">
@@ -49779,7 +49875,9 @@
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" s="8"/>
-      <c r="B440" s="3"/>
+      <c r="B440" s="3" t="s">
+        <v>1033</v>
+      </c>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3" t="s">
@@ -49801,10 +49899,16 @@
       <c r="M440" s="3"/>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A441" s="8"/>
-      <c r="B441" s="3"/>
+      <c r="A441" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B441" s="23" t="s">
+        <v>1054</v>
+      </c>
       <c r="C441" s="3"/>
-      <c r="D441" s="3"/>
+      <c r="D441" s="3" t="s">
+        <v>1053</v>
+      </c>
       <c r="E441" s="3" t="s">
         <v>2</v>
       </c>
@@ -49825,9 +49929,7 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" s="8"/>
-      <c r="B442" s="3"/>
       <c r="C442" s="3"/>
-      <c r="D442" s="3"/>
       <c r="E442" s="3" t="s">
         <v>2</v>
       </c>
@@ -49848,7 +49950,6 @@
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" s="8"/>
-      <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3" t="s">
@@ -49871,7 +49972,6 @@
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" s="8"/>
-      <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3" t="s">
@@ -54630,83 +54730,290 @@
       <c r="L650" s="3"/>
       <c r="M650" s="3"/>
     </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A651" s="8"/>
+      <c r="B651" s="3"/>
+      <c r="C651" s="3"/>
+      <c r="D651" s="3"/>
+      <c r="E651" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F651" s="3"/>
+      <c r="G651" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H651" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I651" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J651" s="8"/>
+      <c r="K651" s="3"/>
+      <c r="L651" s="3"/>
+      <c r="M651" s="3"/>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A652" s="8"/>
+      <c r="B652" s="3"/>
+      <c r="C652" s="3"/>
+      <c r="D652" s="3"/>
+      <c r="E652" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F652" s="3"/>
+      <c r="G652" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H652" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I652" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J652" s="8"/>
+      <c r="K652" s="3"/>
+      <c r="L652" s="3"/>
+      <c r="M652" s="3"/>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A653" s="8"/>
+      <c r="B653" s="3"/>
+      <c r="C653" s="3"/>
+      <c r="D653" s="3"/>
+      <c r="E653" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F653" s="3"/>
+      <c r="G653" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H653" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I653" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J653" s="8"/>
+      <c r="K653" s="3"/>
+      <c r="L653" s="3"/>
+      <c r="M653" s="3"/>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A654" s="8"/>
+      <c r="B654" s="3"/>
+      <c r="C654" s="3"/>
+      <c r="D654" s="3"/>
+      <c r="E654" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F654" s="3"/>
+      <c r="G654" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H654" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I654" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J654" s="8"/>
+      <c r="K654" s="3"/>
+      <c r="L654" s="3"/>
+      <c r="M654" s="3"/>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A655" s="8"/>
+      <c r="B655" s="3"/>
+      <c r="C655" s="3"/>
+      <c r="D655" s="3"/>
+      <c r="E655" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F655" s="3"/>
+      <c r="G655" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H655" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I655" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J655" s="8"/>
+      <c r="K655" s="3"/>
+      <c r="L655" s="3"/>
+      <c r="M655" s="3"/>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A656" s="8"/>
+      <c r="B656" s="3"/>
+      <c r="C656" s="3"/>
+      <c r="D656" s="3"/>
+      <c r="E656" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F656" s="3"/>
+      <c r="G656" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H656" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I656" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J656" s="8"/>
+      <c r="K656" s="3"/>
+      <c r="L656" s="3"/>
+      <c r="M656" s="3"/>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A657" s="8"/>
+      <c r="B657" s="3"/>
+      <c r="C657" s="3"/>
+      <c r="D657" s="3"/>
+      <c r="E657" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F657" s="3"/>
+      <c r="G657" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H657" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I657" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J657" s="8"/>
+      <c r="K657" s="3"/>
+      <c r="L657" s="3"/>
+      <c r="M657" s="3"/>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A658" s="8"/>
+      <c r="B658" s="3"/>
+      <c r="C658" s="3"/>
+      <c r="D658" s="3"/>
+      <c r="E658" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F658" s="3"/>
+      <c r="G658" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H658" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I658" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J658" s="8"/>
+      <c r="K658" s="3"/>
+      <c r="L658" s="3"/>
+      <c r="M658" s="3"/>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A659" s="8"/>
+      <c r="B659" s="3"/>
+      <c r="C659" s="3"/>
+      <c r="D659" s="3"/>
+      <c r="E659" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F659" s="3"/>
+      <c r="G659" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H659" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I659" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J659" s="8"/>
+      <c r="K659" s="3"/>
+      <c r="L659" s="3"/>
+      <c r="M659" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F389 E391:F1048576 E390">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H660:J1048576 E27:F208 E214 E215:F217 G1:I208 E400:F1048576 E399 E209:I209 E210:F213 E218:E222 G210:I242 E223:F242 G300:I659 E300:F398 E243:I299">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsBlanks" dxfId="30" priority="32">
+    <cfRule type="containsBlanks" dxfId="15" priority="32">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="34">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F389 E391:F1048576 E390">
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="no">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H660:J1048576 E27:F208 E214 E215:F217 G1:I208 E400:F1048576 E399 E209:I209 E210:F213 E218:E222 G210:I242 E223:F242 G300:I659 E300:F398 E243:I299">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F213 E214 E215:F218 E219:E220 G1:I650 E221:F389 E391:F1048576 E390">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H660:J1048576 E27:F208 E214 E215:F217 G1:I208 E400:F1048576 E399 E209:I209 E210:F213 E218:E222 G210:I242 E223:F242 G300:I659 E300:F398 E243:I299">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C214 C217:C218 C222 C225:C244 K2:K650 C255:C401 C248:C253 C403 C406:C1048576">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+  <conditionalFormatting sqref="C223 C226:C247 C252:C257 C412 C415:C1048576 C1:C214 C216 K2:K659 C259:C410">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M651:M1048576 L1:L650">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+  <conditionalFormatting sqref="M660:M1048576 L1:L659">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C219:C221">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+  <conditionalFormatting sqref="C218:C222">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C402">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+  <conditionalFormatting sqref="C411">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C404">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+  <conditionalFormatting sqref="C413">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C405">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+  <conditionalFormatting sqref="C414">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C214 C217:C222 C225:C244 K2:K650 C248:C253 C255:C650" xr:uid="{C86B4AFF-5E8A-434F-8C71-AF2F0D18C27F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C226:C247 C252:C257 K2:K659 C2:C214 C216 C218:C223 C259:C659" xr:uid="{C86B4AFF-5E8A-434F-8C71-AF2F0D18C27F}">
       <formula1>"BLOCK, HIDE, POPUP, 3RD, 3RDPOPUP, AD, ADPOPUP, WHITE, WHITEDIM, WHITEPOPUP"</formula1>
     </dataValidation>
   </dataValidations>
@@ -54721,58 +55028,53 @@
     <hyperlink ref="D163" r:id="rId8" xr:uid="{31941BC7-66A9-4151-9DC7-82517A194881}"/>
     <hyperlink ref="D181" r:id="rId9" xr:uid="{7FF278A0-E1D6-494F-B6F8-35892A160562}"/>
     <hyperlink ref="D207" r:id="rId10" xr:uid="{FE680AC1-8700-49C6-A94D-27AB13C99274}"/>
-    <hyperlink ref="D209" r:id="rId11" xr:uid="{C4F3B1C0-CD3D-4350-85E6-27A2BECEA67D}"/>
-    <hyperlink ref="D210" r:id="rId12" xr:uid="{A3033B64-A259-46B5-95BB-B8CFC86A1125}"/>
-    <hyperlink ref="D211" r:id="rId13" xr:uid="{5DA0E42B-2429-476F-949A-0509365CBC14}"/>
-    <hyperlink ref="D212" r:id="rId14" xr:uid="{8943E023-4D84-408D-87FF-835017B14FFD}"/>
-    <hyperlink ref="D213" r:id="rId15" xr:uid="{800CE3CB-399B-4B3C-9956-DC4F09965A72}"/>
-    <hyperlink ref="D217" r:id="rId16" xr:uid="{ACF4991E-D21C-4AA0-9F3F-8449B471576D}"/>
-    <hyperlink ref="D215" r:id="rId17" xr:uid="{E97A738F-0926-44BB-9EF3-2BE4AB65BBC8}"/>
-    <hyperlink ref="D219" r:id="rId18" xr:uid="{D7820AA3-BECF-473A-BF9F-4E6ED55001AC}"/>
-    <hyperlink ref="D226" r:id="rId19" xr:uid="{F977BF46-FDA3-483B-B6DF-CACDA90ABA6C}"/>
-    <hyperlink ref="D222" r:id="rId20" xr:uid="{3293BF4A-2C7E-4FCF-BBCE-E5E6A175084A}"/>
-    <hyperlink ref="D229" r:id="rId21" xr:uid="{F7D5344E-1798-4994-B38C-CFE29FA64BBF}"/>
-    <hyperlink ref="D228" r:id="rId22" xr:uid="{5A2C985A-076D-45E7-9691-F16D21D970DD}"/>
-    <hyperlink ref="D227" r:id="rId23" xr:uid="{29E4FF2A-3B5C-48DC-93CA-4524E5274D50}"/>
-    <hyperlink ref="D237" r:id="rId24" xr:uid="{95CD9A3E-2726-4709-87FB-238A1B249327}"/>
-    <hyperlink ref="D236" r:id="rId25" xr:uid="{6C3C2EED-15DD-40D5-8237-6DFB02471756}"/>
-    <hyperlink ref="D235" r:id="rId26" xr:uid="{9F838855-E283-4776-95E4-BC9271DA1B75}"/>
-    <hyperlink ref="D244" r:id="rId27" display="https://meczelive.tv/" xr:uid="{A7463CD2-5D30-4CBC-963C-3E26029CB4A5}"/>
-    <hyperlink ref="D230" r:id="rId28" xr:uid="{59FE2EDD-31C1-4C96-A7AE-97F060366BAC}"/>
-    <hyperlink ref="D238" r:id="rId29" xr:uid="{3B422747-10F9-465F-A94D-4917E9A5D735}"/>
-    <hyperlink ref="D239" r:id="rId30" xr:uid="{3D4AF3E2-51FA-47F1-A690-88CEAD2F9332}"/>
-    <hyperlink ref="D234" r:id="rId31" xr:uid="{5FF848C0-09DA-4EB8-AE91-B0B79361CAF7}"/>
-    <hyperlink ref="D242" r:id="rId32" xr:uid="{94CE70FF-3504-42CF-8852-6FAE30755ADE}"/>
-    <hyperlink ref="D231" r:id="rId33" xr:uid="{13D0F5D3-14EE-474D-84ED-B052E38CA782}"/>
-    <hyperlink ref="D243" r:id="rId34" xr:uid="{08DBB572-460A-4D88-B90D-B192E5C467D6}"/>
-    <hyperlink ref="D245" r:id="rId35" xr:uid="{731AEF75-D38E-4C66-8B84-736027B4402E}"/>
-    <hyperlink ref="D260" r:id="rId36" xr:uid="{1C0D34B7-A7FD-4606-A879-4CBD4671C570}"/>
-    <hyperlink ref="D248" r:id="rId37" xr:uid="{B86A5766-83F9-423B-8FF9-4429E04FE32F}"/>
-    <hyperlink ref="D233" r:id="rId38" xr:uid="{AEAA61EE-5885-42D7-BA10-18DFE8957136}"/>
-    <hyperlink ref="D241" r:id="rId39" xr:uid="{68DF1788-2642-4247-BFF1-4B46548FDFE0}"/>
-    <hyperlink ref="D240" r:id="rId40" xr:uid="{CB1BEB0E-28AA-4352-82F4-D83264B9F0EC}"/>
-    <hyperlink ref="D232" r:id="rId41" xr:uid="{70DCF6BE-10D6-459D-901A-07543A6D6F1B}"/>
-    <hyperlink ref="D246" r:id="rId42" xr:uid="{EAB79AAD-8B07-4CFA-BF3E-D7467EA24CED}"/>
-    <hyperlink ref="D247" r:id="rId43" xr:uid="{1D3A7584-253C-4E45-8D1C-28A4A42B9B1F}"/>
-    <hyperlink ref="D263" r:id="rId44" xr:uid="{0A376D96-A188-401A-9704-332A66D16904}"/>
-    <hyperlink ref="D253" r:id="rId45" xr:uid="{BB903550-F3E1-4A2A-8A34-DB336AAE251B}"/>
-    <hyperlink ref="D250" r:id="rId46" xr:uid="{8AA4A836-7F58-4A70-988D-8472B7BB8475}"/>
-    <hyperlink ref="D252" r:id="rId47" display="http://www.sp7pki.iq24.pl/" xr:uid="{41EDBFBF-B272-4F7C-8C84-A984795682F1}"/>
-    <hyperlink ref="D251" r:id="rId48" xr:uid="{E093C059-F6B9-4735-A353-7114FE0FE11D}"/>
-    <hyperlink ref="D249" r:id="rId49" xr:uid="{D1B26E56-AC90-4826-BBD5-6FE26A36F2A9}"/>
-    <hyperlink ref="D254" r:id="rId50" xr:uid="{41C72447-34DC-47AE-8611-81616FFEA412}"/>
-    <hyperlink ref="D255" r:id="rId51" xr:uid="{60C4F3B9-029B-4689-A649-95C33693DD3A}"/>
-    <hyperlink ref="D256" r:id="rId52" xr:uid="{566AA149-59B6-419E-A41A-1D5843447327}"/>
-    <hyperlink ref="D262" r:id="rId53" xr:uid="{E3F8E3A1-A626-478A-83FF-1E3D64C01E07}"/>
-    <hyperlink ref="D270" r:id="rId54" xr:uid="{E3404472-2D57-4D9D-BDF0-9214875FD644}"/>
-    <hyperlink ref="D272" r:id="rId55" xr:uid="{D918BF1C-9797-489F-A282-1FF63C427953}"/>
-    <hyperlink ref="D273" r:id="rId56" xr:uid="{DC0F4DE3-B2A5-45E9-860E-32EB8906848F}"/>
-    <hyperlink ref="D275" r:id="rId57" xr:uid="{42CCDD81-65A1-4E0F-A417-DFE045223556}"/>
+    <hyperlink ref="D210" r:id="rId11" xr:uid="{C4F3B1C0-CD3D-4350-85E6-27A2BECEA67D}"/>
+    <hyperlink ref="D211" r:id="rId12" xr:uid="{5DA0E42B-2429-476F-949A-0509365CBC14}"/>
+    <hyperlink ref="D212" r:id="rId13" xr:uid="{8943E023-4D84-408D-87FF-835017B14FFD}"/>
+    <hyperlink ref="D213" r:id="rId14" xr:uid="{800CE3CB-399B-4B3C-9956-DC4F09965A72}"/>
+    <hyperlink ref="D216" r:id="rId15" xr:uid="{ACF4991E-D21C-4AA0-9F3F-8449B471576D}"/>
+    <hyperlink ref="D227" r:id="rId16" xr:uid="{F977BF46-FDA3-483B-B6DF-CACDA90ABA6C}"/>
+    <hyperlink ref="D223" r:id="rId17" xr:uid="{3293BF4A-2C7E-4FCF-BBCE-E5E6A175084A}"/>
+    <hyperlink ref="D230" r:id="rId18" xr:uid="{F7D5344E-1798-4994-B38C-CFE29FA64BBF}"/>
+    <hyperlink ref="D229" r:id="rId19" xr:uid="{5A2C985A-076D-45E7-9691-F16D21D970DD}"/>
+    <hyperlink ref="D228" r:id="rId20" xr:uid="{29E4FF2A-3B5C-48DC-93CA-4524E5274D50}"/>
+    <hyperlink ref="D238" r:id="rId21" xr:uid="{95CD9A3E-2726-4709-87FB-238A1B249327}"/>
+    <hyperlink ref="D237" r:id="rId22" xr:uid="{6C3C2EED-15DD-40D5-8237-6DFB02471756}"/>
+    <hyperlink ref="D236" r:id="rId23" xr:uid="{9F838855-E283-4776-95E4-BC9271DA1B75}"/>
+    <hyperlink ref="D231" r:id="rId24" xr:uid="{59FE2EDD-31C1-4C96-A7AE-97F060366BAC}"/>
+    <hyperlink ref="D239" r:id="rId25" xr:uid="{3B422747-10F9-465F-A94D-4917E9A5D735}"/>
+    <hyperlink ref="D240" r:id="rId26" xr:uid="{3D4AF3E2-51FA-47F1-A690-88CEAD2F9332}"/>
+    <hyperlink ref="D235" r:id="rId27" xr:uid="{5FF848C0-09DA-4EB8-AE91-B0B79361CAF7}"/>
+    <hyperlink ref="D244" r:id="rId28" xr:uid="{94CE70FF-3504-42CF-8852-6FAE30755ADE}"/>
+    <hyperlink ref="D232" r:id="rId29" xr:uid="{13D0F5D3-14EE-474D-84ED-B052E38CA782}"/>
+    <hyperlink ref="D264" r:id="rId30" xr:uid="{1C0D34B7-A7FD-4606-A879-4CBD4671C570}"/>
+    <hyperlink ref="D252" r:id="rId31" xr:uid="{B86A5766-83F9-423B-8FF9-4429E04FE32F}"/>
+    <hyperlink ref="D234" r:id="rId32" xr:uid="{AEAA61EE-5885-42D7-BA10-18DFE8957136}"/>
+    <hyperlink ref="D242" r:id="rId33" xr:uid="{68DF1788-2642-4247-BFF1-4B46548FDFE0}"/>
+    <hyperlink ref="D241" r:id="rId34" xr:uid="{CB1BEB0E-28AA-4352-82F4-D83264B9F0EC}"/>
+    <hyperlink ref="D233" r:id="rId35" xr:uid="{70DCF6BE-10D6-459D-901A-07543A6D6F1B}"/>
+    <hyperlink ref="D267" r:id="rId36" xr:uid="{0A376D96-A188-401A-9704-332A66D16904}"/>
+    <hyperlink ref="D257" r:id="rId37" xr:uid="{BB903550-F3E1-4A2A-8A34-DB336AAE251B}"/>
+    <hyperlink ref="D254" r:id="rId38" xr:uid="{8AA4A836-7F58-4A70-988D-8472B7BB8475}"/>
+    <hyperlink ref="D256" r:id="rId39" display="http://www.sp7pki.iq24.pl/" xr:uid="{41EDBFBF-B272-4F7C-8C84-A984795682F1}"/>
+    <hyperlink ref="D255" r:id="rId40" xr:uid="{E093C059-F6B9-4735-A353-7114FE0FE11D}"/>
+    <hyperlink ref="D253" r:id="rId41" xr:uid="{D1B26E56-AC90-4826-BBD5-6FE26A36F2A9}"/>
+    <hyperlink ref="D258" r:id="rId42" xr:uid="{41C72447-34DC-47AE-8611-81616FFEA412}"/>
+    <hyperlink ref="D259" r:id="rId43" xr:uid="{60C4F3B9-029B-4689-A649-95C33693DD3A}"/>
+    <hyperlink ref="D260" r:id="rId44" xr:uid="{566AA149-59B6-419E-A41A-1D5843447327}"/>
+    <hyperlink ref="D274" r:id="rId45" xr:uid="{E3404472-2D57-4D9D-BDF0-9214875FD644}"/>
+    <hyperlink ref="D276" r:id="rId46" xr:uid="{D918BF1C-9797-489F-A282-1FF63C427953}"/>
+    <hyperlink ref="D277" r:id="rId47" xr:uid="{DC0F4DE3-B2A5-45E9-860E-32EB8906848F}"/>
+    <hyperlink ref="D280" r:id="rId48" xr:uid="{42CCDD81-65A1-4E0F-A417-DFE045223556}"/>
+    <hyperlink ref="D214" r:id="rId49" xr:uid="{5A653419-C5A6-41E3-A661-882B05CA0208}"/>
+    <hyperlink ref="D217" r:id="rId50" xr:uid="{6C4A19C0-1AF2-4B13-938E-0B7317A2EF53}"/>
+    <hyperlink ref="D250" r:id="rId51" xr:uid="{B7A63A64-3350-4F6F-B4B6-4489DAE33DA9}"/>
+    <hyperlink ref="D251" r:id="rId52" xr:uid="{6DE349CD-C7C5-4F2A-B642-9400510AB24A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId58"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId53"/>
   <tableParts count="1">
-    <tablePart r:id="rId59"/>
+    <tablePart r:id="rId54"/>
   </tableParts>
 </worksheet>
 </file>
@@ -56149,10 +56451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF708186-B126-4883-AC9D-969FF2216082}">
-  <dimension ref="B1:D82"/>
+  <dimension ref="B1:J82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56160,73 +56462,131 @@
     <col min="2" max="2" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="20"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="C5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>810</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="C11" t="s">
+        <v>710</v>
+      </c>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>878</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="C13" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
+      <c r="B17" s="24" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
+      <c r="B18" s="20" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="16"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
+      <c r="B22" s="20"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
@@ -56235,197 +56595,142 @@
       <c r="B25" s="16"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="16"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="16"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="16"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="21"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
-        <v>764</v>
-      </c>
-      <c r="C33" t="s">
-        <v>827</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="16"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="21"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="16"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="21"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="16"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="21"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="16"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="16"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="20"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="19"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="21"/>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="20"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="16"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="21"/>
+      <c r="B50" s="20"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="16"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="21"/>
+      <c r="B52" s="20"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="16"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="21"/>
+      <c r="B54" s="20"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="16"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="21"/>
+      <c r="B56" s="20"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="16"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="21"/>
+      <c r="B58" s="20"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="16"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="21"/>
+      <c r="B60" s="20"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="16"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
+      <c r="B62" s="22"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="16"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="21"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="21" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="16"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="21" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="16" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="21" t="s">
-        <v>778</v>
-      </c>
-      <c r="C70" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="16" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="16" t="s">
-        <v>772</v>
-      </c>
-      <c r="C72" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="20"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="16"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="21"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="16"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="21"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="20"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="16"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="21"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="16"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="24"/>
+      <c r="B82" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/filters.xlsx
+++ b/filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2948" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08758240-69DE-42DF-BC94-746BA0086099}"/>
+  <xr:revisionPtr revIDLastSave="3062" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F36E9FF-F4D1-4B40-B615-C321B2F49C40}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4232" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="1229">
   <si>
     <t>No</t>
   </si>
@@ -1244,9 +1244,6 @@
     <t>https://www.laboratoria.xtech.pl/</t>
   </si>
   <si>
-    <t>https://www.obrabiarki.xtech.pl</t>
-  </si>
-  <si>
     <t>133</t>
   </si>
   <si>
@@ -1676,9 +1673,6 @@
     <t>http://tvgorzow.pl</t>
   </si>
   <si>
-    <t>tvgorzow.pl##.n2-section-smartslider</t>
-  </si>
-  <si>
     <t>176</t>
   </si>
   <si>
@@ -1688,9 +1682,6 @@
     <t>https://www.turek.net.pl/ogloszenia/motoryzacja</t>
   </si>
   <si>
-    <t>turek.net.pl##.BanerMA</t>
-  </si>
-  <si>
     <t>177</t>
   </si>
   <si>
@@ -3659,9 +3650,6 @@
     <t>||redefine.hit.stat24.com^$subdocument,domain=polsatsport.pl</t>
   </si>
   <si>
-    <t>||betonline.net.pl^*^sts292.</t>
-  </si>
-  <si>
     <t>^as^$image,domain=xtech.pl|automatyka.pl</t>
   </si>
   <si>
@@ -3710,9 +3698,6 @@
     <t>||tarnowiak.pl^*_reklama^</t>
   </si>
   <si>
-    <t>with /new/ or /imghttps/</t>
-  </si>
-  <si>
     <t>https://worldofbookmakers.com/bonusy-na-mecze-polskich-druzyn-w-eliminacjach-lm-i-le</t>
   </si>
   <si>
@@ -3729,6 +3714,12 @@
   </si>
   <si>
     <t>^468^$domain=betgol.pl|betglob.pl|worldofbookmakers.com|extragoals.com</t>
+  </si>
+  <si>
+    <t>/new/300 or /imghttps/300</t>
+  </si>
+  <si>
+    <t>/new/728 or /imghttps/728</t>
   </si>
 </sst>
 </file>
@@ -4209,6 +4200,232 @@
   </cellStyles>
   <dxfs count="40">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
@@ -4562,232 +4779,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4807,24 +4798,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:M654" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:M654" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:M650" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M650" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Filter" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{BBBFDBF0-1399-4DE4-B5F0-6E30770F3CC4}" name="Type" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Push" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fix" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{F46A69CC-7704-4110-83F9-1118153E7962}" name="Filter-fix" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Filter" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{BBBFDBF0-1399-4DE4-B5F0-6E30770F3CC4}" name="Type" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Push" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fix" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{F46A69CC-7704-4110-83F9-1118153E7962}" name="Filter-fix" dataDxfId="3">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{33D43F69-BB91-4A60-B234-2EF06EC445E3}" name="Type-fix" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{D97C0A98-B6D4-4D1B-84DD-D433C9B55CFC}" name="Marked" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{D957016C-C634-44FC-8204-A695FABA001A}" name="Kolumna1" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{33D43F69-BB91-4A60-B234-2EF06EC445E3}" name="Type-fix" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{D97C0A98-B6D4-4D1B-84DD-D433C9B55CFC}" name="Marked" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D957016C-C634-44FC-8204-A695FABA001A}" name="Kolumna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5127,18 +5118,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC654"/>
+  <dimension ref="A1:XFC650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B215" sqref="B215"/>
+      <selection pane="topRight" activeCell="C297" sqref="C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" style="9" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
@@ -44148,7 +44139,7 @@
         <v>389</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1208</v>
+        <v>391</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>21</v>
@@ -44157,11 +44148,9 @@
         <v>46</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F208" s="3"/>
       <c r="G208" s="3" t="s">
         <v>17</v>
       </c>
@@ -44181,7 +44170,9 @@
       <c r="B209" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C209" s="3"/>
+      <c r="C209" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
         <v>16</v>
@@ -44202,16 +44193,24 @@
       <c r="M209" s="3"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A210" s="8"/>
+      <c r="A210" s="8" t="s">
+        <v>392</v>
+      </c>
       <c r="B210" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
+        <v>393</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="E210" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F210" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="G210" s="3" t="s">
         <v>17</v>
       </c>
@@ -44228,23 +44227,21 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>393</v>
+        <v>1204</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>394</v>
+        <v>21</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>396</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F211" s="3"/>
       <c r="G211" s="3" t="s">
         <v>17</v>
       </c>
@@ -44261,16 +44258,16 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1207</v>
+        <v>398</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D212" s="18" t="s">
-        <v>396</v>
+      <c r="D212" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>16</v>
@@ -44292,16 +44289,16 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>398</v>
+        <v>1205</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>16</v>
@@ -44322,22 +44319,16 @@
       <c r="M213" s="3"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A214" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A214" s="8"/>
+      <c r="B214" s="16"/>
+      <c r="C214" s="3"/>
       <c r="D214" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F214" s="3"/>
+      <c r="F214" s="4"/>
       <c r="G214" s="3" t="s">
         <v>17</v>
       </c>
@@ -44353,18 +44344,24 @@
       <c r="M214" s="3"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A215" s="8"/>
-      <c r="B215" s="16"/>
+      <c r="A215" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="C215" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F215" s="4"/>
+      <c r="F215" s="3" t="s">
+        <v>406</v>
+      </c>
       <c r="G215" s="3" t="s">
         <v>17</v>
       </c>
@@ -44381,18 +44378,18 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
-      <c r="B216" s="3"/>
+      <c r="B216" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="C216" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>403</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D216" s="1"/>
       <c r="E216" s="3" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>17</v>
@@ -44410,23 +44407,21 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>1206</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>406</v>
+      <c r="D217" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F217" s="3" t="s">
-        <v>407</v>
-      </c>
+      <c r="F217" s="4"/>
       <c r="G217" s="3" t="s">
         <v>17</v>
       </c>
@@ -44443,17 +44438,17 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
-      <c r="B218" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="1"/>
+      <c r="B218" s="16" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F218" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="F218" s="4"/>
       <c r="G218" s="3" t="s">
         <v>17</v>
       </c>
@@ -44469,18 +44464,14 @@
       <c r="M218" s="3"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="8"/>
+      <c r="B219" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>1210</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D219" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="D219" s="3"/>
       <c r="E219" s="3" t="s">
         <v>16</v>
       </c>
@@ -44502,10 +44493,10 @@
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3" t="s">
@@ -44527,16 +44518,24 @@
       <c r="M220" s="3"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A221" s="8"/>
-      <c r="B221" s="3" t="s">
+      <c r="A221" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
+      <c r="B221" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E221" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F221" s="4"/>
+      <c r="F221" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="G221" s="3" t="s">
         <v>17</v>
       </c>
@@ -44552,16 +44551,22 @@
       <c r="M221" s="3"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A222" s="8"/>
+      <c r="A222" s="8" t="s">
+        <v>413</v>
+      </c>
       <c r="B222" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
+        <v>414</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="E222" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F222" s="4"/>
+      <c r="F222" s="3"/>
       <c r="G222" s="3" t="s">
         <v>17</v>
       </c>
@@ -44577,24 +44582,18 @@
       <c r="M222" s="3"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A223" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B223" s="22" t="s">
-        <v>412</v>
+      <c r="A223" s="8"/>
+      <c r="B223" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D223" s="3"/>
       <c r="E223" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F223" s="4" t="s">
-        <v>413</v>
-      </c>
+      <c r="F223" s="3"/>
       <c r="G223" s="3" t="s">
         <v>17</v>
       </c>
@@ -44610,18 +44609,14 @@
       <c r="M223" s="3"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A224" s="8" t="s">
-        <v>414</v>
-      </c>
+      <c r="A224" s="8"/>
       <c r="B224" s="3" t="s">
-        <v>415</v>
+        <v>1210</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>416</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D224" s="3"/>
       <c r="E224" s="3" t="s">
         <v>16</v>
       </c>
@@ -44643,10 +44638,10 @@
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
       <c r="B225" s="3" t="s">
-        <v>417</v>
+        <v>1209</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
@@ -44668,14 +44663,18 @@
       <c r="M225" s="3"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A226" s="8"/>
+      <c r="A226" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="B226" s="3" t="s">
-        <v>1214</v>
+        <v>418</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D226" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="E226" s="3" t="s">
         <v>16</v>
       </c>
@@ -44695,18 +44694,24 @@
       <c r="M226" s="3"/>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A227" s="8"/>
+      <c r="A227" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="B227" s="3" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D227" s="3"/>
+      <c r="D227" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="E227" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F227" s="3"/>
+      <c r="F227" s="3" t="s">
+        <v>1227</v>
+      </c>
       <c r="G227" s="3" t="s">
         <v>17</v>
       </c>
@@ -44722,17 +44727,11 @@
       <c r="M227" s="3"/>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A228" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A228" s="8"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
       <c r="D228" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>16</v>
@@ -44753,24 +44752,16 @@
       <c r="M228" s="3"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A229" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A229" s="8"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
       <c r="D229" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F229" s="3" t="s">
-        <v>1225</v>
-      </c>
+      <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
         <v>17</v>
       </c>
@@ -44790,7 +44781,7 @@
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>16</v>
@@ -44814,8 +44805,8 @@
       <c r="A231" s="8"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
-      <c r="D231" s="1" t="s">
-        <v>424</v>
+      <c r="D231" s="5" t="s">
+        <v>1222</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>16</v>
@@ -44865,7 +44856,7 @@
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="5" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>16</v>
@@ -44915,7 +44906,7 @@
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="5" t="s">
-        <v>1228</v>
+        <v>428</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>16</v>
@@ -44936,16 +44927,24 @@
       <c r="M235" s="3"/>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A236" s="8"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
+      <c r="A236" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D236" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F236" s="3"/>
+      <c r="F236" s="3" t="s">
+        <v>1228</v>
+      </c>
       <c r="G236" s="3" t="s">
         <v>17</v>
       </c>
@@ -44964,8 +44963,8 @@
       <c r="A237" s="8"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
-      <c r="D237" s="5" t="s">
-        <v>429</v>
+      <c r="D237" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>16</v>
@@ -44986,17 +44985,11 @@
       <c r="M237" s="3"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A238" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A238" s="8"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
       <c r="D238" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>16</v>
@@ -45021,7 +45014,7 @@
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>16</v>
@@ -45045,8 +45038,8 @@
       <c r="A240" s="8"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
-      <c r="D240" s="1" t="s">
-        <v>424</v>
+      <c r="D240" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>16</v>
@@ -45071,7 +45064,7 @@
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>16</v>
@@ -45096,7 +45089,7 @@
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="5" t="s">
-        <v>426</v>
+        <v>1222</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>16</v>
@@ -45120,8 +45113,8 @@
       <c r="A243" s="8"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
-      <c r="D243" s="1" t="s">
-        <v>427</v>
+      <c r="D243" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>16</v>
@@ -45142,16 +45135,24 @@
       <c r="M243" s="3"/>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A244" s="8"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="5" t="s">
-        <v>1227</v>
+      <c r="A244" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>1221</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F244" s="3"/>
+      <c r="F244" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="G244" s="3" t="s">
         <v>17</v>
       </c>
@@ -45171,7 +45172,7 @@
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="5" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>16</v>
@@ -45193,23 +45194,21 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B246" s="16" t="s">
-        <v>1231</v>
+        <v>435</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F246" s="3" t="s">
-        <v>435</v>
-      </c>
+      <c r="F246" s="3"/>
       <c r="G246" s="3" t="s">
         <v>17</v>
       </c>
@@ -45225,16 +45224,22 @@
       <c r="M246" s="3"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A247" s="8"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="5" t="s">
-        <v>440</v>
+      <c r="A247" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F247" s="3"/>
+      <c r="F247" s="26"/>
       <c r="G247" s="3" t="s">
         <v>17</v>
       </c>
@@ -45251,21 +45256,23 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>443</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1226</v>
+        <v>444</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F248" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="G248" s="3" t="s">
         <v>17</v>
       </c>
@@ -45282,22 +45289,22 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>433</v>
+        <v>442</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>446</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F249" s="26">
-        <v>468</v>
+        <v>232</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>1211</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>17</v>
@@ -45315,22 +45322,22 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>232</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>296</v>
+        <v>1211</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>17</v>
@@ -45348,22 +45355,22 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>232</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>17</v>
@@ -45381,22 +45388,22 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>232</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>17</v>
@@ -45414,22 +45421,22 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>454</v>
+      <c r="D253" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>232</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>17</v>
@@ -45447,23 +45454,21 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F254" s="3" t="s">
-        <v>1215</v>
-      </c>
+      <c r="F254" s="3"/>
       <c r="G254" s="3" t="s">
         <v>17</v>
       </c>
@@ -45480,23 +45485,21 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B255" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D255" s="5" t="s">
-        <v>460</v>
+      <c r="D255" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>1215</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F255" s="3"/>
       <c r="G255" s="3" t="s">
         <v>17</v>
       </c>
@@ -45513,21 +45516,23 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B256" s="16" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>1212</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F256" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>1213</v>
+      </c>
       <c r="G256" s="3" t="s">
         <v>17</v>
       </c>
@@ -45543,18 +45548,14 @@
       <c r="M256" s="3"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A257" s="8" t="s">
-        <v>461</v>
-      </c>
+      <c r="A257" s="8"/>
       <c r="B257" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>466</v>
-      </c>
+      <c r="D257" s="3"/>
       <c r="E257" s="3" t="s">
         <v>16</v>
       </c>
@@ -45575,22 +45576,22 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1216</v>
+        <v>469</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>1217</v>
+        <v>296</v>
       </c>
       <c r="G258" s="3" t="s">
         <v>17</v>
@@ -45609,16 +45610,18 @@
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
       <c r="B259" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F259" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="G259" s="3" t="s">
         <v>17</v>
       </c>
@@ -45635,23 +45638,21 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>470</v>
+        <v>1214</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>468</v>
+      <c r="D260" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F260" s="3"/>
       <c r="G260" s="3" t="s">
         <v>17</v>
       </c>
@@ -45669,18 +45670,16 @@
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
       <c r="B261" s="3" t="s">
-        <v>471</v>
+        <v>1216</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D261" s="3"/>
+      <c r="D261" s="5"/>
       <c r="E261" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F261" s="3"/>
       <c r="G261" s="3" t="s">
         <v>17</v>
       </c>
@@ -45696,18 +45695,14 @@
       <c r="M261" s="3"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A262" s="8" t="s">
-        <v>472</v>
-      </c>
+      <c r="A262" s="8"/>
       <c r="B262" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D262" s="5" t="s">
-        <v>474</v>
-      </c>
+      <c r="D262" s="1"/>
       <c r="E262" s="3" t="s">
         <v>16</v>
       </c>
@@ -45729,12 +45724,12 @@
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="8"/>
       <c r="B263" s="3" t="s">
-        <v>1220</v>
+        <v>472</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D263" s="5"/>
+      <c r="D263" s="3"/>
       <c r="E263" s="3" t="s">
         <v>16</v>
       </c>
@@ -45754,14 +45749,18 @@
       <c r="M263" s="3"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A264" s="8"/>
+      <c r="A264" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="B264" s="3" t="s">
-        <v>1219</v>
+        <v>475</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D264" s="1"/>
+      <c r="D264" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="E264" s="3" t="s">
         <v>16</v>
       </c>
@@ -45783,7 +45782,7 @@
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
       <c r="B265" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>21</v>
@@ -45808,18 +45807,14 @@
       <c r="M265" s="3"/>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A266" s="8" t="s">
-        <v>475</v>
-      </c>
+      <c r="A266" s="8"/>
       <c r="B266" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>477</v>
-      </c>
+      <c r="D266" s="3"/>
       <c r="E266" s="3" t="s">
         <v>16</v>
       </c>
@@ -45841,7 +45836,7 @@
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="8"/>
       <c r="B267" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>21</v>
@@ -45868,7 +45863,7 @@
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
       <c r="B268" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>21</v>
@@ -45895,7 +45890,7 @@
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="8"/>
       <c r="B269" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>21</v>
@@ -45919,42 +45914,46 @@
       <c r="L269" s="3"/>
       <c r="M269" s="3"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A270" s="8"/>
-      <c r="B270" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C270" s="3" t="s">
+    <row r="270" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="27"/>
+      <c r="B270" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="C270" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H270" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I270" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J270" s="8"/>
-      <c r="K270" s="3"/>
-      <c r="L270" s="3"/>
-      <c r="M270" s="3"/>
+      <c r="D270" s="28"/>
+      <c r="E270" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F270" s="28"/>
+      <c r="G270" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H270" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I270" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J270" s="27"/>
+      <c r="K270" s="28"/>
+      <c r="L270" s="28"/>
+      <c r="M270" s="28"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A271" s="8"/>
+      <c r="A271" s="8" t="s">
+        <v>483</v>
+      </c>
       <c r="B271" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D271" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="E271" s="3" t="s">
         <v>16</v>
       </c>
@@ -45973,48 +45972,50 @@
       <c r="L271" s="3"/>
       <c r="M271" s="3"/>
     </row>
-    <row r="272" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="27"/>
-      <c r="B272" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="C272" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D272" s="28"/>
-      <c r="E272" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F272" s="28"/>
-      <c r="G272" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H272" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I272" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J272" s="27"/>
-      <c r="K272" s="28"/>
-      <c r="L272" s="28"/>
-      <c r="M272" s="28"/>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272" s="8"/>
+      <c r="B272" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F272" s="3"/>
+      <c r="G272" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J272" s="8"/>
+      <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
+      <c r="M272" s="3"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
+      </c>
+      <c r="B273" s="24" t="s">
+        <v>488</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F273" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="G273" s="3" t="s">
         <v>17</v>
       </c>
@@ -46030,12 +46031,18 @@
       <c r="M273" s="3"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A274" s="8"/>
+      <c r="A274" s="8" t="s">
+        <v>490</v>
+      </c>
       <c r="B274" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
+        <v>491</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="E274" s="3" t="s">
         <v>16</v>
       </c>
@@ -46055,22 +46062,18 @@
       <c r="M274" s="3"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A275" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B275" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="C275" s="3"/>
-      <c r="D275" s="1" t="s">
-        <v>490</v>
-      </c>
+      <c r="A275" s="8"/>
+      <c r="B275" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="3"/>
       <c r="E275" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F275" s="3"/>
       <c r="G275" s="3" t="s">
         <v>17</v>
       </c>
@@ -46087,17 +46090,13 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>492</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="B276" s="3"/>
       <c r="C276" s="3"/>
-      <c r="D276" s="1" t="s">
-        <v>493</v>
-      </c>
+      <c r="D276" s="3"/>
       <c r="E276" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F276" s="3"/>
       <c r="G276" s="3" t="s">
@@ -46114,40 +46113,52 @@
       <c r="L276" s="3"/>
       <c r="M276" s="3"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A277" s="8"/>
-      <c r="B277" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H277" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I277" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J277" s="8"/>
-      <c r="K277" s="3"/>
-      <c r="L277" s="3"/>
-      <c r="M277" s="3"/>
+    <row r="277" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="B277" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C277" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="E277" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F277" s="28"/>
+      <c r="G277" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H277" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I277" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J277" s="27"/>
+      <c r="K277" s="28"/>
+      <c r="L277" s="28"/>
+      <c r="M277" s="28"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
+        <v>498</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D278" t="s">
+        <v>500</v>
+      </c>
       <c r="E278" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F278" s="3"/>
       <c r="G278" s="3" t="s">
@@ -46164,45 +46175,44 @@
       <c r="L278" s="3"/>
       <c r="M278" s="3"/>
     </row>
-    <row r="279" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="B279" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="C279" s="28"/>
-      <c r="D279" s="29" t="s">
-        <v>498</v>
-      </c>
-      <c r="E279" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F279" s="28"/>
-      <c r="G279" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H279" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I279" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J279" s="27"/>
-      <c r="K279" s="28"/>
-      <c r="L279" s="28"/>
-      <c r="M279" s="28"/>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279" s="8"/>
+      <c r="B279" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F279" s="3"/>
+      <c r="G279" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J279" s="8"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C280" s="3"/>
+        <v>502</v>
+      </c>
+      <c r="B280" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D280" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>16</v>
@@ -46224,10 +46234,15 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
-      <c r="B281" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C281" s="3"/>
+      <c r="B281" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" t="s">
+        <v>504</v>
+      </c>
       <c r="E281" s="3" t="s">
         <v>16</v>
       </c>
@@ -46247,15 +46262,12 @@
       <c r="M281" s="3"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A282" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="B282" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C282" s="3"/>
-      <c r="D282" t="s">
-        <v>505</v>
+      <c r="A282" s="8"/>
+      <c r="B282" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>16</v>
@@ -46276,16 +46288,13 @@
       <c r="M282" s="3"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A283" s="8"/>
-      <c r="B283" s="16" t="s">
-        <v>506</v>
-      </c>
+      <c r="A283" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B283" s="3"/>
       <c r="C283" s="3"/>
-      <c r="D283" t="s">
-        <v>505</v>
-      </c>
       <c r="E283" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F283" s="3"/>
       <c r="G283" s="3" t="s">
@@ -46303,15 +46312,22 @@
       <c r="M283" s="3"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A284" s="8"/>
-      <c r="B284" s="3" t="s">
-        <v>507</v>
+      <c r="A284" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B284" s="22" t="s">
+        <v>1217</v>
       </c>
       <c r="C284" s="3"/>
+      <c r="D284" s="16" t="s">
+        <v>509</v>
+      </c>
       <c r="E284" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F284" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="G284" s="3" t="s">
         <v>17</v>
       </c>
@@ -46328,12 +46344,19 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
+        <v>510</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" t="s">
+        <v>511</v>
+      </c>
       <c r="E285" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="3" t="s">
@@ -46351,22 +46374,17 @@
       <c r="M285" s="3"/>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A286" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="B286" s="22" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C286" s="3"/>
-      <c r="D286" s="16" t="s">
-        <v>510</v>
+      <c r="A286" s="8"/>
+      <c r="B286" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>314</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F286" s="3"/>
       <c r="G286" s="3" t="s">
         <v>17</v>
       </c>
@@ -46383,19 +46401,21 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>1222</v>
+        <v>513</v>
+      </c>
+      <c r="B287" s="31" t="s">
+        <v>514</v>
       </c>
       <c r="C287" s="3"/>
-      <c r="D287" t="s">
-        <v>512</v>
+      <c r="D287" s="16" t="s">
+        <v>515</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F287" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="G287" s="3" t="s">
         <v>17</v>
       </c>
@@ -46411,11 +46431,18 @@
       <c r="M287" s="3"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A288" s="8"/>
-      <c r="B288" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C288" s="3"/>
+      <c r="A288" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B288" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="16" t="s">
+        <v>518</v>
+      </c>
       <c r="E288" s="3" t="s">
         <v>16</v>
       </c>
@@ -46436,21 +46463,21 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B289" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="C289" s="3"/>
-      <c r="D289" s="16" t="s">
-        <v>516</v>
+        <v>520</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" t="s">
+        <v>521</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F289" s="3"/>
       <c r="G289" s="3" t="s">
         <v>17</v>
       </c>
@@ -46467,19 +46494,21 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B290" s="51" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C290" s="3"/>
-      <c r="D290" s="16" t="s">
-        <v>519</v>
+      <c r="D290" t="s">
+        <v>524</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F290" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="G290" s="3" t="s">
         <v>17</v>
       </c>
@@ -46496,14 +46525,16 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B291" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="C291" s="3"/>
-      <c r="D291" t="s">
-        <v>522</v>
+        <v>526</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>527</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>16</v>
@@ -46525,14 +46556,14 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B292" s="51" t="s">
-        <v>524</v>
+        <v>528</v>
+      </c>
+      <c r="B292" s="16" t="s">
+        <v>535</v>
       </c>
       <c r="C292" s="3"/>
-      <c r="D292" t="s">
-        <v>525</v>
+      <c r="D292" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>232</v>
@@ -46556,14 +46587,16 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B293" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="C293" s="3"/>
-      <c r="D293" s="17" t="s">
-        <v>528</v>
+        <v>530</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="16" t="s">
+        <v>531</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>16</v>
@@ -46585,21 +46618,21 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="B294" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="C294" s="3"/>
+        <v>532</v>
+      </c>
+      <c r="B294" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D294" s="16" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F294" s="3"/>
       <c r="G294" s="3" t="s">
         <v>17</v>
       </c>
@@ -46616,14 +46649,16 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="8" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B295" s="51" t="s">
-        <v>531</v>
-      </c>
-      <c r="C295" s="3"/>
-      <c r="D295" s="16" t="s">
-        <v>532</v>
+        <v>538</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="17" t="s">
+        <v>539</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>16</v>
@@ -46645,19 +46680,21 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="8" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B296" s="51" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="16" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F296" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="G296" s="3" t="s">
         <v>17</v>
       </c>
@@ -46674,19 +46711,21 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="B297" s="51" t="s">
-        <v>539</v>
+        <v>543</v>
+      </c>
+      <c r="B297" s="31" t="s">
+        <v>544</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="17" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F297" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="G297" s="3" t="s">
         <v>17</v>
       </c>
@@ -46703,21 +46742,21 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B298" s="51" t="s">
-        <v>542</v>
-      </c>
-      <c r="C298" s="3"/>
+        <v>547</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D298" s="16" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F298" s="3"/>
       <c r="G298" s="3" t="s">
         <v>17</v>
       </c>
@@ -46734,14 +46773,16 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="8" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B299" s="51" t="s">
-        <v>545</v>
-      </c>
-      <c r="C299" s="3"/>
+        <v>550</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D299" s="17" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>16</v>
@@ -46762,17 +46803,23 @@
       <c r="M299" s="3"/>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A300" s="8"/>
+      <c r="A300" s="8" t="s">
+        <v>552</v>
+      </c>
       <c r="B300" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="C300" s="3"/>
-      <c r="D300" s="19"/>
+        <v>553</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" t="s">
+        <v>554</v>
+      </c>
       <c r="E300" s="3" t="s">
         <v>232</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>296</v>
+        <v>1159</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>17</v>
@@ -46789,20 +46836,22 @@
       <c r="M300" s="3"/>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A301" s="8" t="s">
-        <v>548</v>
-      </c>
+      <c r="A301" s="8"/>
       <c r="B301" s="51" t="s">
-        <v>549</v>
-      </c>
-      <c r="C301" s="3"/>
-      <c r="D301" s="16" t="s">
-        <v>550</v>
+        <v>555</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" t="s">
+        <v>556</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F301" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>1159</v>
+      </c>
       <c r="G301" s="3" t="s">
         <v>17</v>
       </c>
@@ -46819,15 +46868,20 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" s="8"/>
-      <c r="B302" s="51" t="s">
-        <v>551</v>
-      </c>
-      <c r="C302" s="3"/>
+      <c r="B302" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D302" t="s">
+        <v>558</v>
+      </c>
       <c r="E302" s="3" t="s">
         <v>232</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>296</v>
+        <v>1159</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>17</v>
@@ -46844,20 +46898,19 @@
       <c r="M302" s="3"/>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A303" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="B303" s="51" t="s">
-        <v>553</v>
-      </c>
-      <c r="C303" s="3"/>
-      <c r="D303" s="17" t="s">
-        <v>554</v>
+      <c r="A303" s="8"/>
+      <c r="B303" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F303" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>1159</v>
+      </c>
       <c r="G303" s="3" t="s">
         <v>17</v>
       </c>
@@ -46873,21 +46926,18 @@
       <c r="M303" s="3"/>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A304" s="8" t="s">
-        <v>555</v>
-      </c>
+      <c r="A304" s="8"/>
       <c r="B304" s="51" t="s">
-        <v>556</v>
-      </c>
-      <c r="C304" s="3"/>
-      <c r="D304" t="s">
-        <v>557</v>
+        <v>560</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>232</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>17</v>
@@ -46904,20 +46954,22 @@
       <c r="M304" s="3"/>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A305" s="8"/>
-      <c r="B305" s="51" t="s">
-        <v>558</v>
-      </c>
-      <c r="C305" s="3"/>
+      <c r="A305" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B305" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D305" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F305" s="3" t="s">
-        <v>1162</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F305" s="3"/>
       <c r="G305" s="3" t="s">
         <v>17</v>
       </c>
@@ -46934,19 +46986,16 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="8"/>
-      <c r="B306" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="C306" s="3"/>
-      <c r="D306" t="s">
-        <v>561</v>
+      <c r="B306" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F306" s="3" t="s">
-        <v>1162</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F306" s="3"/>
       <c r="G306" s="3" t="s">
         <v>17</v>
       </c>
@@ -46963,16 +47012,16 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="8"/>
-      <c r="B307" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="C307" s="3"/>
+      <c r="B307" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E307" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>1162</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F307" s="3"/>
       <c r="G307" s="3" t="s">
         <v>17</v>
       </c>
@@ -46990,15 +47039,15 @@
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
       <c r="B308" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="C308" s="3"/>
+        <v>566</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E308" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>1162</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F308" s="3"/>
       <c r="G308" s="3" t="s">
         <v>17</v>
       </c>
@@ -47014,15 +47063,12 @@
       <c r="M308" s="3"/>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A309" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C309" s="3"/>
-      <c r="D309" t="s">
-        <v>566</v>
+      <c r="A309" s="8"/>
+      <c r="B309" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E309" s="3" t="s">
         <v>16</v>
@@ -47044,10 +47090,12 @@
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="8"/>
-      <c r="B310" s="51" t="s">
-        <v>567</v>
-      </c>
-      <c r="C310" s="3"/>
+      <c r="B310" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E310" s="3" t="s">
         <v>16</v>
       </c>
@@ -47068,10 +47116,12 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" s="8"/>
-      <c r="B311" s="51" t="s">
-        <v>568</v>
-      </c>
-      <c r="C311" s="3"/>
+      <c r="B311" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E311" s="3" t="s">
         <v>16</v>
       </c>
@@ -47091,11 +47141,18 @@
       <c r="M311" s="3"/>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A312" s="8"/>
-      <c r="B312" s="51" t="s">
-        <v>569</v>
-      </c>
-      <c r="C312" s="3"/>
+      <c r="A312" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312" t="s">
+        <v>572</v>
+      </c>
       <c r="E312" s="3" t="s">
         <v>16</v>
       </c>
@@ -47114,36 +47171,45 @@
       <c r="L312" s="3"/>
       <c r="M312" s="3"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A313" s="8"/>
-      <c r="B313" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="C313" s="3"/>
-      <c r="E313" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F313" s="3"/>
-      <c r="G313" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H313" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I313" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J313" s="8"/>
-      <c r="K313" s="3"/>
-      <c r="L313" s="3"/>
-      <c r="M313" s="3"/>
+    <row r="313" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="27"/>
+      <c r="B313" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="C313" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E313" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F313" s="28"/>
+      <c r="G313" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H313" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I313" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J313" s="27"/>
+      <c r="K313" s="28"/>
+      <c r="L313" s="28"/>
+      <c r="M313" s="28"/>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A314" s="8"/>
-      <c r="B314" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C314" s="3"/>
+      <c r="A314" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B314" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314" t="s">
+        <v>576</v>
+      </c>
       <c r="E314" s="3" t="s">
         <v>16</v>
       </c>
@@ -47164,10 +47230,11 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="8"/>
-      <c r="B315" s="3" t="s">
-        <v>565</v>
-      </c>
+      <c r="B315" s="3"/>
       <c r="C315" s="3"/>
+      <c r="D315" t="s">
+        <v>577</v>
+      </c>
       <c r="E315" s="3" t="s">
         <v>16</v>
       </c>
@@ -47187,15 +47254,11 @@
       <c r="M315" s="3"/>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A316" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>574</v>
-      </c>
+      <c r="A316" s="8"/>
+      <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>16</v>
@@ -47215,40 +47278,37 @@
       <c r="L316" s="3"/>
       <c r="M316" s="3"/>
     </row>
-    <row r="317" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="27"/>
-      <c r="B317" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="C317" s="28"/>
-      <c r="E317" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F317" s="28"/>
-      <c r="G317" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H317" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I317" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J317" s="27"/>
-      <c r="K317" s="28"/>
-      <c r="L317" s="28"/>
-      <c r="M317" s="28"/>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A317" s="8"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" t="s">
+        <v>579</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F317" s="3"/>
+      <c r="G317" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J317" s="8"/>
+      <c r="K317" s="3"/>
+      <c r="L317" s="3"/>
+      <c r="M317" s="3"/>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A318" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="B318" s="22" t="s">
-        <v>578</v>
-      </c>
+      <c r="A318" s="8"/>
+      <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E318" s="3" t="s">
         <v>16</v>
@@ -47273,7 +47333,7 @@
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>16</v>
@@ -47294,16 +47354,22 @@
       <c r="M319" s="3"/>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A320" s="8"/>
-      <c r="B320" s="3"/>
+      <c r="A320" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B320" s="22" t="s">
+        <v>583</v>
+      </c>
       <c r="C320" s="3"/>
-      <c r="D320" t="s">
-        <v>581</v>
+      <c r="D320" s="16" t="s">
+        <v>584</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F320" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="G320" s="3" t="s">
         <v>17</v>
       </c>
@@ -47320,15 +47386,16 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="8"/>
-      <c r="B321" s="3"/>
+      <c r="B321" s="22" t="s">
+        <v>585</v>
+      </c>
       <c r="C321" s="3"/>
-      <c r="D321" t="s">
-        <v>582</v>
-      </c>
       <c r="E321" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F321" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="G321" s="3" t="s">
         <v>17</v>
       </c>
@@ -47344,11 +47411,17 @@
       <c r="M321" s="3"/>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A322" s="8"/>
-      <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
+      <c r="A322" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D322" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>16</v>
@@ -47370,10 +47443,11 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
-      <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
-      <c r="D323" t="s">
-        <v>584</v>
+      <c r="B323" s="22" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>16</v>
@@ -47395,21 +47469,14 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="B324" s="22" t="s">
-        <v>586</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="B324" s="3"/>
       <c r="C324" s="3"/>
-      <c r="D324" s="16" t="s">
-        <v>587</v>
-      </c>
       <c r="E324" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F324" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F324" s="3"/>
       <c r="G324" s="3" t="s">
         <v>17</v>
       </c>
@@ -47425,17 +47492,22 @@
       <c r="M324" s="3"/>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A325" s="8"/>
-      <c r="B325" s="22" t="s">
-        <v>588</v>
-      </c>
-      <c r="C325" s="3"/>
+      <c r="A325" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D325" t="s">
+        <v>591</v>
+      </c>
       <c r="E325" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F325" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F325" s="3"/>
       <c r="G325" s="3" t="s">
         <v>17</v>
       </c>
@@ -47451,15 +47523,12 @@
       <c r="M325" s="3"/>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A326" s="8" t="s">
-        <v>589</v>
-      </c>
+      <c r="A326" s="8"/>
       <c r="B326" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C326" s="3"/>
-      <c r="D326" t="s">
-        <v>591</v>
+        <v>592</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>16</v>
@@ -47481,10 +47550,12 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="8"/>
-      <c r="B327" s="22" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C327" s="3"/>
+      <c r="B327" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E327" s="3" t="s">
         <v>16</v>
       </c>
@@ -47504,13 +47575,16 @@
       <c r="M327" s="3"/>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A328" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="B328" s="3"/>
-      <c r="C328" s="3"/>
+      <c r="A328" s="8"/>
+      <c r="B328" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D328" s="3"/>
       <c r="E328" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F328" s="3"/>
       <c r="G328" s="3" t="s">
@@ -47528,15 +47602,12 @@
       <c r="M328" s="3"/>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A329" s="8" t="s">
-        <v>592</v>
-      </c>
+      <c r="A329" s="8"/>
       <c r="B329" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C329" s="3"/>
-      <c r="D329" t="s">
-        <v>594</v>
+        <v>597</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>16</v>
@@ -47557,11 +47628,18 @@
       <c r="M329" s="3"/>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A330" s="8"/>
+      <c r="A330" s="8" t="s">
+        <v>594</v>
+      </c>
       <c r="B330" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C330" s="3"/>
+        <v>598</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D330" t="s">
+        <v>596</v>
+      </c>
       <c r="E330" s="3" t="s">
         <v>16</v>
       </c>
@@ -47580,37 +47658,45 @@
       <c r="L330" s="3"/>
       <c r="M330" s="3"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A331" s="8"/>
-      <c r="B331" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C331" s="3"/>
-      <c r="E331" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F331" s="3"/>
-      <c r="G331" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H331" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I331" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J331" s="8"/>
-      <c r="K331" s="3"/>
-      <c r="L331" s="3"/>
-      <c r="M331" s="3"/>
+    <row r="331" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="27"/>
+      <c r="B331" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="C331" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E331" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F331" s="28"/>
+      <c r="G331" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H331" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I331" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J331" s="27"/>
+      <c r="K331" s="28"/>
+      <c r="L331" s="28"/>
+      <c r="M331" s="28"/>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A332" s="8"/>
-      <c r="B332" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C332" s="3"/>
-      <c r="D332" s="3"/>
+      <c r="A332" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B332" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D332" t="s">
+        <v>602</v>
+      </c>
       <c r="E332" s="3" t="s">
         <v>16</v>
       </c>
@@ -47630,11 +47716,18 @@
       <c r="M332" s="3"/>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A333" s="8"/>
-      <c r="B333" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="C333" s="3"/>
+      <c r="A333" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B333" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D333" t="s">
+        <v>605</v>
+      </c>
       <c r="E333" s="3" t="s">
         <v>16</v>
       </c>
@@ -47655,14 +47748,16 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C334" s="3"/>
+        <v>606</v>
+      </c>
+      <c r="B334" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D334" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>16</v>
@@ -47682,40 +47777,49 @@
       <c r="L334" s="3"/>
       <c r="M334" s="3"/>
     </row>
-    <row r="335" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="14"/>
-      <c r="B335" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="C335" s="12"/>
-      <c r="E335" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F335" s="12"/>
-      <c r="G335" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H335" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I335" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J335" s="14"/>
-      <c r="K335" s="12"/>
-      <c r="L335" s="12"/>
-      <c r="M335" s="12"/>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A335" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B335" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D335" t="s">
+        <v>611</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F335" s="3"/>
+      <c r="G335" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J335" s="8"/>
+      <c r="K335" s="3"/>
+      <c r="L335" s="3"/>
+      <c r="M335" s="3"/>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="B336" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="C336" s="3"/>
+        <v>612</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D336" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>16</v>
@@ -47736,15 +47840,12 @@
       <c r="M336" s="3"/>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A337" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B337" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="C337" s="3"/>
-      <c r="D337" t="s">
-        <v>608</v>
+      <c r="A337" s="8"/>
+      <c r="B337" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>16</v>
@@ -47764,50 +47865,49 @@
       <c r="L337" s="3"/>
       <c r="M337" s="3"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A338" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="B338" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="C338" s="3"/>
-      <c r="D338" t="s">
-        <v>611</v>
-      </c>
-      <c r="E338" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F338" s="3"/>
-      <c r="G338" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H338" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I338" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J338" s="8"/>
-      <c r="K338" s="3"/>
-      <c r="L338" s="3"/>
-      <c r="M338" s="3"/>
+    <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="14"/>
+      <c r="B338" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E338" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F338" s="12"/>
+      <c r="G338" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H338" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I338" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J338" s="14"/>
+      <c r="K338" s="12"/>
+      <c r="L338" s="12"/>
+      <c r="M338" s="12"/>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="8" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B339" s="22" t="s">
-        <v>842</v>
+        <v>618</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F339" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G339" s="3" t="s">
         <v>17</v>
       </c>
@@ -47824,19 +47924,21 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F340" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G340" s="3" t="s">
         <v>17</v>
       </c>
@@ -47854,11 +47956,11 @@
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="8"/>
       <c r="B341" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C341" s="3"/>
       <c r="E341" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F341" s="3"/>
       <c r="G341" s="3" t="s">
@@ -47875,46 +47977,46 @@
       <c r="L341" s="3"/>
       <c r="M341" s="3"/>
     </row>
-    <row r="342" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="14"/>
-      <c r="B342" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="C342" s="12"/>
-      <c r="E342" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F342" s="12"/>
-      <c r="G342" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H342" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I342" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J342" s="14"/>
-      <c r="K342" s="12"/>
-      <c r="L342" s="12"/>
-      <c r="M342" s="12"/>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A342" s="8"/>
+      <c r="B342" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C342" s="3"/>
+      <c r="E342" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F342" s="3"/>
+      <c r="G342" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J342" s="8"/>
+      <c r="K342" s="3"/>
+      <c r="L342" s="3"/>
+      <c r="M342" s="3"/>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="E343" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>17</v>
@@ -47932,20 +48034,20 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="B344" s="3" t="s">
-        <v>625</v>
+        <v>629</v>
+      </c>
+      <c r="B344" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>17</v>
@@ -47962,15 +48064,22 @@
       <c r="M344" s="3"/>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A345" s="8"/>
-      <c r="B345" s="3" t="s">
-        <v>627</v>
+      <c r="A345" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B345" s="22" t="s">
+        <v>633</v>
       </c>
       <c r="C345" s="3"/>
+      <c r="D345" t="s">
+        <v>634</v>
+      </c>
       <c r="E345" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F345" s="3"/>
+      <c r="F345" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G345" s="3" t="s">
         <v>17</v>
       </c>
@@ -47986,15 +48095,22 @@
       <c r="M345" s="3"/>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A346" s="8"/>
+      <c r="A346" s="8" t="s">
+        <v>635</v>
+      </c>
       <c r="B346" s="3" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C346" s="3"/>
+      <c r="D346" t="s">
+        <v>637</v>
+      </c>
       <c r="E346" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F346" s="3"/>
+      <c r="F346" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G346" s="3" t="s">
         <v>17</v>
       </c>
@@ -48011,20 +48127,20 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B347" s="22" t="s">
-        <v>630</v>
+        <v>638</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>639</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="E347" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>17</v>
@@ -48042,20 +48158,20 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="B348" s="22" t="s">
-        <v>633</v>
+        <v>640</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>641</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="E348" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>17</v>
@@ -48073,20 +48189,20 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="B349" s="22" t="s">
-        <v>636</v>
+        <v>643</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>644</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="E349" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>17</v>
@@ -48103,22 +48219,15 @@
       <c r="M349" s="3"/>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A350" s="8" t="s">
-        <v>638</v>
-      </c>
+      <c r="A350" s="8"/>
       <c r="B350" s="3" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C350" s="3"/>
-      <c r="D350" t="s">
-        <v>640</v>
-      </c>
       <c r="E350" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F350" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F350" s="3"/>
       <c r="G350" s="3" t="s">
         <v>17</v>
       </c>
@@ -48134,22 +48243,15 @@
       <c r="M350" s="3"/>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A351" s="8" t="s">
-        <v>641</v>
-      </c>
+      <c r="A351" s="8"/>
       <c r="B351" s="3" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="C351" s="3"/>
-      <c r="D351" t="s">
-        <v>640</v>
-      </c>
       <c r="E351" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F351" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F351" s="3"/>
       <c r="G351" s="3" t="s">
         <v>17</v>
       </c>
@@ -48165,22 +48267,15 @@
       <c r="M351" s="3"/>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A352" s="8" t="s">
-        <v>643</v>
-      </c>
+      <c r="A352" s="8"/>
       <c r="B352" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C352" s="3"/>
-      <c r="D352" t="s">
-        <v>645</v>
-      </c>
       <c r="E352" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F352" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F352" s="3"/>
       <c r="G352" s="3" t="s">
         <v>17</v>
       </c>
@@ -48197,20 +48292,20 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C353" s="3"/>
-      <c r="D353" t="s">
-        <v>648</v>
+      <c r="D353" s="17" t="s">
+        <v>651</v>
       </c>
       <c r="E353" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>17</v>
@@ -48229,7 +48324,7 @@
     <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="8"/>
       <c r="B354" s="3" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C354" s="3"/>
       <c r="E354" s="3" t="s">
@@ -48251,15 +48346,22 @@
       <c r="M354" s="3"/>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A355" s="8"/>
-      <c r="B355" s="3" t="s">
-        <v>650</v>
+      <c r="A355" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B355" s="22" t="s">
+        <v>654</v>
       </c>
       <c r="C355" s="3"/>
+      <c r="D355" t="s">
+        <v>655</v>
+      </c>
       <c r="E355" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F355" s="3"/>
+      <c r="F355" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G355" s="3" t="s">
         <v>17</v>
       </c>
@@ -48275,15 +48377,22 @@
       <c r="M355" s="3"/>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A356" s="8"/>
-      <c r="B356" s="3" t="s">
-        <v>651</v>
+      <c r="A356" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B356" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C356" s="3"/>
+      <c r="D356" t="s">
+        <v>658</v>
+      </c>
       <c r="E356" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F356" s="3"/>
+      <c r="F356" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G356" s="3" t="s">
         <v>17</v>
       </c>
@@ -48300,21 +48409,19 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>653</v>
+        <v>659</v>
+      </c>
+      <c r="B357" s="22" t="s">
+        <v>660</v>
       </c>
       <c r="C357" s="3"/>
-      <c r="D357" s="17" t="s">
-        <v>654</v>
+      <c r="D357" s="3" t="s">
+        <v>661</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F357" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F357" s="3"/>
       <c r="G357" s="3" t="s">
         <v>17</v>
       </c>
@@ -48330,15 +48437,22 @@
       <c r="M357" s="3"/>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A358" s="8"/>
+      <c r="A358" s="8" t="s">
+        <v>662</v>
+      </c>
       <c r="B358" s="3" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C358" s="3"/>
+      <c r="D358" s="3" t="s">
+        <v>664</v>
+      </c>
       <c r="E358" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F358" s="3"/>
+      <c r="F358" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G358" s="3" t="s">
         <v>17</v>
       </c>
@@ -48354,22 +48468,16 @@
       <c r="M358" s="3"/>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A359" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="B359" s="22" t="s">
-        <v>657</v>
+      <c r="A359" s="8"/>
+      <c r="B359" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="C359" s="3"/>
-      <c r="D359" t="s">
-        <v>658</v>
-      </c>
+      <c r="D359" s="3"/>
       <c r="E359" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F359" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F359" s="3"/>
       <c r="G359" s="3" t="s">
         <v>17</v>
       </c>
@@ -48385,22 +48493,16 @@
       <c r="M359" s="3"/>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A360" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="B360" s="22" t="s">
-        <v>660</v>
+      <c r="A360" s="8"/>
+      <c r="B360" s="3" t="s">
+        <v>666</v>
       </c>
       <c r="C360" s="3"/>
-      <c r="D360" t="s">
-        <v>661</v>
-      </c>
+      <c r="D360" s="3"/>
       <c r="E360" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F360" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F360" s="3"/>
       <c r="G360" s="3" t="s">
         <v>17</v>
       </c>
@@ -48416,16 +48518,12 @@
       <c r="M360" s="3"/>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A361" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="B361" s="22" t="s">
-        <v>663</v>
+      <c r="A361" s="8"/>
+      <c r="B361" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="C361" s="3"/>
-      <c r="D361" s="3" t="s">
-        <v>664</v>
-      </c>
+      <c r="D361" s="3"/>
       <c r="E361" s="3" t="s">
         <v>17</v>
       </c>
@@ -48445,22 +48543,16 @@
       <c r="M361" s="3"/>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A362" s="8" t="s">
-        <v>665</v>
-      </c>
+      <c r="A362" s="8"/>
       <c r="B362" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C362" s="3"/>
-      <c r="D362" s="3" t="s">
-        <v>667</v>
-      </c>
+      <c r="D362" s="3"/>
       <c r="E362" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F362" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F362" s="3"/>
       <c r="G362" s="3" t="s">
         <v>17</v>
       </c>
@@ -48478,7 +48570,7 @@
     <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="8"/>
       <c r="B363" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -48503,7 +48595,7 @@
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="8"/>
       <c r="B364" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -48528,7 +48620,7 @@
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="8"/>
       <c r="B365" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -48551,16 +48643,22 @@
       <c r="M365" s="3"/>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A366" s="8"/>
-      <c r="B366" s="3" t="s">
-        <v>671</v>
+      <c r="A366" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B366" s="22" t="s">
+        <v>673</v>
       </c>
       <c r="C366" s="3"/>
-      <c r="D366" s="3"/>
+      <c r="D366" s="3" t="s">
+        <v>674</v>
+      </c>
       <c r="E366" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F366" s="3"/>
+      <c r="F366" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G366" s="3" t="s">
         <v>17</v>
       </c>
@@ -48576,16 +48674,22 @@
       <c r="M366" s="3"/>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A367" s="8"/>
+      <c r="A367" s="8" t="s">
+        <v>675</v>
+      </c>
       <c r="B367" s="3" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C367" s="3"/>
-      <c r="D367" s="3"/>
+      <c r="D367" s="3" t="s">
+        <v>677</v>
+      </c>
       <c r="E367" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F367" s="3"/>
+      <c r="F367" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G367" s="3" t="s">
         <v>17</v>
       </c>
@@ -48603,7 +48707,7 @@
     <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="8"/>
       <c r="B368" s="3" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -48626,16 +48730,22 @@
       <c r="M368" s="3"/>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A369" s="8"/>
-      <c r="B369" s="3" t="s">
-        <v>674</v>
+      <c r="A369" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B369" s="22" t="s">
+        <v>680</v>
       </c>
       <c r="C369" s="3"/>
-      <c r="D369" s="3"/>
+      <c r="D369" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="E369" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F369" s="3"/>
+      <c r="F369" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G369" s="3" t="s">
         <v>17</v>
       </c>
@@ -48652,20 +48762,20 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" s="8" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="B370" s="22" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G370" s="3" t="s">
         <v>17</v>
@@ -48683,20 +48793,20 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>679</v>
+        <v>685</v>
+      </c>
+      <c r="B371" s="22" t="s">
+        <v>686</v>
       </c>
       <c r="C371" s="3"/>
-      <c r="D371" s="3" t="s">
-        <v>680</v>
+      <c r="D371" s="19" t="s">
+        <v>687</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>17</v>
@@ -48713,16 +48823,22 @@
       <c r="M371" s="3"/>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A372" s="8"/>
+      <c r="A372" s="8" t="s">
+        <v>688</v>
+      </c>
       <c r="B372" s="3" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="C372" s="3"/>
-      <c r="D372" s="3"/>
+      <c r="D372" s="3" t="s">
+        <v>690</v>
+      </c>
       <c r="E372" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F372" s="3"/>
+      <c r="F372" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G372" s="3" t="s">
         <v>17</v>
       </c>
@@ -48738,22 +48854,16 @@
       <c r="M372" s="3"/>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A373" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="B373" s="22" t="s">
-        <v>683</v>
+      <c r="A373" s="8"/>
+      <c r="B373" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="C373" s="3"/>
-      <c r="D373" s="3" t="s">
-        <v>684</v>
-      </c>
+      <c r="D373" s="3"/>
       <c r="E373" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F373" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F373" s="3"/>
       <c r="G373" s="3" t="s">
         <v>17</v>
       </c>
@@ -48770,20 +48880,20 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="B374" s="22" t="s">
-        <v>686</v>
+        <v>692</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>693</v>
       </c>
       <c r="C374" s="3"/>
       <c r="D374" s="3" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>17</v>
@@ -48800,22 +48910,16 @@
       <c r="M374" s="3"/>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A375" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B375" s="22" t="s">
-        <v>689</v>
+      <c r="A375" s="8"/>
+      <c r="B375" s="3" t="s">
+        <v>695</v>
       </c>
       <c r="C375" s="3"/>
-      <c r="D375" s="19" t="s">
-        <v>690</v>
-      </c>
+      <c r="D375" s="3"/>
       <c r="E375" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F375" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F375" s="3"/>
       <c r="G375" s="3" t="s">
         <v>17</v>
       </c>
@@ -48832,20 +48936,20 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="8" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>17</v>
@@ -48864,7 +48968,7 @@
     <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="8"/>
       <c r="B377" s="3" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -48888,20 +48992,20 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
+      </c>
+      <c r="B378" s="22" t="s">
+        <v>701</v>
       </c>
       <c r="C378" s="3"/>
-      <c r="D378" s="3" t="s">
-        <v>697</v>
+      <c r="D378" s="19" t="s">
+        <v>702</v>
       </c>
       <c r="E378" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>17</v>
@@ -48918,16 +49022,22 @@
       <c r="M378" s="3"/>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A379" s="8"/>
+      <c r="A379" s="8" t="s">
+        <v>703</v>
+      </c>
       <c r="B379" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C379" s="3"/>
-      <c r="D379" s="3"/>
+      <c r="D379" s="3" t="s">
+        <v>705</v>
+      </c>
       <c r="E379" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F379" s="3"/>
+      <c r="F379" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G379" s="3" t="s">
         <v>17</v>
       </c>
@@ -48944,21 +49054,17 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="C380" s="3"/>
-      <c r="D380" s="3" t="s">
-        <v>701</v>
-      </c>
+      <c r="D380" s="3"/>
       <c r="E380" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F380" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F380" s="3"/>
       <c r="G380" s="3" t="s">
         <v>17</v>
       </c>
@@ -48974,9 +49080,11 @@
       <c r="M380" s="3"/>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A381" s="8"/>
+      <c r="A381" s="8" t="s">
+        <v>708</v>
+      </c>
       <c r="B381" s="3" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -49000,20 +49108,20 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="B382" s="22" t="s">
-        <v>704</v>
+        <v>710</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="C382" s="3"/>
-      <c r="D382" s="19" t="s">
+      <c r="D382" s="3" t="s">
         <v>705</v>
       </c>
       <c r="E382" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G382" s="3" t="s">
         <v>17</v>
@@ -49031,20 +49139,20 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="8" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C383" s="3"/>
       <c r="D383" s="3" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>17</v>
@@ -49062,10 +49170,10 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="8" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -49089,10 +49197,10 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -49116,20 +49224,20 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C386" s="3"/>
       <c r="D386" s="3" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="E386" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G386" s="3" t="s">
         <v>17</v>
@@ -49147,20 +49255,20 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>716</v>
+        <v>721</v>
+      </c>
+      <c r="B387" s="22" t="s">
+        <v>722</v>
       </c>
       <c r="C387" s="3"/>
       <c r="D387" s="3" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G387" s="3" t="s">
         <v>17</v>
@@ -49178,17 +49286,21 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>719</v>
+        <v>724</v>
+      </c>
+      <c r="B388" s="22" t="s">
+        <v>725</v>
       </c>
       <c r="C388" s="3"/>
-      <c r="D388" s="3"/>
+      <c r="D388" s="3" t="s">
+        <v>726</v>
+      </c>
       <c r="E388" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F388" s="3"/>
+      <c r="F388" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G388" s="3" t="s">
         <v>17</v>
       </c>
@@ -49205,17 +49317,21 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="B389" s="3" t="s">
-        <v>721</v>
+        <v>727</v>
+      </c>
+      <c r="B389" s="22" t="s">
+        <v>728</v>
       </c>
       <c r="C389" s="3"/>
-      <c r="D389" s="3"/>
+      <c r="D389" s="3" t="s">
+        <v>729</v>
+      </c>
       <c r="E389" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F389" s="3"/>
+      <c r="F389" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G389" s="3" t="s">
         <v>17</v>
       </c>
@@ -49232,20 +49348,20 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>723</v>
+        <v>730</v>
+      </c>
+      <c r="B390" s="22" t="s">
+        <v>731</v>
       </c>
       <c r="C390" s="3"/>
       <c r="D390" s="3" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="E390" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F390" s="3" t="s">
-        <v>623</v>
+      <c r="F390" s="22" t="s">
+        <v>733</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>17</v>
@@ -49263,20 +49379,20 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="B391" s="22" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="C391" s="3"/>
       <c r="D391" s="3" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>623</v>
+        <v>737</v>
       </c>
       <c r="G391" s="3" t="s">
         <v>17</v>
@@ -49294,21 +49410,17 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="B392" s="22" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="C392" s="3"/>
-      <c r="D392" s="3" t="s">
-        <v>729</v>
-      </c>
+      <c r="D392" s="3"/>
       <c r="E392" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F392" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F392" s="3"/>
       <c r="G392" s="3" t="s">
         <v>17</v>
       </c>
@@ -49325,20 +49437,20 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" s="8" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B393" s="22" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="C393" s="3"/>
       <c r="D393" s="3" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G393" s="3" t="s">
         <v>17</v>
@@ -49356,20 +49468,20 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="B394" s="22" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="C394" s="3"/>
       <c r="D394" s="3" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="E394" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F394" s="22" t="s">
-        <v>736</v>
+      <c r="F394" s="3" t="s">
+        <v>620</v>
       </c>
       <c r="G394" s="3" t="s">
         <v>17</v>
@@ -49387,20 +49499,20 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="B395" s="22" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="C395" s="3"/>
       <c r="D395" s="3" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>740</v>
+        <v>620</v>
       </c>
       <c r="G395" s="3" t="s">
         <v>17</v>
@@ -49418,13 +49530,13 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="B396" s="22" t="s">
-        <v>742</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="B396" s="3"/>
       <c r="C396" s="3"/>
-      <c r="D396" s="3"/>
+      <c r="D396" s="3" t="s">
+        <v>749</v>
+      </c>
       <c r="E396" s="3" t="s">
         <v>17</v>
       </c>
@@ -49445,20 +49557,20 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="B397" s="22" t="s">
-        <v>744</v>
+        <v>750</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>751</v>
       </c>
       <c r="C397" s="3"/>
       <c r="D397" s="3" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G397" s="3" t="s">
         <v>17</v>
@@ -49476,21 +49588,19 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="B398" s="22" t="s">
-        <v>746</v>
+        <v>752</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>753</v>
       </c>
       <c r="C398" s="3"/>
       <c r="D398" s="3" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F398" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F398" s="3"/>
       <c r="G398" s="3" t="s">
         <v>17</v>
       </c>
@@ -49507,21 +49617,17 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="B399" s="22" t="s">
-        <v>749</v>
+        <v>754</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>755</v>
       </c>
       <c r="C399" s="3"/>
-      <c r="D399" s="3" t="s">
-        <v>750</v>
-      </c>
+      <c r="D399" s="3"/>
       <c r="E399" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F399" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F399" s="3"/>
       <c r="G399" s="3" t="s">
         <v>17</v>
       </c>
@@ -49538,13 +49644,13 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="B400" s="3"/>
+        <v>756</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>757</v>
+      </c>
       <c r="C400" s="3"/>
-      <c r="D400" s="3" t="s">
-        <v>752</v>
-      </c>
+      <c r="D400" s="3"/>
       <c r="E400" s="3" t="s">
         <v>17</v>
       </c>
@@ -49565,20 +49671,20 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>754</v>
+        <v>758</v>
+      </c>
+      <c r="B401" s="22" t="s">
+        <v>759</v>
       </c>
       <c r="C401" s="3"/>
       <c r="D401" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G401" s="3" t="s">
         <v>17</v>
@@ -49596,15 +49702,13 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>756</v>
+        <v>760</v>
+      </c>
+      <c r="B402" s="22" t="s">
+        <v>761</v>
       </c>
       <c r="C402" s="3"/>
-      <c r="D402" s="3" t="s">
-        <v>752</v>
-      </c>
+      <c r="D402" s="3"/>
       <c r="E402" s="3" t="s">
         <v>17</v>
       </c>
@@ -49625,10 +49729,10 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" s="8" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -49652,10 +49756,10 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>760</v>
+        <v>764</v>
+      </c>
+      <c r="B404" s="22" t="s">
+        <v>765</v>
       </c>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -49679,20 +49783,20 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" s="8" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B405" s="22" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C405" s="3"/>
       <c r="D405" s="3" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G405" s="3" t="s">
         <v>17</v>
@@ -49710,13 +49814,15 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="B406" s="22" t="s">
-        <v>764</v>
+        <v>769</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>770</v>
       </c>
       <c r="C406" s="3"/>
-      <c r="D406" s="3"/>
+      <c r="D406" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="E406" s="3" t="s">
         <v>17</v>
       </c>
@@ -49737,13 +49843,13 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>766</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="B407" s="3"/>
       <c r="C407" s="3"/>
-      <c r="D407" s="3"/>
+      <c r="D407" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="E407" s="3" t="s">
         <v>17</v>
       </c>
@@ -49764,17 +49870,21 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="B408" s="22" t="s">
-        <v>768</v>
+        <v>774</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>775</v>
       </c>
       <c r="C408" s="3"/>
-      <c r="D408" s="3"/>
+      <c r="D408" s="19" t="s">
+        <v>776</v>
+      </c>
       <c r="E408" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F408" s="3"/>
+      <c r="F408" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G408" s="3" t="s">
         <v>17</v>
       </c>
@@ -49791,21 +49901,17 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="B409" s="22" t="s">
-        <v>770</v>
+        <v>777</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="C409" s="3"/>
-      <c r="D409" s="3" t="s">
-        <v>771</v>
-      </c>
+      <c r="D409" s="3"/>
       <c r="E409" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F409" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F409" s="3"/>
       <c r="G409" s="3" t="s">
         <v>17</v>
       </c>
@@ -49822,19 +49928,21 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>773</v>
+        <v>779</v>
+      </c>
+      <c r="B410" s="22" t="s">
+        <v>780</v>
       </c>
       <c r="C410" s="3"/>
       <c r="D410" s="3" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F410" s="3"/>
+      <c r="F410" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G410" s="3" t="s">
         <v>17</v>
       </c>
@@ -49851,17 +49959,21 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="B411" s="3"/>
+        <v>782</v>
+      </c>
+      <c r="B411" s="22" t="s">
+        <v>783</v>
+      </c>
       <c r="C411" s="3"/>
       <c r="D411" s="3" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F411" s="3"/>
+      <c r="F411" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G411" s="3" t="s">
         <v>17</v>
       </c>
@@ -49878,20 +49990,20 @@
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>778</v>
+        <v>785</v>
+      </c>
+      <c r="B412" s="22" t="s">
+        <v>786</v>
       </c>
       <c r="C412" s="3"/>
-      <c r="D412" s="19" t="s">
-        <v>779</v>
+      <c r="D412" s="3" t="s">
+        <v>787</v>
       </c>
       <c r="E412" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G412" s="3" t="s">
         <v>17</v>
@@ -49909,13 +50021,13 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>781</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="B413" s="3"/>
       <c r="C413" s="3"/>
-      <c r="D413" s="3"/>
+      <c r="D413" s="3" t="s">
+        <v>789</v>
+      </c>
       <c r="E413" s="3" t="s">
         <v>17</v>
       </c>
@@ -49936,20 +50048,20 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="B414" s="22" t="s">
-        <v>783</v>
+        <v>790</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>791</v>
       </c>
       <c r="C414" s="3"/>
       <c r="D414" s="3" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="E414" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>17</v>
@@ -49967,21 +50079,17 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="B415" s="22" t="s">
-        <v>786</v>
+        <v>793</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>794</v>
       </c>
       <c r="C415" s="3"/>
-      <c r="D415" s="3" t="s">
-        <v>787</v>
-      </c>
+      <c r="D415" s="3"/>
       <c r="E415" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F415" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F415" s="3"/>
       <c r="G415" s="3" t="s">
         <v>17</v>
       </c>
@@ -49998,20 +50106,20 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="B416" s="22" t="s">
-        <v>789</v>
+        <v>795</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="C416" s="3"/>
       <c r="D416" s="3" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>17</v>
@@ -50029,13 +50137,13 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="B417" s="3"/>
+        <v>798</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>799</v>
+      </c>
       <c r="C417" s="3"/>
-      <c r="D417" s="3" t="s">
-        <v>792</v>
-      </c>
+      <c r="D417" s="3"/>
       <c r="E417" s="3" t="s">
         <v>17</v>
       </c>
@@ -50056,20 +50164,20 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" s="8" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="C418" s="3"/>
       <c r="D418" s="3" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G418" s="3" t="s">
         <v>17</v>
@@ -50087,13 +50195,15 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" s="8" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="C419" s="3"/>
-      <c r="D419" s="3"/>
+      <c r="D419" s="3" t="s">
+        <v>805</v>
+      </c>
       <c r="E419" s="3" t="s">
         <v>17</v>
       </c>
@@ -50114,21 +50224,19 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" s="8" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="C420" s="3"/>
       <c r="D420" s="3" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F420" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F420" s="3"/>
       <c r="G420" s="3" t="s">
         <v>17</v>
       </c>
@@ -50145,13 +50253,15 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" s="8" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="C421" s="3"/>
-      <c r="D421" s="3"/>
+      <c r="D421" s="3" t="s">
+        <v>811</v>
+      </c>
       <c r="E421" s="3" t="s">
         <v>17</v>
       </c>
@@ -50172,21 +50282,17 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" s="8" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="C422" s="3"/>
-      <c r="D422" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="D422" s="3"/>
       <c r="E422" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F422" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F422" s="3"/>
       <c r="G422" s="3" t="s">
         <v>17</v>
       </c>
@@ -50203,15 +50309,13 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423" s="8" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="C423" s="3"/>
-      <c r="D423" s="3" t="s">
-        <v>808</v>
-      </c>
+      <c r="D423" s="3"/>
       <c r="E423" s="3" t="s">
         <v>17</v>
       </c>
@@ -50232,15 +50336,13 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" s="8" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="C424" s="3"/>
-      <c r="D424" s="3" t="s">
-        <v>811</v>
-      </c>
+      <c r="D424" s="3"/>
       <c r="E424" s="3" t="s">
         <v>17</v>
       </c>
@@ -50261,15 +50363,13 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425" s="8" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="C425" s="3"/>
-      <c r="D425" s="3" t="s">
-        <v>814</v>
-      </c>
+      <c r="D425" s="3"/>
       <c r="E425" s="3" t="s">
         <v>17</v>
       </c>
@@ -50290,17 +50390,21 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" s="8" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="C426" s="3"/>
-      <c r="D426" s="3"/>
+      <c r="D426" s="3" t="s">
+        <v>822</v>
+      </c>
       <c r="E426" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F426" s="3"/>
+      <c r="F426" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G426" s="3" t="s">
         <v>17</v>
       </c>
@@ -50317,10 +50421,10 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" s="8" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -50343,11 +50447,9 @@
       <c r="M427" s="3"/>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A428" s="8" t="s">
-        <v>819</v>
-      </c>
+      <c r="A428" s="8"/>
       <c r="B428" s="3" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -50370,11 +50472,9 @@
       <c r="M428" s="3"/>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A429" s="8" t="s">
-        <v>821</v>
-      </c>
+      <c r="A429" s="8"/>
       <c r="B429" s="3" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -50397,22 +50497,16 @@
       <c r="M429" s="3"/>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A430" s="8" t="s">
-        <v>823</v>
-      </c>
+      <c r="A430" s="8"/>
       <c r="B430" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C430" s="3"/>
-      <c r="D430" s="3" t="s">
-        <v>825</v>
-      </c>
+      <c r="D430" s="3"/>
       <c r="E430" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F430" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="F430" s="3"/>
       <c r="G430" s="3" t="s">
         <v>17</v>
       </c>
@@ -50428,11 +50522,9 @@
       <c r="M430" s="3"/>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A431" s="8" t="s">
-        <v>826</v>
-      </c>
+      <c r="A431" s="8"/>
       <c r="B431" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -50455,12 +50547,16 @@
       <c r="M431" s="3"/>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A432" s="8"/>
-      <c r="B432" s="3" t="s">
-        <v>828</v>
+      <c r="A432" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B432" s="33" t="s">
+        <v>830</v>
       </c>
       <c r="C432" s="3"/>
-      <c r="D432" s="3"/>
+      <c r="D432" s="3" t="s">
+        <v>831</v>
+      </c>
       <c r="E432" s="3" t="s">
         <v>17</v>
       </c>
@@ -50480,12 +50576,16 @@
       <c r="M432" s="3"/>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A433" s="8"/>
-      <c r="B433" s="3" t="s">
-        <v>829</v>
+      <c r="A433" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="B433" s="33" t="s">
+        <v>833</v>
       </c>
       <c r="C433" s="3"/>
-      <c r="D433" s="3"/>
+      <c r="D433" s="32" t="s">
+        <v>834</v>
+      </c>
       <c r="E433" s="3" t="s">
         <v>17</v>
       </c>
@@ -50505,12 +50605,16 @@
       <c r="M433" s="3"/>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A434" s="8"/>
-      <c r="B434" s="3" t="s">
-        <v>830</v>
+      <c r="A434" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="B434" s="33" t="s">
+        <v>836</v>
       </c>
       <c r="C434" s="3"/>
-      <c r="D434" s="3"/>
+      <c r="D434" s="32" t="s">
+        <v>837</v>
+      </c>
       <c r="E434" s="3" t="s">
         <v>17</v>
       </c>
@@ -50530,12 +50634,16 @@
       <c r="M434" s="3"/>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A435" s="8"/>
-      <c r="B435" s="3" t="s">
-        <v>831</v>
+      <c r="A435" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="B435" s="33" t="s">
+        <v>610</v>
       </c>
       <c r="C435" s="3"/>
-      <c r="D435" s="3"/>
+      <c r="D435" s="32" t="s">
+        <v>611</v>
+      </c>
       <c r="E435" s="3" t="s">
         <v>17</v>
       </c>
@@ -50556,14 +50664,14 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B436" s="33" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="C436" s="3"/>
-      <c r="D436" s="3" t="s">
-        <v>834</v>
+      <c r="D436" s="32" t="s">
+        <v>842</v>
       </c>
       <c r="E436" s="3" t="s">
         <v>17</v>
@@ -50584,15 +50692,11 @@
       <c r="M436" s="3"/>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A437" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="B437" s="33" t="s">
-        <v>836</v>
-      </c>
+      <c r="A437" s="8"/>
+      <c r="B437" s="33"/>
       <c r="C437" s="3"/>
       <c r="D437" s="32" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>17</v>
@@ -50613,15 +50717,11 @@
       <c r="M437" s="3"/>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A438" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="B438" s="33" t="s">
-        <v>839</v>
-      </c>
+      <c r="A438" s="8"/>
+      <c r="B438" s="33"/>
       <c r="C438" s="3"/>
       <c r="D438" s="32" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="E438" s="3" t="s">
         <v>17</v>
@@ -50643,14 +50743,14 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" s="8" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B439" s="33" t="s">
-        <v>613</v>
+        <v>846</v>
       </c>
       <c r="C439" s="3"/>
       <c r="D439" s="32" t="s">
-        <v>614</v>
+        <v>842</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>17</v>
@@ -50671,15 +50771,13 @@
       <c r="M439" s="3"/>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A440" s="8" t="s">
+      <c r="A440" s="8"/>
+      <c r="B440" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C440" s="3"/>
+      <c r="D440" s="34" t="s">
         <v>843</v>
-      </c>
-      <c r="B440" s="33" t="s">
-        <v>844</v>
-      </c>
-      <c r="C440" s="3"/>
-      <c r="D440" s="32" t="s">
-        <v>845</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>17</v>
@@ -50701,10 +50799,12 @@
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" s="8"/>
-      <c r="B441" s="33"/>
+      <c r="B441" s="3" t="s">
+        <v>848</v>
+      </c>
       <c r="C441" s="3"/>
-      <c r="D441" s="32" t="s">
-        <v>846</v>
+      <c r="D441" s="34" t="s">
+        <v>844</v>
       </c>
       <c r="E441" s="3" t="s">
         <v>17</v>
@@ -50725,11 +50825,15 @@
       <c r="M441" s="3"/>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A442" s="8"/>
-      <c r="B442" s="33"/>
+      <c r="A442" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="B442" s="33" t="s">
+        <v>850</v>
+      </c>
       <c r="C442" s="3"/>
       <c r="D442" s="32" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="E442" s="3" t="s">
         <v>17</v>
@@ -50751,14 +50855,14 @@
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="B443" s="33" t="s">
-        <v>849</v>
+        <v>852</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>853</v>
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="32" t="s">
-        <v>845</v>
+        <v>637</v>
       </c>
       <c r="E443" s="3" t="s">
         <v>17</v>
@@ -50773,20 +50877,20 @@
       <c r="I443" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J443" s="8"/>
+      <c r="J443" s="8" t="s">
+        <v>854</v>
+      </c>
       <c r="K443" s="3"/>
       <c r="L443" s="3"/>
       <c r="M443" s="3"/>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" s="8"/>
-      <c r="B444" s="3" t="s">
-        <v>850</v>
+      <c r="B444" s="33" t="s">
+        <v>855</v>
       </c>
       <c r="C444" s="3"/>
-      <c r="D444" s="34" t="s">
-        <v>846</v>
-      </c>
+      <c r="D444" s="3"/>
       <c r="E444" s="3" t="s">
         <v>17</v>
       </c>
@@ -50800,19 +50904,23 @@
       <c r="I444" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J444" s="8"/>
+      <c r="J444" s="8" t="s">
+        <v>856</v>
+      </c>
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
       <c r="M444" s="3"/>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A445" s="8"/>
-      <c r="B445" s="3" t="s">
-        <v>851</v>
+      <c r="A445" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="B445" s="33" t="s">
+        <v>858</v>
       </c>
       <c r="C445" s="3"/>
-      <c r="D445" s="34" t="s">
-        <v>847</v>
+      <c r="D445" s="32" t="s">
+        <v>859</v>
       </c>
       <c r="E445" s="3" t="s">
         <v>17</v>
@@ -50827,21 +50935,23 @@
       <c r="I445" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J445" s="8"/>
+      <c r="J445" s="8" t="s">
+        <v>860</v>
+      </c>
       <c r="K445" s="3"/>
       <c r="L445" s="3"/>
       <c r="M445" s="3"/>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" s="8" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="B446" s="33" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C446" s="3"/>
       <c r="D446" s="32" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="E446" s="3" t="s">
         <v>17</v>
@@ -50856,22 +50966,20 @@
       <c r="I446" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J446" s="8"/>
+      <c r="J446" s="8" t="s">
+        <v>864</v>
+      </c>
       <c r="K446" s="3"/>
       <c r="L446" s="3"/>
       <c r="M446" s="3"/>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A447" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>856</v>
+      <c r="A447" s="8"/>
+      <c r="B447" s="33" t="s">
+        <v>865</v>
       </c>
       <c r="C447" s="3"/>
-      <c r="D447" s="32" t="s">
-        <v>640</v>
-      </c>
+      <c r="D447" s="32"/>
       <c r="E447" s="3" t="s">
         <v>17</v>
       </c>
@@ -50886,19 +50994,23 @@
         <v>17</v>
       </c>
       <c r="J447" s="8" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
       <c r="M447" s="3"/>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A448" s="8"/>
+      <c r="A448" s="8" t="s">
+        <v>867</v>
+      </c>
       <c r="B448" s="33" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="C448" s="3"/>
-      <c r="D448" s="3"/>
+      <c r="D448" s="32" t="s">
+        <v>869</v>
+      </c>
       <c r="E448" s="3" t="s">
         <v>17</v>
       </c>
@@ -50913,7 +51025,7 @@
         <v>17</v>
       </c>
       <c r="J448" s="8" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
@@ -50921,14 +51033,14 @@
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" s="8" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="B449" s="33" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="C449" s="3"/>
       <c r="D449" s="32" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>17</v>
@@ -50944,7 +51056,7 @@
         <v>17</v>
       </c>
       <c r="J449" s="8" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
@@ -50952,14 +51064,14 @@
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" s="8" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="B450" s="33" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="32" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="E450" s="3" t="s">
         <v>17</v>
@@ -50975,19 +51087,23 @@
         <v>17</v>
       </c>
       <c r="J450" s="8" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="K450" s="3"/>
       <c r="L450" s="3"/>
       <c r="M450" s="3"/>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A451" s="8"/>
+      <c r="A451" s="8" t="s">
+        <v>879</v>
+      </c>
       <c r="B451" s="33" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="C451" s="3"/>
-      <c r="D451" s="32"/>
+      <c r="D451" s="32" t="s">
+        <v>881</v>
+      </c>
       <c r="E451" s="3" t="s">
         <v>17</v>
       </c>
@@ -51002,23 +51118,19 @@
         <v>17</v>
       </c>
       <c r="J451" s="8" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="K451" s="3"/>
       <c r="L451" s="3"/>
       <c r="M451" s="3"/>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A452" s="8" t="s">
-        <v>870</v>
-      </c>
+      <c r="A452" s="8"/>
       <c r="B452" s="33" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="C452" s="3"/>
-      <c r="D452" s="32" t="s">
-        <v>872</v>
-      </c>
+      <c r="D452" s="3"/>
       <c r="E452" s="3" t="s">
         <v>17</v>
       </c>
@@ -51032,23 +51144,21 @@
       <c r="I452" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J452" s="8" t="s">
-        <v>873</v>
-      </c>
+      <c r="J452" s="8"/>
       <c r="K452" s="3"/>
       <c r="L452" s="3"/>
       <c r="M452" s="3"/>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453" s="8" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="B453" s="33" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="32" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>17</v>
@@ -51063,24 +51173,18 @@
       <c r="I453" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J453" s="8" t="s">
-        <v>877</v>
-      </c>
+      <c r="J453" s="8"/>
       <c r="K453" s="3"/>
       <c r="L453" s="3"/>
       <c r="M453" s="3"/>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="B454" s="33" t="s">
-        <v>879</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="B454" s="33"/>
       <c r="C454" s="3"/>
-      <c r="D454" s="32" t="s">
-        <v>880</v>
-      </c>
+      <c r="D454" s="3"/>
       <c r="E454" s="3" t="s">
         <v>17</v>
       </c>
@@ -51094,24 +51198,16 @@
       <c r="I454" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J454" s="8" t="s">
-        <v>881</v>
-      </c>
+      <c r="J454" s="8"/>
       <c r="K454" s="3"/>
       <c r="L454" s="3"/>
       <c r="M454" s="3"/>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A455" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="B455" s="33" t="s">
-        <v>883</v>
-      </c>
+      <c r="A455" s="8"/>
+      <c r="B455" s="33"/>
       <c r="C455" s="3"/>
-      <c r="D455" s="32" t="s">
-        <v>884</v>
-      </c>
+      <c r="D455" s="3"/>
       <c r="E455" s="3" t="s">
         <v>17</v>
       </c>
@@ -51125,18 +51221,14 @@
       <c r="I455" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J455" s="8" t="s">
-        <v>885</v>
-      </c>
+      <c r="J455" s="8"/>
       <c r="K455" s="3"/>
       <c r="L455" s="3"/>
       <c r="M455" s="3"/>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456" s="8"/>
-      <c r="B456" s="33" t="s">
-        <v>886</v>
-      </c>
+      <c r="B456" s="33"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3" t="s">
@@ -51158,16 +51250,10 @@
       <c r="M456" s="3"/>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A457" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="B457" s="33" t="s">
-        <v>888</v>
-      </c>
+      <c r="A457" s="8"/>
+      <c r="B457" s="33"/>
       <c r="C457" s="3"/>
-      <c r="D457" s="32" t="s">
-        <v>889</v>
-      </c>
+      <c r="D457" s="3"/>
       <c r="E457" s="3" t="s">
         <v>17</v>
       </c>
@@ -51187,9 +51273,7 @@
       <c r="M457" s="3"/>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A458" s="8" t="s">
-        <v>890</v>
-      </c>
+      <c r="A458" s="8"/>
       <c r="B458" s="33"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -51259,7 +51343,7 @@
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461" s="8"/>
-      <c r="B461" s="33"/>
+      <c r="B461" s="3"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3" t="s">
@@ -51282,7 +51366,7 @@
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A462" s="8"/>
-      <c r="B462" s="33"/>
+      <c r="B462" s="3"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3" t="s">
@@ -51305,7 +51389,7 @@
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463" s="8"/>
-      <c r="B463" s="33"/>
+      <c r="B463" s="3"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3" t="s">
@@ -51328,7 +51412,7 @@
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464" s="8"/>
-      <c r="B464" s="33"/>
+      <c r="B464" s="3"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3" t="s">
@@ -55627,211 +55711,119 @@
       <c r="L650" s="3"/>
       <c r="M650" s="3"/>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A651" s="8"/>
-      <c r="B651" s="3"/>
-      <c r="C651" s="3"/>
-      <c r="D651" s="3"/>
-      <c r="E651" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F651" s="3"/>
-      <c r="G651" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H651" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I651" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J651" s="8"/>
-      <c r="K651" s="3"/>
-      <c r="L651" s="3"/>
-      <c r="M651" s="3"/>
-    </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A652" s="8"/>
-      <c r="B652" s="3"/>
-      <c r="C652" s="3"/>
-      <c r="D652" s="3"/>
-      <c r="E652" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F652" s="3"/>
-      <c r="G652" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H652" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I652" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J652" s="8"/>
-      <c r="K652" s="3"/>
-      <c r="L652" s="3"/>
-      <c r="M652" s="3"/>
-    </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A653" s="8"/>
-      <c r="B653" s="3"/>
-      <c r="C653" s="3"/>
-      <c r="D653" s="3"/>
-      <c r="E653" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F653" s="3"/>
-      <c r="G653" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H653" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I653" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J653" s="8"/>
-      <c r="K653" s="3"/>
-      <c r="L653" s="3"/>
-      <c r="M653" s="3"/>
-    </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A654" s="8"/>
-      <c r="B654" s="3"/>
-      <c r="C654" s="3"/>
-      <c r="D654" s="3"/>
-      <c r="E654" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F654" s="3"/>
-      <c r="G654" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H654" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I654" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J654" s="8"/>
-      <c r="K654" s="3"/>
-      <c r="L654" s="3"/>
-      <c r="M654" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H655:J1048576 E27:F208 E215 E216:F218 G1:I208 E395:F1048576 E394 E211:F214 E219:E223 E209:I210 E295:I296 G294:I294 G297:I654 E297:F393 G211:I232 E224:F232 E233:I293">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 E293:I294 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G295:I650 E295:F389">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsBlanks" dxfId="23" priority="40">
+    <cfRule type="containsBlanks" dxfId="38" priority="40">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="42">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H655:J1048576 E27:F208 E215 E216:F218 G1:I208 E395:F1048576 E394 E211:F214 E219:E223 E209:I210 E295:I296 G294:I294 G297:I654 E297:F393 G211:I232 E224:F232 E233:I293">
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="no">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 E293:I294 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G295:I650 E295:F389">
+    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H655:J1048576 E27:F208 E215 E216:F218 G1:I208 E395:F1048576 E394 E211:F214 E219:E223 E209:I210 E295:I296 G294:I294 G297:I654 E297:F393 G211:I232 E224:F232 E233:I293">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 E293:I294 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G295:I650 E295:F389">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E295:E1048576 E1:E293">
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
+  <conditionalFormatting sqref="E1:E291 E293:E1048576">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C224 C250:C255 C407 C1:C215 C217 C448:C1048576 C410:C446 C257:C293 C295:C405 C227:C247 K2:K654">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+  <conditionalFormatting sqref="C222 C248:C253 C403 C444:C1048576 C406:C442 C255:C291 C225:C245 C1:C215 C293:C401 K2:K650">
+    <cfRule type="cellIs" dxfId="33" priority="22" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M655:M1048576 L1:L654">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+  <conditionalFormatting sqref="M651:M1048576 L1:L650">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C219:C223">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+  <conditionalFormatting sqref="C217:C221">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C406">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+  <conditionalFormatting sqref="C402">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C408">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="C404">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C409">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+  <conditionalFormatting sqref="C405">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E294:F294">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="E292:F292">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E294:F294">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",E294)))</formula>
+  <conditionalFormatting sqref="E292:F292">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",E292)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E294:F294">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="E292:F292">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E294">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="E292">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="C292">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="C247">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C215 C217 C219:C224 C448:C654 C257:C446 C249:C255 C227:C247 K2:K654" xr:uid="{C86B4AFF-5E8A-434F-8C71-AF2F0D18C27F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C217:C222 C444:C650 C247:C253 C225:C245 C2:C215 C255:C442 K2:K650" xr:uid="{C86B4AFF-5E8A-434F-8C71-AF2F0D18C27F}">
       <formula1>"BLOCK, HIDE, POPUP, 3RD, 3RDPOPUP, AD, ADPOPUP, WHITE, WHITEDIM, WHITEPOPUP"</formula1>
     </dataValidation>
   </dataValidations>
@@ -55846,62 +55838,62 @@
     <hyperlink ref="D163" r:id="rId8" xr:uid="{31941BC7-66A9-4151-9DC7-82517A194881}"/>
     <hyperlink ref="D181" r:id="rId9" xr:uid="{7FF278A0-E1D6-494F-B6F8-35892A160562}"/>
     <hyperlink ref="D207" r:id="rId10" xr:uid="{FE680AC1-8700-49C6-A94D-27AB13C99274}"/>
-    <hyperlink ref="D211" r:id="rId11" xr:uid="{C4F3B1C0-CD3D-4350-85E6-27A2BECEA67D}"/>
-    <hyperlink ref="D212" r:id="rId12" xr:uid="{5DA0E42B-2429-476F-949A-0509365CBC14}"/>
-    <hyperlink ref="D213" r:id="rId13" xr:uid="{8943E023-4D84-408D-87FF-835017B14FFD}"/>
-    <hyperlink ref="D214" r:id="rId14" xr:uid="{800CE3CB-399B-4B3C-9956-DC4F09965A72}"/>
-    <hyperlink ref="D217" r:id="rId15" xr:uid="{ACF4991E-D21C-4AA0-9F3F-8449B471576D}"/>
-    <hyperlink ref="D228" r:id="rId16" xr:uid="{F977BF46-FDA3-483B-B6DF-CACDA90ABA6C}"/>
-    <hyperlink ref="D224" r:id="rId17" xr:uid="{3293BF4A-2C7E-4FCF-BBCE-E5E6A175084A}"/>
-    <hyperlink ref="D231" r:id="rId18" xr:uid="{F7D5344E-1798-4994-B38C-CFE29FA64BBF}"/>
-    <hyperlink ref="D230" r:id="rId19" xr:uid="{5A2C985A-076D-45E7-9691-F16D21D970DD}"/>
-    <hyperlink ref="D229" r:id="rId20" xr:uid="{29E4FF2A-3B5C-48DC-93CA-4524E5274D50}"/>
-    <hyperlink ref="D240" r:id="rId21" xr:uid="{95CD9A3E-2726-4709-87FB-238A1B249327}"/>
-    <hyperlink ref="D239" r:id="rId22" xr:uid="{6C3C2EED-15DD-40D5-8237-6DFB02471756}"/>
-    <hyperlink ref="D238" r:id="rId23" xr:uid="{9F838855-E283-4776-95E4-BC9271DA1B75}"/>
-    <hyperlink ref="D241" r:id="rId24" xr:uid="{3B422747-10F9-465F-A94D-4917E9A5D735}"/>
-    <hyperlink ref="D242" r:id="rId25" xr:uid="{3D4AF3E2-51FA-47F1-A690-88CEAD2F9332}"/>
-    <hyperlink ref="D237" r:id="rId26" xr:uid="{5FF848C0-09DA-4EB8-AE91-B0B79361CAF7}"/>
-    <hyperlink ref="D232" r:id="rId27" xr:uid="{13D0F5D3-14EE-474D-84ED-B052E38CA782}"/>
-    <hyperlink ref="D262" r:id="rId28" xr:uid="{1C0D34B7-A7FD-4606-A879-4CBD4671C570}"/>
-    <hyperlink ref="D250" r:id="rId29" xr:uid="{B86A5766-83F9-423B-8FF9-4429E04FE32F}"/>
-    <hyperlink ref="D236" r:id="rId30" xr:uid="{AEAA61EE-5885-42D7-BA10-18DFE8957136}"/>
-    <hyperlink ref="D243" r:id="rId31" xr:uid="{CB1BEB0E-28AA-4352-82F4-D83264B9F0EC}"/>
-    <hyperlink ref="D234" r:id="rId32" xr:uid="{70DCF6BE-10D6-459D-901A-07543A6D6F1B}"/>
-    <hyperlink ref="D266" r:id="rId33" xr:uid="{0A376D96-A188-401A-9704-332A66D16904}"/>
-    <hyperlink ref="D255" r:id="rId34" xr:uid="{BB903550-F3E1-4A2A-8A34-DB336AAE251B}"/>
-    <hyperlink ref="D252" r:id="rId35" xr:uid="{8AA4A836-7F58-4A70-988D-8472B7BB8475}"/>
-    <hyperlink ref="D254" r:id="rId36" display="http://www.sp7pki.iq24.pl/" xr:uid="{41EDBFBF-B272-4F7C-8C84-A984795682F1}"/>
-    <hyperlink ref="D253" r:id="rId37" xr:uid="{E093C059-F6B9-4735-A353-7114FE0FE11D}"/>
-    <hyperlink ref="D251" r:id="rId38" xr:uid="{D1B26E56-AC90-4826-BBD5-6FE26A36F2A9}"/>
-    <hyperlink ref="D256" r:id="rId39" xr:uid="{41C72447-34DC-47AE-8611-81616FFEA412}"/>
-    <hyperlink ref="D257" r:id="rId40" xr:uid="{60C4F3B9-029B-4689-A649-95C33693DD3A}"/>
-    <hyperlink ref="D258" r:id="rId41" xr:uid="{566AA149-59B6-419E-A41A-1D5843447327}"/>
-    <hyperlink ref="D273" r:id="rId42" xr:uid="{E3404472-2D57-4D9D-BDF0-9214875FD644}"/>
-    <hyperlink ref="D275" r:id="rId43" xr:uid="{D918BF1C-9797-489F-A282-1FF63C427953}"/>
-    <hyperlink ref="D276" r:id="rId44" xr:uid="{DC0F4DE3-B2A5-45E9-860E-32EB8906848F}"/>
-    <hyperlink ref="D279" r:id="rId45" xr:uid="{42CCDD81-65A1-4E0F-A417-DFE045223556}"/>
-    <hyperlink ref="D215" r:id="rId46" xr:uid="{5A653419-C5A6-41E3-A661-882B05CA0208}"/>
-    <hyperlink ref="D438" r:id="rId47" xr:uid="{6B3F11B1-9151-4EBA-B9F0-3612E479CB9C}"/>
-    <hyperlink ref="D437" r:id="rId48" xr:uid="{B6A01C3C-1751-4C1E-B989-4C219B9F89B8}"/>
-    <hyperlink ref="D439" r:id="rId49" xr:uid="{08F8AA2F-1D43-4486-96CD-72B19922C1E7}"/>
-    <hyperlink ref="D440" r:id="rId50" xr:uid="{113B1D30-58AC-4B6B-913B-6C875E2B566D}"/>
-    <hyperlink ref="D441" r:id="rId51" xr:uid="{DC20C10C-D192-4DBC-8CF5-ED6D88254F00}"/>
-    <hyperlink ref="D442" r:id="rId52" xr:uid="{24019E6F-9E69-4637-9EF3-84755A19C570}"/>
-    <hyperlink ref="D446" r:id="rId53" xr:uid="{D01F35C7-3D9D-481B-A980-5CCB5B06436D}"/>
-    <hyperlink ref="D443" r:id="rId54" xr:uid="{A2B83802-0839-4DDF-A5AB-CA2BEC042A4E}"/>
-    <hyperlink ref="D444" r:id="rId55" xr:uid="{683E3BEF-6DEF-4607-97A2-5DB9EF0A10CE}"/>
-    <hyperlink ref="D445" r:id="rId56" xr:uid="{26DFE90A-DA78-4BBC-BDB0-DC3DAB4F36C8}"/>
-    <hyperlink ref="D447" r:id="rId57" xr:uid="{B4350B4C-04D6-459D-9A85-11D2ACB0D0B2}"/>
-    <hyperlink ref="D449" r:id="rId58" xr:uid="{F479D547-11AF-407E-B33B-F7682FD3C9A4}"/>
-    <hyperlink ref="D450" r:id="rId59" xr:uid="{6FE8D52F-532A-46F8-A58B-8C05491E76FA}"/>
-    <hyperlink ref="D452" r:id="rId60" xr:uid="{B2C146A3-1351-486E-9F04-A04C7FDC1B52}"/>
-    <hyperlink ref="D453" r:id="rId61" xr:uid="{5E5AEA32-105C-41F7-9C74-C930BD551D86}"/>
-    <hyperlink ref="D454" r:id="rId62" xr:uid="{82D3AC35-D1F3-411A-AC33-7226BC0ADC1B}"/>
-    <hyperlink ref="D455" r:id="rId63" xr:uid="{A4367694-FC9B-471F-9BB7-FCC21175EAF6}"/>
-    <hyperlink ref="D457" r:id="rId64" xr:uid="{8996FC64-2AC6-4E2B-B65D-1BC0F8A1C79A}"/>
-    <hyperlink ref="D247" r:id="rId65" xr:uid="{22FF0BAA-3501-4ABA-89A2-7BC0C32356C8}"/>
-    <hyperlink ref="D260" r:id="rId66" xr:uid="{3736C2C5-8A06-4CE5-9AA3-842DDD723EA2}"/>
+    <hyperlink ref="D210" r:id="rId11" xr:uid="{C4F3B1C0-CD3D-4350-85E6-27A2BECEA67D}"/>
+    <hyperlink ref="D211" r:id="rId12" xr:uid="{5DA0E42B-2429-476F-949A-0509365CBC14}"/>
+    <hyperlink ref="D212" r:id="rId13" xr:uid="{8943E023-4D84-408D-87FF-835017B14FFD}"/>
+    <hyperlink ref="D213" r:id="rId14" xr:uid="{800CE3CB-399B-4B3C-9956-DC4F09965A72}"/>
+    <hyperlink ref="D215" r:id="rId15" xr:uid="{ACF4991E-D21C-4AA0-9F3F-8449B471576D}"/>
+    <hyperlink ref="D226" r:id="rId16" xr:uid="{F977BF46-FDA3-483B-B6DF-CACDA90ABA6C}"/>
+    <hyperlink ref="D222" r:id="rId17" xr:uid="{3293BF4A-2C7E-4FCF-BBCE-E5E6A175084A}"/>
+    <hyperlink ref="D229" r:id="rId18" xr:uid="{F7D5344E-1798-4994-B38C-CFE29FA64BBF}"/>
+    <hyperlink ref="D228" r:id="rId19" xr:uid="{5A2C985A-076D-45E7-9691-F16D21D970DD}"/>
+    <hyperlink ref="D227" r:id="rId20" xr:uid="{29E4FF2A-3B5C-48DC-93CA-4524E5274D50}"/>
+    <hyperlink ref="D238" r:id="rId21" xr:uid="{95CD9A3E-2726-4709-87FB-238A1B249327}"/>
+    <hyperlink ref="D237" r:id="rId22" xr:uid="{6C3C2EED-15DD-40D5-8237-6DFB02471756}"/>
+    <hyperlink ref="D236" r:id="rId23" xr:uid="{9F838855-E283-4776-95E4-BC9271DA1B75}"/>
+    <hyperlink ref="D239" r:id="rId24" xr:uid="{3B422747-10F9-465F-A94D-4917E9A5D735}"/>
+    <hyperlink ref="D240" r:id="rId25" xr:uid="{3D4AF3E2-51FA-47F1-A690-88CEAD2F9332}"/>
+    <hyperlink ref="D235" r:id="rId26" xr:uid="{5FF848C0-09DA-4EB8-AE91-B0B79361CAF7}"/>
+    <hyperlink ref="D230" r:id="rId27" xr:uid="{13D0F5D3-14EE-474D-84ED-B052E38CA782}"/>
+    <hyperlink ref="D260" r:id="rId28" xr:uid="{1C0D34B7-A7FD-4606-A879-4CBD4671C570}"/>
+    <hyperlink ref="D248" r:id="rId29" xr:uid="{B86A5766-83F9-423B-8FF9-4429E04FE32F}"/>
+    <hyperlink ref="D234" r:id="rId30" xr:uid="{AEAA61EE-5885-42D7-BA10-18DFE8957136}"/>
+    <hyperlink ref="D241" r:id="rId31" xr:uid="{CB1BEB0E-28AA-4352-82F4-D83264B9F0EC}"/>
+    <hyperlink ref="D232" r:id="rId32" xr:uid="{70DCF6BE-10D6-459D-901A-07543A6D6F1B}"/>
+    <hyperlink ref="D264" r:id="rId33" xr:uid="{0A376D96-A188-401A-9704-332A66D16904}"/>
+    <hyperlink ref="D253" r:id="rId34" xr:uid="{BB903550-F3E1-4A2A-8A34-DB336AAE251B}"/>
+    <hyperlink ref="D250" r:id="rId35" xr:uid="{8AA4A836-7F58-4A70-988D-8472B7BB8475}"/>
+    <hyperlink ref="D252" r:id="rId36" display="http://www.sp7pki.iq24.pl/" xr:uid="{41EDBFBF-B272-4F7C-8C84-A984795682F1}"/>
+    <hyperlink ref="D251" r:id="rId37" xr:uid="{E093C059-F6B9-4735-A353-7114FE0FE11D}"/>
+    <hyperlink ref="D249" r:id="rId38" xr:uid="{D1B26E56-AC90-4826-BBD5-6FE26A36F2A9}"/>
+    <hyperlink ref="D254" r:id="rId39" xr:uid="{41C72447-34DC-47AE-8611-81616FFEA412}"/>
+    <hyperlink ref="D255" r:id="rId40" xr:uid="{60C4F3B9-029B-4689-A649-95C33693DD3A}"/>
+    <hyperlink ref="D256" r:id="rId41" xr:uid="{566AA149-59B6-419E-A41A-1D5843447327}"/>
+    <hyperlink ref="D271" r:id="rId42" xr:uid="{E3404472-2D57-4D9D-BDF0-9214875FD644}"/>
+    <hyperlink ref="D273" r:id="rId43" xr:uid="{D918BF1C-9797-489F-A282-1FF63C427953}"/>
+    <hyperlink ref="D274" r:id="rId44" xr:uid="{DC0F4DE3-B2A5-45E9-860E-32EB8906848F}"/>
+    <hyperlink ref="D277" r:id="rId45" xr:uid="{42CCDD81-65A1-4E0F-A417-DFE045223556}"/>
+    <hyperlink ref="D214" r:id="rId46" xr:uid="{5A653419-C5A6-41E3-A661-882B05CA0208}"/>
+    <hyperlink ref="D434" r:id="rId47" xr:uid="{6B3F11B1-9151-4EBA-B9F0-3612E479CB9C}"/>
+    <hyperlink ref="D433" r:id="rId48" xr:uid="{B6A01C3C-1751-4C1E-B989-4C219B9F89B8}"/>
+    <hyperlink ref="D435" r:id="rId49" xr:uid="{08F8AA2F-1D43-4486-96CD-72B19922C1E7}"/>
+    <hyperlink ref="D436" r:id="rId50" xr:uid="{113B1D30-58AC-4B6B-913B-6C875E2B566D}"/>
+    <hyperlink ref="D437" r:id="rId51" xr:uid="{DC20C10C-D192-4DBC-8CF5-ED6D88254F00}"/>
+    <hyperlink ref="D438" r:id="rId52" xr:uid="{24019E6F-9E69-4637-9EF3-84755A19C570}"/>
+    <hyperlink ref="D442" r:id="rId53" xr:uid="{D01F35C7-3D9D-481B-A980-5CCB5B06436D}"/>
+    <hyperlink ref="D439" r:id="rId54" xr:uid="{A2B83802-0839-4DDF-A5AB-CA2BEC042A4E}"/>
+    <hyperlink ref="D440" r:id="rId55" xr:uid="{683E3BEF-6DEF-4607-97A2-5DB9EF0A10CE}"/>
+    <hyperlink ref="D441" r:id="rId56" xr:uid="{26DFE90A-DA78-4BBC-BDB0-DC3DAB4F36C8}"/>
+    <hyperlink ref="D443" r:id="rId57" xr:uid="{B4350B4C-04D6-459D-9A85-11D2ACB0D0B2}"/>
+    <hyperlink ref="D445" r:id="rId58" xr:uid="{F479D547-11AF-407E-B33B-F7682FD3C9A4}"/>
+    <hyperlink ref="D446" r:id="rId59" xr:uid="{6FE8D52F-532A-46F8-A58B-8C05491E76FA}"/>
+    <hyperlink ref="D448" r:id="rId60" xr:uid="{B2C146A3-1351-486E-9F04-A04C7FDC1B52}"/>
+    <hyperlink ref="D449" r:id="rId61" xr:uid="{5E5AEA32-105C-41F7-9C74-C930BD551D86}"/>
+    <hyperlink ref="D450" r:id="rId62" xr:uid="{82D3AC35-D1F3-411A-AC33-7226BC0ADC1B}"/>
+    <hyperlink ref="D451" r:id="rId63" xr:uid="{A4367694-FC9B-471F-9BB7-FCC21175EAF6}"/>
+    <hyperlink ref="D453" r:id="rId64" xr:uid="{8996FC64-2AC6-4E2B-B65D-1BC0F8A1C79A}"/>
+    <hyperlink ref="D245" r:id="rId65" xr:uid="{22FF0BAA-3501-4ABA-89A2-7BC0C32356C8}"/>
+    <hyperlink ref="D258" r:id="rId66" xr:uid="{3736C2C5-8A06-4CE5-9AA3-842DDD723EA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId67"/>
@@ -55923,1362 +55915,1362 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -57301,24 +57293,24 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C3" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="J3" s="23"/>
     </row>
@@ -57336,10 +57328,10 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D6" s="44"/>
       <c r="J6" s="12"/>
@@ -57352,10 +57344,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="45" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D8" s="41"/>
       <c r="J8" s="3"/>
@@ -57368,7 +57360,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="44"/>
@@ -57376,7 +57368,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
@@ -57394,298 +57386,298 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="45" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="41"/>
       <c r="E14" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="45" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
       <c r="E16" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="54" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="41"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="42" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="42" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="44"/>
     </row>
     <row r="21" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="54" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="56"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="44"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="45" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="41"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="45" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="41"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="42" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="45" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="41"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="42" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="45" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="41"/>
     </row>
     <row r="29" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="54" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="45" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="41"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="45" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="41"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="45" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="42" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="44"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="45" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="41"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="45" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="41"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="42" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="44"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="42" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="45" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="41"/>
     </row>
     <row r="39" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C39" s="58"/>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="45" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="42" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="42" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="54" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="41"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="42" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="44"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="42" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="44"/>
     </row>
     <row r="46" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C46" s="53"/>
       <c r="D46" s="44"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="45" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="41"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="42" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="44"/>
     </row>
     <row r="49" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="54" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="56"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="45" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="41"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="45" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="41"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="42" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C52" s="43"/>
       <c r="D52" s="44"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="46" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="48"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="50" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">

--- a/filters.xlsx
+++ b/filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3062" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F36E9FF-F4D1-4B40-B615-C321B2F49C40}"/>
+  <xr:revisionPtr revIDLastSave="3155" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D7C64E1-2729-46D1-9FE9-7C834DE4A973}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="1235">
   <si>
     <t>No</t>
   </si>
@@ -1889,36 +1889,21 @@
     <t>193</t>
   </si>
   <si>
-    <t>swiatkarinki.pl##.baner-container</t>
-  </si>
-  <si>
     <t>https://swiatkarinki.pl</t>
   </si>
   <si>
-    <t>obsolete</t>
-  </si>
-  <si>
     <t>194</t>
   </si>
   <si>
-    <t>||suwalki.info^*^banery/447-1.</t>
-  </si>
-  <si>
     <t>http://www.suwalki.info/index.php</t>
   </si>
   <si>
-    <t>||suwalki.info^*^banery/441-1.</t>
-  </si>
-  <si>
     <t>^flash^$domain=suwalki.info</t>
   </si>
   <si>
     <t>195</t>
   </si>
   <si>
-    <t>starysacz.info##[id^="addon-rotator-"]</t>
-  </si>
-  <si>
     <t>http://starysacz.info</t>
   </si>
   <si>
@@ -1943,18 +1928,12 @@
     <t>198</t>
   </si>
   <si>
-    <t>||sportsiedlce.pl^*baner</t>
-  </si>
-  <si>
     <t>http://sportsiedlce.pl</t>
   </si>
   <si>
     <t>199</t>
   </si>
   <si>
-    <t>sportsiedlce.pl###sport-slider-379</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -1973,33 +1952,15 @@
     <t>http://www.slupca.pl</t>
   </si>
   <si>
-    <t>slupca.pl##.g-3</t>
-  </si>
-  <si>
-    <t>slupca.pl##.g-35</t>
-  </si>
-  <si>
-    <t>slupca.pl###text-7</t>
-  </si>
-  <si>
     <t>202</t>
   </si>
   <si>
-    <t>sharevideo.pl##a[href*="https://leadnet.pl"]</t>
-  </si>
-  <si>
     <t>https://sharevideo.pl</t>
   </si>
   <si>
-    <t>sharevideo.pl##a[href*="https://fireads.online"]</t>
-  </si>
-  <si>
     <t>203</t>
   </si>
   <si>
-    <t>sci24.pl##.g-dyn</t>
-  </si>
-  <si>
     <t>https://sci24.pl</t>
   </si>
   <si>
@@ -2048,9 +2009,6 @@
     <t>||radomnews.pl^*^administrator_magnolia17.</t>
   </si>
   <si>
-    <t>||radomnews.pl^*^toyota_detaling19.</t>
-  </si>
-  <si>
     <t>207</t>
   </si>
   <si>
@@ -2234,9 +2192,6 @@
     <t>http://plonsk24.pl</t>
   </si>
   <si>
-    <t>plonsk24.pl##.pole-banerowe &gt; a:not([target="_self"]):not([href^="/"])</t>
-  </si>
-  <si>
     <t>228</t>
   </si>
   <si>
@@ -2246,9 +2201,6 @@
     <t>https://zzapolowy.com</t>
   </si>
   <si>
-    <t>valid block?</t>
-  </si>
-  <si>
     <t>229</t>
   </si>
   <si>
@@ -3720,13 +3672,79 @@
   </si>
   <si>
     <t>/new/728 or /imghttps/728</t>
+  </si>
+  <si>
+    <t>swiatkarinki.pl##.baner</t>
+  </si>
+  <si>
+    <t>suwalki.info##a:not([href^="http://www.suwalki.info/"]) &gt; img[src*="/banery/"]</t>
+  </si>
+  <si>
+    <t>to don't block website header logo</t>
+  </si>
+  <si>
+    <t>starysacz.info##div[id^="addon-rotator-"]</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>sportsiedlce.pl##.sidebar-widget &gt; a:not([href^="http://sportsiedlce.pl/"]) &gt; img</t>
+  </si>
+  <si>
+    <t>sportsiedlce.pl###leaderboard</t>
+  </si>
+  <si>
+    <t>sportsiedlce.pl##.sidebar-widget &gt; a &gt; img</t>
+  </si>
+  <si>
+    <t>||sportsiedlce.pl^*^02/pellet.</t>
+  </si>
+  <si>
+    <t>slupca.pl##.g-4</t>
+  </si>
+  <si>
+    <t>slupca.pl##.g-8</t>
+  </si>
+  <si>
+    <t>http://www.slupca.pl/kulinaria/w-kuchni-musi-byc-smacznie-i-pozywnie/</t>
+  </si>
+  <si>
+    <t>||leadnet.pl^$domain=sharevideo.pl</t>
+  </si>
+  <si>
+    <t>||fireads.online^$domain=sharevideo.pl</t>
+  </si>
+  <si>
+    <t>sci24.pl##div[class^="g-dyn a-"]</t>
+  </si>
+  <si>
+    <t>||radomnews.pl^*^banerekPRU_320.</t>
+  </si>
+  <si>
+    <t>||radomnews.pl^*^toyota_1119.</t>
+  </si>
+  <si>
+    <t>http://radomsport.pl/index.php</t>
+  </si>
+  <si>
+    <t>||radomsport.pl^*^tenis_rkt_</t>
+  </si>
+  <si>
+    <t>||radomsport.pl^*^fitplatinium2019.</t>
+  </si>
+  <si>
+    <t>||radomsport.pl^*^toyota_1119.</t>
+  </si>
+  <si>
+    <t>||radomsport.pl^*^windoor-wietrzenie-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3833,6 +3851,12 @@
       <sz val="10"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF505050"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4081,7 +4105,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4192,13 +4216,334 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4425,360 +4770,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4798,24 +4789,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:M650" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:M650" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:M650" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Filter" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{BBBFDBF0-1399-4DE4-B5F0-6E30770F3CC4}" name="Type" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Push" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fix" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{F46A69CC-7704-4110-83F9-1118153E7962}" name="Filter-fix" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Filter" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{BBBFDBF0-1399-4DE4-B5F0-6E30770F3CC4}" name="Type" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Check" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Push" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fix" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{F46A69CC-7704-4110-83F9-1118153E7962}" name="Filter-fix" dataDxfId="26">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{33D43F69-BB91-4A60-B234-2EF06EC445E3}" name="Type-fix" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{D97C0A98-B6D4-4D1B-84DD-D433C9B55CFC}" name="Marked" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D957016C-C634-44FC-8204-A695FABA001A}" name="Kolumna1" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{33D43F69-BB91-4A60-B234-2EF06EC445E3}" name="Type-fix" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{D97C0A98-B6D4-4D1B-84DD-D433C9B55CFC}" name="Marked" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{D957016C-C634-44FC-8204-A695FABA001A}" name="Kolumna1" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5120,9 +5111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C297" sqref="C297"/>
+      <selection pane="topRight" activeCell="B461" sqref="B461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44230,7 +44221,7 @@
         <v>395</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>21</v>
@@ -44292,7 +44283,7 @@
         <v>400</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>21</v>
@@ -44410,7 +44401,7 @@
         <v>408</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>21</v>
@@ -44439,7 +44430,7 @@
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
       <c r="B218" s="16" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>21</v>
@@ -44493,7 +44484,7 @@
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="3" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>14</v>
@@ -44611,7 +44602,7 @@
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
       <c r="B224" s="3" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>21</v>
@@ -44638,7 +44629,7 @@
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
       <c r="B225" s="3" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>21</v>
@@ -44698,7 +44689,7 @@
         <v>420</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>21</v>
@@ -44710,7 +44701,7 @@
         <v>16</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>17</v>
@@ -44806,7 +44797,7 @@
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="5" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>16</v>
@@ -44856,7 +44847,7 @@
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="5" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>16</v>
@@ -44931,7 +44922,7 @@
         <v>429</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>21</v>
@@ -44943,7 +44934,7 @@
         <v>16</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>17</v>
@@ -45089,7 +45080,7 @@
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="5" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>16</v>
@@ -45139,13 +45130,13 @@
         <v>431</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>16</v>
@@ -45203,7 +45194,7 @@
         <v>21</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>16</v>
@@ -45304,7 +45295,7 @@
         <v>232</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>17</v>
@@ -45337,7 +45328,7 @@
         <v>232</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="G250" s="3" t="s">
         <v>17</v>
@@ -45370,7 +45361,7 @@
         <v>232</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="G251" s="3" t="s">
         <v>17</v>
@@ -45403,7 +45394,7 @@
         <v>232</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="G252" s="3" t="s">
         <v>17</v>
@@ -45436,7 +45427,7 @@
         <v>232</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>17</v>
@@ -45519,7 +45510,7 @@
         <v>463</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>21</v>
@@ -45531,7 +45522,7 @@
         <v>16</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>17</v>
@@ -45641,7 +45632,7 @@
         <v>471</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>21</v>
@@ -45670,7 +45661,7 @@
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
       <c r="B261" s="3" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>21</v>
@@ -45697,7 +45688,7 @@
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="8"/>
       <c r="B262" s="3" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>21</v>
@@ -46316,7 +46307,7 @@
         <v>508</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="16" t="s">
@@ -46347,7 +46338,7 @@
         <v>510</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>14</v>
@@ -46819,7 +46810,7 @@
         <v>232</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>17</v>
@@ -46850,7 +46841,7 @@
         <v>232</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>17</v>
@@ -46881,7 +46872,7 @@
         <v>232</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>17</v>
@@ -46909,7 +46900,7 @@
         <v>232</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>17</v>
@@ -46937,7 +46928,7 @@
         <v>232</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>17</v>
@@ -47415,7 +47406,7 @@
         <v>586</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>21</v>
@@ -47444,7 +47435,7 @@
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
       <c r="B323" s="22" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>21</v>
@@ -47782,7 +47773,7 @@
         <v>609</v>
       </c>
       <c r="B335" s="22" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>21</v>
@@ -47896,18 +47887,18 @@
         <v>617</v>
       </c>
       <c r="B339" s="22" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D339" t="s">
         <v>618</v>
       </c>
-      <c r="C339" s="3"/>
-      <c r="D339" t="s">
-        <v>619</v>
-      </c>
       <c r="E339" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F339" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F339" s="3"/>
       <c r="G339" s="3" t="s">
         <v>17</v>
       </c>
@@ -47924,20 +47915,22 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="C340" s="3"/>
+        <v>1214</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D340" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>620</v>
+        <v>1215</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>17</v>
@@ -47956,11 +47949,13 @@
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="8"/>
       <c r="B341" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="C341" s="3"/>
+        <v>621</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="E341" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F341" s="3"/>
       <c r="G341" s="3" t="s">
@@ -47978,13 +47973,20 @@
       <c r="M341" s="3"/>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A342" s="8"/>
-      <c r="B342" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="C342" s="3"/>
+      <c r="A342" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B342" s="22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D342" t="s">
+        <v>623</v>
+      </c>
       <c r="E342" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F342" s="3"/>
       <c r="G342" s="3" t="s">
@@ -48003,21 +48005,21 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B343" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D343" t="s">
         <v>626</v>
       </c>
-      <c r="B343" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="C343" s="3"/>
-      <c r="D343" t="s">
-        <v>628</v>
-      </c>
       <c r="E343" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F343" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F343" s="3"/>
       <c r="G343" s="3" t="s">
         <v>17</v>
       </c>
@@ -48034,20 +48036,22 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B344" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D344" t="s">
         <v>629</v>
       </c>
-      <c r="B344" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="C344" s="3"/>
-      <c r="D344" t="s">
-        <v>631</v>
-      </c>
       <c r="E344" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>620</v>
+        <v>1217</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>17</v>
@@ -48065,21 +48069,21 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="B345" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="C345" s="3"/>
+        <v>630</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D345" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F345" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F345" s="3"/>
       <c r="G345" s="3" t="s">
         <v>17</v>
       </c>
@@ -48089,28 +48093,28 @@
       <c r="I345" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J345" s="8"/>
+      <c r="J345" s="60" t="s">
+        <v>1218</v>
+      </c>
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
       <c r="M345" s="3"/>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A346" s="8" t="s">
-        <v>635</v>
-      </c>
+      <c r="A346" s="8"/>
       <c r="B346" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C346" s="3"/>
+        <v>1220</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D346" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F346" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F346" s="3"/>
       <c r="G346" s="3" t="s">
         <v>17</v>
       </c>
@@ -48126,22 +48130,20 @@
       <c r="M346" s="3"/>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A347" s="8" t="s">
-        <v>638</v>
-      </c>
+      <c r="A347" s="8"/>
       <c r="B347" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C347" s="3"/>
+        <v>1221</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D347" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F347" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F347" s="3"/>
       <c r="G347" s="3" t="s">
         <v>17</v>
       </c>
@@ -48158,21 +48160,21 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C348" s="3"/>
+        <v>634</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D348" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F348" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F348" s="3"/>
       <c r="G348" s="3" t="s">
         <v>17</v>
       </c>
@@ -48189,21 +48191,21 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C349" s="3"/>
+        <v>637</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D349" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F349" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F349" s="3"/>
       <c r="G349" s="3" t="s">
         <v>17</v>
       </c>
@@ -48221,11 +48223,13 @@
     <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="8"/>
       <c r="B350" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C350" s="3"/>
+        <v>1222</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="E350" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F350" s="3"/>
       <c r="G350" s="3" t="s">
@@ -48243,13 +48247,20 @@
       <c r="M350" s="3"/>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A351" s="8"/>
+      <c r="A351" s="8" t="s">
+        <v>636</v>
+      </c>
       <c r="B351" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="C351" s="3"/>
+        <v>1223</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>1224</v>
+      </c>
       <c r="E351" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F351" s="3"/>
       <c r="G351" s="3" t="s">
@@ -48267,13 +48278,20 @@
       <c r="M351" s="3"/>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A352" s="8"/>
+      <c r="A352" s="8" t="s">
+        <v>639</v>
+      </c>
       <c r="B352" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="C352" s="3"/>
+        <v>1225</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D352" s="17" t="s">
+        <v>640</v>
+      </c>
       <c r="E352" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F352" s="3"/>
       <c r="G352" s="3" t="s">
@@ -48291,22 +48309,17 @@
       <c r="M352" s="3"/>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A353" s="8" t="s">
-        <v>649</v>
-      </c>
+      <c r="A353" s="8"/>
       <c r="B353" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="C353" s="3"/>
-      <c r="D353" s="17" t="s">
-        <v>651</v>
+        <v>1226</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F353" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F353" s="3"/>
       <c r="G353" s="3" t="s">
         <v>17</v>
       </c>
@@ -48322,13 +48335,20 @@
       <c r="M353" s="3"/>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A354" s="8"/>
-      <c r="B354" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C354" s="3"/>
+      <c r="A354" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B354" s="22" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D354" t="s">
+        <v>642</v>
+      </c>
       <c r="E354" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F354" s="3"/>
       <c r="G354" s="3" t="s">
@@ -48347,21 +48367,21 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="8" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B355" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="C355" s="3"/>
+        <v>644</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D355" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F355" s="3"/>
       <c r="G355" s="3" t="s">
         <v>17</v>
       </c>
@@ -48378,21 +48398,21 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B356" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="C356" s="3"/>
-      <c r="D356" t="s">
-        <v>658</v>
+        <v>647</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>648</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F356" s="3"/>
       <c r="G356" s="3" t="s">
         <v>17</v>
       </c>
@@ -48409,17 +48429,19 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="B357" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="C357" s="3"/>
+        <v>649</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D357" s="3" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F357" s="3"/>
       <c r="G357" s="3" t="s">
@@ -48437,22 +48459,18 @@
       <c r="M357" s="3"/>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A358" s="8" t="s">
-        <v>662</v>
-      </c>
+      <c r="A358" s="8"/>
       <c r="B358" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C358" s="3"/>
-      <c r="D358" s="3" t="s">
-        <v>664</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D358" s="3"/>
       <c r="E358" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F358" s="3" t="s">
-        <v>620</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F358" s="3"/>
       <c r="G358" s="3" t="s">
         <v>17</v>
       </c>
@@ -48470,12 +48488,14 @@
     <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="8"/>
       <c r="B359" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C359" s="3"/>
+        <v>652</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D359" s="3"/>
       <c r="E359" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F359" s="3"/>
       <c r="G359" s="3" t="s">
@@ -48495,12 +48515,14 @@
     <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="8"/>
       <c r="B360" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C360" s="3"/>
+        <v>653</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D360" s="3"/>
       <c r="E360" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F360" s="3"/>
       <c r="G360" s="3" t="s">
@@ -48520,12 +48542,14 @@
     <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="8"/>
       <c r="B361" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C361" s="3"/>
+        <v>654</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D361" s="3"/>
       <c r="E361" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="3" t="s">
@@ -48545,12 +48569,14 @@
     <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="8"/>
       <c r="B362" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C362" s="3"/>
+        <v>655</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D362" s="3"/>
       <c r="E362" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F362" s="3"/>
       <c r="G362" s="3" t="s">
@@ -48570,12 +48596,14 @@
     <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="8"/>
       <c r="B363" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C363" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D363" s="3"/>
       <c r="E363" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F363" s="3"/>
       <c r="G363" s="3" t="s">
@@ -48595,12 +48623,14 @@
     <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="8"/>
       <c r="B364" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C364" s="3"/>
+        <v>657</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D364" s="3"/>
       <c r="E364" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F364" s="3"/>
       <c r="G364" s="3" t="s">
@@ -48620,9 +48650,11 @@
     <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="8"/>
       <c r="B365" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C365" s="3"/>
+        <v>1229</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D365" s="3"/>
       <c r="E365" s="3" t="s">
         <v>17</v>
@@ -48644,21 +48676,21 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="B366" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="C366" s="3"/>
+        <v>659</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D366" s="3" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F366" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F366" s="3"/>
       <c r="G366" s="3" t="s">
         <v>17</v>
       </c>
@@ -48675,21 +48707,21 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="8" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C367" s="3"/>
+        <v>662</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D367" s="3" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F367" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F367" s="3"/>
       <c r="G367" s="3" t="s">
         <v>17</v>
       </c>
@@ -48707,9 +48739,11 @@
     <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="8"/>
       <c r="B368" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C368" s="3"/>
+        <v>664</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D368" s="3"/>
       <c r="E368" s="3" t="s">
         <v>17</v>
@@ -48731,21 +48765,21 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" s="8" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="B369" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="C369" s="3"/>
+        <v>666</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D369" s="3" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F369" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F369" s="3"/>
       <c r="G369" s="3" t="s">
         <v>17</v>
       </c>
@@ -48762,21 +48796,21 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" s="8" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="B370" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="C370" s="3"/>
+        <v>669</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D370" s="3" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F370" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F370" s="3"/>
       <c r="G370" s="3" t="s">
         <v>17</v>
       </c>
@@ -48793,21 +48827,21 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="B371" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="C371" s="3"/>
+        <v>672</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D371" s="19" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F371" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F371" s="3"/>
       <c r="G371" s="3" t="s">
         <v>17</v>
       </c>
@@ -48824,21 +48858,21 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C372" s="3"/>
+        <v>675</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D372" s="3" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F372" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F372" s="3"/>
       <c r="G372" s="3" t="s">
         <v>17</v>
       </c>
@@ -48856,9 +48890,11 @@
     <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" s="8"/>
       <c r="B373" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="C373" s="3"/>
+        <v>677</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D373" s="3"/>
       <c r="E373" s="3" t="s">
         <v>17</v>
@@ -48880,21 +48916,21 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="8" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="C374" s="3"/>
+        <v>679</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D374" s="3" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F374" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F374" s="3"/>
       <c r="G374" s="3" t="s">
         <v>17</v>
       </c>
@@ -48912,9 +48948,11 @@
     <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" s="8"/>
       <c r="B375" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C375" s="3"/>
+        <v>681</v>
+      </c>
+      <c r="C375" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D375" s="3"/>
       <c r="E375" s="3" t="s">
         <v>17</v>
@@ -48936,21 +48974,21 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="8" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C376" s="3"/>
+        <v>683</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D376" s="3" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F376" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F376" s="3"/>
       <c r="G376" s="3" t="s">
         <v>17</v>
       </c>
@@ -48968,9 +49006,11 @@
     <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="8"/>
       <c r="B377" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C377" s="3"/>
+        <v>685</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D377" s="3"/>
       <c r="E377" s="3" t="s">
         <v>17</v>
@@ -48992,21 +49032,21 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="8" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="B378" s="22" t="s">
-        <v>701</v>
-      </c>
-      <c r="C378" s="3"/>
+        <v>687</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D378" s="19" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="E378" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F378" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F378" s="3"/>
       <c r="G378" s="3" t="s">
         <v>17</v>
       </c>
@@ -49023,21 +49063,21 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" s="8" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C379" s="3"/>
+        <v>690</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D379" s="3" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F379" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F379" s="3"/>
       <c r="G379" s="3" t="s">
         <v>17</v>
       </c>
@@ -49054,12 +49094,14 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="C380" s="3"/>
+        <v>693</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D380" s="3"/>
       <c r="E380" s="3" t="s">
         <v>17</v>
@@ -49081,12 +49123,14 @@
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" s="8" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="C381" s="3"/>
+        <v>695</v>
+      </c>
+      <c r="C381" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D381" s="3"/>
       <c r="E381" s="3" t="s">
         <v>17</v>
@@ -49108,21 +49152,21 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" s="8" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C382" s="3"/>
+        <v>697</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D382" s="3" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="E382" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F382" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F382" s="3"/>
       <c r="G382" s="3" t="s">
         <v>17</v>
       </c>
@@ -49139,21 +49183,21 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="8" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="C383" s="3"/>
+        <v>699</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D383" s="3" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F383" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F383" s="3"/>
       <c r="G383" s="3" t="s">
         <v>17</v>
       </c>
@@ -49170,12 +49214,14 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="8" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C384" s="3"/>
+        <v>702</v>
+      </c>
+      <c r="C384" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D384" s="3"/>
       <c r="E384" s="3" t="s">
         <v>17</v>
@@ -49197,12 +49243,14 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C385" s="3"/>
+        <v>704</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D385" s="3"/>
       <c r="E385" s="3" t="s">
         <v>17</v>
@@ -49224,21 +49272,21 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C386" s="3"/>
+        <v>706</v>
+      </c>
+      <c r="C386" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D386" s="3" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="E386" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F386" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F386" s="3"/>
       <c r="G386" s="3" t="s">
         <v>17</v>
       </c>
@@ -49255,21 +49303,21 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="B387" s="22" t="s">
-        <v>722</v>
-      </c>
-      <c r="C387" s="3"/>
+        <v>708</v>
+      </c>
+      <c r="C387" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D387" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F387" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F387" s="3"/>
       <c r="G387" s="3" t="s">
         <v>17</v>
       </c>
@@ -49286,21 +49334,21 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="B388" s="22" t="s">
-        <v>725</v>
-      </c>
-      <c r="C388" s="3"/>
+        <v>711</v>
+      </c>
+      <c r="C388" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D388" s="3" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F388" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F388" s="3"/>
       <c r="G388" s="3" t="s">
         <v>17</v>
       </c>
@@ -49317,21 +49365,21 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="B389" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="C389" s="3"/>
+        <v>714</v>
+      </c>
+      <c r="C389" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D389" s="3" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="E389" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F389" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F389" s="3"/>
       <c r="G389" s="3" t="s">
         <v>17</v>
       </c>
@@ -49348,21 +49396,21 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="B390" s="22" t="s">
-        <v>731</v>
-      </c>
-      <c r="C390" s="3"/>
+        <v>717</v>
+      </c>
+      <c r="C390" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D390" s="3" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="E390" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F390" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="F390" s="22"/>
       <c r="G390" s="3" t="s">
         <v>17</v>
       </c>
@@ -49379,21 +49427,21 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="B391" s="22" t="s">
-        <v>735</v>
-      </c>
-      <c r="C391" s="3"/>
+        <v>720</v>
+      </c>
+      <c r="C391" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D391" s="3" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F391" s="3" t="s">
-        <v>737</v>
-      </c>
+      <c r="F391" s="3"/>
       <c r="G391" s="3" t="s">
         <v>17</v>
       </c>
@@ -49410,12 +49458,14 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="B392" s="22" t="s">
-        <v>739</v>
-      </c>
-      <c r="C392" s="3"/>
+        <v>723</v>
+      </c>
+      <c r="C392" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D392" s="3"/>
       <c r="E392" s="3" t="s">
         <v>17</v>
@@ -49437,21 +49487,21 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" s="8" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="B393" s="22" t="s">
-        <v>741</v>
-      </c>
-      <c r="C393" s="3"/>
+        <v>725</v>
+      </c>
+      <c r="C393" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D393" s="3" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F393" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F393" s="3"/>
       <c r="G393" s="3" t="s">
         <v>17</v>
       </c>
@@ -49468,21 +49518,21 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="B394" s="22" t="s">
-        <v>743</v>
-      </c>
-      <c r="C394" s="3"/>
+        <v>727</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D394" s="3" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="E394" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F394" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F394" s="3"/>
       <c r="G394" s="3" t="s">
         <v>17</v>
       </c>
@@ -49499,21 +49549,21 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="B395" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="C395" s="3"/>
+        <v>730</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D395" s="3" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F395" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F395" s="3"/>
       <c r="G395" s="3" t="s">
         <v>17</v>
       </c>
@@ -49530,12 +49580,14 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="B396" s="3"/>
-      <c r="C396" s="3"/>
+      <c r="C396" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D396" s="3" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>17</v>
@@ -49557,21 +49609,21 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C397" s="3"/>
+        <v>735</v>
+      </c>
+      <c r="C397" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D397" s="3" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F397" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F397" s="3"/>
       <c r="G397" s="3" t="s">
         <v>17</v>
       </c>
@@ -49588,14 +49640,16 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="C398" s="3"/>
+        <v>737</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D398" s="3" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>17</v>
@@ -49617,12 +49671,14 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" s="8" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="C399" s="3"/>
+        <v>739</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D399" s="3"/>
       <c r="E399" s="3" t="s">
         <v>17</v>
@@ -49644,12 +49700,14 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="C400" s="3"/>
+        <v>741</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D400" s="3"/>
       <c r="E400" s="3" t="s">
         <v>17</v>
@@ -49671,21 +49729,21 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" s="8" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="B401" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="C401" s="3"/>
+        <v>743</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D401" s="3" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F401" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F401" s="3"/>
       <c r="G401" s="3" t="s">
         <v>17</v>
       </c>
@@ -49702,12 +49760,14 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="B402" s="22" t="s">
-        <v>761</v>
-      </c>
-      <c r="C402" s="3"/>
+        <v>745</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D402" s="3"/>
       <c r="E402" s="3" t="s">
         <v>17</v>
@@ -49729,12 +49789,14 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" s="8" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C403" s="3"/>
+        <v>747</v>
+      </c>
+      <c r="C403" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D403" s="3"/>
       <c r="E403" s="3" t="s">
         <v>17</v>
@@ -49756,12 +49818,14 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="B404" s="22" t="s">
-        <v>765</v>
-      </c>
-      <c r="C404" s="3"/>
+        <v>749</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D404" s="3"/>
       <c r="E404" s="3" t="s">
         <v>17</v>
@@ -49783,21 +49847,21 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" s="8" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="B405" s="22" t="s">
-        <v>767</v>
-      </c>
-      <c r="C405" s="3"/>
+        <v>751</v>
+      </c>
+      <c r="C405" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D405" s="3" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F405" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F405" s="3"/>
       <c r="G405" s="3" t="s">
         <v>17</v>
       </c>
@@ -49814,14 +49878,16 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="C406" s="3"/>
+        <v>754</v>
+      </c>
+      <c r="C406" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D406" s="3" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>17</v>
@@ -49843,12 +49909,14 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="B407" s="3"/>
-      <c r="C407" s="3"/>
+      <c r="C407" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D407" s="3" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>17</v>
@@ -49870,21 +49938,21 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" s="8" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="C408" s="3"/>
+        <v>759</v>
+      </c>
+      <c r="C408" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D408" s="19" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="E408" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F408" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F408" s="3"/>
       <c r="G408" s="3" t="s">
         <v>17</v>
       </c>
@@ -49901,12 +49969,14 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" s="8" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C409" s="3"/>
+        <v>762</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D409" s="3"/>
       <c r="E409" s="3" t="s">
         <v>17</v>
@@ -49928,21 +49998,21 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" s="8" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="B410" s="22" t="s">
-        <v>780</v>
-      </c>
-      <c r="C410" s="3"/>
+        <v>764</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D410" s="3" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F410" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F410" s="3"/>
       <c r="G410" s="3" t="s">
         <v>17</v>
       </c>
@@ -49959,21 +50029,21 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" s="8" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="B411" s="22" t="s">
-        <v>783</v>
-      </c>
-      <c r="C411" s="3"/>
+        <v>767</v>
+      </c>
+      <c r="C411" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D411" s="3" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F411" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F411" s="3"/>
       <c r="G411" s="3" t="s">
         <v>17</v>
       </c>
@@ -49990,21 +50060,21 @@
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" s="8" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="B412" s="22" t="s">
-        <v>786</v>
-      </c>
-      <c r="C412" s="3"/>
+        <v>770</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D412" s="3" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="E412" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F412" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F412" s="3"/>
       <c r="G412" s="3" t="s">
         <v>17</v>
       </c>
@@ -50021,12 +50091,14 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" s="8" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="B413" s="3"/>
-      <c r="C413" s="3"/>
+      <c r="C413" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D413" s="3" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="E413" s="3" t="s">
         <v>17</v>
@@ -50048,21 +50120,21 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="C414" s="3"/>
+        <v>775</v>
+      </c>
+      <c r="C414" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D414" s="3" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="E414" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F414" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F414" s="3"/>
       <c r="G414" s="3" t="s">
         <v>17</v>
       </c>
@@ -50079,12 +50151,14 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" s="8" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="C415" s="3"/>
+        <v>778</v>
+      </c>
+      <c r="C415" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D415" s="3"/>
       <c r="E415" s="3" t="s">
         <v>17</v>
@@ -50106,21 +50180,21 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" s="8" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="C416" s="3"/>
+        <v>780</v>
+      </c>
+      <c r="C416" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D416" s="3" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F416" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F416" s="3"/>
       <c r="G416" s="3" t="s">
         <v>17</v>
       </c>
@@ -50137,12 +50211,14 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" s="8" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C417" s="3"/>
+        <v>783</v>
+      </c>
+      <c r="C417" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D417" s="3"/>
       <c r="E417" s="3" t="s">
         <v>17</v>
@@ -50164,21 +50240,21 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" s="8" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="C418" s="3"/>
+        <v>785</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D418" s="3" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F418" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F418" s="3"/>
       <c r="G418" s="3" t="s">
         <v>17</v>
       </c>
@@ -50195,14 +50271,16 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" s="8" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C419" s="3"/>
+        <v>788</v>
+      </c>
+      <c r="C419" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D419" s="3" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E419" s="3" t="s">
         <v>17</v>
@@ -50224,14 +50302,16 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" s="8" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="C420" s="3"/>
+        <v>791</v>
+      </c>
+      <c r="C420" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D420" s="3" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>17</v>
@@ -50253,14 +50333,16 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" s="8" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="C421" s="3"/>
+        <v>794</v>
+      </c>
+      <c r="C421" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D421" s="3" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>17</v>
@@ -50282,12 +50364,14 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" s="8" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="C422" s="3"/>
+        <v>797</v>
+      </c>
+      <c r="C422" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D422" s="3"/>
       <c r="E422" s="3" t="s">
         <v>17</v>
@@ -50309,12 +50393,14 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423" s="8" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="C423" s="3"/>
+        <v>799</v>
+      </c>
+      <c r="C423" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D423" s="3"/>
       <c r="E423" s="3" t="s">
         <v>17</v>
@@ -50336,12 +50422,14 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" s="8" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="C424" s="3"/>
+        <v>801</v>
+      </c>
+      <c r="C424" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D424" s="3"/>
       <c r="E424" s="3" t="s">
         <v>17</v>
@@ -50363,12 +50451,14 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425" s="8" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="C425" s="3"/>
+        <v>803</v>
+      </c>
+      <c r="C425" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D425" s="3"/>
       <c r="E425" s="3" t="s">
         <v>17</v>
@@ -50390,21 +50480,21 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" s="8" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="C426" s="3"/>
+        <v>805</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D426" s="3" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="E426" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F426" s="3" t="s">
-        <v>620</v>
-      </c>
+      <c r="F426" s="3"/>
       <c r="G426" s="3" t="s">
         <v>17</v>
       </c>
@@ -50421,12 +50511,14 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" s="8" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="C427" s="3"/>
+        <v>808</v>
+      </c>
+      <c r="C427" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D427" s="3"/>
       <c r="E427" s="3" t="s">
         <v>17</v>
@@ -50449,9 +50541,11 @@
     <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" s="8"/>
       <c r="B428" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="C428" s="3"/>
+        <v>809</v>
+      </c>
+      <c r="C428" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D428" s="3"/>
       <c r="E428" s="3" t="s">
         <v>17</v>
@@ -50474,9 +50568,11 @@
     <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" s="8"/>
       <c r="B429" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="C429" s="3"/>
+        <v>810</v>
+      </c>
+      <c r="C429" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D429" s="3"/>
       <c r="E429" s="3" t="s">
         <v>17</v>
@@ -50499,9 +50595,11 @@
     <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" s="8"/>
       <c r="B430" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="C430" s="3"/>
+        <v>811</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D430" s="3"/>
       <c r="E430" s="3" t="s">
         <v>17</v>
@@ -50524,9 +50622,11 @@
     <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" s="8"/>
       <c r="B431" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="C431" s="3"/>
+        <v>812</v>
+      </c>
+      <c r="C431" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D431" s="3"/>
       <c r="E431" s="3" t="s">
         <v>17</v>
@@ -50548,14 +50648,16 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="B432" s="33" t="s">
-        <v>830</v>
-      </c>
-      <c r="C432" s="3"/>
+        <v>814</v>
+      </c>
+      <c r="C432" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D432" s="3" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="E432" s="3" t="s">
         <v>17</v>
@@ -50577,14 +50679,16 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" s="8" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="B433" s="33" t="s">
-        <v>833</v>
-      </c>
-      <c r="C433" s="3"/>
+        <v>817</v>
+      </c>
+      <c r="C433" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D433" s="32" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>17</v>
@@ -50606,14 +50710,16 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" s="8" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="B434" s="33" t="s">
-        <v>836</v>
-      </c>
-      <c r="C434" s="3"/>
+        <v>820</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D434" s="32" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="E434" s="3" t="s">
         <v>17</v>
@@ -50635,12 +50741,14 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" s="8" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="B435" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="C435" s="3"/>
+      <c r="C435" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D435" s="32" t="s">
         <v>611</v>
       </c>
@@ -50664,14 +50772,16 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="B436" s="33" t="s">
-        <v>841</v>
-      </c>
-      <c r="C436" s="3"/>
+        <v>825</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D436" s="32" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="E436" s="3" t="s">
         <v>17</v>
@@ -50694,9 +50804,11 @@
     <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" s="8"/>
       <c r="B437" s="33"/>
-      <c r="C437" s="3"/>
+      <c r="C437" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D437" s="32" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>17</v>
@@ -50719,9 +50831,11 @@
     <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" s="8"/>
       <c r="B438" s="33"/>
-      <c r="C438" s="3"/>
+      <c r="C438" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D438" s="32" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="E438" s="3" t="s">
         <v>17</v>
@@ -50743,14 +50857,16 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" s="8" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="B439" s="33" t="s">
-        <v>846</v>
-      </c>
-      <c r="C439" s="3"/>
+        <v>830</v>
+      </c>
+      <c r="C439" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D439" s="32" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>17</v>
@@ -50773,11 +50889,13 @@
     <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" s="8"/>
       <c r="B440" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="C440" s="3"/>
+        <v>831</v>
+      </c>
+      <c r="C440" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D440" s="34" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>17</v>
@@ -50800,11 +50918,13 @@
     <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" s="8"/>
       <c r="B441" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="C441" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="C441" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D441" s="34" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="E441" s="3" t="s">
         <v>17</v>
@@ -50826,14 +50946,16 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" s="8" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="B442" s="33" t="s">
-        <v>850</v>
-      </c>
-      <c r="C442" s="3"/>
+        <v>834</v>
+      </c>
+      <c r="C442" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D442" s="32" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="E442" s="3" t="s">
         <v>17</v>
@@ -50855,14 +50977,16 @@
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" s="8" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="C443" s="3"/>
+        <v>837</v>
+      </c>
+      <c r="C443" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D443" s="32" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E443" s="3" t="s">
         <v>17</v>
@@ -50878,7 +51002,7 @@
         <v>17</v>
       </c>
       <c r="J443" s="8" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="K443" s="3"/>
       <c r="L443" s="3"/>
@@ -50887,9 +51011,11 @@
     <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" s="8"/>
       <c r="B444" s="33" t="s">
-        <v>855</v>
-      </c>
-      <c r="C444" s="3"/>
+        <v>839</v>
+      </c>
+      <c r="C444" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D444" s="3"/>
       <c r="E444" s="3" t="s">
         <v>17</v>
@@ -50905,7 +51031,7 @@
         <v>17</v>
       </c>
       <c r="J444" s="8" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
@@ -50913,14 +51039,16 @@
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445" s="8" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="B445" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="C445" s="3"/>
+        <v>842</v>
+      </c>
+      <c r="C445" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D445" s="32" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E445" s="3" t="s">
         <v>17</v>
@@ -50936,7 +51064,7 @@
         <v>17</v>
       </c>
       <c r="J445" s="8" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="K445" s="3"/>
       <c r="L445" s="3"/>
@@ -50944,14 +51072,16 @@
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" s="8" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="B446" s="33" t="s">
-        <v>862</v>
-      </c>
-      <c r="C446" s="3"/>
+        <v>846</v>
+      </c>
+      <c r="C446" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D446" s="32" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="E446" s="3" t="s">
         <v>17</v>
@@ -50967,7 +51097,7 @@
         <v>17</v>
       </c>
       <c r="J446" s="8" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="K446" s="3"/>
       <c r="L446" s="3"/>
@@ -50976,9 +51106,11 @@
     <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447" s="8"/>
       <c r="B447" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="C447" s="3"/>
+        <v>849</v>
+      </c>
+      <c r="C447" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D447" s="32"/>
       <c r="E447" s="3" t="s">
         <v>17</v>
@@ -50994,7 +51126,7 @@
         <v>17</v>
       </c>
       <c r="J447" s="8" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
@@ -51002,14 +51134,16 @@
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448" s="8" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="B448" s="33" t="s">
-        <v>868</v>
-      </c>
-      <c r="C448" s="3"/>
+        <v>852</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D448" s="32" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>17</v>
@@ -51025,7 +51159,7 @@
         <v>17</v>
       </c>
       <c r="J448" s="8" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
@@ -51033,14 +51167,16 @@
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" s="8" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="B449" s="33" t="s">
-        <v>872</v>
-      </c>
-      <c r="C449" s="3"/>
+        <v>856</v>
+      </c>
+      <c r="C449" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D449" s="32" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>17</v>
@@ -51056,7 +51192,7 @@
         <v>17</v>
       </c>
       <c r="J449" s="8" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
@@ -51064,14 +51200,16 @@
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" s="8" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="B450" s="33" t="s">
-        <v>876</v>
-      </c>
-      <c r="C450" s="3"/>
+        <v>860</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D450" s="32" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="E450" s="3" t="s">
         <v>17</v>
@@ -51087,7 +51225,7 @@
         <v>17</v>
       </c>
       <c r="J450" s="8" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="K450" s="3"/>
       <c r="L450" s="3"/>
@@ -51095,14 +51233,16 @@
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451" s="8" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="B451" s="33" t="s">
-        <v>880</v>
-      </c>
-      <c r="C451" s="3"/>
+        <v>864</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D451" s="32" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>17</v>
@@ -51118,7 +51258,7 @@
         <v>17</v>
       </c>
       <c r="J451" s="8" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="K451" s="3"/>
       <c r="L451" s="3"/>
@@ -51127,9 +51267,11 @@
     <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452" s="8"/>
       <c r="B452" s="33" t="s">
-        <v>883</v>
-      </c>
-      <c r="C452" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D452" s="3"/>
       <c r="E452" s="3" t="s">
         <v>17</v>
@@ -51151,14 +51293,16 @@
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453" s="8" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="B453" s="33" t="s">
-        <v>885</v>
-      </c>
-      <c r="C453" s="3"/>
+        <v>869</v>
+      </c>
+      <c r="C453" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D453" s="32" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>17</v>
@@ -51180,13 +51324,19 @@
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="B454" s="33"/>
-      <c r="C454" s="3"/>
-      <c r="D454" s="3"/>
+        <v>871</v>
+      </c>
+      <c r="B454" s="33" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C454" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>1230</v>
+      </c>
       <c r="E454" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F454" s="3"/>
       <c r="G454" s="3" t="s">
@@ -51205,11 +51355,15 @@
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455" s="8"/>
-      <c r="B455" s="33"/>
-      <c r="C455" s="3"/>
+      <c r="B455" s="33" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C455" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D455" s="3"/>
       <c r="E455" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F455" s="3"/>
       <c r="G455" s="3" t="s">
@@ -51228,11 +51382,15 @@
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456" s="8"/>
-      <c r="B456" s="33"/>
-      <c r="C456" s="3"/>
+      <c r="B456" s="33" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C456" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D456" s="3"/>
       <c r="E456" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F456" s="3"/>
       <c r="G456" s="3" t="s">
@@ -51251,11 +51409,15 @@
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A457" s="8"/>
-      <c r="B457" s="33"/>
-      <c r="C457" s="3"/>
+      <c r="B457" s="33" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C457" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D457" s="3"/>
       <c r="E457" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F457" s="3"/>
       <c r="G457" s="3" t="s">
@@ -51275,7 +51437,9 @@
     <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458" s="8"/>
       <c r="B458" s="33"/>
-      <c r="C458" s="3"/>
+      <c r="C458" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D458" s="3"/>
       <c r="E458" s="3" t="s">
         <v>17</v>
@@ -51298,7 +51462,9 @@
     <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459" s="8"/>
       <c r="B459" s="33"/>
-      <c r="C459" s="3"/>
+      <c r="C459" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D459" s="3"/>
       <c r="E459" s="3" t="s">
         <v>17</v>
@@ -51321,7 +51487,9 @@
     <row r="460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A460" s="8"/>
       <c r="B460" s="33"/>
-      <c r="C460" s="3"/>
+      <c r="C460" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D460" s="3"/>
       <c r="E460" s="3" t="s">
         <v>17</v>
@@ -51344,7 +51512,9 @@
     <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461" s="8"/>
       <c r="B461" s="3"/>
-      <c r="C461" s="3"/>
+      <c r="C461" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D461" s="3"/>
       <c r="E461" s="3" t="s">
         <v>17</v>
@@ -51367,7 +51537,9 @@
     <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A462" s="8"/>
       <c r="B462" s="3"/>
-      <c r="C462" s="3"/>
+      <c r="C462" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D462" s="3"/>
       <c r="E462" s="3" t="s">
         <v>17</v>
@@ -51390,7 +51562,9 @@
     <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463" s="8"/>
       <c r="B463" s="3"/>
-      <c r="C463" s="3"/>
+      <c r="C463" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D463" s="3"/>
       <c r="E463" s="3" t="s">
         <v>17</v>
@@ -51413,7 +51587,9 @@
     <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464" s="8"/>
       <c r="B464" s="3"/>
-      <c r="C464" s="3"/>
+      <c r="C464" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D464" s="3"/>
       <c r="E464" s="3" t="s">
         <v>17</v>
@@ -51436,7 +51612,9 @@
     <row r="465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A465" s="8"/>
       <c r="B465" s="3"/>
-      <c r="C465" s="3"/>
+      <c r="C465" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D465" s="3"/>
       <c r="E465" s="3" t="s">
         <v>17</v>
@@ -51459,7 +51637,9 @@
     <row r="466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A466" s="8"/>
       <c r="B466" s="3"/>
-      <c r="C466" s="3"/>
+      <c r="C466" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D466" s="3"/>
       <c r="E466" s="3" t="s">
         <v>17</v>
@@ -51482,7 +51662,9 @@
     <row r="467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A467" s="8"/>
       <c r="B467" s="3"/>
-      <c r="C467" s="3"/>
+      <c r="C467" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D467" s="3"/>
       <c r="E467" s="3" t="s">
         <v>17</v>
@@ -51505,7 +51687,9 @@
     <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468" s="8"/>
       <c r="B468" s="3"/>
-      <c r="C468" s="3"/>
+      <c r="C468" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D468" s="3"/>
       <c r="E468" s="3" t="s">
         <v>17</v>
@@ -51528,7 +51712,9 @@
     <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469" s="8"/>
       <c r="B469" s="3"/>
-      <c r="C469" s="3"/>
+      <c r="C469" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D469" s="3"/>
       <c r="E469" s="3" t="s">
         <v>17</v>
@@ -51551,7 +51737,9 @@
     <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470" s="8"/>
       <c r="B470" s="3"/>
-      <c r="C470" s="3"/>
+      <c r="C470" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3" t="s">
         <v>17</v>
@@ -51574,7 +51762,9 @@
     <row r="471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A471" s="8"/>
       <c r="B471" s="3"/>
-      <c r="C471" s="3"/>
+      <c r="C471" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D471" s="3"/>
       <c r="E471" s="3" t="s">
         <v>17</v>
@@ -51597,7 +51787,9 @@
     <row r="472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A472" s="8"/>
       <c r="B472" s="3"/>
-      <c r="C472" s="3"/>
+      <c r="C472" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D472" s="3"/>
       <c r="E472" s="3" t="s">
         <v>17</v>
@@ -51620,7 +51812,9 @@
     <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473" s="8"/>
       <c r="B473" s="3"/>
-      <c r="C473" s="3"/>
+      <c r="C473" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D473" s="3"/>
       <c r="E473" s="3" t="s">
         <v>17</v>
@@ -51643,7 +51837,9 @@
     <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474" s="8"/>
       <c r="B474" s="3"/>
-      <c r="C474" s="3"/>
+      <c r="C474" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D474" s="3"/>
       <c r="E474" s="3" t="s">
         <v>17</v>
@@ -51666,7 +51862,9 @@
     <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475" s="8"/>
       <c r="B475" s="3"/>
-      <c r="C475" s="3"/>
+      <c r="C475" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D475" s="3"/>
       <c r="E475" s="3" t="s">
         <v>17</v>
@@ -51689,7 +51887,9 @@
     <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476" s="8"/>
       <c r="B476" s="3"/>
-      <c r="C476" s="3"/>
+      <c r="C476" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D476" s="3"/>
       <c r="E476" s="3" t="s">
         <v>17</v>
@@ -51712,7 +51912,9 @@
     <row r="477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A477" s="8"/>
       <c r="B477" s="3"/>
-      <c r="C477" s="3"/>
+      <c r="C477" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D477" s="3"/>
       <c r="E477" s="3" t="s">
         <v>17</v>
@@ -51735,7 +51937,9 @@
     <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478" s="8"/>
       <c r="B478" s="3"/>
-      <c r="C478" s="3"/>
+      <c r="C478" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D478" s="3"/>
       <c r="E478" s="3" t="s">
         <v>17</v>
@@ -51758,7 +51962,9 @@
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479" s="8"/>
       <c r="B479" s="3"/>
-      <c r="C479" s="3"/>
+      <c r="C479" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D479" s="3"/>
       <c r="E479" s="3" t="s">
         <v>17</v>
@@ -51781,7 +51987,9 @@
     <row r="480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A480" s="8"/>
       <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
+      <c r="C480" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D480" s="3"/>
       <c r="E480" s="3" t="s">
         <v>17</v>
@@ -51804,7 +52012,9 @@
     <row r="481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A481" s="8"/>
       <c r="B481" s="3"/>
-      <c r="C481" s="3"/>
+      <c r="C481" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D481" s="3"/>
       <c r="E481" s="3" t="s">
         <v>17</v>
@@ -51827,7 +52037,9 @@
     <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A482" s="8"/>
       <c r="B482" s="3"/>
-      <c r="C482" s="3"/>
+      <c r="C482" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D482" s="3"/>
       <c r="E482" s="3" t="s">
         <v>17</v>
@@ -51850,7 +52062,9 @@
     <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483" s="8"/>
       <c r="B483" s="3"/>
-      <c r="C483" s="3"/>
+      <c r="C483" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D483" s="3"/>
       <c r="E483" s="3" t="s">
         <v>17</v>
@@ -51873,7 +52087,9 @@
     <row r="484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A484" s="8"/>
       <c r="B484" s="3"/>
-      <c r="C484" s="3"/>
+      <c r="C484" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D484" s="3"/>
       <c r="E484" s="3" t="s">
         <v>17</v>
@@ -51896,7 +52112,9 @@
     <row r="485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A485" s="8"/>
       <c r="B485" s="3"/>
-      <c r="C485" s="3"/>
+      <c r="C485" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D485" s="3"/>
       <c r="E485" s="3" t="s">
         <v>17</v>
@@ -51919,7 +52137,9 @@
     <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486" s="8"/>
       <c r="B486" s="3"/>
-      <c r="C486" s="3"/>
+      <c r="C486" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D486" s="3"/>
       <c r="E486" s="3" t="s">
         <v>17</v>
@@ -51942,7 +52162,9 @@
     <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487" s="8"/>
       <c r="B487" s="3"/>
-      <c r="C487" s="3"/>
+      <c r="C487" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D487" s="3"/>
       <c r="E487" s="3" t="s">
         <v>17</v>
@@ -51965,7 +52187,9 @@
     <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488" s="8"/>
       <c r="B488" s="3"/>
-      <c r="C488" s="3"/>
+      <c r="C488" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D488" s="3"/>
       <c r="E488" s="3" t="s">
         <v>17</v>
@@ -51988,7 +52212,9 @@
     <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489" s="8"/>
       <c r="B489" s="3"/>
-      <c r="C489" s="3"/>
+      <c r="C489" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D489" s="3"/>
       <c r="E489" s="3" t="s">
         <v>17</v>
@@ -52011,7 +52237,9 @@
     <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490" s="8"/>
       <c r="B490" s="3"/>
-      <c r="C490" s="3"/>
+      <c r="C490" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D490" s="3"/>
       <c r="E490" s="3" t="s">
         <v>17</v>
@@ -52034,7 +52262,9 @@
     <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491" s="8"/>
       <c r="B491" s="3"/>
-      <c r="C491" s="3"/>
+      <c r="C491" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D491" s="3"/>
       <c r="E491" s="3" t="s">
         <v>17</v>
@@ -52057,7 +52287,9 @@
     <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492" s="8"/>
       <c r="B492" s="3"/>
-      <c r="C492" s="3"/>
+      <c r="C492" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D492" s="3"/>
       <c r="E492" s="3" t="s">
         <v>17</v>
@@ -52080,7 +52312,9 @@
     <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493" s="8"/>
       <c r="B493" s="3"/>
-      <c r="C493" s="3"/>
+      <c r="C493" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D493" s="3"/>
       <c r="E493" s="3" t="s">
         <v>17</v>
@@ -52103,7 +52337,9 @@
     <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494" s="8"/>
       <c r="B494" s="3"/>
-      <c r="C494" s="3"/>
+      <c r="C494" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D494" s="3"/>
       <c r="E494" s="3" t="s">
         <v>17</v>
@@ -52126,7 +52362,9 @@
     <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495" s="8"/>
       <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
+      <c r="C495" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D495" s="3"/>
       <c r="E495" s="3" t="s">
         <v>17</v>
@@ -52149,7 +52387,9 @@
     <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496" s="8"/>
       <c r="B496" s="3"/>
-      <c r="C496" s="3"/>
+      <c r="C496" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D496" s="3"/>
       <c r="E496" s="3" t="s">
         <v>17</v>
@@ -52172,7 +52412,9 @@
     <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497" s="8"/>
       <c r="B497" s="3"/>
-      <c r="C497" s="3"/>
+      <c r="C497" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3" t="s">
         <v>17</v>
@@ -52195,7 +52437,9 @@
     <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498" s="8"/>
       <c r="B498" s="3"/>
-      <c r="C498" s="3"/>
+      <c r="C498" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D498" s="3"/>
       <c r="E498" s="3" t="s">
         <v>17</v>
@@ -52218,7 +52462,9 @@
     <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499" s="8"/>
       <c r="B499" s="3"/>
-      <c r="C499" s="3"/>
+      <c r="C499" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D499" s="3"/>
       <c r="E499" s="3" t="s">
         <v>17</v>
@@ -55713,117 +55959,109 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 E293:I294 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G295:I650 E295:F389">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G362:I650 E362:F389 E293:I361">
+    <cfRule type="cellIs" dxfId="22" priority="41" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsBlanks" dxfId="38" priority="40">
+    <cfRule type="containsBlanks" dxfId="21" priority="44">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="37" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="46">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 E293:I294 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G295:I650 E295:F389">
-    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="no">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G362:I650 E362:F389 E293:I361">
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 E293:I294 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G295:I650 E295:F389">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G362:I650 E362:F389 E293:I361">
+    <cfRule type="cellIs" dxfId="18" priority="37" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E291 E293:E1048576">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="34" operator="equal">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C222 C248:C253 C403 C444:C1048576 C406:C442 C255:C291 C225:C245 C1:C215 C293:C401 K2:K650">
-    <cfRule type="cellIs" dxfId="33" priority="22" operator="equal">
+  <conditionalFormatting sqref="C222 C248:C253 C255:C291 C225:C245 C1:C215 C293:C347 C349:C350 K2:K650 C352:C1048576">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M651:M1048576 L1:L650">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C217:C221">
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
-      <formula>"BLOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C402">
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
-      <formula>"HIDE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
-      <formula>"BLOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C404">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
-      <formula>"HIDE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
-      <formula>"BLOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C405">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
-      <formula>"HIDE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E292:F292">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E292:F292">
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E292:F292">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E292">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C348">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C351">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C217:C222 C444:C650 C247:C253 C225:C245 C2:C215 C255:C442 K2:K650" xr:uid="{C86B4AFF-5E8A-434F-8C71-AF2F0D18C27F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C217:C222 C247:C253 C225:C245 C2:C215 K2:K650 C255:C650" xr:uid="{C86B4AFF-5E8A-434F-8C71-AF2F0D18C27F}">
       <formula1>"BLOCK, HIDE, POPUP, 3RD, 3RDPOPUP, AD, ADPOPUP, WHITE, WHITEDIM, WHITEPOPUP"</formula1>
     </dataValidation>
   </dataValidations>
@@ -55894,11 +56132,12 @@
     <hyperlink ref="D453" r:id="rId64" xr:uid="{8996FC64-2AC6-4E2B-B65D-1BC0F8A1C79A}"/>
     <hyperlink ref="D245" r:id="rId65" xr:uid="{22FF0BAA-3501-4ABA-89A2-7BC0C32356C8}"/>
     <hyperlink ref="D258" r:id="rId66" xr:uid="{3736C2C5-8A06-4CE5-9AA3-842DDD723EA2}"/>
+    <hyperlink ref="D351" r:id="rId67" xr:uid="{EC95E7B3-546E-40C6-BEFD-839824C6DAF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId67"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId68"/>
   <tableParts count="1">
-    <tablePart r:id="rId68"/>
+    <tablePart r:id="rId69"/>
   </tableParts>
 </worksheet>
 </file>
@@ -55915,1362 +56154,1362 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>1016</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>1042</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>1045</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>1046</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>1051</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>1053</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1054</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>1056</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>1058</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>1059</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>1065</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>1067</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>1077</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>1078</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>1081</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>1082</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>1087</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1090</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1092</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>1106</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>1107</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>1108</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>1109</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>1111</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>1112</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>1115</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>1116</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1117</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>1118</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1120</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>1121</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1122</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1123</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>1124</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>1125</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>1126</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>1127</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>1128</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>1129</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>1130</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>1142</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>1143</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -57293,24 +57532,24 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
       <c r="C2" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C3" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
       <c r="J3" s="23"/>
     </row>
@@ -57328,7 +57567,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
       <c r="C6" s="49" t="s">
         <v>441</v>
@@ -57344,10 +57583,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="45" t="s">
-        <v>1158</v>
+        <v>1142</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="D8" s="41"/>
       <c r="J8" s="3"/>
@@ -57360,7 +57599,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="44"/>
@@ -57386,46 +57625,46 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="45" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="41"/>
       <c r="E14" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="45" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
       <c r="E16" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="54" t="s">
-        <v>1167</v>
+        <v>1151</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="41"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -57439,245 +57678,245 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="42" t="s">
-        <v>1168</v>
+        <v>1152</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="44"/>
     </row>
     <row r="21" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="54" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="56"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
-        <v>1170</v>
+        <v>1154</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="44"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="45" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="41"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="45" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="41"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="42" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="45" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="41"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="42" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="45" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="41"/>
     </row>
     <row r="29" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="54" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="45" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="41"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="45" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="41"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="45" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="41"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="42" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="44"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="45" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="41"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="45" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="41"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="42" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="44"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="42" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="45" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="41"/>
     </row>
     <row r="39" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="C39" s="58"/>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="45" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="42" t="s">
-        <v>1189</v>
+        <v>1173</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="42" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="54" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="41"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="42" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="44"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="42" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="44"/>
     </row>
     <row r="46" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="52" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
       <c r="C46" s="53"/>
       <c r="D46" s="44"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="45" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="41"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="42" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="44"/>
     </row>
     <row r="49" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="54" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="56"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="45" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="41"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="45" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="41"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="42" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
       <c r="C52" s="43"/>
       <c r="D52" s="44"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="46" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="48"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="50" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">

--- a/filters.xlsx
+++ b/filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3062" documentId="10_ncr:40000_{64D241F3-B112-4CCD-BC7D-55A8ED89843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F36E9FF-F4D1-4B40-B615-C321B2F49C40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{E9FD23FB-91CC-456A-8FC2-31D5DC47E870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/filters.xlsx
+++ b/filters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\OneDrive\02_PROJEKTY\01_Projekty_praca\AdblockPlus\filter-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8172468D-2AC4-4FB3-B38F-1794BEE1B0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17756883-EF1E-4AE5-88EF-03E5760EE751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filters" sheetId="1" r:id="rId1"/>
@@ -5127,9 +5127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B351" sqref="B351"/>
+      <selection pane="topRight" activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44128,7 +44128,7 @@
       </c>
       <c r="F207" s="56"/>
       <c r="G207" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>17</v>
@@ -44159,7 +44159,7 @@
       </c>
       <c r="F208" s="56"/>
       <c r="G208" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>17</v>
@@ -44186,7 +44186,7 @@
       </c>
       <c r="F209" s="56"/>
       <c r="G209" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>17</v>
@@ -44281,7 +44281,7 @@
       </c>
       <c r="F212" s="56"/>
       <c r="G212" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>17</v>
@@ -45934,7 +45934,7 @@
         <v>16</v>
       </c>
       <c r="F270" s="58"/>
-      <c r="G270" s="27" t="s">
+      <c r="G270" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H270" s="27" t="s">
@@ -46137,7 +46137,7 @@
         <v>16</v>
       </c>
       <c r="F277" s="58"/>
-      <c r="G277" s="27" t="s">
+      <c r="G277" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H277" s="27" t="s">
@@ -47190,7 +47190,7 @@
         <v>16</v>
       </c>
       <c r="F313" s="58"/>
-      <c r="G313" s="27" t="s">
+      <c r="G313" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H313" s="27" t="s">
@@ -47679,7 +47679,7 @@
         <v>16</v>
       </c>
       <c r="F331" s="58"/>
-      <c r="G331" s="27" t="s">
+      <c r="G331" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H331" s="27" t="s">
@@ -47874,31 +47874,31 @@
       <c r="L337" s="3"/>
       <c r="M337" s="3"/>
     </row>
-    <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="14"/>
-      <c r="B338" s="12" t="s">
+    <row r="338" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="26"/>
+      <c r="B338" s="27" t="s">
         <v>615</v>
       </c>
-      <c r="C338" s="12" t="s">
+      <c r="C338" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E338" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F338" s="57"/>
-      <c r="G338" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H338" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I338" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J338" s="14"/>
-      <c r="K338" s="12"/>
-      <c r="L338" s="12"/>
-      <c r="M338" s="12"/>
+      <c r="E338" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F338" s="58"/>
+      <c r="G338" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H338" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I338" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J338" s="26"/>
+      <c r="K338" s="27"/>
+      <c r="L338" s="27"/>
+      <c r="M338" s="27"/>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="8" t="s">
@@ -51358,7 +51358,7 @@
       </c>
       <c r="F454" s="56"/>
       <c r="G454" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H454" s="3" t="s">
         <v>17</v>
@@ -51385,7 +51385,7 @@
       </c>
       <c r="F455" s="56"/>
       <c r="G455" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H455" s="3" t="s">
         <v>17</v>
@@ -51412,7 +51412,7 @@
       </c>
       <c r="F456" s="56"/>
       <c r="G456" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H456" s="3" t="s">
         <v>17</v>
@@ -51439,7 +51439,7 @@
       </c>
       <c r="F457" s="56"/>
       <c r="G457" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H457" s="3" t="s">
         <v>17</v>
@@ -55977,7 +55977,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G362:I650 E362:F389 E293:I361">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E214 E391:F1048576 E390 E217:E221 E27:F213 E222:F291 E215:F216 E293:F389 G1:I650">
     <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
@@ -55990,12 +55990,12 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G362:I650 E362:F389 E293:I361">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E214 E391:F1048576 E390 E217:E221 E27:F213 E222:F291 E215:F216 E293:F389 G1:I650">
     <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E27:F208 E214 G1:I208 E391:F1048576 E390 E210:F213 E217:E221 E209:I209 G292:I292 E222:F230 E231:I291 E215:F216 G210:I230 G362:I650 E362:F389 E293:I361">
+  <conditionalFormatting sqref="E1:F23 E24:E26 H651:J1048576 E214 E391:F1048576 E390 E217:E221 E27:F213 E222:F291 E215:F216 E293:F389 G1:I650">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
